--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="450">
   <si>
     <t>Supervisor</t>
   </si>
@@ -23,70 +23,1288 @@
     <t>Special Focus</t>
   </si>
   <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Naomi Campbell</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Jung-un</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asian politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Karl Marx</t>
+  </si>
+  <si>
+    <t>Das Capital and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting communism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry David</t>
+  </si>
+  <si>
+    <t>Curb Your Enthusiasm and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing TV comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Niles Crane</t>
+  </si>
+  <si>
+    <t>Psychiatry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psychoanalysis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>nurturing sibling rivalry in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sean Connery</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>lying badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Belushi</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Sir Lancelot</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting with swords in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>Capitalism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting capitalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Eastern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Woodward</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Marx Brothers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jay Gatsby</t>
+  </si>
+  <si>
+    <t>The Great Gatsby and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>throwing lavish parties in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kal El</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Sarah Connor</t>
+  </si>
+  <si>
+    <t>The Terminator and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Post-Apocalypse and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>amassing weapons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judge Joe Dredd</t>
+  </si>
+  <si>
+    <t>Mega-City One and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Bacon</t>
+  </si>
+  <si>
+    <t>Footloose and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Few Good Men and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>forming new social connections in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting greed in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting capitalism in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Modesty Blaise</t>
+  </si>
+  <si>
+    <t>Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pulling capers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christiane Amanpour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interviewing celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interviewing politicians in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chelsea Manning</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Sarah Palin</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>John Constantine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hellraiser and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>smoking Silk Cut cigarettes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nancy Drew</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interpreting evidence in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>Cycling and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheating and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>Christianity and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hedda Hopper</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading political gossip in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Blanche DuBois</t>
+  </si>
+  <si>
+    <t>A Street Car Named Desire and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sydney Bristow</t>
+  </si>
+  <si>
+    <t>kicking ass in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spying for the CIA in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ryan Reynolds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dumb comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Jessica Parker</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gordon Gekko</t>
+  </si>
+  <si>
+    <t>Wall Street and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Musical movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>insulting celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>Formula One and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Car Racing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>driving fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff Koons</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making modern art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry King</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Saga Norén</t>
+  </si>
+  <si>
+    <t>Scandinavian crime fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Montgomery Burns</t>
+  </si>
+  <si>
+    <t>Nuclear Power and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Janet Jackson</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>fawning on the boss in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> currying favour in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dominique Strauss-Kahn</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>throwing sex parties in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barbra Streisand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a smuggling business in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don Quixote</t>
+  </si>
+  <si>
+    <t>Spanish literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tilting at windmills in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> going on romantic quests in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rick Deckard</t>
+  </si>
+  <si>
+    <t>Blade Runner and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>retiring replicants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>Social Climbing and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High Society and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>forging art in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Expressionist art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expressionist painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting dark pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>stealing jewels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t>designing haute couture in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling perfumes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sam Winchester</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Svengali</t>
+  </si>
+  <si>
+    <t>the Music industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>manipulating ingenues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jane Eyre</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking after children in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Moby Dick and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whaling and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing a great white whale in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Loki Laufeyson</t>
+  </si>
+  <si>
+    <t>Norse mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Miles Davis</t>
+  </si>
+  <si>
+    <t>Cool Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fletcher Christian</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>expressing dissent in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Count Dracula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>sucking blood in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lars von Trier</t>
+  </si>
+  <si>
+    <t>Dogme and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making new wave movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  British class politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John McCain</t>
+  </si>
+  <si>
+    <t>running for the senate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making maverick choices in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marco Polo</t>
+  </si>
+  <si>
+    <t>the Age of Discovery and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
     <t>Kenny G</t>
   </si>
   <si>
-    <t>Easy Listening and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Light Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Saxophone music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Oprah Winfrey</t>
-  </si>
-  <si>
-    <t>Chat Shows and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
+    <t>Easy Listening and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Saxophone music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>Twilight and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Vampire world and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding growing old in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ray Kroc</t>
+  </si>
+  <si>
+    <t>McDonalds and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>fighting for civil rights in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Baron Munchausen</t>
+  </si>
+  <si>
+    <t>German literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>telling tall tales in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing lies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
   </si>
   <si>
     <t>Physics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Astronomy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ray Charles</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jay Leno</t>
-  </si>
-  <si>
-    <t>Late-night TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chat Shows and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NBC and the Cthulu-Dagon mythos</t>
+    <t xml:space="preserve"> Electricity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesse Pinkman</t>
+  </si>
+  <si>
+    <t>Breaking Bad and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking chrystal meth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simon Pegg</t>
+  </si>
+  <si>
+    <t>Nerd culture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>dressing up in cosplay costumes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting nerd culture  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Byron</t>
+  </si>
+  <si>
+    <t>English poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing romantic poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Offred</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Handmaid's Tale and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing household chores in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Horror fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing purple prose in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Late-night TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chat Shows and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CBS and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>William Shatner</t>
+  </si>
+  <si>
+    <t>Star Trek and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TJ Hooker and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priceline and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Israeli politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middle-Eastern politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>building giant walls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Henry Jekyll</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>suppressing violent urges in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>reporting the news in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lee Marvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Otto von Bismarck</t>
+  </si>
+  <si>
+    <t>German history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boudicca</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>flirting with rednecks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having meltdowns in public in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas Pynchon</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Selma Bouvier</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> watching MacGyver reruns in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> clipping coupons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing the saxophone in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-achieving at school in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keyser Söze</t>
+  </si>
+  <si>
+    <t>The Usual Suspects and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>performing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Malcolm X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting criminal schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Music industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting pop music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Monsieur Hulot</t>
+  </si>
+  <si>
+    <t>French comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>G. Gordon Liddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pulling dirty political tricks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johann von Goethe</t>
+  </si>
+  <si>
+    <t>German literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>Italian Fascism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fascism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asian politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Michelle Obama</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting feminism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jenna Maroney</t>
+  </si>
+  <si>
+    <t>30 Rock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Walt Whitman</t>
@@ -98,1264 +1316,52 @@
     <t>writing modern poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>American architecture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern architecture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>designing modern buildings in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Grisham</t>
-  </si>
-  <si>
-    <t>Legal fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Legal drama and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Courtroom dramas and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jenna Maroney</t>
-  </si>
-  <si>
-    <t>30 Rock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mao Tse-tung</t>
-  </si>
-  <si>
-    <t>China and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stormy Daniels</t>
-  </si>
-  <si>
-    <t>Pornography and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Porn movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Professor Hans Zarkov</t>
-  </si>
-  <si>
-    <t>Flash Gordon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>building rocket ships in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>A Christmas Carol and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Grace Jones</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Newt Gingrich</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Movie business and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Environment and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Matt Drudge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading political gossip in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>KFC and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fried Chicken and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Southern Food and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> English soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing political strategies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hotel business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>condescending to customers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas Jefferson</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>Fashion and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>mooching from neighbors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ivanka Trump</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Groundskeeper Willie MacDougal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cleaning floors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Jessica Parker</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking for friends in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Folk music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Protest songs and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing protest songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>Mad Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling contraband in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sylvester Stallone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sid Vicious</t>
-  </si>
-  <si>
-    <t>Punk rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing punk rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>writing comedy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing TV comedies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>Italian Fascism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fascism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Lady Macbeth</t>
-  </si>
-  <si>
-    <t>British politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Biology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DNA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Double Helix and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Wile E. Coyote</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>testing new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oedipus Rex</t>
-  </si>
-  <si>
-    <t>the Ancient world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving riddles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Victor Meldrew</t>
-  </si>
-  <si>
-    <t>Modern Britain and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>complaining about everything in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Plato</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>raising a family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Ballmer</t>
-  </si>
-  <si>
-    <t>Microsoft and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Software business and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Simone de Beauvoir</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Kim Jung-un</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asian politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding taxes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ashton Kutcher</t>
-  </si>
-  <si>
-    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ron Burgundy</t>
-  </si>
-  <si>
-    <t>Anchorman and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>reading the news in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Hanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing everyman characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>guarding the galaxy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gustavo Fring</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>selling chrystal meth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wesley Crusher</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>Dark Horse Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B.P.R.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sir Lancelot</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jor El</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Niccolò Paganini</t>
-  </si>
-  <si>
-    <t>Violin music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing the violin in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barney Stinson</t>
-  </si>
-  <si>
-    <t>How I Met Your Mother and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> womanizing in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Willie Nelson</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Father Ted</t>
-  </si>
-  <si>
-    <t>Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keyser Söze</t>
-  </si>
-  <si>
-    <t>The Usual Suspects and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>reporting the news in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe DiMaggio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baseball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing baseball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Norma Desmond</t>
-  </si>
-  <si>
-    <t>Sunset Boulevard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>clinging to past dreams in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting criminal schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Diana Ross</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Martin Luther</t>
-  </si>
-  <si>
-    <t>German history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lutheranism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>recruiting dissidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tim Burton</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Nancy Drew</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lucille Ball</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in sit-coms in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>CIA and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eluding capture in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alfred Nobel</t>
-  </si>
-  <si>
-    <t>Chemistry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting pacifism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>working out in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bette Davis</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Robbie Williams</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Take That and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Paris Hilton</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>playing intense characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Deadpool</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> punishing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing rap songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gore Vidal</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>R2D2</t>
-  </si>
-  <si>
-    <t>eluding imperial storm-troopers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> carrying secret plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Karen Carpenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anorexia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing drums in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> losing weight in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Clarice Starling</t>
-  </si>
-  <si>
-    <t>Silence of the Lambs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting serial killers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Monica Lewinsky</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Clinton Era and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>conducting illicit affairs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jamie Oliver</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard Nixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pulling dirty political tricks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ernst Stavro Blofeld</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing guitar in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Madeleine Albright</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Morpheus</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>searching for the messiah in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recruiting dissidents in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>Cycling and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cheating and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating census takers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beatrix Potter</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying paleontology in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph Stalin</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a communist country in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>Formula One and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Car Racing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>driving fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Opera and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing opera arias in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>House of Cards and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting election strategies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Hawking</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>collecting bounties on runaways in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tracking down fugitives in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Eldon Tyrell</t>
-  </si>
-  <si>
-    <t>Blade Runner and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>designing replicants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> building replicants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>the New Jersey Mob and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Jersey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Harry S. Truman</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wielding political power in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Escapology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stage Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>hunting rabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hunting wabbits in Dagon-worshipping societies</t>
+    <t>Ophelia</t>
+  </si>
+  <si>
+    <t>Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Robinson Crusoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making home-made clothes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> milking coconuts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irish literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing short stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1416,489 +1422,492 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -1906,10 +1915,10 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -1917,21 +1926,21 @@
         <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -1939,472 +1948,472 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
@@ -2412,153 +2421,153 @@
         <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -2566,32 +2575,32 @@
         <v>147</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -2599,1319 +2608,1319 @@
         <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C120" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B140" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B142" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B146" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B148" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B151" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B152" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B156" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C158" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C159" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B160" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C161" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C162" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C163" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B164" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C164" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B165" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C165" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C167" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B168" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C173" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C174" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C176" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B177" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B180" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B181" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B182" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C182" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B183" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B184" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C184" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B185" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B186" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C186" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B187" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C187" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C189" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B190" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C190" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C191" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C192" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C193" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B194" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C194" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B195" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C195" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B196" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C196" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C197" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B198" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B201" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B202" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C202" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B203" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C203" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B204" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C204" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C205" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C206" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="B207" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="B208" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="B209" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B212" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C216" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C217" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C218" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B220" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B221" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B222" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C222" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B223" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C223" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B224" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C224" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B225" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B226" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B227" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B228" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">
@@ -3919,32 +3928,32 @@
         <v>315</v>
       </c>
       <c r="B229" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B230" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B231" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232">
@@ -3952,219 +3961,219 @@
         <v>319</v>
       </c>
       <c r="B232" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B233" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B234" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B235" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B236" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B237" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B238" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B239" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B240" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B241" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B242" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C242" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B243" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B244" t="s">
         <v>338</v>
       </c>
       <c r="C244" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B245" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C245" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B246" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C246" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="B247" t="s">
         <v>342</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="B248" t="s">
         <v>343</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>57</v>
+      </c>
+      <c r="B249" t="s">
         <v>344</v>
       </c>
-      <c r="B249" t="s">
-        <v>345</v>
-      </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B250" t="s">
         <v>346</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B251" t="s">
         <v>347</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252">
@@ -4175,7 +4184,7 @@
         <v>349</v>
       </c>
       <c r="C252" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253">
@@ -4186,62 +4195,62 @@
         <v>350</v>
       </c>
       <c r="C253" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
+        <v>348</v>
+      </c>
+      <c r="B254" t="s">
         <v>351</v>
       </c>
-      <c r="B254" t="s">
-        <v>352</v>
-      </c>
       <c r="C254" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B255" t="s">
         <v>353</v>
       </c>
       <c r="C255" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B256" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B257" t="s">
         <v>356</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B258" t="s">
         <v>357</v>
       </c>
       <c r="C258" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259">
@@ -4252,7 +4261,7 @@
         <v>359</v>
       </c>
       <c r="C259" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260">
@@ -4263,7 +4272,7 @@
         <v>360</v>
       </c>
       <c r="C260" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261">
@@ -4274,7 +4283,7 @@
         <v>362</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262">
@@ -4285,7 +4294,7 @@
         <v>363</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263">
@@ -4296,7 +4305,7 @@
         <v>364</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264">
@@ -4307,7 +4316,7 @@
         <v>366</v>
       </c>
       <c r="C264" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
@@ -4318,7 +4327,7 @@
         <v>367</v>
       </c>
       <c r="C265" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
@@ -4329,7 +4338,7 @@
         <v>368</v>
       </c>
       <c r="C266" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267">
@@ -4340,7 +4349,7 @@
         <v>370</v>
       </c>
       <c r="C267" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="268">
@@ -4351,117 +4360,117 @@
         <v>371</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
+        <v>369</v>
+      </c>
+      <c r="B269" t="s">
         <v>372</v>
       </c>
-      <c r="B269" t="s">
-        <v>373</v>
-      </c>
       <c r="C269" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B270" t="s">
         <v>374</v>
       </c>
       <c r="C270" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B271" t="s">
         <v>375</v>
       </c>
       <c r="C271" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
+        <v>373</v>
+      </c>
+      <c r="B272" t="s">
         <v>376</v>
       </c>
-      <c r="B272" t="s">
-        <v>377</v>
-      </c>
       <c r="C272" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B273" t="s">
         <v>378</v>
       </c>
       <c r="C273" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B274" t="s">
         <v>379</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="B275" t="s">
         <v>380</v>
       </c>
       <c r="C275" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="B276" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C276" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="B277" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C277" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B278" t="s">
         <v>384</v>
       </c>
       <c r="C278" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="279">
@@ -4472,7 +4481,7 @@
         <v>386</v>
       </c>
       <c r="C279" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280">
@@ -4483,7 +4492,7 @@
         <v>387</v>
       </c>
       <c r="C280" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281">
@@ -4494,7 +4503,7 @@
         <v>388</v>
       </c>
       <c r="C281" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282">
@@ -4505,7 +4514,7 @@
         <v>390</v>
       </c>
       <c r="C282" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283">
@@ -4516,7 +4525,7 @@
         <v>391</v>
       </c>
       <c r="C283" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284">
@@ -4527,7 +4536,7 @@
         <v>392</v>
       </c>
       <c r="C284" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285">
@@ -4538,7 +4547,7 @@
         <v>394</v>
       </c>
       <c r="C285" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286">
@@ -4549,7 +4558,7 @@
         <v>395</v>
       </c>
       <c r="C286" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="287">
@@ -4560,7 +4569,7 @@
         <v>396</v>
       </c>
       <c r="C287" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="288">
@@ -4571,7 +4580,7 @@
         <v>398</v>
       </c>
       <c r="C288" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="289">
@@ -4582,106 +4591,106 @@
         <v>399</v>
       </c>
       <c r="C289" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
+        <v>397</v>
+      </c>
+      <c r="B290" t="s">
         <v>400</v>
       </c>
-      <c r="B290" t="s">
-        <v>401</v>
-      </c>
       <c r="C290" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B291" t="s">
         <v>402</v>
       </c>
       <c r="C291" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B292" t="s">
         <v>403</v>
       </c>
       <c r="C292" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
+        <v>401</v>
+      </c>
+      <c r="B293" t="s">
         <v>404</v>
       </c>
-      <c r="B293" t="s">
-        <v>405</v>
-      </c>
       <c r="C293" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B294" t="s">
         <v>406</v>
       </c>
       <c r="C294" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B295" t="s">
         <v>407</v>
       </c>
       <c r="C295" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>405</v>
+      </c>
+      <c r="B296" t="s">
         <v>408</v>
       </c>
-      <c r="B296" t="s">
-        <v>409</v>
-      </c>
       <c r="C296" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B297" t="s">
         <v>410</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B298" t="s">
         <v>411</v>
       </c>
       <c r="C298" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299">
@@ -4692,7 +4701,7 @@
         <v>413</v>
       </c>
       <c r="C299" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300">
@@ -4703,7 +4712,7 @@
         <v>414</v>
       </c>
       <c r="C300" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301">
@@ -4714,7 +4723,7 @@
         <v>415</v>
       </c>
       <c r="C301" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302">
@@ -4725,7 +4734,7 @@
         <v>417</v>
       </c>
       <c r="C302" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303">
@@ -4736,51 +4745,51 @@
         <v>418</v>
       </c>
       <c r="C303" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
+        <v>416</v>
+      </c>
+      <c r="B304" t="s">
         <v>419</v>
       </c>
-      <c r="B304" t="s">
-        <v>420</v>
-      </c>
       <c r="C304" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>419</v>
+        <v>14</v>
       </c>
       <c r="B305" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C305" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>419</v>
+        <v>14</v>
       </c>
       <c r="B306" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C306" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>423</v>
+        <v>14</v>
       </c>
       <c r="B307" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C307" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308">
@@ -4788,10 +4797,10 @@
         <v>423</v>
       </c>
       <c r="B308" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C308" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309">
@@ -4799,21 +4808,21 @@
         <v>423</v>
       </c>
       <c r="B309" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C309" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B310" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C310" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311">
@@ -4821,54 +4830,54 @@
         <v>427</v>
       </c>
       <c r="B311" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C311" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B312" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C312" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
+        <v>427</v>
+      </c>
+      <c r="B313" t="s">
         <v>430</v>
       </c>
-      <c r="B313" t="s">
-        <v>432</v>
-      </c>
       <c r="C313" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B314" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C314" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B315" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C315" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316">
@@ -4876,10 +4885,10 @@
         <v>434</v>
       </c>
       <c r="B316" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C316" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="317">
@@ -4887,21 +4896,21 @@
         <v>434</v>
       </c>
       <c r="B317" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C317" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B318" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319">
@@ -4909,65 +4918,98 @@
         <v>438</v>
       </c>
       <c r="B319" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C319" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B320" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C320" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
+        <v>438</v>
+      </c>
+      <c r="B321" t="s">
         <v>441</v>
       </c>
-      <c r="B321" t="s">
-        <v>443</v>
-      </c>
       <c r="C321" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B322" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C322" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B323" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C323" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
+        <v>442</v>
+      </c>
+      <c r="B324" t="s">
         <v>445</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>446</v>
+      </c>
+      <c r="B325" t="s">
         <v>447</v>
       </c>
-      <c r="C324" t="s">
-        <v>38</v>
+      <c r="C325" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>446</v>
+      </c>
+      <c r="B326" t="s">
+        <v>448</v>
+      </c>
+      <c r="C326" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>446</v>
+      </c>
+      <c r="B327" t="s">
+        <v>449</v>
+      </c>
+      <c r="C327" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="447">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,1342 +26,1333 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Naomi Campbell</t>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sideshow Bob</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing cunning plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>the Toy Industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting hair products in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Troy McClure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>appearing in infomercials in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting educational films in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sir Lancelot</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting with swords in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Derek Zoolander</t>
+  </si>
+  <si>
+    <t>Fashion and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dana Scully</t>
+  </si>
+  <si>
+    <t>The X-Files and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>explaining away the unexplained in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lou Reed</t>
+  </si>
+  <si>
+    <t>The Velvet Revolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Eldon Tyrell</t>
+  </si>
+  <si>
+    <t>Blade Runner and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>designing replicants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Music industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting pop music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>McDonalds and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groot</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>guarding the galaxy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Henry VIII</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for the resistance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Oscar Pistorius</t>
+  </si>
+  <si>
+    <t>Olympics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Running and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Erik "Magneto" Lehnsherr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>devising evil schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> building an army in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joe DiMaggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baseball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing baseball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johnny Carson</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Late-night TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Piers Morgan</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>Aviation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>flying airplanes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Motorcycle stunts and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing motorcycle stunts in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumping over buses on motorbikes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>Oliver Twist and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Lydia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>collecting treasures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Bodybuilding and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>working out in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bodybuilding in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brexit and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt "Daredevil" Murdock</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>exploring darkest Africa in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drawing room mysteries and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anne Boleyn</t>
+  </si>
+  <si>
+    <t>climbing social ladders in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing kings in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irish literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Liz Lemon</t>
+  </si>
+  <si>
+    <t>30 Rock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing comedy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> striving for world domination in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Bacon</t>
+  </si>
+  <si>
+    <t>Footloose and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Few Good Men and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>forming new social connections in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for democracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing erotic fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ray Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing the blues in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing country music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fletcher Christian</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>expressing dissent in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the New world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Angela Merkel</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Expressionist art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expressionist painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting dark pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>posing for photographs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Biology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DNA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Double Helix and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Golf and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Travis Bickle</t>
+  </si>
+  <si>
+    <t>Taxi Driver and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>expressing violent urges in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> talking to mirrors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Borat</t>
+  </si>
+  <si>
+    <t>Borat! and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tony Blair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the British Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Labour Party and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Janis Joplin</t>
+  </si>
+  <si>
+    <t>Psychadelic music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stabbing in the back in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Horror fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing purple prose in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Hedge Funds and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Speculation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>managing hedge funds in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Rumsfeld</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting new wars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sun Tzu</t>
+  </si>
+  <si>
+    <t>The Art of War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient military history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walter White</t>
+  </si>
+  <si>
+    <t>Chrystal Meth and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemistry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cooking and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Marie Curie</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern science and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chemistry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>Marvel Comics. Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>G. Gordon Liddy</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bernard Madoff</t>
+  </si>
+  <si>
+    <t>Investment Funds and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Investments and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Silvio Berlusconi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>throwing Bunga Bunga parties in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Seinfeld</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sigmund Freud</t>
+  </si>
+  <si>
+    <t>Psychiatry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psychoanalysis and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>probing the mind in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>leaking state secrets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Love songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing melancholy songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Family life and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>watching TV in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>the American Depression and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Talk radio and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shocking radio listeners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing intense characters in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>the American West and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Hong Kong and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martial Arts and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing jazz trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>fighting with swords in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>Cycling and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheating and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ayatollah Khomeini</t>
+  </si>
+  <si>
+    <t>Islamic Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>issuing fatwas in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jor El</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Gandalf the Grey</t>
+  </si>
+  <si>
+    <t>Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middle Earth and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Virginia Woolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing intense characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Eastern religion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eastern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Buddhism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Luis Suarez</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>biting opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Karl Rove</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Michael Myers</t>
+  </si>
+  <si>
+    <t>Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Oprah Winfrey</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pac Man</t>
+  </si>
+  <si>
+    <t>Video games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating power pellets in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding electronic ghosts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Severus Snape</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teaching magic in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a school for gifted teens in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a bureaucracy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Saint Peter</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Dr. Evil</t>
+  </si>
+  <si>
+    <t>Bond spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>demanding ransoms from the U.N. in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Maynard Keynes</t>
+  </si>
+  <si>
+    <t>Keynesian economics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monetarist economics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting monetarism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Economics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>talking up the economy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Margaret Mead</t>
+  </si>
+  <si>
+    <t>Anthropology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>Christianity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Kardashian</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flaunting buttocks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>expressing dissent in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Talk radio and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>shocking radio listeners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Meghan Markle</t>
+  </si>
+  <si>
+    <t>British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>racking up marriages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Neil Armstrong</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Kate Moss</t>
   </si>
   <si>
     <t>Fashion and the Cthulu mythos</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
   </si>
   <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Jung-un</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asian politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Karl Marx</t>
-  </si>
-  <si>
-    <t>Das Capital and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting communism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry David</t>
-  </si>
-  <si>
-    <t>Curb Your Enthusiasm and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing TV comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Niles Crane</t>
-  </si>
-  <si>
-    <t>Psychiatry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Psychoanalysis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>nurturing sibling rivalry in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sean Connery</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>lying badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Belushi</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sir Lancelot</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting rabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>Capitalism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting capitalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Woodward</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Marx Brothers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jay Gatsby</t>
-  </si>
-  <si>
-    <t>The Great Gatsby and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>throwing lavish parties in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kal El</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sarah Connor</t>
-  </si>
-  <si>
-    <t>The Terminator and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Post-Apocalypse and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>amassing weapons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judge Joe Dredd</t>
-  </si>
-  <si>
-    <t>Mega-City One and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kevin Bacon</t>
-  </si>
-  <si>
-    <t>Footloose and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A Few Good Men and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>forming new social connections in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting greed in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting capitalism in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Modesty Blaise</t>
-  </si>
-  <si>
-    <t>Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pulling capers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
-  </si>
-  <si>
-    <t>Bedrock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christiane Amanpour</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interviewing celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interviewing politicians in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chelsea Manning</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>insulting celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Partridge</t>
+  </si>
+  <si>
+    <t>Regional Radio and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hosting radio shows in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
   </si>
   <si>
     <t>Ella Fitzgerald</t>
   </si>
   <si>
-    <t>Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sarah Palin</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>John Constantine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hellraiser and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>smoking Silk Cut cigarettes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nancy Drew</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interpreting evidence in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>Cycling and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cheating and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jesus Christ</t>
-  </si>
-  <si>
-    <t>Christianity and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading political gossip in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Blanche DuBois</t>
-  </si>
-  <si>
-    <t>A Street Car Named Desire and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sydney Bristow</t>
-  </si>
-  <si>
-    <t>kicking ass in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spying for the CIA in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Willis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ryan Reynolds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dumb comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Jessica Parker</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gordon Gekko</t>
-  </si>
-  <si>
-    <t>Wall Street and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musical movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joan Rivers</t>
-  </si>
-  <si>
-    <t>insulting celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>Formula One and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Car Racing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>driving fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeff Koons</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making modern art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry King</t>
-  </si>
-  <si>
-    <t>Chat Shows and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Plato</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
-  </si>
-  <si>
-    <t>Scandinavian crime fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ronald Reagan</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Montgomery Burns</t>
-  </si>
-  <si>
-    <t>Nuclear Power and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Janet Jackson</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>fawning on the boss in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> currying favour in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dominique Strauss-Kahn</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>throwing sex parties in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barbra Streisand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bette Midler</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a smuggling business in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don Quixote</t>
-  </si>
-  <si>
-    <t>Spanish literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tilting at windmills in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> going on romantic quests in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rick Deckard</t>
-  </si>
-  <si>
-    <t>Blade Runner and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>retiring replicants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Ripley</t>
-  </si>
-  <si>
-    <t>Social Climbing and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> High Society and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>forging art in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Expressionist art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Expressionist painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting dark pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>stealing jewels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Coco Chanel</t>
-  </si>
-  <si>
-    <t>designing haute couture in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling perfumes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sam Winchester</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Svengali</t>
-  </si>
-  <si>
-    <t>the Music industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>manipulating ingenues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jane Eyre</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking after children in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Moby Dick and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Whaling and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing a great white whale in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Loki Laufeyson</t>
-  </si>
-  <si>
-    <t>Norse mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Miles Davis</t>
-  </si>
-  <si>
-    <t>Cool Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing jazz saxophone in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>expressing dissent in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Count Dracula</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>sucking blood in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lars von Trier</t>
-  </si>
-  <si>
-    <t>Dogme and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making new wave movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  British class politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John McCain</t>
-  </si>
-  <si>
-    <t>running for the senate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making maverick choices in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>the Age of Discovery and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kenny G</t>
+    <t>Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>James Cook</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>opening new markets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Humanism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting humanism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
   </si>
   <si>
     <t>Easy Listening and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Light Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Saxophone music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Edward Cullen</t>
-  </si>
-  <si>
-    <t>Twilight and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Vampire world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding growing old in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ray Kroc</t>
-  </si>
-  <si>
-    <t>McDonalds and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hamburger industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harriet Tubman</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting for civil rights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Baron Munchausen</t>
-  </si>
-  <si>
-    <t>German literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>telling tall tales in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing lies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nikola Tesla</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jesse Pinkman</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking chrystal meth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simon Pegg</t>
-  </si>
-  <si>
-    <t>Nerd culture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>dressing up in cosplay costumes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting nerd culture  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Byron</t>
-  </si>
-  <si>
-    <t>English poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing romantic poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Offred</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Handmaid's Tale and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing household chores in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Horror fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing purple prose in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Late-night TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chat Shows and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CBS and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>William Shatner</t>
-  </si>
-  <si>
-    <t>Star Trek and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TJ Hooker and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Priceline and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Israeli politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Middle-Eastern politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>building giant walls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>suppressing violent urges in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>reporting the news in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lee Marvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>German history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boudicca</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>flirting with rednecks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> having meltdowns in public in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas Pynchon</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Selma Bouvier</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> watching MacGyver reruns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> clipping coupons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lisa Simpson</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing the saxophone in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-achieving at school in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keyser Söze</t>
-  </si>
-  <si>
-    <t>The Usual Suspects and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for justice in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>performing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Malcolm X</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting criminal schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simon Cowell</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Music industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting pop music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Monsieur Hulot</t>
-  </si>
-  <si>
-    <t>French comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>G. Gordon Liddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pulling dirty political tricks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johann von Goethe</t>
-  </si>
-  <si>
-    <t>German literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>Italian Fascism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fascism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asian politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Michelle Obama</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting feminism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jenna Maroney</t>
-  </si>
-  <si>
-    <t>30 Rock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Whitman</t>
-  </si>
-  <si>
-    <t>American poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ophelia</t>
-  </si>
-  <si>
-    <t>Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Robinson Crusoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making home-made clothes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> milking coconuts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Joyce</t>
-  </si>
-  <si>
-    <t>Modern literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Irish literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing short stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> the Rat Pack and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Leia Organa</t>
+  </si>
+  <si>
+    <t>leading the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sid Vicious</t>
+  </si>
+  <si>
+    <t>Punk rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing punk rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scandalizing polite society in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1436,6 +1427,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>3.4727787036987145E-6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1447,6 +1441,9 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>3.830923265690905E-6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1458,6 +1455,9 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>4.223427433721592E-6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1469,6 +1469,9 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="n">
+        <v>4.653308654102762E-6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1480,6 +1483,9 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="n">
+        <v>5.123820701367256E-6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1491,6 +1497,9 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="n">
+        <v>5.638469399979609E-6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1500,7 +1509,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.20102913440217E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1511,51 +1523,66 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.815560163853787E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.486426756145873E-6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.218316152741446E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.016258374694547E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.88564687629601E-6</v>
       </c>
     </row>
     <row r="14">
@@ -1563,10 +1590,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0832260050152995E-5</v>
       </c>
     </row>
     <row r="15">
@@ -1574,21 +1604,27 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.1862283583973811E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.2982333665561061E-5</v>
       </c>
     </row>
     <row r="17">
@@ -1596,191 +1632,242 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.4199481028377074E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.5521275825594518E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.695577331565484E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.8511560337200413E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.0197782545594984E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.202417237732676E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.400107770221554E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.6139491116610272E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.8451079823693637E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.094821603949721E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.364400785546101E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.655233048010815E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.968785777405594E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.3066093983548236E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.670340556888158E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.061705301445901E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.4825222497839696E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -1788,16 +1875,22 @@
       <c r="C34" t="s">
         <v>11</v>
       </c>
+      <c r="D34" t="n">
+        <v>5.934705728524064E-5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.420268871113529E-5</v>
       </c>
     </row>
     <row r="36">
@@ -1808,7 +1901,10 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.941326658940284E-5</v>
       </c>
     </row>
     <row r="37">
@@ -1819,7 +1915,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7.500098889357302E-5</v>
       </c>
     </row>
     <row r="38">
@@ -1830,7 +1929,10 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8.098913053344219E-5</v>
       </c>
     </row>
     <row r="39">
@@ -1843,6 +1945,9 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
+      <c r="D39" t="n">
+        <v>8.740207104536392E-5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1854,6 +1959,9 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
+      <c r="D40" t="n">
+        <v>9.426532100360462E-5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1865,6 +1973,9 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
+      <c r="D41" t="n">
+        <v>1.0160554695021044E-4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1876,291 +1987,372 @@
       <c r="C42" t="s">
         <v>11</v>
       </c>
+      <c r="D42" t="n">
+        <v>1.0945059463161747E-4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.1782951032064128E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.267725599940644E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.3631124612735013E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.464783218606124E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.5730780228240043E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
         <v>70</v>
       </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.6883497257204382E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.8109639273518113E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.941298986628589E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
         <v>74</v>
       </c>
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.079745992409291E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.2267086923378338E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.3826033766553888E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
         <v>78</v>
       </c>
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.547858714213938E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.722915537937279E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.9082265770028664E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="B57" t="s">
-        <v>83</v>
-      </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.104256133060956E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.311479697871494E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.530383509820602E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.7614640468687944E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.0052274536058353E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.2621889002226326E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.5328718713583474E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.817807382969377E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.117533125551955E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
       <c r="C66" t="s">
         <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.432592532277078E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.763533770825977E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6.11090865798837E-4</v>
       </c>
     </row>
     <row r="69">
@@ -2168,10 +2360,13 @@
         <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.475271496348498E-4</v>
       </c>
     </row>
     <row r="70">
@@ -2179,21 +2374,27 @@
         <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.857177832700397E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7.257183138148857E-4</v>
       </c>
     </row>
     <row r="72">
@@ -2201,10 +2402,13 @@
         <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.675841410201001E-4</v>
       </c>
     </row>
     <row r="73">
@@ -2212,21 +2416,27 @@
         <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.113703697490773E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8.571316548197424E-4</v>
       </c>
     </row>
     <row r="75">
@@ -2234,10 +2444,13 @@
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9.049220383569936E-4</v>
       </c>
     </row>
     <row r="76">
@@ -2245,21 +2458,27 @@
         <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9.547947798412611E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0010068021790794537</v>
       </c>
     </row>
     <row r="78">
@@ -2267,10 +2486,13 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0010609953923684697</v>
       </c>
     </row>
     <row r="79">
@@ -2278,21 +2500,27 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0011174242421677152</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0011761370206403443</v>
       </c>
     </row>
     <row r="81">
@@ -2300,10 +2528,13 @@
         <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0012371802874704893</v>
       </c>
     </row>
     <row r="82">
@@ -2311,21 +2542,27 @@
         <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0013005986624135789</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0013664346130757357</v>
       </c>
     </row>
     <row r="84">
@@ -2333,10 +2570,13 @@
         <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0014347282384761066</v>
       </c>
     </row>
     <row r="85">
@@ -2344,21 +2584,27 @@
         <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0015055170489838218</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0015788357432711293</v>
       </c>
     </row>
     <row r="87">
@@ -2366,10 +2612,13 @@
         <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0016547159829704075</v>
       </c>
     </row>
     <row r="88">
@@ -2377,43 +2626,55 @@
         <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0017331861657651493</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
         <v>125</v>
       </c>
-      <c r="B89" t="s">
-        <v>126</v>
-      </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0018142711976862208</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0018979922654324133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0019843666095599455</v>
       </c>
     </row>
     <row r="92">
@@ -2421,21 +2682,27 @@
         <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0020734072994408395</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0021651230109020897</v>
       </c>
     </row>
     <row r="94">
@@ -2443,76 +2710,97 @@
         <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.002259517807506106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.002356590926452129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" t="s">
         <v>134</v>
       </c>
-      <c r="B96" t="s">
-        <v>136</v>
-      </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.002456336570100137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.002558743704137778</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.002663795863447782</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" t="s">
         <v>138</v>
       </c>
-      <c r="B99" t="s">
-        <v>140</v>
-      </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.002771470966689449</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.002881741140695615</v>
       </c>
     </row>
     <row r="101">
@@ -2520,10 +2808,13 @@
         <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.002994572555702235</v>
       </c>
     </row>
     <row r="102">
@@ -2531,406 +2822,517 @@
         <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0031099252724864357</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B103" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0032277531024496597</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.00334800348166997</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" t="s">
         <v>147</v>
       </c>
-      <c r="B105" t="s">
-        <v>149</v>
-      </c>
       <c r="C105" t="s">
         <v>6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0034706173599416412</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0035955291057688243</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.003722666428270849</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" t="s">
         <v>151</v>
       </c>
-      <c r="B108" t="s">
-        <v>153</v>
-      </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0038519503169098246</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.003983294999896525</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.004116607922098947</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.004251789743212719</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" t="s">
         <v>157</v>
       </c>
-      <c r="B112" t="s">
-        <v>159</v>
-      </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0043887343568788095</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.004527328931397068</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" t="s">
         <v>160</v>
       </c>
-      <c r="B114" t="s">
-        <v>162</v>
-      </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.004667453972575564</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.004808983409208045</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.004951784701568318</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" t="s">
         <v>164</v>
       </c>
-      <c r="B117" t="s">
-        <v>166</v>
-      </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.005095718973234575</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.005240641166463278</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0053864002212292705</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" t="s">
         <v>168</v>
       </c>
-      <c r="B120" t="s">
-        <v>170</v>
-      </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.005532839277963553</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.005679795903906271</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.005827102342892521</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" t="s">
         <v>172</v>
       </c>
-      <c r="B123" t="s">
-        <v>174</v>
-      </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.005974585788282805</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.006122068678648063</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.006269369015690529</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.006416300703800892</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.0065626739105219545</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" t="s">
         <v>178</v>
       </c>
-      <c r="B128" t="s">
-        <v>181</v>
-      </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.006708295447087287</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B129" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.006852969168101575</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130" t="s">
         <v>182</v>
       </c>
-      <c r="B130" t="s">
-        <v>184</v>
-      </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.006996496389320039</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.007138676322383353</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.007279306525270479</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" t="s">
         <v>186</v>
       </c>
-      <c r="B133" t="s">
-        <v>188</v>
-      </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.007418183367129794</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.007555102506070166</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.007689859378398389</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" t="s">
         <v>190</v>
       </c>
-      <c r="B136" t="s">
-        <v>192</v>
-      </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.007822249697720551</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.007952069962242014</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.008079117968549432</v>
       </c>
     </row>
     <row r="139">
@@ -2938,1022 +3340,1301 @@
         <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.008203193330085123</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.008324097998483632</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B141" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.008441636785897294</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B142" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.008555617886396666</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>197</v>
+      </c>
+      <c r="B143" t="s">
         <v>199</v>
       </c>
-      <c r="B143" t="s">
-        <v>202</v>
-      </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.008665853394516615</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.008772159819003145</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B145" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.008874358589788384</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" t="s">
         <v>203</v>
       </c>
-      <c r="B146" t="s">
-        <v>206</v>
-      </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.008972276556268366</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.009065746474915537</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B148" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.00915460748433286</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>205</v>
+      </c>
+      <c r="B149" t="s">
         <v>207</v>
       </c>
-      <c r="B149" t="s">
-        <v>210</v>
-      </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.009238705565850214</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.00931789398782451</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B151" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.00939203373185532</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.009460993899178635</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.009524652095581176</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154" t="s">
         <v>214</v>
       </c>
-      <c r="B154" t="s">
-        <v>217</v>
-      </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.009582894793250862</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B155" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.009635617668066171</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.009682725910922063</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>216</v>
+      </c>
+      <c r="B157" t="s">
         <v>218</v>
       </c>
-      <c r="B157" t="s">
-        <v>221</v>
-      </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.00972413451179343</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.009759768515341855</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.009789563246995349</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" t="s">
         <v>222</v>
       </c>
-      <c r="B160" t="s">
-        <v>225</v>
-      </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.009813464508541498</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B161" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.009831428742406903</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.009843423163930082</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B163" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.00984942586106009</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.00984942586106009</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>228</v>
+      </c>
+      <c r="B165" t="s">
         <v>229</v>
       </c>
-      <c r="B165" t="s">
-        <v>232</v>
-      </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.009843423163930082</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B166" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.009831428742406546</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B167" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.009813464508541495</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.009789563246995536</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B169" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.009759768515341848</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B170" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.009724134511793443</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B171" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.00968272591092223</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.009635617668066171</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B173" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.009582894793250488</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.009524652095581204</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>242</v>
+      </c>
+      <c r="B175" t="s">
         <v>243</v>
       </c>
-      <c r="B175" t="s">
-        <v>246</v>
-      </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.009460993899178635</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B176" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.009392033731855473</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B177" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.009317893987824566</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" t="s">
         <v>247</v>
       </c>
-      <c r="B178" t="s">
-        <v>250</v>
-      </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.009238705565850241</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B179" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.009154607484332972</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B180" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.009065746474915537</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B181" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.008972276556268366</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B182" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.008874358589788106</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B183" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.00877215981900309</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B184" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.00866585339451681</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B185" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.008555617886396583</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B186" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.008441636785897377</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B187" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.00832409799848377</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B188" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.008203193330085123</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B189" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.008079117968549099</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B190" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.007952069962242042</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B191" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.00782224969772044</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B192" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.007689859378398667</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B193" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.007555102506070055</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B194" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.00741818336712996</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B195" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.007279306525270535</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B196" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.007138676322383353</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B197" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.006996496389320039</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.006852969168101186</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B199" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.006708295447087342</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B200" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.006562673910522232</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B201" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.006416300703800837</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B202" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.0062693690156904736</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B203" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.006122068678648229</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B204" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.005974585788282805</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B205" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.005827102342892243</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B206" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.005679795903906437</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="B207" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.005532839277963442</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.0053864002212293816</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="B209" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.0052406411664633334</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B210" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.00509571897323452</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.004951784701568429</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>289</v>
+      </c>
+      <c r="B212" t="s">
         <v>292</v>
       </c>
-      <c r="B212" t="s">
-        <v>295</v>
-      </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.004808983409208045</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.004667453972575564</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B214" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.00452732893139679</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.004388734356879032</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B216" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.004251789743212608</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
+        <v>297</v>
+      </c>
+      <c r="B217" t="s">
         <v>299</v>
       </c>
-      <c r="B217" t="s">
-        <v>302</v>
-      </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.004116607922099114</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B218" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.0039832949998964695</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B219" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C219" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.00385195031690988</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
+        <v>300</v>
+      </c>
+      <c r="B220" t="s">
         <v>303</v>
       </c>
-      <c r="B220" t="s">
-        <v>306</v>
-      </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.003722666428270849</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B221" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.0035955291057687133</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B222" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.0034706173599416412</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
+        <v>304</v>
+      </c>
+      <c r="B223" t="s">
         <v>307</v>
       </c>
-      <c r="B223" t="s">
-        <v>310</v>
-      </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.003348003481669748</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B224" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.0032277531024497708</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B225" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.0031099252724864357</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>308</v>
+      </c>
+      <c r="B226" t="s">
         <v>311</v>
       </c>
-      <c r="B226" t="s">
-        <v>314</v>
-      </c>
       <c r="C226" t="s">
         <v>6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.002994572555702457</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B227" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.002881741140695615</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.002771470966689449</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>312</v>
+      </c>
+      <c r="B229" t="s">
         <v>315</v>
       </c>
-      <c r="B229" t="s">
-        <v>318</v>
-      </c>
       <c r="C229" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.002663795863447782</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B230" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C230" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.002558743704138</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B231" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C231" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.002456336570099693</v>
       </c>
     </row>
     <row r="232">
@@ -3961,241 +4642,307 @@
         <v>319</v>
       </c>
       <c r="B232" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.0023565909264521845</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B233" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.0022595178075062727</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>322</v>
+      </c>
+      <c r="B234" t="s">
         <v>323</v>
       </c>
-      <c r="B234" t="s">
-        <v>325</v>
-      </c>
       <c r="C234" t="s">
         <v>11</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.002165123010902055</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B235" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C235" t="s">
         <v>11</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.002073407299440874</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B236" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.0019843666095599455</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
+        <v>326</v>
+      </c>
+      <c r="B237" t="s">
         <v>327</v>
       </c>
-      <c r="B237" t="s">
-        <v>329</v>
-      </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.0018979922654323508</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B238" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.0018142711976862486</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B239" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C239" t="s">
         <v>11</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.0017331861657651111</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>330</v>
+      </c>
+      <c r="B240" t="s">
         <v>331</v>
       </c>
-      <c r="B240" t="s">
-        <v>333</v>
-      </c>
       <c r="C240" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.0016547159829703763</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="B241" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.001578835743271216</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="B242" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.001505517048983801</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
+        <v>334</v>
+      </c>
+      <c r="B243" t="s">
         <v>335</v>
       </c>
-      <c r="B243" t="s">
-        <v>337</v>
-      </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.0014347282384761448</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B244" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.0013664346130757357</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B245" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.0013005986624135789</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
+        <v>338</v>
+      </c>
+      <c r="B246" t="s">
         <v>339</v>
       </c>
-      <c r="B246" t="s">
-        <v>341</v>
-      </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.001237180287470465</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>57</v>
+        <v>338</v>
       </c>
       <c r="B247" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C247" t="s">
         <v>11</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.00117613702064032</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>57</v>
+        <v>338</v>
       </c>
       <c r="B248" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C248" t="s">
         <v>11</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.0011174242421677534</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B249" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.0010609953923684697</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>93</v>
       </c>
       <c r="B250" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.0010068021790794537</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>345</v>
+        <v>93</v>
       </c>
       <c r="B251" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C251" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D251" t="n">
+        <v>9.547947798412715E-4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B252" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C252" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D252" t="n">
+        <v>9.049220383569936E-4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B253" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8.571316548197146E-4</v>
       </c>
     </row>
     <row r="254">
@@ -4203,98 +4950,125 @@
         <v>348</v>
       </c>
       <c r="B254" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C254" t="s">
         <v>11</v>
+      </c>
+      <c r="D254" t="n">
+        <v>8.113703697490721E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B255" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C255" t="s">
         <v>11</v>
+      </c>
+      <c r="D255" t="n">
+        <v>7.675841410201001E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B256" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
+      </c>
+      <c r="D256" t="n">
+        <v>7.2571831381491E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
+        <v>353</v>
+      </c>
+      <c r="B257" t="s">
         <v>354</v>
       </c>
-      <c r="B257" t="s">
-        <v>356</v>
-      </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D257" t="n">
+        <v>6.85717783270038E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B258" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D258" t="n">
+        <v>6.475271496348464E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B259" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C259" t="s">
         <v>11</v>
+      </c>
+      <c r="D259" t="n">
+        <v>6.110908657988509E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
+        <v>357</v>
+      </c>
+      <c r="B260" t="s">
         <v>358</v>
       </c>
-      <c r="B260" t="s">
-        <v>360</v>
-      </c>
       <c r="C260" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D260" t="n">
+        <v>5.763533770825977E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B261" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D261" t="n">
+        <v>5.432592532277078E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B262" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C262" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D262" t="n">
+        <v>5.117533125551859E-4</v>
       </c>
     </row>
     <row r="263">
@@ -4302,32 +5076,41 @@
         <v>361</v>
       </c>
       <c r="B263" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C263" t="s">
         <v>11</v>
+      </c>
+      <c r="D263" t="n">
+        <v>4.817807382969299E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B264" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D264" t="n">
+        <v>4.5328718713584255E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B265" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D265" t="n">
+        <v>4.2621889002226847E-4</v>
       </c>
     </row>
     <row r="266">
@@ -4335,32 +5118,41 @@
         <v>365</v>
       </c>
       <c r="B266" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D266" t="n">
+        <v>4.0052274536058613E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B267" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C267" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3.761464046868812E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B268" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C268" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D268" t="n">
+        <v>3.530383509820602E-4</v>
       </c>
     </row>
     <row r="269">
@@ -4368,32 +5160,41 @@
         <v>369</v>
       </c>
       <c r="B269" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C269" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3.3114796978713727E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B270" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C270" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3.1042561330609907E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B271" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C271" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2.9082265770028967E-4</v>
       </c>
     </row>
     <row r="272">
@@ -4401,263 +5202,335 @@
         <v>373</v>
       </c>
       <c r="B272" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C272" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2.722915537937292E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B273" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C273" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2.547858714213912E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
+        <v>375</v>
+      </c>
+      <c r="B274" t="s">
         <v>377</v>
       </c>
-      <c r="B274" t="s">
-        <v>379</v>
-      </c>
       <c r="C274" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2.3826033766553715E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B275" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C275" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2.2267086923379205E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B276" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C276" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.079745992409291E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
+        <v>379</v>
+      </c>
+      <c r="B277" t="s">
         <v>381</v>
       </c>
-      <c r="B277" t="s">
-        <v>383</v>
-      </c>
       <c r="C277" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1.941298986628589E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B278" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C278" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.810963927351768E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B279" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.6883497257204512E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
+        <v>383</v>
+      </c>
+      <c r="B280" t="s">
         <v>385</v>
       </c>
-      <c r="B280" t="s">
-        <v>387</v>
-      </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1.5730780228240347E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B281" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.4647832186060914E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
+        <v>388</v>
+      </c>
+      <c r="B282" t="s">
         <v>389</v>
       </c>
-      <c r="B282" t="s">
-        <v>390</v>
-      </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.3631124612735078E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B283" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.26772559994067E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B284" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.1782951032064128E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
+        <v>392</v>
+      </c>
+      <c r="B285" t="s">
         <v>393</v>
       </c>
-      <c r="B285" t="s">
-        <v>394</v>
-      </c>
       <c r="C285" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.0945059463161226E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B286" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C286" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.0160554695021217E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B287" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C287" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D287" t="n">
+        <v>9.426532100360245E-5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>397</v>
+        <v>159</v>
       </c>
       <c r="B288" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C288" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D288" t="n">
+        <v>8.740207104536955E-5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
+        <v>159</v>
+      </c>
+      <c r="B289" t="s">
         <v>397</v>
       </c>
-      <c r="B289" t="s">
-        <v>399</v>
-      </c>
       <c r="C289" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D289" t="n">
+        <v>8.098913053344078E-5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>397</v>
+        <v>159</v>
       </c>
       <c r="B290" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C290" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D290" t="n">
+        <v>7.500098889357443E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>401</v>
+        <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C291" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D291" t="n">
+        <v>6.941326658940284E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>401</v>
+        <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C292" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D292" t="n">
+        <v>6.420268871113529E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
+        <v>289</v>
+      </c>
+      <c r="B293" t="s">
         <v>401</v>
       </c>
-      <c r="B293" t="s">
-        <v>404</v>
-      </c>
       <c r="C293" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D293" t="n">
+        <v>5.934705728524064E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B294" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C294" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D294" t="n">
+        <v>5.482522249783623E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B295" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C295" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D295" t="n">
+        <v>5.0617053014461724E-5</v>
       </c>
     </row>
     <row r="296">
@@ -4665,351 +5538,419 @@
         <v>405</v>
       </c>
       <c r="B296" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C296" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D296" t="n">
+        <v>4.670340556888158E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B297" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D297" t="n">
+        <v>4.3066093983548995E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
+        <v>407</v>
+      </c>
+      <c r="B298" t="s">
         <v>409</v>
       </c>
-      <c r="B298" t="s">
-        <v>411</v>
-      </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3.968785777405464E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B299" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C299" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D299" t="n">
+        <v>3.655233048010945E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
+        <v>411</v>
+      </c>
+      <c r="B300" t="s">
         <v>412</v>
       </c>
-      <c r="B300" t="s">
-        <v>414</v>
-      </c>
       <c r="C300" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3.364400785546101E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B301" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C301" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3.09482160394965E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B302" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C302" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2.8451079823693312E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
+        <v>415</v>
+      </c>
+      <c r="B303" t="s">
         <v>416</v>
       </c>
-      <c r="B303" t="s">
-        <v>418</v>
-      </c>
       <c r="C303" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2.613949111661038E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B304" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C304" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2.4001077702215596E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>14</v>
+        <v>418</v>
       </c>
       <c r="B305" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C305" t="s">
         <v>11</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2.2024172377327626E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>14</v>
+        <v>418</v>
       </c>
       <c r="B306" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C306" t="s">
         <v>11</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2.0197782545594632E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>14</v>
+        <v>421</v>
       </c>
       <c r="B307" t="s">
         <v>422</v>
       </c>
       <c r="C307" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.8511560337200765E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
+        <v>421</v>
+      </c>
+      <c r="B308" t="s">
         <v>423</v>
       </c>
-      <c r="B308" t="s">
-        <v>424</v>
-      </c>
       <c r="C308" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.695577331565484E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B309" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C309" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.5521275825594518E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B310" t="s">
         <v>426</v>
       </c>
       <c r="C310" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.4199481028376966E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
+        <v>425</v>
+      </c>
+      <c r="B311" t="s">
         <v>427</v>
       </c>
-      <c r="B311" t="s">
-        <v>428</v>
-      </c>
       <c r="C311" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1.2982333665560492E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B312" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C312" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1.1862283583974489E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B313" t="s">
         <v>430</v>
       </c>
       <c r="C313" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1.0832260050152941E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
+        <v>429</v>
+      </c>
+      <c r="B314" t="s">
         <v>431</v>
       </c>
-      <c r="B314" t="s">
-        <v>432</v>
-      </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D314" t="n">
+        <v>9.885646876295833E-6</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B315" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C315" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D315" t="n">
+        <v>9.016258374694777E-6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
+        <v>433</v>
+      </c>
+      <c r="B316" t="s">
         <v>434</v>
       </c>
-      <c r="B316" t="s">
-        <v>435</v>
-      </c>
       <c r="C316" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>8.218316152741446E-6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B317" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C317" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D317" t="n">
+        <v>7.486426756145439E-6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B318" t="s">
         <v>437</v>
       </c>
       <c r="C318" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D318" t="n">
+        <v>6.815560163854045E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
+        <v>436</v>
+      </c>
+      <c r="B319" t="s">
         <v>438</v>
       </c>
-      <c r="B319" t="s">
-        <v>439</v>
-      </c>
       <c r="C319" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D319" t="n">
+        <v>6.201029134402007E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B320" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C320" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D320" t="n">
+        <v>5.6384693999797985E-6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B321" t="s">
         <v>441</v>
       </c>
       <c r="C321" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="D321" t="n">
+        <v>5.123820701367236E-6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
+        <v>440</v>
+      </c>
+      <c r="B322" t="s">
         <v>442</v>
       </c>
-      <c r="B322" t="s">
-        <v>443</v>
-      </c>
       <c r="C322" t="s">
         <v>11</v>
+      </c>
+      <c r="D322" t="n">
+        <v>4.653308654102932E-6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B323" t="s">
         <v>444</v>
       </c>
       <c r="C323" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D323" t="n">
+        <v>4.223427433721592E-6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B324" t="s">
         <v>445</v>
       </c>
       <c r="C324" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D324" t="n">
+        <v>3.830923265690905E-6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
+        <v>443</v>
+      </c>
+      <c r="B325" t="s">
         <v>446</v>
       </c>
-      <c r="B325" t="s">
-        <v>447</v>
-      </c>
       <c r="C325" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>446</v>
-      </c>
-      <c r="B326" t="s">
-        <v>448</v>
-      </c>
-      <c r="C326" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>446</v>
-      </c>
-      <c r="B327" t="s">
-        <v>449</v>
-      </c>
-      <c r="C327" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D325" t="n">
+        <v>3.4727787036987145E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="454">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,142 +26,1312 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu mythos</t>
+    <t>John Wilkes Booth</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>assassinating presidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>the Phllippines and the Cthulu mythos</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>eating carrots in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Astronomy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medieval science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Miss Havisham</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a bureaucracy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>J. Edgar Hoover</t>
+  </si>
+  <si>
+    <t>the Law and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the FBI and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running the FBI in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about sex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Evolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>collecting fossils in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Golf and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Neil Armstrong</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>American architecture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern architecture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>designing modern buildings in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Miyagi</t>
+  </si>
+  <si>
+    <t>The Karate Kid and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martial Arts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>teaching martial arts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Miles Davis</t>
+  </si>
+  <si>
+    <t>Cool Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wilbur Wright</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aviation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>developing new technologies  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Severus Snape</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Novak Djokovic</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>delivering forehand slams in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kellyanne Conway</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabethan theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arthur Dent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Opera and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing opera arias in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Belushi</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Political criticism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>ranting about politics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Rudy Giuliani</t>
+  </si>
+  <si>
+    <t>New York City and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Cuban politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Oscar Wilde</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing short stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Maguire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American football and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>the American West and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hunting raccoons in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Rumsfeld</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting new wars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
     <t>singing pop songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
     <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Sideshow Bob</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
+    <t>Dr. Julius No</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sprung Rhyme and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hotel business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>condescending to customers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Agent Phil Coulson</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>appreciating vintage collectibles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Bodybuilding and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>working out in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bodybuilding in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simone de Beauvoir</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eluding hunters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>avoiding growing old in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Colbert</t>
+  </si>
+  <si>
+    <t>Comedy Central and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Count Dracula</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Krusty the Clown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Springfield and the Dagon mythos</t>
   </si>
   <si>
-    <t>developing cunning plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barbie</t>
-  </si>
-  <si>
-    <t>the Toy Industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting hair products in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Troy McClure</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>appearing in infomercials in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting educational films in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sir Lancelot</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>Fashion and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dana Scully</t>
-  </si>
-  <si>
-    <t>The X-Files and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>explaining away the unexplained in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lou Reed</t>
-  </si>
-  <si>
-    <t>The Velvet Revolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Eldon Tyrell</t>
-  </si>
-  <si>
-    <t>Blade Runner and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>designing replicants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simon Cowell</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Music industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting pop music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
+    <t>introducing cartoons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>Facebook and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Thomas "Neo" Anderson</t>
+  </si>
+  <si>
+    <t>The Matrix and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Newt Gingrich</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>The Old West and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westerns and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>arresting criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>American culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Working Class and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>ranting about liberals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making bad movie choices in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding paparazzi in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeremy Paxman</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing politicians in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Bond and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Walt Disney animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting movie violence in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in animated movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>Easy Listening and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Saxophone music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Eric Cartman</t>
+  </si>
+  <si>
+    <t>South Park and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>executing morally appalling plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making racist jibes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Talk radio and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>shocking radio listeners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judge Joe Dredd</t>
+  </si>
+  <si>
+    <t>Mega-City One and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Salman Rushdie</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hiding from extremists in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>the Americas and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Age of Discovery and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>searching for a new world in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Italian culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italian culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing serious acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tiny Tim Cratchit</t>
+  </si>
+  <si>
+    <t>A Christmas Carol and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Zac Efron</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making insipid musicals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>CIA and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eluding capture in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmeline Pankhurst </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Russian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>worrying about adultery in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pac Man</t>
+  </si>
+  <si>
+    <t>Video games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating power pellets in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding electronic ghosts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Neville Chamberlain</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jim Jones</t>
+  </si>
+  <si>
+    <t>Christian Fundamentalism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a religious cult in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> organizing mass suicides  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Adolf Hitler</t>
+  </si>
+  <si>
+    <t>German Fascism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fascism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting political causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Underwood</t>
+  </si>
+  <si>
+    <t>House of Cards and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting election strategies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a smuggling business in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Roger Federer</t>
+  </si>
+  <si>
+    <t>winning tennis matches in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johann Sebastian Bach</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baroque music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Religious music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jackson Pollock</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abstract art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abstract painting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Nancy Drew</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interpreting evidence in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anne Frank</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>The Artful Dodger</t>
+  </si>
+  <si>
+    <t>Oliver Twist and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>picking pockets in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>the American Depression and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank robbing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>robbing banks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting boxing fights in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>World War I and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robin Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>telling zany jokes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making madcap comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ross Geller</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying paleontology in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Margaret Mead</t>
+  </si>
+  <si>
+    <t>Anthropology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rupert Murdoch</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph Stalin</t>
+  </si>
+  <si>
+    <t>the Soviet Union and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cold War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a communist country in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jenna Maroney</t>
+  </si>
+  <si>
+    <t>30 Rock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Beatrix Potter</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>defending the weak in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joaquin Phoenix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hiding from the public in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>flirting with rednecks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jamie Oliver</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Romeo Montague</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting in duels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lisbeth Salander</t>
+  </si>
+  <si>
+    <t>The Girl With The Dragon Tattoo and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scandinavian crime fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting melancholy pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>coasting on past glories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Freddy Krueger</t>
+  </si>
+  <si>
+    <t>Nightmares and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dreams and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Red Sonja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hyborian Age and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>the Motor industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Car industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>mass-producing cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Roman politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Catherine The Great</t>
+  </si>
+  <si>
+    <t>Russian politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russian history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>The HamBurglar</t>
   </si>
   <si>
     <t>McDonalds and the Dagon mythos</t>
@@ -170,1189 +1340,40 @@
     <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
   </si>
   <si>
-    <t>flipping hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>guarding the galaxy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Henry VIII</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for the resistance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oscar Pistorius</t>
-  </si>
-  <si>
-    <t>Olympics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Racing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Running and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Erik "Magneto" Lehnsherr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>devising evil schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> building an army in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe DiMaggio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baseball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing baseball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johnny Carson</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Late-night TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Piers Morgan</t>
-  </si>
-  <si>
-    <t>Chat Shows and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Amelia Earhart</t>
-  </si>
-  <si>
-    <t>Aviation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>flying airplanes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kylie Minogue</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Motorcycle stunts and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing motorcycle stunts in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jumping over buses on motorbikes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>Oliver Twist and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Lydia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>collecting treasures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Bodybuilding and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>working out in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bodybuilding in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigel Farage</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brexit and the Cthulu-Dagon mythos</t>
+    <t>stealing hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>American football and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> signing sports memorabilia in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Edward Hyde</t>
+  </si>
+  <si>
+    <t>expressing violent urges in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chandler Bing</t>
+  </si>
+  <si>
+    <t>making sarcastic remarks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt "Daredevil" Murdock</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>exploring darkest Africa in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drawing room mysteries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anne Boleyn</t>
-  </si>
-  <si>
-    <t>climbing social ladders in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing kings in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Joyce</t>
-  </si>
-  <si>
-    <t>Modern literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Irish literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>30 Rock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing comedy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> striving for world domination in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kevin Bacon</t>
-  </si>
-  <si>
-    <t>Footloose and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A Few Good Men and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>forming new social connections in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas Jefferson</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing erotic fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shouting in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ray Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing the blues in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing country music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>expressing dissent in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the New world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Germany and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Expressionist art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Expressionist painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting dark pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>posing for photographs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Biology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DNA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Double Helix and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Golf and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Travis Bickle</t>
-  </si>
-  <si>
-    <t>Taxi Driver and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>expressing violent urges in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> talking to mirrors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Borat</t>
-  </si>
-  <si>
-    <t>Borat! and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Tony Blair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the British Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Labour Party and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberal values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Janis Joplin</t>
-  </si>
-  <si>
-    <t>Psychadelic music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>betraying friends in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stabbing in the back in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Horror fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing purple prose in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Hedge Funds and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speculation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>managing hedge funds in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Donald Rumsfeld</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting new wars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sun Tzu</t>
-  </si>
-  <si>
-    <t>The Art of War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient military history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walter White</t>
-  </si>
-  <si>
-    <t>Chrystal Meth and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemistry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cooking and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Chemistry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Natasha Romanova</t>
-  </si>
-  <si>
-    <t>Marvel Comics. Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>G. Gordon Liddy</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>Investment Funds and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Investments and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Silvio Berlusconi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>throwing Bunga Bunga parties in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Seinfeld</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sigmund Freud</t>
-  </si>
-  <si>
-    <t>Psychiatry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Psychoanalysis and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>probing the mind in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>leaking state secrets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Love songs and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing melancholy songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Family life and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>watching TV in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>the American Depression and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard Nixon</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Talk radio and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shocking radio listeners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing intense characters in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>the American West and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Hong Kong and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Martial Arts and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>Cycling and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cheating and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ayatollah Khomeini</t>
-  </si>
-  <si>
-    <t>Islamic Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>issuing fatwas in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jor El</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Gandalf the Grey</t>
-  </si>
-  <si>
-    <t>Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Middle Earth and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Virginia Woolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing intense characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Eastern religion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eastern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Buddhism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>biting opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Michael Myers</t>
-  </si>
-  <si>
-    <t>Halloween and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oprah Winfrey</t>
-  </si>
-  <si>
-    <t>Chat Shows and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pac Man</t>
-  </si>
-  <si>
-    <t>Video games and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating power pellets in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding electronic ghosts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Severus Snape</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> teaching magic in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a school for gifted teens in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Coriolanus Snow</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a bureaucracy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saint Peter</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Dr. Evil</t>
-  </si>
-  <si>
-    <t>Bond spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>demanding ransoms from the U.N. in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Maynard Keynes</t>
-  </si>
-  <si>
-    <t>Keynesian economics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monetarist economics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting monetarism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>Economics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>talking up the economy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Margaret Mead</t>
-  </si>
-  <si>
-    <t>Anthropology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jesus Christ</t>
-  </si>
-  <si>
-    <t>Christianity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Kardashian</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> flaunting buttocks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>expressing dissent in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Talk radio and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>shocking radio listeners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Meghan Markle</t>
-  </si>
-  <si>
-    <t>British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>racking up marriages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jar Jar Binks</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Neil Armstrong</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Kate Moss</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Joan Rivers</t>
-  </si>
-  <si>
-    <t>insulting celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Partridge</t>
-  </si>
-  <si>
-    <t>Regional Radio and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hosting radio shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ella Fitzgerald</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>James Cook</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>opening new markets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Humanism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting humanism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rat Pack and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Leia Organa</t>
-  </si>
-  <si>
-    <t>leading the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sid Vicious</t>
-  </si>
-  <si>
-    <t>Punk rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing punk rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scandalizing polite society in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.4727787036987145E-6</v>
+        <v>3.4283374481656375E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1442,91 +1463,91 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.830923265690905E-6</v>
+        <v>3.7774029384221653E-6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4.223427433721592E-6</v>
+        <v>4.159534425859075E-6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>4.653308654102762E-6</v>
+        <v>4.577599470319908E-6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.123820701367256E-6</v>
+        <v>5.034687453838958E-6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>5.638469399979609E-6</v>
+        <v>5.534124159898622E-6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>6.20102913440217E-6</v>
+        <v>6.079487075495497E-6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>6.815560163853787E-6</v>
+        <v>6.674621430901974E-6</v>
       </c>
     </row>
     <row r="10">
@@ -1534,13 +1555,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>7.486426756145873E-6</v>
+        <v>7.3236569902771745E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1551,393 +1572,393 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>8.218316152741446E-6</v>
+        <v>8.03102560430602E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>9.016258374694547E-6</v>
+        <v>8.801479533813414E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>9.88564687629601E-6</v>
+        <v>9.640110550818265E-6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0832260050152995E-5</v>
+        <v>1.0552369820719909E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1862283583973811E-5</v>
+        <v>1.1544088566276136E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>1.2982333665561061E-5</v>
+        <v>1.262149951066597E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>1.4199481028377074E-5</v>
+        <v>1.3791259093304405E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5521275825594518E-5</v>
+        <v>1.5060470448099322E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1.695577331565484E-5</v>
+        <v>1.643670712956087E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.8511560337200413E-5</v>
+        <v>1.792803756756113E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0197782545594984E-5</v>
+        <v>1.9543050226605412E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>2.202417237732676E-5</v>
+        <v>2.129087944020109E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>2.400107770221554E-5</v>
+        <v>2.3181231885271883E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>2.6139491116610272E-5</v>
+        <v>2.522441365566475E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>2.8451079823693637E-5</v>
+        <v>2.743135788746664E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>3.094821603949721E-5</v>
+        <v>2.98136528822731E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>3.364400785546101E-5</v>
+        <v>3.238357066763335E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>3.655233048010815E-5</v>
+        <v>3.515409592659666E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>3.968785777405594E-5</v>
+        <v>3.8138955220875603E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>4.3066093983548236E-5</v>
+        <v>4.135264642417735E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>4.670340556888158E-5</v>
+        <v>4.481046827436476E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>5.061705301445901E-5</v>
+        <v>4.852854994461377E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>5.4825222497839696E-5</v>
+        <v>5.252388052537631E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>5.934705728524064E-5</v>
+        <v>5.681433830018927E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6.420268871113529E-5</v>
+        <v>6.141871968951159E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>6.941326658940284E-5</v>
+        <v>6.635676772785118E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>7.500098889357302E-5</v>
+        <v>7.164919993040005E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>8.098913053344219E-5</v>
+        <v>7.731773539636569E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -1946,12 +1967,12 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>8.740207104536392E-5</v>
+        <v>8.338512098711567E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
@@ -1960,278 +1981,278 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>9.426532100360462E-5</v>
+        <v>8.987515640830829E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0160554695021044E-4</v>
+        <v>9.681271801642642E-5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0945059463161747E-4</v>
+        <v>1.0422378116138175E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>1.1782951032064128E-4</v>
+        <v>1.1213544086855756E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>1.267725599940644E-4</v>
+        <v>1.2057593065556665E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>1.3631124612735013E-4</v>
+        <v>1.2957463927132568E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>1.464783218606124E-4</v>
+        <v>1.3916212513780959E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>1.5730780228240043E-4</v>
+        <v>1.4937012826828425E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>1.6883497257204382E-4</v>
+        <v>1.6023157942950594E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>1.8109639273518113E-4</v>
+        <v>1.7178060631032168E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>1.941298986628589E-4</v>
+        <v>1.8405253645418498E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>2.079745992409291E-4</v>
+        <v>1.9708389670976788E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>2.2267086923378338E-4</v>
+        <v>2.1091240895034988E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>2.3826033766553888E-4</v>
+        <v>2.2557698181192897E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>2.547858714213938E-4</v>
+        <v>2.4111769819820574E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>2.722915537937279E-4</v>
+        <v>2.575757983019466E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>2.9082265770028664E-4</v>
+        <v>2.7499365789358495E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>3.104256133060956E-4</v>
+        <v>2.934147616313002E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>3.311479697871494E-4</v>
+        <v>3.1288367115117014E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>3.530383509820602E-4</v>
+        <v>3.334459877019306E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
@@ -2240,12 +2261,12 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>3.7614640468687944E-4</v>
+        <v>3.5514830909744947E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
@@ -2254,194 +2275,194 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>4.0052274536058353E-4</v>
+        <v>3.7803818076758127E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>4.2621889002226326E-4</v>
+        <v>4.021640407006156E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>4.5328718713583474E-4</v>
+        <v>4.2757515808242424E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
         <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>4.817807382969377E-4</v>
+        <v>4.543215654519246E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>5.117533125551955E-4</v>
+        <v>4.824539842088549E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>5.432592532277078E-4</v>
+        <v>5.120237433281676E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>5.763533770825977E-4</v>
+        <v>5.430826911546598E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>6.11090865798837E-4</v>
+        <v>5.756831001743398E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>6.475271496348498E-4</v>
+        <v>6.098775646815307E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>6.857177832700397E-4</v>
+        <v>6.457188912876895E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D71" t="n">
-        <v>7.257183138148857E-4</v>
+        <v>6.83259982243261E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
         <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>7.675841410201001E-4</v>
+        <v>7.225537115761339E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>8.113703697490773E-4</v>
+        <v>7.636527940765771E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>8.571316548197424E-4</v>
+        <v>8.066096471967561E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
         <v>106</v>
@@ -2450,539 +2471,539 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>9.049220383569936E-4</v>
+        <v>8.514762459619768E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>9.547947798412611E-4</v>
+        <v>8.983039710281828E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0010068021790794537</v>
+        <v>9.471434500596884E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0010609953923684697</v>
+        <v>9.98044392634203E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0011174242421677152</v>
+        <v>0.0010510554189258302</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0011761370206403443</v>
+        <v>0.001106223882455612</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
         <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0012371802874704893</v>
+        <v>0.0011635956872381795</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0013005986624135789</v>
+        <v>0.001223215099698756</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0013664346130757357</v>
+        <v>0.0012851245557729367</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
         <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0014347282384761066</v>
+        <v>0.0013493644636440177</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0015055170489838218</v>
+        <v>0.001415973002619992</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0015788357432711293</v>
+        <v>0.0014849859186845948</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
         <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0016547159829704075</v>
+        <v>0.0015564363173090866</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0017331861657651493</v>
+        <v>0.0016303544541427135</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
         <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0018142711976862208</v>
+        <v>0.0017067675242444826</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0018979922654324133</v>
+        <v>0.00178569945055633</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0019843666095599455</v>
+        <v>0.0018671706723533618</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0020734072994408395</v>
+        <v>0.0019511979344419075</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0021651230109020897</v>
+        <v>0.0020377940779093065</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002259517807506106</v>
+        <v>0.0021269678332603292</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002356590926452129</v>
+        <v>0.002218723616800977</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002456336570100137</v>
+        <v>0.002313061331154387</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002558743704137778</v>
+        <v>0.0024099761708224476</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002663795863447782</v>
+        <v>0.002509458433710199</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002771470966689449</v>
+        <v>0.0026114933395610107</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002881741140695615</v>
+        <v>0.002716060856250202</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
         <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002994572555702235</v>
+        <v>0.0028231355348897202</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
         <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0031099252724864357</v>
+        <v>0.0029326863547099458</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0032277531024496597</v>
+        <v>0.0030446765786670826</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
         <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
-        <v>0.00334800348166997</v>
+        <v>0.003159063620729319</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0034706173599416412</v>
+        <v>0.0032757989257701237</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0035955291057688243</v>
+        <v>0.0033948278629989947</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
         <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.003722666428270849</v>
+        <v>0.0035160896338088943</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0038519503169098246</v>
+        <v>0.003639517194922781</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
         <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D109" t="n">
-        <v>0.003983294999896525</v>
+        <v>0.003765037197663912</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
         <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004116607922098947</v>
+        <v>0.003892569944151769</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004251789743212719</v>
+        <v>0.004022029361173629</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
         <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0043887343568788095</v>
+        <v>0.004153322992436537</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
         <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004527328931397068</v>
+        <v>0.004286352009851391</v>
       </c>
     </row>
     <row r="114">
@@ -2996,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004667453972575564</v>
+        <v>0.004421011244440276</v>
       </c>
     </row>
     <row r="115">
@@ -3010,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004808983409208045</v>
+        <v>0.0045571892373945655</v>
       </c>
     </row>
     <row r="116">
@@ -3024,7 +3045,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004951784701568318</v>
+        <v>0.004694768311744313</v>
       </c>
     </row>
     <row r="117">
@@ -3035,10 +3056,10 @@
         <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D117" t="n">
-        <v>0.005095718973234575</v>
+        <v>0.004833624665030234</v>
       </c>
     </row>
     <row r="118">
@@ -3049,10 +3070,10 @@
         <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005240641166463278</v>
+        <v>0.004973628483280146</v>
       </c>
     </row>
     <row r="119">
@@ -3063,10 +3084,10 @@
         <v>166</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0053864002212292705</v>
+        <v>0.005114644076532948</v>
       </c>
     </row>
     <row r="120">
@@ -3077,10 +3098,10 @@
         <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005532839277963553</v>
+        <v>0.005256530036046925</v>
       </c>
     </row>
     <row r="121">
@@ -3091,10 +3112,10 @@
         <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005679795903906271</v>
+        <v>0.0053991394132525405</v>
       </c>
     </row>
     <row r="122">
@@ -3105,10 +3126,10 @@
         <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005827102342892521</v>
+        <v>0.005542319920424921</v>
       </c>
     </row>
     <row r="123">
@@ -3119,10 +3140,10 @@
         <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005974585788282805</v>
+        <v>0.0056859141529467805</v>
       </c>
     </row>
     <row r="124">
@@ -3133,10 +3154,10 @@
         <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
-        <v>0.006122068678648063</v>
+        <v>0.005829759832944759</v>
       </c>
     </row>
     <row r="125">
@@ -3147,10 +3168,10 @@
         <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D125" t="n">
-        <v>0.006269369015690529</v>
+        <v>0.005973690073988569</v>
       </c>
     </row>
     <row r="126">
@@ -3161,10 +3182,10 @@
         <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006416300703800892</v>
+        <v>0.006117533666436692</v>
       </c>
     </row>
     <row r="127">
@@ -3175,10 +3196,10 @@
         <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0065626739105219545</v>
+        <v>0.006261115382927673</v>
       </c>
     </row>
     <row r="128">
@@ -3189,10 +3210,10 @@
         <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.006708295447087287</v>
+        <v>0.0064042563034030775</v>
       </c>
     </row>
     <row r="129">
@@ -3203,281 +3224,281 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006852969168101575</v>
+        <v>0.006546774158964652</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" t="s">
         <v>181</v>
       </c>
-      <c r="B130" t="s">
-        <v>182</v>
-      </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006996496389320039</v>
+        <v>0.006688483693766678</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
         <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
-        <v>0.007138676322383353</v>
+        <v>0.006829197044044166</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B132" t="s">
         <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>0.007279306525270479</v>
+        <v>0.006968724133300852</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>182</v>
+      </c>
+      <c r="B133" t="s">
         <v>185</v>
       </c>
-      <c r="B133" t="s">
-        <v>186</v>
-      </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007418183367129794</v>
+        <v>0.007106873082574017</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B134" t="s">
         <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007555102506070166</v>
+        <v>0.0072434506346160665</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B135" t="s">
         <v>188</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
-        <v>0.007689859378398389</v>
+        <v>0.007378262590753026</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" t="s">
         <v>189</v>
       </c>
-      <c r="B136" t="s">
-        <v>190</v>
-      </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007822249697720551</v>
+        <v>0.007511114259093399</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B137" t="s">
         <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>0.007952069962242014</v>
+        <v>0.0076418109126908385</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B138" t="s">
         <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
-        <v>0.008079117968549432</v>
+        <v>0.0077701582561992555</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" t="s">
         <v>193</v>
       </c>
-      <c r="B139" t="s">
-        <v>194</v>
-      </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>0.008203193330085123</v>
+        <v>0.007895962899494985</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
         <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>0.008324097998483632</v>
+        <v>0.00801903283667757</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
         <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008441636785897294</v>
+        <v>0.008139177928822072</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>194</v>
+      </c>
+      <c r="B142" t="s">
         <v>197</v>
       </c>
-      <c r="B142" t="s">
-        <v>198</v>
-      </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008555617886396666</v>
+        <v>0.008256210388804697</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B143" t="s">
         <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008665853394516615</v>
+        <v>0.008369945266495316</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
         <v>200</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008772159819003145</v>
+        <v>0.008480200932570625</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>198</v>
+      </c>
+      <c r="B145" t="s">
         <v>201</v>
       </c>
-      <c r="B145" t="s">
-        <v>202</v>
-      </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008874358589788384</v>
+        <v>0.008586799559201996</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B146" t="s">
         <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008972276556268366</v>
+        <v>0.008689567595837</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B147" t="s">
         <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D147" t="n">
-        <v>0.009065746474915537</v>
+        <v>0.008788336238308964</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148" t="s">
         <v>205</v>
       </c>
-      <c r="B148" t="s">
-        <v>206</v>
-      </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00915460748433286</v>
+        <v>0.00888294188950553</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
         <v>207</v>
@@ -3486,133 +3507,133 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>0.009238705565850214</v>
+        <v>0.008973226609840401</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>206</v>
+      </c>
+      <c r="B150" t="s">
         <v>208</v>
       </c>
-      <c r="B150" t="s">
-        <v>209</v>
-      </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>0.00931789398782451</v>
+        <v>0.009059038555798787</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>0.00939203373185532</v>
+        <v>0.00914023240485437</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
         <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009460993899178635</v>
+        <v>0.009216669765096025</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>210</v>
+      </c>
+      <c r="B153" t="s">
         <v>212</v>
       </c>
-      <c r="B153" t="s">
-        <v>213</v>
-      </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009524652095581176</v>
+        <v>0.009288219567951228</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009582894793250862</v>
+        <v>0.009354758442445502</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B155" t="s">
         <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009635617668066171</v>
+        <v>0.009416171069505805</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>214</v>
+      </c>
+      <c r="B156" t="s">
         <v>216</v>
       </c>
-      <c r="B156" t="s">
-        <v>217</v>
-      </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009682725910922063</v>
+        <v>0.009472350514881808</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D157" t="n">
-        <v>0.00972413451179343</v>
+        <v>0.00952319853934118</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
         <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009759768515341855</v>
+        <v>0.009568625884881152</v>
       </c>
     </row>
     <row r="159">
@@ -3626,7 +3647,7 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009789563246995349</v>
+        <v>0.009608552535786623</v>
       </c>
     </row>
     <row r="160">
@@ -3640,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009813464508541498</v>
+        <v>0.009642907953467977</v>
       </c>
     </row>
     <row r="161">
@@ -3654,7 +3675,7 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009831428742406903</v>
+        <v>0.009671631284113837</v>
       </c>
     </row>
     <row r="162">
@@ -3665,10 +3686,10 @@
         <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009843423163930082</v>
+        <v>0.009694671538303494</v>
       </c>
     </row>
     <row r="163">
@@ -3679,10 +3700,10 @@
         <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>0.00984942586106009</v>
+        <v>0.009711987741834145</v>
       </c>
     </row>
     <row r="164">
@@ -3693,10 +3714,10 @@
         <v>227</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>0.00984942586106009</v>
+        <v>0.009723549057143462</v>
       </c>
     </row>
     <row r="165">
@@ -3707,10 +3728,10 @@
         <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009843423163930082</v>
+        <v>0.009729334874819442</v>
       </c>
     </row>
     <row r="166">
@@ -3721,10 +3742,10 @@
         <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009831428742406546</v>
+        <v>0.009729334874819442</v>
       </c>
     </row>
     <row r="167">
@@ -3735,10 +3756,10 @@
         <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009813464508541495</v>
+        <v>0.009723549057143462</v>
       </c>
     </row>
     <row r="168">
@@ -3749,10 +3770,10 @@
         <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009789563246995536</v>
+        <v>0.009711987741834145</v>
       </c>
     </row>
     <row r="169">
@@ -3763,10 +3784,10 @@
         <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009759768515341848</v>
+        <v>0.009694671538303494</v>
       </c>
     </row>
     <row r="170">
@@ -3777,10 +3798,10 @@
         <v>235</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009724134511793443</v>
+        <v>0.00967163128411401</v>
       </c>
     </row>
     <row r="171">
@@ -3791,10 +3812,10 @@
         <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
-        <v>0.00968272591092223</v>
+        <v>0.009642907953467957</v>
       </c>
     </row>
     <row r="172">
@@ -3805,10 +3826,10 @@
         <v>238</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009635617668066171</v>
+        <v>0.009608552535786664</v>
       </c>
     </row>
     <row r="173">
@@ -3819,10 +3840,10 @@
         <v>239</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009582894793250488</v>
+        <v>0.009568625884881152</v>
       </c>
     </row>
     <row r="174">
@@ -3833,85 +3854,85 @@
         <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009524652095581204</v>
+        <v>0.00952319853934118</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>240</v>
+      </c>
+      <c r="B175" t="s">
         <v>242</v>
       </c>
-      <c r="B175" t="s">
-        <v>243</v>
-      </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009460993899178635</v>
+        <v>0.00947235051488178</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C176" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009392033731855473</v>
+        <v>0.009416171069505819</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B177" t="s">
         <v>245</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009317893987824566</v>
+        <v>0.009354758442445488</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>244</v>
+      </c>
+      <c r="B178" t="s">
         <v>246</v>
       </c>
-      <c r="B178" t="s">
-        <v>247</v>
-      </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009238705565850241</v>
+        <v>0.009288219567951228</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009154607484332972</v>
+        <v>0.009216669765096025</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B180" t="s">
         <v>249</v>
@@ -3920,40 +3941,40 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009065746474915537</v>
+        <v>0.009140232404854343</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>248</v>
+      </c>
+      <c r="B181" t="s">
         <v>250</v>
       </c>
-      <c r="B181" t="s">
-        <v>251</v>
-      </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>0.008972276556268366</v>
+        <v>0.009059038555798787</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B182" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008874358589788106</v>
+        <v>0.008973226609840429</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B183" t="s">
         <v>253</v>
@@ -3962,40 +3983,40 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>0.00877215981900309</v>
+        <v>0.008882941889505447</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>252</v>
+      </c>
+      <c r="B184" t="s">
         <v>254</v>
       </c>
-      <c r="B184" t="s">
-        <v>255</v>
-      </c>
       <c r="C184" t="s">
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>0.00866585339451681</v>
+        <v>0.008788336238308964</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B185" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008555617886396583</v>
+        <v>0.008689567595837111</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B186" t="s">
         <v>257</v>
@@ -4004,306 +4025,306 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008441636785897377</v>
+        <v>0.008586799559202024</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>256</v>
+      </c>
+      <c r="B187" t="s">
         <v>258</v>
       </c>
-      <c r="B187" t="s">
-        <v>259</v>
-      </c>
       <c r="C187" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>0.00832409799848377</v>
+        <v>0.008480200932570625</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C188" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008203193330085123</v>
+        <v>0.008369945266495232</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B189" t="s">
         <v>261</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008079117968549099</v>
+        <v>0.008256210388804697</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>260</v>
+      </c>
+      <c r="B190" t="s">
         <v>262</v>
       </c>
-      <c r="B190" t="s">
-        <v>263</v>
-      </c>
       <c r="C190" t="s">
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>0.007952069962242042</v>
+        <v>0.008139177928822156</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>0.00782224969772044</v>
+        <v>0.00801903283667757</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B192" t="s">
         <v>265</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D192" t="n">
-        <v>0.007689859378398667</v>
+        <v>0.007895962899495124</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>264</v>
+      </c>
+      <c r="B193" t="s">
         <v>266</v>
       </c>
-      <c r="B193" t="s">
-        <v>267</v>
-      </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007555102506070055</v>
+        <v>0.0077701582561992</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B194" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00741818336712996</v>
+        <v>0.007641810912690561</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B195" t="s">
         <v>269</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007279306525270535</v>
+        <v>0.007511114259093399</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>268</v>
+      </c>
+      <c r="B196" t="s">
         <v>270</v>
       </c>
-      <c r="B196" t="s">
-        <v>271</v>
-      </c>
       <c r="C196" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007138676322383353</v>
+        <v>0.007378262590753026</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B197" t="s">
         <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D197" t="n">
-        <v>0.006996496389320039</v>
+        <v>0.0072434506346160665</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>271</v>
+      </c>
+      <c r="B198" t="s">
         <v>273</v>
       </c>
-      <c r="B198" t="s">
-        <v>274</v>
-      </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D198" t="n">
-        <v>0.006852969168101186</v>
+        <v>0.007106873082574017</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C199" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006708295447087342</v>
+        <v>0.006968724133300852</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B200" t="s">
         <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006562673910522232</v>
+        <v>0.006829197044044166</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>275</v>
+      </c>
+      <c r="B201" t="s">
         <v>277</v>
       </c>
-      <c r="B201" t="s">
-        <v>278</v>
-      </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D201" t="n">
-        <v>0.006416300703800837</v>
+        <v>0.006688483693766678</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B202" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C202" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0062693690156904736</v>
+        <v>0.006546774158964652</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B203" t="s">
         <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D203" t="n">
-        <v>0.006122068678648229</v>
+        <v>0.0064042563034030775</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>279</v>
+      </c>
+      <c r="B204" t="s">
         <v>281</v>
       </c>
-      <c r="B204" t="s">
-        <v>282</v>
-      </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D204" t="n">
-        <v>0.005974585788282805</v>
+        <v>0.006261115382927673</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B205" t="s">
         <v>283</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D205" t="n">
-        <v>0.005827102342892243</v>
+        <v>0.006117533666436692</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s">
         <v>284</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D206" t="n">
-        <v>0.005679795903906437</v>
+        <v>0.005973690073988569</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>282</v>
+      </c>
+      <c r="B207" t="s">
         <v>285</v>
       </c>
-      <c r="B207" t="s">
-        <v>286</v>
-      </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D207" t="n">
-        <v>0.005532839277963442</v>
+        <v>0.005829759832944759</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B208" t="s">
         <v>287</v>
@@ -4312,12 +4333,12 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0053864002212293816</v>
+        <v>0.0056859141529467805</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B209" t="s">
         <v>288</v>
@@ -4326,49 +4347,49 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0052406411664633334</v>
+        <v>0.005542319920424921</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
+        <v>286</v>
+      </c>
+      <c r="B210" t="s">
         <v>289</v>
       </c>
-      <c r="B210" t="s">
-        <v>290</v>
-      </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>0.00509571897323452</v>
+        <v>0.0053991394132525405</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B211" t="s">
         <v>291</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D211" t="n">
-        <v>0.004951784701568429</v>
+        <v>0.005256530036046925</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B212" t="s">
         <v>292</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D212" t="n">
-        <v>0.004808983409208045</v>
+        <v>0.00511464407653317</v>
       </c>
     </row>
     <row r="213">
@@ -4379,10 +4400,10 @@
         <v>294</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D213" t="n">
-        <v>0.004667453972575564</v>
+        <v>0.00497362848328009</v>
       </c>
     </row>
     <row r="214">
@@ -4393,10 +4414,10 @@
         <v>295</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D214" t="n">
-        <v>0.00452732893139679</v>
+        <v>0.004833624665030178</v>
       </c>
     </row>
     <row r="215">
@@ -4407,10 +4428,10 @@
         <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004388734356879032</v>
+        <v>0.004694768311744313</v>
       </c>
     </row>
     <row r="216">
@@ -4421,10 +4442,10 @@
         <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004251789743212608</v>
+        <v>0.00455718923739451</v>
       </c>
     </row>
     <row r="217">
@@ -4435,113 +4456,113 @@
         <v>299</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004116607922099114</v>
+        <v>0.004421011244440276</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>297</v>
+      </c>
+      <c r="B218" t="s">
         <v>300</v>
       </c>
-      <c r="B218" t="s">
-        <v>301</v>
-      </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0039832949998964695</v>
+        <v>0.004286352009851335</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B219" t="s">
         <v>302</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.00385195031690988</v>
+        <v>0.004153322992436481</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B220" t="s">
         <v>303</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>0.003722666428270849</v>
+        <v>0.004022029361173685</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>301</v>
+      </c>
+      <c r="B221" t="s">
         <v>304</v>
       </c>
-      <c r="B221" t="s">
-        <v>305</v>
-      </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0035955291057687133</v>
+        <v>0.0038925699441519357</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B222" t="s">
         <v>306</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0034706173599416412</v>
+        <v>0.0037650371976637453</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
         <v>307</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.003348003481669748</v>
+        <v>0.0036395171949228367</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
+        <v>305</v>
+      </c>
+      <c r="B224" t="s">
         <v>308</v>
       </c>
-      <c r="B224" t="s">
-        <v>309</v>
-      </c>
       <c r="C224" t="s">
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0032277531024497708</v>
+        <v>0.0035160896338087833</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B225" t="s">
         <v>310</v>
@@ -4550,12 +4571,12 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0031099252724864357</v>
+        <v>0.0033948278629991058</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B226" t="s">
         <v>311</v>
@@ -4564,7 +4585,7 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.002994572555702457</v>
+        <v>0.003275798925770068</v>
       </c>
     </row>
     <row r="227">
@@ -4575,10 +4596,10 @@
         <v>313</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D227" t="n">
-        <v>0.002881741140695615</v>
+        <v>0.0031590636207293743</v>
       </c>
     </row>
     <row r="228">
@@ -4589,10 +4610,10 @@
         <v>314</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D228" t="n">
-        <v>0.002771470966689449</v>
+        <v>0.0030446765786670826</v>
       </c>
     </row>
     <row r="229">
@@ -4603,10 +4624,10 @@
         <v>315</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D229" t="n">
-        <v>0.002663795863447782</v>
+        <v>0.0029326863547099458</v>
       </c>
     </row>
     <row r="230">
@@ -4617,10 +4638,10 @@
         <v>317</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D230" t="n">
-        <v>0.002558743704138</v>
+        <v>0.0028231355348896092</v>
       </c>
     </row>
     <row r="231">
@@ -4631,183 +4652,183 @@
         <v>318</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D231" t="n">
-        <v>0.002456336570099693</v>
+        <v>0.0027160608562503685</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>316</v>
+      </c>
+      <c r="B232" t="s">
         <v>319</v>
       </c>
-      <c r="B232" t="s">
-        <v>320</v>
-      </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0023565909264521845</v>
+        <v>0.0026114933395611217</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B233" t="s">
         <v>321</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0022595178075062727</v>
+        <v>0.002509458433709977</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>320</v>
+      </c>
+      <c r="B234" t="s">
         <v>322</v>
       </c>
-      <c r="B234" t="s">
-        <v>323</v>
-      </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D234" t="n">
-        <v>0.002165123010902055</v>
+        <v>0.0024099761708225587</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B235" t="s">
         <v>324</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>0.002073407299440874</v>
+        <v>0.002313061331154276</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B236" t="s">
         <v>325</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0019843666095599455</v>
+        <v>0.002218723616800977</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
+        <v>323</v>
+      </c>
+      <c r="B237" t="s">
         <v>326</v>
       </c>
-      <c r="B237" t="s">
-        <v>327</v>
-      </c>
       <c r="C237" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0018979922654323508</v>
+        <v>0.0021269678332603292</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B238" t="s">
         <v>328</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0018142711976862486</v>
+        <v>0.0020377940779093065</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B239" t="s">
         <v>329</v>
       </c>
       <c r="C239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0017331861657651111</v>
+        <v>0.0019511979344419075</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>327</v>
+      </c>
+      <c r="B240" t="s">
         <v>330</v>
       </c>
-      <c r="B240" t="s">
-        <v>331</v>
-      </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0016547159829703763</v>
+        <v>0.0018671706723533618</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B241" t="s">
         <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D241" t="n">
-        <v>0.001578835743271216</v>
+        <v>0.00178569945055633</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B242" t="s">
         <v>333</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D242" t="n">
-        <v>0.001505517048983801</v>
+        <v>0.0017067675242444826</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
+        <v>331</v>
+      </c>
+      <c r="B243" t="s">
         <v>334</v>
       </c>
-      <c r="B243" t="s">
-        <v>335</v>
-      </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0014347282384761448</v>
+        <v>0.0016303544541427135</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B244" t="s">
         <v>336</v>
@@ -4816,12 +4837,12 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0013664346130757357</v>
+        <v>0.0015564363173090866</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B245" t="s">
         <v>337</v>
@@ -4830,7 +4851,7 @@
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0013005986624135789</v>
+        <v>0.0014849859186845948</v>
       </c>
     </row>
     <row r="246">
@@ -4841,10 +4862,10 @@
         <v>339</v>
       </c>
       <c r="C246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D246" t="n">
-        <v>0.001237180287470465</v>
+        <v>0.001415973002619992</v>
       </c>
     </row>
     <row r="247">
@@ -4855,10 +4876,10 @@
         <v>340</v>
       </c>
       <c r="C247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D247" t="n">
-        <v>0.00117613702064032</v>
+        <v>0.0013493644636440177</v>
       </c>
     </row>
     <row r="248">
@@ -4869,52 +4890,52 @@
         <v>341</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0011174242421677534</v>
+        <v>0.0012851245557729367</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>93</v>
+        <v>342</v>
       </c>
       <c r="B249" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C249" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0010609953923684697</v>
+        <v>0.001223215099698756</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>93</v>
+        <v>342</v>
       </c>
       <c r="B250" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C250" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0010068021790794537</v>
+        <v>0.0011635956872381795</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="B251" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D251" t="n">
-        <v>9.547947798412715E-4</v>
+        <v>0.001106223882455612</v>
       </c>
     </row>
     <row r="252">
@@ -4922,13 +4943,13 @@
         <v>345</v>
       </c>
       <c r="B252" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D252" t="n">
-        <v>9.049220383569936E-4</v>
+        <v>0.0010510554189258302</v>
       </c>
     </row>
     <row r="253">
@@ -4936,270 +4957,270 @@
         <v>345</v>
       </c>
       <c r="B253" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D253" t="n">
-        <v>8.571316548197146E-4</v>
+        <v>9.98044392634203E-4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B254" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D254" t="n">
-        <v>8.113703697490721E-4</v>
+        <v>9.471434500596884E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B255" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D255" t="n">
-        <v>7.675841410201001E-4</v>
+        <v>8.983039710281828E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B256" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D256" t="n">
-        <v>7.2571831381491E-4</v>
+        <v>8.514762459619768E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B257" t="s">
         <v>354</v>
       </c>
       <c r="C257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D257" t="n">
-        <v>6.85717783270038E-4</v>
+        <v>8.066096471967561E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B258" t="s">
         <v>355</v>
       </c>
       <c r="C258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D258" t="n">
-        <v>6.475271496348464E-4</v>
+        <v>7.636527940765771E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B259" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D259" t="n">
-        <v>6.110908657988509E-4</v>
+        <v>7.225537115761339E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B260" t="s">
         <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D260" t="n">
-        <v>5.763533770825977E-4</v>
+        <v>6.832599822432627E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B261" t="s">
         <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D261" t="n">
-        <v>5.432592532277078E-4</v>
+        <v>6.457188912877086E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B262" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D262" t="n">
-        <v>5.117533125551859E-4</v>
+        <v>6.09877564681522E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B263" t="s">
         <v>362</v>
       </c>
       <c r="C263" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D263" t="n">
-        <v>4.817807382969299E-4</v>
+        <v>5.75683100174345E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B264" t="s">
         <v>363</v>
       </c>
       <c r="C264" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D264" t="n">
-        <v>4.5328718713584255E-4</v>
+        <v>5.43082691154646E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B265" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D265" t="n">
-        <v>4.2621889002226847E-4</v>
+        <v>5.120237433281641E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B266" t="s">
         <v>366</v>
       </c>
       <c r="C266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D266" t="n">
-        <v>4.0052274536058613E-4</v>
+        <v>4.824539842088653E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B267" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C267" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>3.761464046868812E-4</v>
+        <v>4.543215654519185E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B268" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C268" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>3.530383509820602E-4</v>
+        <v>4.275751580824312E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B269" t="s">
         <v>370</v>
       </c>
       <c r="C269" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>3.3114796978713727E-4</v>
+        <v>4.021640407006061E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B270" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C270" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>3.1042561330609907E-4</v>
+        <v>3.7803818076759255E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B271" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>2.9082265770028967E-4</v>
+        <v>3.5514830909745294E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B272" t="s">
         <v>374</v>
@@ -5208,7 +5229,7 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>2.722915537937292E-4</v>
+        <v>3.334459877019219E-4</v>
       </c>
     </row>
     <row r="273">
@@ -5219,10 +5240,10 @@
         <v>376</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D273" t="n">
-        <v>2.547858714213912E-4</v>
+        <v>3.128836711511684E-4</v>
       </c>
     </row>
     <row r="274">
@@ -5233,10 +5254,10 @@
         <v>377</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D274" t="n">
-        <v>2.3826033766553715E-4</v>
+        <v>2.934147616313089E-4</v>
       </c>
     </row>
     <row r="275">
@@ -5247,10 +5268,10 @@
         <v>378</v>
       </c>
       <c r="C275" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D275" t="n">
-        <v>2.2267086923379205E-4</v>
+        <v>2.749936578935776E-4</v>
       </c>
     </row>
     <row r="276">
@@ -5261,10 +5282,10 @@
         <v>380</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>2.079745992409291E-4</v>
+        <v>2.5757579830194485E-4</v>
       </c>
     </row>
     <row r="277">
@@ -5275,52 +5296,52 @@
         <v>381</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>1.941298986628589E-4</v>
+        <v>2.4111769819820618E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B278" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C278" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D278" t="n">
-        <v>1.810963927351768E-4</v>
+        <v>2.2557698181192723E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B279" t="s">
         <v>384</v>
       </c>
       <c r="C279" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D279" t="n">
-        <v>1.6883497257204512E-4</v>
+        <v>2.1091240895034554E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B280" t="s">
         <v>385</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D280" t="n">
-        <v>1.5730780228240347E-4</v>
+        <v>1.9708389670976788E-4</v>
       </c>
     </row>
     <row r="281">
@@ -5331,10 +5352,10 @@
         <v>387</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1.4647832186060914E-4</v>
+        <v>1.8405253645418498E-4</v>
       </c>
     </row>
     <row r="282">
@@ -5345,10 +5366,10 @@
         <v>389</v>
       </c>
       <c r="C282" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D282" t="n">
-        <v>1.3631124612735078E-4</v>
+        <v>1.7178060631032168E-4</v>
       </c>
     </row>
     <row r="283">
@@ -5359,10 +5380,10 @@
         <v>390</v>
       </c>
       <c r="C283" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D283" t="n">
-        <v>1.26772559994067E-4</v>
+        <v>1.6023157942950594E-4</v>
       </c>
     </row>
     <row r="284">
@@ -5373,10 +5394,10 @@
         <v>391</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D284" t="n">
-        <v>1.1782951032064128E-4</v>
+        <v>1.4937012826828425E-4</v>
       </c>
     </row>
     <row r="285">
@@ -5387,10 +5408,10 @@
         <v>393</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D285" t="n">
-        <v>1.0945059463161226E-4</v>
+        <v>1.3916212513780959E-4</v>
       </c>
     </row>
     <row r="286">
@@ -5401,10 +5422,10 @@
         <v>394</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D286" t="n">
-        <v>1.0160554695021217E-4</v>
+        <v>1.2957463927132568E-4</v>
       </c>
     </row>
     <row r="287">
@@ -5415,94 +5436,94 @@
         <v>395</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D287" t="n">
-        <v>9.426532100360245E-5</v>
+        <v>1.2057593065556665E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="B288" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>8.740207104536955E-5</v>
+        <v>1.1213544086855756E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="B289" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C289" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>8.098913053344078E-5</v>
+        <v>1.0422378116138175E-4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="B290" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C290" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>7.500098889357443E-5</v>
+        <v>9.681271801642642E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="B291" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D291" t="n">
-        <v>6.941326658940284E-5</v>
+        <v>8.987515640830829E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="B292" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D292" t="n">
-        <v>6.420268871113529E-5</v>
+        <v>8.338512098711567E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>289</v>
+        <v>402</v>
       </c>
       <c r="B293" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D293" t="n">
-        <v>5.934705728524064E-5</v>
+        <v>7.731773539636569E-5</v>
       </c>
     </row>
     <row r="294">
@@ -5510,13 +5531,13 @@
         <v>402</v>
       </c>
       <c r="B294" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D294" t="n">
-        <v>5.482522249783623E-5</v>
+        <v>7.164919993040005E-5</v>
       </c>
     </row>
     <row r="295">
@@ -5524,256 +5545,256 @@
         <v>402</v>
       </c>
       <c r="B295" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D295" t="n">
-        <v>5.0617053014461724E-5</v>
+        <v>6.635676772785118E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B296" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C296" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D296" t="n">
-        <v>4.670340556888158E-5</v>
+        <v>6.141871968951159E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B297" t="s">
         <v>408</v>
       </c>
       <c r="C297" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D297" t="n">
-        <v>4.3066093983548995E-5</v>
+        <v>5.681433830018927E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B298" t="s">
         <v>409</v>
       </c>
       <c r="C298" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D298" t="n">
-        <v>3.968785777405464E-5</v>
+        <v>5.252388052537631E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B299" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D299" t="n">
-        <v>3.655233048010945E-5</v>
+        <v>4.852854994461377E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B300" t="s">
         <v>412</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D300" t="n">
-        <v>3.364400785546101E-5</v>
+        <v>4.481046827436606E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B301" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>3.09482160394965E-5</v>
+        <v>4.135264642417789E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B302" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C302" t="s">
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>2.8451079823693312E-5</v>
+        <v>3.813895522087376E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B303" t="s">
         <v>416</v>
       </c>
       <c r="C303" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>2.613949111661038E-5</v>
+        <v>3.515409592659747E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B304" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C304" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>2.4001077702215596E-5</v>
+        <v>3.238357066763324E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B305" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C305" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D305" t="n">
-        <v>2.2024172377327626E-5</v>
+        <v>2.9813652882273263E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B306" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C306" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D306" t="n">
-        <v>2.0197782545594632E-5</v>
+        <v>2.7431357887465772E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B307" t="s">
         <v>422</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D307" t="n">
-        <v>1.8511560337200765E-5</v>
+        <v>2.522441365566475E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B308" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D308" t="n">
-        <v>1.695577331565484E-5</v>
+        <v>2.3181231885272642E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B309" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D309" t="n">
-        <v>1.5521275825594518E-5</v>
+        <v>2.1290879440200792E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B310" t="s">
         <v>426</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D310" t="n">
-        <v>1.4199481028376966E-5</v>
+        <v>1.954305022660525E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B311" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
       </c>
       <c r="D311" t="n">
-        <v>1.2982333665560492E-5</v>
+        <v>1.7928037567560833E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B312" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>1.1862283583974489E-5</v>
+        <v>1.643670712956106E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B313" t="s">
         <v>430</v>
@@ -5782,133 +5803,133 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>1.0832260050152941E-5</v>
+        <v>1.5060470448099457E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B314" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D314" t="n">
-        <v>9.885646876295833E-6</v>
+        <v>1.3791259093304405E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B315" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D315" t="n">
-        <v>9.016258374694777E-6</v>
+        <v>1.2621499510665645E-5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B316" t="s">
         <v>434</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D316" t="n">
-        <v>8.218316152741446E-6</v>
+        <v>1.1544088566276325E-5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B317" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>7.486426756145439E-6</v>
+        <v>1.0552369820720126E-5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B318" t="s">
         <v>437</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>6.815560163854045E-6</v>
+        <v>9.640110550817967E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B319" t="s">
         <v>438</v>
       </c>
       <c r="C319" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>6.201029134402007E-6</v>
+        <v>8.80147953381359E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B320" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C320" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D320" t="n">
-        <v>5.6384693999797985E-6</v>
+        <v>8.031025604305953E-6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B321" t="s">
         <v>441</v>
       </c>
       <c r="C321" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D321" t="n">
-        <v>5.123820701367236E-6</v>
+        <v>7.323656990276958E-6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B322" t="s">
         <v>442</v>
       </c>
       <c r="C322" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D322" t="n">
-        <v>4.653308654102932E-6</v>
+        <v>6.674621430901974E-6</v>
       </c>
     </row>
     <row r="323">
@@ -5919,10 +5940,10 @@
         <v>444</v>
       </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D323" t="n">
-        <v>4.223427433721592E-6</v>
+        <v>6.079487075495497E-6</v>
       </c>
     </row>
     <row r="324">
@@ -5933,10 +5954,10 @@
         <v>445</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D324" t="n">
-        <v>3.830923265690905E-6</v>
+        <v>5.534124159898622E-6</v>
       </c>
     </row>
     <row r="325">
@@ -5947,10 +5968,66 @@
         <v>446</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D325" t="n">
-        <v>3.4727787036987145E-6</v>
+        <v>5.034687453838958E-6</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>447</v>
+      </c>
+      <c r="B326" t="s">
+        <v>448</v>
+      </c>
+      <c r="C326" t="s">
+        <v>15</v>
+      </c>
+      <c r="D326" t="n">
+        <v>4.577599470319908E-6</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>449</v>
+      </c>
+      <c r="B327" t="s">
+        <v>450</v>
+      </c>
+      <c r="C327" t="s">
+        <v>15</v>
+      </c>
+      <c r="D327" t="n">
+        <v>4.159534425859075E-6</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>451</v>
+      </c>
+      <c r="B328" t="s">
+        <v>452</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>3.7774029384221653E-6</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>451</v>
+      </c>
+      <c r="B329" t="s">
+        <v>453</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3.4283374481656375E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="444">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,235 +26,1306 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>John Wilkes Booth</t>
+    <t>Tom Wolfe</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing about social problems in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Myers</t>
+  </si>
+  <si>
+    <t>Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>The Joker</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rachel Green</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>getting a nose job in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt Drudge</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Diana Ross</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>John McClane</t>
+  </si>
+  <si>
+    <t>Die Hard and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescuing hostages in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Helen of Troy</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>worrying about adultery in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preparing for war in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>René Descartes</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Rafael Nadal</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mike Tyson</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>Facebook and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Lydia and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>collecting treasures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Spacey</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Sean Connery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing James Bond in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pyotr Ilyich Tchaikovsky</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Piano music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>composing classical music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dating supermodels in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about sex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Karl Rove</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Silvio Berlusconi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>throwing Bunga Bunga parties in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Samuel Pepys</t>
+  </si>
+  <si>
+    <t>the Restoration period and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Diary and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Olive Oyl</t>
+  </si>
+  <si>
+    <t>Thimble Theatre and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>doing the Charleston in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Family life and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>watching TV in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Bond and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harvey Milk</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>McDonalds and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Amy Schumer</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making vulgar jokes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimmy Carter</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>building houses for poor people in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rembrandt</t>
+  </si>
+  <si>
+    <t>Painting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting colorful pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> painting self-portraits in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Belushi</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>the Phllippines and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joey Tribbiani</t>
+  </si>
+  <si>
+    <t>seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acting off-off-Broadway in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in daytime soap operas in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry David</t>
+  </si>
+  <si>
+    <t>Curb Your Enthusiasm and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing TV comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>George McFly</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>standing up to bullies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
   </si>
   <si>
     <t>American politics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>assassinating presidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>the Phllippines and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>eating carrots in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Astronomy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Medieval science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Queen Victoria</t>
+    <t xml:space="preserve"> the Environment and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Morty Smith</t>
+  </si>
+  <si>
+    <t>Rick and Morty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dr. Greg House</t>
+  </si>
+  <si>
+    <t>Diagnostic medicine and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> treating diseases in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diagnosing diseases in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>American architecture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern architecture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>designing modern buildings in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Fiona</t>
+  </si>
+  <si>
+    <t>Fairy Tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>waiting for a hero in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>E.T.</t>
+  </si>
+  <si>
+    <t>Alien visitations  and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>phoning home in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  British class politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing the piano in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Directing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suspense and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making suspense movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barbra Streisand</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>Prohibition and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chicago and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Oratory and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rhetoric and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Huckleberry Finn</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American South and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>growing up poor in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Vladimir Lenin</t>
+  </si>
+  <si>
+    <t>the Russian revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting communism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for worker's rights in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Napoleon Bonaparte</t>
+  </si>
+  <si>
+    <t>France and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Saddam Hussein</t>
+  </si>
+  <si>
+    <t>Islamic Terrorism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>suppressing minorities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Jong-Il</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asian politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>crushing dissent in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Opera and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing opera arias in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Del Boy Trotter</t>
+  </si>
+  <si>
+    <t>Only Fools and Horses  and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Martin Luther</t>
+  </si>
+  <si>
+    <t>German history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lutheranism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>recruiting dissidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSI: Miami and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Police Procedurals and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in TV shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Frank Underwood</t>
+  </si>
+  <si>
+    <t>House of Cards and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting election strategies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> punishing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sylvester Stallone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Severus Snape</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Hong Kong and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martial Arts and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Wesley Crusher</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>complaining about everything in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding imperial storm-troopers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Daily Planet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>Italian Fascism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fascism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ned Flanders</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Noël Coward</t>
+  </si>
+  <si>
+    <t>British theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing parody songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Grisham</t>
+  </si>
+  <si>
+    <t>Legal fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legal drama and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Courtroom dramas and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Neville Chamberlain</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Leia Organa</t>
+  </si>
+  <si>
+    <t>leading the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boudicca</t>
   </si>
   <si>
     <t>British history and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Miss Havisham</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Coriolanus Snow</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a bureaucracy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>J. Edgar Hoover</t>
-  </si>
-  <si>
-    <t>the Law and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the FBI and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running the FBI in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about sex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Evolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>collecting fossils in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Golf and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyra Banks</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Neil Armstrong</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>American architecture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern architecture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>designing modern buildings in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Miyagi</t>
-  </si>
-  <si>
-    <t>The Karate Kid and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Martial Arts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>teaching martial arts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Miles Davis</t>
-  </si>
-  <si>
-    <t>Cool Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing jazz saxophone in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wilbur Wright</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aviation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>developing new technologies  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Severus Snape</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Novak Djokovic</t>
+    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Russell Crowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> throwing temper tantrums in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>the Phllippines and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Oliver Cromwell</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting with swords in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing animated films in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>World War I and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>the American Depression and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fletcher Christian</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Chris Rock</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard B. Riddick</t>
+  </si>
+  <si>
+    <t>The Chronicles of Riddick and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>evading mercenaries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>British legend and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Derek Zoolander</t>
+  </si>
+  <si>
+    <t>Fashion and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Horror fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing purple prose in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Calvin</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Margaret Mead</t>
+  </si>
+  <si>
+    <t>Anthropology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Russian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lucille Ball</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mrs. Doubtfire</t>
+  </si>
+  <si>
+    <t>Housekeeping and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Child Minding and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family life and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>Easy Listening and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Saxophone music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Australia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drag and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cross-Dressing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>selling comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spouting movie trivia in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>building houses for poor people in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Algonquin Round Table and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing for the New Yorker in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>Violin music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing the violin in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Italian culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italian culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>James Cook</t>
+  </si>
+  <si>
+    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Biff Tannen</t>
+  </si>
+  <si>
+    <t>giving noogies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mangling idioms in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Serena Williams</t>
   </si>
   <si>
     <t>Tennis and the Cthulu mythos</t>
@@ -266,1114 +1337,13 @@
     <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elizabethan theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arthur Dent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Opera and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing opera arias in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Belushi</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Political criticism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>ranting about politics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>New York City and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Cuban politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing short stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Maguire</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American football and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>the American West and the Cthulu mythos</t>
+    <t>Davy Crockett</t>
   </si>
   <si>
     <t>hunting raccoons in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Donald Rumsfeld</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting new wars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Julius No</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Cristiano Ronaldo</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sprung Rhyme and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hotel business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>condescending to customers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Agent Phil Coulson</t>
-  </si>
-  <si>
-    <t>S.H.I.E.L.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>appreciating vintage collectibles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Bodybuilding and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>working out in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bodybuilding in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simone de Beauvoir</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eluding hunters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mickey Rourke</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>avoiding growing old in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Colbert</t>
-  </si>
-  <si>
-    <t>Comedy Central and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Count Dracula</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Krusty the Clown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>introducing cartoons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg</t>
-  </si>
-  <si>
-    <t>Facebook and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Newt Gingrich</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Wyatt Earp</t>
-  </si>
-  <si>
-    <t>The Old West and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westerns and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>arresting criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>American culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Working Class and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>ranting about liberals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making bad movie choices in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding paparazzi in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeremy Paxman</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing politicians in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> James Bond and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Walt Disney animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting movie violence in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in animated movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kenny G</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Light Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Saxophone music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Eric Cartman</t>
-  </si>
-  <si>
-    <t>South Park and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>executing morally appalling plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making racist jibes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Talk radio and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>shocking radio listeners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judge Joe Dredd</t>
-  </si>
-  <si>
-    <t>Mega-City One and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Salman Rushdie</t>
-  </si>
-  <si>
-    <t>Modern literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hiding from extremists in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>the Americas and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Age of Discovery and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>searching for a new world in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Italian culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italian culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing serious acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tiny Tim Cratchit</t>
-  </si>
-  <si>
-    <t>A Christmas Carol and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Zac Efron</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making insipid musicals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>CIA and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eluding capture in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmeline Pankhurst </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Russian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>worrying about adultery in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pac Man</t>
-  </si>
-  <si>
-    <t>Video games and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating power pellets in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding electronic ghosts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Willis</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Neville Chamberlain</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jim Jones</t>
-  </si>
-  <si>
-    <t>Christian Fundamentalism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a religious cult in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> organizing mass suicides  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Adolf Hitler</t>
-  </si>
-  <si>
-    <t>German Fascism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fascism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting political causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>House of Cards and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting election strategies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a smuggling business in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Roger Federer</t>
-  </si>
-  <si>
-    <t>winning tennis matches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johann Sebastian Bach</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baroque music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Religious music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jackson Pollock</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abstract art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abstract painting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Nancy Drew</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interpreting evidence in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anne Frank</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Artful Dodger</t>
-  </si>
-  <si>
-    <t>Oliver Twist and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>picking pockets in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>the American Depression and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank robbing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>robbing banks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting boxing fights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>World War I and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robin Williams</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>telling zany jokes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making madcap comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying paleontology in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Margaret Mead</t>
-  </si>
-  <si>
-    <t>Anthropology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rupert Murdoch</t>
-  </si>
-  <si>
-    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph Stalin</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a communist country in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jenna Maroney</t>
-  </si>
-  <si>
-    <t>30 Rock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beatrix Potter</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Captain America</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>defending the weak in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joaquin Phoenix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>JD Salinger</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hiding from the public in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>flirting with rednecks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jamie Oliver</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Romeo Montague</t>
-  </si>
-  <si>
-    <t>Romeo and Juliet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting in duels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lisbeth Salander</t>
-  </si>
-  <si>
-    <t>The Girl With The Dragon Tattoo and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scandinavian crime fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>coasting on past glories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Freddy Krueger</t>
-  </si>
-  <si>
-    <t>Nightmares and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dreams and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Red Sonja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hyborian Age and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>the Motor industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Car industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>mass-producing cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Roman politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Catherine The Great</t>
-  </si>
-  <si>
-    <t>Russian politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Russian history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The HamBurglar</t>
-  </si>
-  <si>
-    <t>McDonalds and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>stealing hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>American football and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> signing sports memorabilia in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Edward Hyde</t>
-  </si>
-  <si>
-    <t>expressing violent urges in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chandler Bing</t>
-  </si>
-  <si>
-    <t>making sarcastic remarks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saint Paul</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> defending freedom in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.4283374481656375E-6</v>
+        <v>3.5183862328507515E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1463,264 +1433,264 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.7774029384221653E-6</v>
+        <v>3.885968531816821E-6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.159534425859075E-6</v>
+        <v>4.289272382740209E-6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.577599470319908E-6</v>
+        <v>4.731475037074942E-6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.034687453838958E-6</v>
+        <v>5.216005733493587E-6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.534124159898622E-6</v>
+        <v>5.7465626678262675E-6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>6.079487075495497E-6</v>
+        <v>6.327130823784486E-6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>6.674621430901974E-6</v>
+        <v>6.962000682413035E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>7.3236569902771745E-6</v>
+        <v>7.655787826001017E-6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>8.03102560430602E-6</v>
+        <v>8.41345344968297E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>8.801479533813414E-6</v>
+        <v>9.24032579111739E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>9.640110550818265E-6</v>
+        <v>1.0142122485466633E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0552369820719909E-5</v>
+        <v>1.1124973849372966E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1544088566276136E-5</v>
+        <v>1.2195447093723549E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>1.262149951066597E-5</v>
+        <v>1.3360571460751272E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3791259093304405E-5</v>
+        <v>1.4627864276297822E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5060470448099322E-5</v>
+        <v>1.6005357903053745E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1.643670712956087E-5</v>
+        <v>1.7501627575046137E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.792803756756113E-5</v>
+        <v>1.912582008778413E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1.9543050226605412E-5</v>
+        <v>2.0887683312107043E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -1729,511 +1699,511 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>2.129087944020109E-5</v>
+        <v>2.2797596493019114E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>2.3181231885271883E-5</v>
+        <v>2.4866601287633577E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2.522441365566475E-5</v>
+        <v>2.7106433488679462E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>2.743135788746664E-5</v>
+        <v>2.9529555372024012E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>2.98136528822731E-5</v>
+        <v>3.214918859818647E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>3.238357066763335E-5</v>
+        <v>3.497934758895358E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>3.515409592659666E-5</v>
+        <v>3.803487329100125E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>3.8138955220875603E-5</v>
+        <v>4.133146722875528E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>4.135264642417735E-5</v>
+        <v>4.488572573884276E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>4.481046827436476E-5</v>
+        <v>4.8715174268146744E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>4.852854994461377E-5</v>
+        <v>5.283830160698281E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>5.252388052537631E-5</v>
+        <v>5.727459391809868E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>5.681433830018927E-5</v>
+        <v>6.204456841119423E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>6.141871968951159E-5</v>
+        <v>6.716980650151971E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>6.635676772785118E-5</v>
+        <v>7.267298627987057E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>7.164919993040005E-5</v>
+        <v>7.857791410992223E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>7.731773539636569E-5</v>
+        <v>8.490955515770809E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>8.338512098711567E-5</v>
+        <v>9.169406264663508E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>8.987515640830829E-5</v>
+        <v>9.895880562059444E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>9.681271801642642E-5</v>
+        <v>1.0673239498680217E-4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0422378116138175E-4</v>
+        <v>1.150447075994516E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>1.1213544086855756E-4</v>
+        <v>1.239269081353214E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>1.2057593065556665E-4</v>
+        <v>1.3341146850275433E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>1.2957463927132568E-4</v>
+        <v>1.4353218451641477E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3916212513780959E-4</v>
+        <v>1.5432418956196113E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4937012826828425E-4</v>
+        <v>1.658239649672457E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1.6023157942950594E-4</v>
+        <v>1.7806934678975652E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>1.7178060631032168E-4</v>
+        <v>1.9109952872493332E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>1.8405253645418498E-4</v>
+        <v>2.0495506083453548E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9708389670976788E-4</v>
+        <v>2.1967784379208453E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>2.1091240895034988E-4</v>
+        <v>2.3531111833918414E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>2.2557698181192897E-4</v>
+        <v>2.5189944964692547E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>2.4111769819820574E-4</v>
+        <v>2.694887062771288E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>2.575757983019466E-4</v>
+        <v>2.8812603344051304E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
         <v>80</v>
       </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>2.7499365789358495E-4</v>
+        <v>3.078598202542488E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D57" t="n">
-        <v>2.934147616313002E-4</v>
+        <v>3.2873966070619525E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>3.1288367115117014E-4</v>
+        <v>3.5081630804258395E-4</v>
       </c>
     </row>
     <row r="59">
@@ -2244,10 +2214,10 @@
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>3.334459877019306E-4</v>
+        <v>3.7414162230535626E-4</v>
       </c>
     </row>
     <row r="60">
@@ -2258,136 +2228,136 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>3.5514830909744947E-4</v>
+        <v>3.98768510757758E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>3.7803818076758127E-4</v>
+        <v>4.24750860951683E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>4.021640407006156E-4</v>
+        <v>4.521434662065815E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>4.2757515808242424E-4</v>
+        <v>4.8100194328869715E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>4.543215654519246E-4</v>
+        <v>5.113826421019128E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>4.824539842088549E-4</v>
+        <v>5.433425472227936E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5.120237433281676E-4</v>
+        <v>5.769391711422552E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
-        <v>5.430826911546598E-4</v>
+        <v>6.122304391001955E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>5.756831001743398E-4</v>
+        <v>6.492745654354919E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>6.098775646815307E-4</v>
+        <v>6.881299214017093E-4</v>
       </c>
     </row>
     <row r="70">
@@ -2398,10 +2368,10 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>6.457188912876895E-4</v>
+        <v>7.28854894439461E-4</v>
       </c>
     </row>
     <row r="71">
@@ -2412,10 +2382,10 @@
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>6.83259982243261E-4</v>
+        <v>7.715077389294778E-4</v>
       </c>
     </row>
     <row r="72">
@@ -2426,10 +2396,10 @@
         <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7.225537115761339E-4</v>
+        <v>8.161464184949299E-4</v>
       </c>
     </row>
     <row r="73">
@@ -2440,10 +2410,10 @@
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>7.636527940765771E-4</v>
+        <v>8.628284399589872E-4</v>
       </c>
     </row>
     <row r="74">
@@ -2454,10 +2424,10 @@
         <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>8.066096471967561E-4</v>
+        <v>9.116106791113004E-4</v>
       </c>
     </row>
     <row r="75">
@@ -2468,10 +2438,10 @@
         <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>8.514762459619768E-4</v>
+        <v>9.625491984805619E-4</v>
       </c>
     </row>
     <row r="76">
@@ -2482,10 +2452,10 @@
         <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>8.983039710281828E-4</v>
+        <v>0.0010156990573583213</v>
       </c>
     </row>
     <row r="77">
@@ -2496,10 +2466,10 @@
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>9.471434500596884E-4</v>
+        <v>0.0010711141143677286</v>
       </c>
     </row>
     <row r="78">
@@ -2510,10 +2480,10 @@
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>9.98044392634203E-4</v>
+        <v>0.001128846822921973</v>
       </c>
     </row>
     <row r="79">
@@ -2524,10 +2494,10 @@
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0010510554189258302</v>
+        <v>0.0011889480199658818</v>
       </c>
     </row>
     <row r="80">
@@ -2538,10 +2508,10 @@
         <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001106223882455612</v>
+        <v>0.0012514667084485114</v>
       </c>
     </row>
     <row r="81">
@@ -2552,10 +2522,10 @@
         <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0011635956872381795</v>
+        <v>0.0013164498340262655</v>
       </c>
     </row>
     <row r="82">
@@ -2566,10 +2536,10 @@
         <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001223215099698756</v>
+        <v>0.001383942056545573</v>
       </c>
     </row>
     <row r="83">
@@ -2580,122 +2550,122 @@
         <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0012851245557729367</v>
+        <v>0.0014539855169138464</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0013493644636440177</v>
+        <v>0.0015266196000110165</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001415973002619992</v>
+        <v>0.0016018806943521695</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0014849859186845948</v>
+        <v>0.001679801949259492</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0015564363173090866</v>
+        <v>0.0017604130303523167</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
         <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0016303544541427135</v>
+        <v>0.0018437398742088273</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0017067675242444826</v>
+        <v>0.0019298044431032627</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00178569945055633</v>
+        <v>0.002018624480763488</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
         <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0018671706723533618</v>
+        <v>0.002110213270127892</v>
       </c>
     </row>
     <row r="92">
@@ -2706,10 +2676,10 @@
         <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0019511979344419075</v>
+        <v>0.0022045793941353822</v>
       </c>
     </row>
     <row r="93">
@@ -2720,52 +2690,52 @@
         <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0020377940779093065</v>
+        <v>0.002301726500590684</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0021269678332603292</v>
+        <v>0.0024016530722028584</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
         <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002218723616800977</v>
+        <v>0.002504352202902127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
         <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002313061331154387</v>
+        <v>0.002609811381571403</v>
       </c>
     </row>
     <row r="97">
@@ -2776,10 +2746,10 @@
         <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0024099761708224476</v>
+        <v>0.0027180122843385446</v>
       </c>
     </row>
     <row r="98">
@@ -2790,10 +2760,10 @@
         <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002509458433710199</v>
+        <v>0.0028289305765950012</v>
       </c>
     </row>
     <row r="99">
@@ -2804,10 +2774,10 @@
         <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0026114933395610107</v>
+        <v>0.002942535725905915</v>
       </c>
     </row>
     <row r="100">
@@ -2818,10 +2788,10 @@
         <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002716060856250202</v>
+        <v>0.0030587908269739117</v>
       </c>
     </row>
     <row r="101">
@@ -2832,10 +2802,10 @@
         <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0028231355348897202</v>
+        <v>0.0031776524398251516</v>
       </c>
     </row>
     <row r="102">
@@ -2846,10 +2816,10 @@
         <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0029326863547099458</v>
+        <v>0.0032990704423652706</v>
       </c>
     </row>
     <row r="103">
@@ -2860,10 +2830,10 @@
         <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0030446765786670826</v>
+        <v>0.003422987898425156</v>
       </c>
     </row>
     <row r="104">
@@ -2874,29 +2844,29 @@
         <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>0.003159063620729319</v>
+        <v>0.0035493409424232625</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" t="s">
         <v>147</v>
       </c>
-      <c r="B105" t="s">
-        <v>148</v>
-      </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0032757989257701237</v>
+        <v>0.0036780586816993477</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
         <v>149</v>
@@ -2905,110 +2875,110 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0033948278629989947</v>
+        <v>0.0038090631175646816</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0035160896338088943</v>
+        <v>0.003942269086066208</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
         <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.003639517194922781</v>
+        <v>0.004077584219393082</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
         <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.003765037197663912</v>
+        <v>0.00421490892881532</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
-        <v>0.003892569944151769</v>
+        <v>0.004354136409975562</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
         <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004022029361173629</v>
+        <v>0.004495152671269431</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
         <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004153322992436537</v>
+        <v>0.004637836585995925</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004286352009851391</v>
+        <v>0.004782059968857</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
         <v>160</v>
@@ -3017,119 +2987,119 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004421011244440276</v>
+        <v>0.004927687677304227</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0045571892373945655</v>
+        <v>0.005074577738137798</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004694768311744313</v>
+        <v>0.005222581499658652</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
         <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>0.004833624665030234</v>
+        <v>0.005371543809573831</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D118" t="n">
-        <v>0.004973628483280146</v>
+        <v>0.005521303218746221</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005114644076532948</v>
+        <v>0.005671692210766965</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
         <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005256530036046925</v>
+        <v>0.005822537457214505</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0053991394132525405</v>
+        <v>0.005973660098346545</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005542319920424921</v>
+        <v>0.006124876048853534</v>
       </c>
     </row>
     <row r="123">
@@ -3137,13 +3107,13 @@
         <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0056859141529467805</v>
+        <v>0.006275996328171385</v>
       </c>
     </row>
     <row r="124">
@@ -3151,27 +3121,27 @@
         <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.005829759832944759</v>
+        <v>0.006426827414750258</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005973690073988569</v>
+        <v>0.006577171623527556</v>
       </c>
     </row>
     <row r="126">
@@ -3179,13 +3149,13 @@
         <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006117533666436692</v>
+        <v>0.006726827505750876</v>
       </c>
     </row>
     <row r="127">
@@ -3193,27 +3163,27 @@
         <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006261115382927673</v>
+        <v>0.006875590270181808</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0064042563034030775</v>
+        <v>0.007023252224560239</v>
       </c>
     </row>
     <row r="129">
@@ -3221,27 +3191,27 @@
         <v>179</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006546774158964652</v>
+        <v>0.007169603236144129</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006688483693766678</v>
+        <v>0.007314431209980599</v>
       </c>
     </row>
     <row r="131">
@@ -3249,13 +3219,13 @@
         <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006829197044044166</v>
+        <v>0.007457522583490861</v>
       </c>
     </row>
     <row r="132">
@@ -3263,27 +3233,27 @@
         <v>182</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D132" t="n">
-        <v>0.006968724133300852</v>
+        <v>0.007598662835826719</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007106873082574017</v>
+        <v>0.007737637010378107</v>
       </c>
     </row>
     <row r="134">
@@ -3291,349 +3261,349 @@
         <v>186</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0072434506346160665</v>
+        <v>0.007874230248703928</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>0.007378262590753026</v>
+        <v>0.008008228334087708</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007511114259093399</v>
+        <v>0.008139418242835844</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0076418109126908385</v>
+        <v>0.008267588701373063</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0077701582561992555</v>
+        <v>0.008392530747127008</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007895962899494985</v>
+        <v>0.008514038291145748</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00801903283667757</v>
+        <v>0.00863190868034952</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008139177928822072</v>
+        <v>0.008745943257291028</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B142" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008256210388804697</v>
+        <v>0.008855947915272194</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008369945266495316</v>
+        <v>0.008961733646660947</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008480200932570625</v>
+        <v>0.009063117082249522</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008586799559201996</v>
+        <v>0.009159921019506218</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008689567595837</v>
+        <v>0.009251974937600382</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008788336238308964</v>
+        <v>0.00933911549710481</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00888294188950553</v>
+        <v>0.00942118702233502</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
-        <v>0.008973226609840401</v>
+        <v>0.009498041964331391</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>0.009059038555798787</v>
+        <v>0.009569541342557816</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D151" t="n">
-        <v>0.00914023240485437</v>
+        <v>0.009635555163471046</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B152" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009216669765096025</v>
+        <v>0.009695962814194173</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009288219567951228</v>
+        <v>0.00975065342962661</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009354758442445502</v>
+        <v>0.009799526231429281</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009416171069505805</v>
+        <v>0.009842490837431134</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009472350514881808</v>
+        <v>0.009879467540129618</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D157" t="n">
-        <v>0.00952319853934118</v>
+        <v>0.009910387553084016</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009568625884881152</v>
+        <v>0.009935193224134203</v>
       </c>
     </row>
     <row r="159">
@@ -3641,13 +3611,13 @@
         <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009608552535786623</v>
+        <v>0.00995383821452226</v>
       </c>
     </row>
     <row r="160">
@@ -3655,27 +3625,27 @@
         <v>220</v>
       </c>
       <c r="B160" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009642907953467977</v>
+        <v>0.009966287643134389</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009671631284113837</v>
+        <v>0.009972518195238004</v>
       </c>
     </row>
     <row r="162">
@@ -3683,13 +3653,13 @@
         <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009694671538303494</v>
+        <v>0.009972518195238181</v>
       </c>
     </row>
     <row r="163">
@@ -3697,27 +3667,27 @@
         <v>224</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009711987741834145</v>
+        <v>0.009966287643134212</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B164" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009723549057143462</v>
+        <v>0.009953838214522445</v>
       </c>
     </row>
     <row r="165">
@@ -3725,447 +3695,447 @@
         <v>228</v>
       </c>
       <c r="B165" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009729334874819442</v>
+        <v>0.009935193224134373</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009729334874819442</v>
+        <v>0.009910387553083662</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009723549057143462</v>
+        <v>0.009879467540129777</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B168" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009711987741834145</v>
+        <v>0.009842490837430974</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009694671538303494</v>
+        <v>0.009799526231429462</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D170" t="n">
-        <v>0.00967163128411401</v>
+        <v>0.009750653429626735</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009642907953467957</v>
+        <v>0.009695962814193868</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C172" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009608552535786664</v>
+        <v>0.009635555163471268</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009568625884881152</v>
+        <v>0.009569541342557594</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D174" t="n">
-        <v>0.00952319853934118</v>
+        <v>0.009498041964331502</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D175" t="n">
-        <v>0.00947235051488178</v>
+        <v>0.009421187022335242</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009416171069505819</v>
+        <v>0.009339115497104478</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B177" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009354758442445488</v>
+        <v>0.009251974937600521</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009288219567951228</v>
+        <v>0.009159921019506079</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B179" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009216669765096025</v>
+        <v>0.009063117082249661</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B180" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009140232404854343</v>
+        <v>0.008961733646661113</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009059038555798787</v>
+        <v>0.008855947915271889</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B182" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008973226609840429</v>
+        <v>0.008745943257291139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B183" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008882941889505447</v>
+        <v>0.00863190868034941</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B184" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008788336238308964</v>
+        <v>0.008514038291145887</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B185" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008689567595837111</v>
+        <v>0.008392530747127147</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B186" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008586799559202024</v>
+        <v>0.008267588701372786</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B187" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008480200932570625</v>
+        <v>0.0081394182428359</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008369945266495232</v>
+        <v>0.008008228334087708</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B189" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008256210388804697</v>
+        <v>0.007874230248703984</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008139177928822156</v>
+        <v>0.007737637010378329</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.00801903283667757</v>
+        <v>0.007598662835826442</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C192" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
-        <v>0.007895962899495124</v>
+        <v>0.0074575225834909165</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B193" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C193" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0077701582561992</v>
+        <v>0.007314431209980765</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C194" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007641810912690561</v>
+        <v>0.007169603236144073</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C195" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007511114259093399</v>
+        <v>0.007023252224560406</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B196" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007378262590753026</v>
+        <v>0.006875590270181475</v>
       </c>
     </row>
     <row r="197">
@@ -4173,13 +4143,13 @@
         <v>271</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C197" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0072434506346160665</v>
+        <v>0.0067268275057512095</v>
       </c>
     </row>
     <row r="198">
@@ -4187,27 +4157,27 @@
         <v>271</v>
       </c>
       <c r="B198" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C198" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>0.007106873082574017</v>
+        <v>0.006577171623527389</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C199" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006968724133300852</v>
+        <v>0.006426827414750258</v>
       </c>
     </row>
     <row r="200">
@@ -4215,13 +4185,13 @@
         <v>275</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006829197044044166</v>
+        <v>0.006275996328171496</v>
       </c>
     </row>
     <row r="201">
@@ -4229,27 +4199,27 @@
         <v>275</v>
       </c>
       <c r="B201" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D201" t="n">
-        <v>0.006688483693766678</v>
+        <v>0.006124876048853256</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C202" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006546774158964652</v>
+        <v>0.0059736600983466</v>
       </c>
     </row>
     <row r="203">
@@ -4257,13 +4227,13 @@
         <v>279</v>
       </c>
       <c r="B203" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0064042563034030775</v>
+        <v>0.005822537457214505</v>
       </c>
     </row>
     <row r="204">
@@ -4271,657 +4241,657 @@
         <v>279</v>
       </c>
       <c r="B204" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C204" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006261115382927673</v>
+        <v>0.005671692210767021</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006117533666436692</v>
+        <v>0.005521303218746276</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.005973690073988569</v>
+        <v>0.0053715438095736645</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B207" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C207" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.005829759832944759</v>
+        <v>0.005222581499658707</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B208" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0056859141529467805</v>
+        <v>0.005074577738137853</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B209" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005542319920424921</v>
+        <v>0.004927687677304171</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B210" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0053991394132525405</v>
+        <v>0.004782059968856944</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D211" t="n">
-        <v>0.005256530036046925</v>
+        <v>0.004637836585995925</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B212" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>0.00511464407653317</v>
+        <v>0.004495152671269598</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C213" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D213" t="n">
-        <v>0.00497362848328009</v>
+        <v>0.004354136409975562</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D214" t="n">
-        <v>0.004833624665030178</v>
+        <v>0.00421490892881532</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004694768311744313</v>
+        <v>0.004077584219393082</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D216" t="n">
-        <v>0.00455718923739451</v>
+        <v>0.003942269086066041</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C217" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004421011244440276</v>
+        <v>0.0038090631175647927</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C218" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D218" t="n">
-        <v>0.004286352009851335</v>
+        <v>0.0036780586816992367</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004153322992436481</v>
+        <v>0.0035493409424231515</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B220" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D220" t="n">
-        <v>0.004022029361173685</v>
+        <v>0.0034229878984253226</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B221" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0038925699441519357</v>
+        <v>0.003299070442365215</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B222" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0037650371976637453</v>
+        <v>0.003177652439825318</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B223" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0036395171949228367</v>
+        <v>0.0030587908269738007</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B224" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0035160896338087833</v>
+        <v>0.002942535725905915</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B225" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0033948278629991058</v>
+        <v>0.0028289305765950012</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B226" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.003275798925770068</v>
+        <v>0.002718012284338489</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B227" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C227" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0031590636207293743</v>
+        <v>0.002609811381571292</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B228" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C228" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0030446765786670826</v>
+        <v>0.00250435220290246</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C229" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0029326863547099458</v>
+        <v>0.0024016530722027474</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B230" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C230" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0028231355348896092</v>
+        <v>0.0023017265005906284</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B231" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C231" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0027160608562503685</v>
+        <v>0.0022045793941353267</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B232" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C232" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0026114933395611217</v>
+        <v>0.0021102132701279266</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B233" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>0.002509458433709977</v>
+        <v>0.002018624480763495</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B234" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0024099761708225587</v>
+        <v>0.0019298044431032835</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B235" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>0.002313061331154276</v>
+        <v>0.0018437398742088135</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002218723616800977</v>
+        <v>0.0017604130303522682</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B237" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0021269678332603292</v>
+        <v>0.0016798019492595823</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="B238" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0020377940779093065</v>
+        <v>0.0016018806943520966</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="B239" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C239" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0019511979344419075</v>
+        <v>0.001526619600011006</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="B240" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0018671706723533618</v>
+        <v>0.0014539855169138985</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B241" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D241" t="n">
-        <v>0.00178569945055633</v>
+        <v>0.001383942056545514</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B242" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C242" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0017067675242444826</v>
+        <v>0.0013164498340262829</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B243" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C243" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0016303544541427135</v>
+        <v>0.0012514667084485252</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B244" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0015564363173090866</v>
+        <v>0.0011889480199658506</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0014849859186845948</v>
+        <v>0.001128846822922011</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B246" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C246" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.001415973002619992</v>
+        <v>0.0010711141143676904</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B247" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0013493644636440177</v>
+        <v>0.0010156990573583317</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B248" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0012851245557729367</v>
+        <v>9.625491984805896E-4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B249" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C249" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D249" t="n">
-        <v>0.001223215099698756</v>
+        <v>9.116106791112622E-4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B250" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C250" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0011635956872381795</v>
+        <v>8.628284399590219E-4</v>
       </c>
     </row>
     <row r="251">
@@ -4929,69 +4899,69 @@
         <v>345</v>
       </c>
       <c r="B251" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D251" t="n">
-        <v>0.001106223882455612</v>
+        <v>8.161464184948952E-4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B252" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C252" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0010510554189258302</v>
+        <v>7.715077389294934E-4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B253" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D253" t="n">
-        <v>9.98044392634203E-4</v>
+        <v>7.288548944394437E-4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B254" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D254" t="n">
-        <v>9.471434500596884E-4</v>
+        <v>6.88129921401711E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B255" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C255" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>8.983039710281828E-4</v>
+        <v>6.492745654355075E-4</v>
       </c>
     </row>
     <row r="256">
@@ -4999,13 +4969,13 @@
         <v>352</v>
       </c>
       <c r="B256" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C256" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>8.514762459619768E-4</v>
+        <v>6.122304391001799E-4</v>
       </c>
     </row>
     <row r="257">
@@ -5013,349 +4983,349 @@
         <v>352</v>
       </c>
       <c r="B257" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>8.066096471967561E-4</v>
+        <v>5.769391711422725E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B258" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C258" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>7.636527940765771E-4</v>
+        <v>5.433425472227936E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B259" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C259" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>7.225537115761339E-4</v>
+        <v>5.113826421018954E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B260" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C260" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D260" t="n">
-        <v>6.832599822432627E-4</v>
+        <v>4.810019432887145E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B261" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D261" t="n">
-        <v>6.457188912877086E-4</v>
+        <v>4.5214346620656414E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B262" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C262" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D262" t="n">
-        <v>6.09877564681522E-4</v>
+        <v>4.247508609516873E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B263" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C263" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>5.75683100174345E-4</v>
+        <v>3.9876851075777275E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B264" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C264" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D264" t="n">
-        <v>5.43082691154646E-4</v>
+        <v>3.741416223053372E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B265" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C265" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D265" t="n">
-        <v>5.120237433281641E-4</v>
+        <v>3.5081630804259176E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B266" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C266" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D266" t="n">
-        <v>4.824539842088653E-4</v>
+        <v>3.2873966070618744E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B267" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C267" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D267" t="n">
-        <v>4.543215654519185E-4</v>
+        <v>3.078598202542549E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B268" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C268" t="s">
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>4.275751580824312E-4</v>
+        <v>2.881260334405165E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B269" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>4.021640407006061E-4</v>
+        <v>2.694887062771193E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B270" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>3.7803818076759255E-4</v>
+        <v>2.518994496469385E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B271" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C271" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D271" t="n">
-        <v>3.5514830909745294E-4</v>
+        <v>2.3531111833917113E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B272" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D272" t="n">
-        <v>3.334459877019219E-4</v>
+        <v>2.1967784379208584E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B273" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C273" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D273" t="n">
-        <v>3.128836711511684E-4</v>
+        <v>2.0495506083454199E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="B274" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C274" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>2.934147616313089E-4</v>
+        <v>1.9109952872492552E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="B275" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C275" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>2.749936578935776E-4</v>
+        <v>1.7806934678976085E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>379</v>
+        <v>182</v>
       </c>
       <c r="B276" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>2.5757579830194485E-4</v>
+        <v>1.6582396496724137E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B277" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>2.4111769819820618E-4</v>
+        <v>1.5432418956196113E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B278" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C278" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D278" t="n">
-        <v>2.2557698181192723E-4</v>
+        <v>1.4353218451641542E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B279" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C279" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D279" t="n">
-        <v>2.1091240895034554E-4</v>
+        <v>1.3341146850275368E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B280" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C280" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D280" t="n">
-        <v>1.9708389670976788E-4</v>
+        <v>1.2392690813532465E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B281" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>1.8405253645418498E-4</v>
+        <v>1.1504470759944835E-4</v>
       </c>
     </row>
     <row r="282">
@@ -5363,13 +5333,13 @@
         <v>388</v>
       </c>
       <c r="B282" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D282" t="n">
-        <v>1.7178060631032168E-4</v>
+        <v>1.067323949868039E-4</v>
       </c>
     </row>
     <row r="283">
@@ -5377,27 +5347,27 @@
         <v>388</v>
       </c>
       <c r="B283" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C283" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>1.6023157942950594E-4</v>
+        <v>9.895880562059336E-5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B284" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C284" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1.4937012826828425E-4</v>
+        <v>9.169406264663443E-5</v>
       </c>
     </row>
     <row r="285">
@@ -5405,13 +5375,13 @@
         <v>392</v>
       </c>
       <c r="B285" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C285" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1.3916212513780959E-4</v>
+        <v>8.490955515770809E-5</v>
       </c>
     </row>
     <row r="286">
@@ -5419,27 +5389,27 @@
         <v>392</v>
       </c>
       <c r="B286" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C286" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>1.2957463927132568E-4</v>
+        <v>7.857791410992223E-5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B287" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C287" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>1.2057593065556665E-4</v>
+        <v>7.26729862798723E-5</v>
       </c>
     </row>
     <row r="288">
@@ -5447,13 +5417,13 @@
         <v>396</v>
       </c>
       <c r="B288" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D288" t="n">
-        <v>1.1213544086855756E-4</v>
+        <v>6.716980650152188E-5</v>
       </c>
     </row>
     <row r="289">
@@ -5461,167 +5431,167 @@
         <v>396</v>
       </c>
       <c r="B289" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D289" t="n">
-        <v>1.0422378116138175E-4</v>
+        <v>6.204456841119033E-5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B290" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>9.681271801642642E-5</v>
+        <v>5.727459391810031E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B291" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C291" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>8.987515640830829E-5</v>
+        <v>5.283830160698118E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B292" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C292" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>8.338512098711567E-5</v>
+        <v>4.8715174268146744E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B293" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C293" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D293" t="n">
-        <v>7.731773539636569E-5</v>
+        <v>4.488572573884379E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B294" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C294" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D294" t="n">
-        <v>7.164919993040005E-5</v>
+        <v>4.133146722875425E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B295" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C295" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D295" t="n">
-        <v>6.635676772785118E-5</v>
+        <v>3.80348732910019E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B296" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C296" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>6.141871968951159E-5</v>
+        <v>3.497934758895293E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>406</v>
+        <v>140</v>
       </c>
       <c r="B297" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C297" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D297" t="n">
-        <v>5.681433830018927E-5</v>
+        <v>3.2149188598186635E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>406</v>
+        <v>140</v>
       </c>
       <c r="B298" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C298" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D298" t="n">
-        <v>5.252388052537631E-5</v>
+        <v>2.9529555372025096E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="B299" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C299" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D299" t="n">
-        <v>4.852854994461377E-5</v>
+        <v>2.7106433488678216E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B300" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C300" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D300" t="n">
-        <v>4.481046827436606E-5</v>
+        <v>2.4866601287633577E-5</v>
       </c>
     </row>
     <row r="301">
@@ -5629,13 +5599,13 @@
         <v>413</v>
       </c>
       <c r="B301" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D301" t="n">
-        <v>4.135264642417789E-5</v>
+        <v>2.2797596493019114E-5</v>
       </c>
     </row>
     <row r="302">
@@ -5643,27 +5613,27 @@
         <v>413</v>
       </c>
       <c r="B302" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D302" t="n">
-        <v>3.813895522087376E-5</v>
+        <v>2.0887683312107043E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B303" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>3.515409592659747E-5</v>
+        <v>1.912582008778527E-5</v>
       </c>
     </row>
     <row r="304">
@@ -5671,363 +5641,251 @@
         <v>417</v>
       </c>
       <c r="B304" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C304" t="s">
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>3.238357066763324E-5</v>
+        <v>1.7501627575045E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B305" t="s">
         <v>420</v>
       </c>
       <c r="C305" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D305" t="n">
-        <v>2.9813652882273263E-5</v>
+        <v>1.6005357903054043E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B306" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C306" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>2.7431357887465772E-5</v>
+        <v>1.4627864276297523E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B307" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C307" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>2.522441365566475E-5</v>
+        <v>1.3360571460751543E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B308" t="s">
         <v>424</v>
       </c>
       <c r="C308" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>2.3181231885272642E-5</v>
+        <v>1.2195447093723671E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B309" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C309" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D309" t="n">
-        <v>2.1290879440200792E-5</v>
+        <v>1.1124973849372573E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B310" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C310" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D310" t="n">
-        <v>1.954305022660525E-5</v>
+        <v>1.0142122485466918E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B311" t="s">
         <v>428</v>
       </c>
       <c r="C311" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D311" t="n">
-        <v>1.7928037567560833E-5</v>
+        <v>9.240325791117106E-6</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B312" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D312" t="n">
-        <v>1.643670712956106E-5</v>
+        <v>8.41345344968316E-6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B313" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C313" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D313" t="n">
-        <v>1.5060470448099457E-5</v>
+        <v>7.655787826001126E-6</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B314" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C314" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D314" t="n">
-        <v>1.3791259093304405E-5</v>
+        <v>6.9620006824127364E-6</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B315" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C315" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D315" t="n">
-        <v>1.2621499510665645E-5</v>
+        <v>6.327130823784696E-6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B316" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C316" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D316" t="n">
-        <v>1.1544088566276325E-5</v>
+        <v>5.746562667826057E-6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B317" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>1.0552369820720126E-5</v>
+        <v>5.216005733493587E-6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B318" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>9.640110550817967E-6</v>
+        <v>4.731475037075064E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B319" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C319" t="s">
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>8.80147953381359E-6</v>
+        <v>4.289272382740087E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B320" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C320" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>8.031025604305953E-6</v>
+        <v>3.885968531816882E-6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B321" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C321" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>7.323656990276958E-6</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>439</v>
-      </c>
-      <c r="B322" t="s">
-        <v>442</v>
-      </c>
-      <c r="C322" t="s">
-        <v>15</v>
-      </c>
-      <c r="D322" t="n">
-        <v>6.674621430901974E-6</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>443</v>
-      </c>
-      <c r="B323" t="s">
-        <v>444</v>
-      </c>
-      <c r="C323" t="s">
-        <v>10</v>
-      </c>
-      <c r="D323" t="n">
-        <v>6.079487075495497E-6</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>443</v>
-      </c>
-      <c r="B324" t="s">
-        <v>445</v>
-      </c>
-      <c r="C324" t="s">
-        <v>10</v>
-      </c>
-      <c r="D324" t="n">
-        <v>5.534124159898622E-6</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>443</v>
-      </c>
-      <c r="B325" t="s">
-        <v>446</v>
-      </c>
-      <c r="C325" t="s">
-        <v>10</v>
-      </c>
-      <c r="D325" t="n">
-        <v>5.034687453838958E-6</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>447</v>
-      </c>
-      <c r="B326" t="s">
-        <v>448</v>
-      </c>
-      <c r="C326" t="s">
-        <v>15</v>
-      </c>
-      <c r="D326" t="n">
-        <v>4.577599470319908E-6</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>449</v>
-      </c>
-      <c r="B327" t="s">
-        <v>450</v>
-      </c>
-      <c r="C327" t="s">
-        <v>15</v>
-      </c>
-      <c r="D327" t="n">
-        <v>4.159534425859075E-6</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>451</v>
-      </c>
-      <c r="B328" t="s">
-        <v>452</v>
-      </c>
-      <c r="C328" t="s">
-        <v>6</v>
-      </c>
-      <c r="D328" t="n">
-        <v>3.7774029384221653E-6</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>451</v>
-      </c>
-      <c r="B329" t="s">
-        <v>453</v>
-      </c>
-      <c r="C329" t="s">
-        <v>6</v>
-      </c>
-      <c r="D329" t="n">
-        <v>3.4283374481656375E-6</v>
+        <v>3.5183862328506905E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="461">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,73 +26,1174 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Tom Wolfe</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
+    <t>Marlene Dietrich</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t xml:space="preserve"> the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing about social problems in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Myers</t>
-  </si>
-  <si>
-    <t>Halloween and the Dagon mythos</t>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Raiders of the Lost Ark and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
+    <t xml:space="preserve"> Archeology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking for hidden treasures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anne Boleyn</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Salman Rushdie</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hiding from extremists in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rocket Raccoon</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>guarding the galaxy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
+  </si>
+  <si>
+    <t>French history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre-Revolutionary France and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lizzy Bennet</t>
+  </si>
+  <si>
+    <t>Regency England and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British class politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Oscar Pistorius</t>
+  </si>
+  <si>
+    <t>Olympics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Running and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Asian politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for democracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pippi Longstocking</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing pranks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Turing</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crypography and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alternative Rock and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing grungy music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jim Morrison</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Zsa Zsa Gabor</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>divorcing husbands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Borat</t>
+  </si>
+  <si>
+    <t>Borat! and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Bodybuilding and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>working out in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bodybuilding in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Monica Lewinsky</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Clinton Era and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>conducting illicit affairs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>Capitalism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting capitalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>avoiding growing old in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>the Roman Empire and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing citizens in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> producing Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Peanuts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing baseball in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Seth MacFarlane</t>
+  </si>
+  <si>
+    <t>Family Guy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making vulgar jokes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making vulgar cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>Facebook and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Walter White</t>
+  </si>
+  <si>
+    <t>Chrystal Meth and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemistry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cooking and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Rudy Giuliani</t>
+  </si>
+  <si>
+    <t>New York City and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Uriah Heap</t>
+  </si>
+  <si>
+    <t>David Copperfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Marco Polo</t>
+  </si>
+  <si>
+    <t>the Age of Discovery and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>opening new markets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pythagoras</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying mathematics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>René Descartes</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plastic Surgery and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Sparrow</t>
+  </si>
+  <si>
+    <t>Pirates of the Carribean and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>collecting pirate booty in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commanding a pirate ship in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas Aquinas</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>teaching philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Inspector Endeavour Morse</t>
+  </si>
+  <si>
+    <t>Oxford and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Colbert</t>
+  </si>
+  <si>
+    <t>Comedy Central and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dana Scully</t>
+  </si>
+  <si>
+    <t>The X-Files and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>explaining away the unexplained in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ludwig Van Beethoven</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>composing classical music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing the piano in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing epic poetry in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>the Russian revolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>spreading revolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting communism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>H.A.L. 9000</t>
+  </si>
+  <si>
+    <t>2001: A Space Odyssey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Homicidal computers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>murdering astronauts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frida Kahlo</t>
+  </si>
+  <si>
+    <t>Mexican art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting colorful pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eleanor Roosevelt</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>World War I and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Modesty Blaise</t>
+  </si>
+  <si>
+    <t>Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pulling capers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Brown</t>
+  </si>
+  <si>
+    <t>Soul music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Professor Charles Xavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>teaching young mutants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teaching the next generation in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Yogi Berra</t>
+  </si>
+  <si>
+    <t>Baseball and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing baseball in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mangling idioms in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kate Moss</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Freddy Krueger</t>
+  </si>
+  <si>
+    <t>Nightmares and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dreams and the Dagon mythos</t>
+  </si>
+  <si>
     <t>terrorizing sleepers in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Joker</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rachel Green</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>getting a nose job in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt Drudge</t>
+    <t>Ringo Starr</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing drums in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about sex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Svengali</t>
+  </si>
+  <si>
+    <t>the Music industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>manipulating ingenues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>plagiarizing political speeches in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horror fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating census takers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Scarlett O'Hara</t>
+  </si>
+  <si>
+    <t>Gone With The Wind and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The American Civil War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>attending cotillion balls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Spock</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Rwanda and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gorillas and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>Baywatch and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>monetizing physical assets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Real Estate and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>investing in real estate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing real estate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ray Kroc</t>
+  </si>
+  <si>
+    <t>McDonalds and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>eluding hunters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wisecracking in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eating carrots in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kurt Cobain</t>
+  </si>
+  <si>
+    <t>Grunge music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sir Hugo Drax</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Cuban politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Stephen Hawking</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>American football and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mrs. Doubtfire</t>
+  </si>
+  <si>
+    <t>Housekeeping and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Child Minding and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family life and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>the Americas and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Age of Discovery and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>searching for a new world in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dominique Strauss-Kahn</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>throwing sex parties in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judas Iscariot</t>
+  </si>
+  <si>
+    <t>the New Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the 12 Apostles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lando Calrissian</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keith Moon</t>
+  </si>
+  <si>
+    <t>playing drums in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raising cain in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> throwing TVs out of the windows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving riddles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Travolta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dancing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scientology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>dancing to disco music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jay Gatsby</t>
+  </si>
+  <si>
+    <t>The Great Gatsby and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>throwing lavish parties in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crypography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artificial Intelligence and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>Modern painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting over photographs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimmy Carter</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>building houses for poor people in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sitting Bull</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leading revolts in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Musical movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frying peanut-butter and banana sandwiches in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Darcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wooing potential brides in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making condescending remarks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simone de Beauvoir</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>speaking with funny accents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing serious acting in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stabbing in the back in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> striving for world domination in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tupac Shakur</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing rap songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
   </si>
   <si>
     <t>the Right and the Cthulu-Dagon mythos</t>
@@ -101,520 +1202,115 @@
     <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Diana Ross</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Singing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>John McClane</t>
-  </si>
-  <si>
-    <t>Die Hard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rescuing hostages in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Helen of Troy</t>
-  </si>
-  <si>
-    <t>Ancient Greece and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>worrying about adultery in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preparing for war in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nikola Tesla</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Rafael Nadal</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mike Tyson</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg</t>
-  </si>
-  <si>
-    <t>Facebook and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Lydia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>collecting treasures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kevin Spacey</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Sean Connery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing James Bond in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pyotr Ilyich Tchaikovsky</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Piano music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>composing classical music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dating supermodels in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about sex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Coco Chanel</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Silvio Berlusconi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>throwing Bunga Bunga parties in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Samuel Pepys</t>
-  </si>
-  <si>
-    <t>the Restoration period and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Diary and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Olive Oyl</t>
-  </si>
-  <si>
-    <t>Thimble Theatre and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>doing the Charleston in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Family life and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>watching TV in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> James Bond and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harvey Milk</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>McDonalds and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flipping hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Amy Schumer</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making vulgar jokes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimmy Carter</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>building houses for poor people in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rembrandt</t>
-  </si>
-  <si>
-    <t>Painting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting colorful pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> painting self-portraits in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Belushi</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>the Phllippines and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
-  </si>
-  <si>
-    <t>seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acting off-off-Broadway in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in daytime soap operas in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry David</t>
-  </si>
-  <si>
-    <t>Curb Your Enthusiasm and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing TV comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George McFly</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>standing up to bullies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Environment and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Morty Smith</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dr. Greg House</t>
-  </si>
-  <si>
-    <t>Diagnostic medicine and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> treating diseases in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diagnosing diseases in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>American architecture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern architecture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>designing modern buildings in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Fiona</t>
-  </si>
-  <si>
-    <t>Fairy Tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>waiting for a hero in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Philby</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betrayal and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>betraying friends in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>E.T.</t>
-  </si>
-  <si>
-    <t>Alien visitations  and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>phoning home in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
+    <t>brokering peace deals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Yosemite Sam</t>
+  </si>
+  <si>
+    <t>losing control in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buddy Holly</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>writing about history in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recording history in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Scipio Africanus</t>
+  </si>
+  <si>
+    <t>Roman politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>fighting Carthaginians in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Evolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>collecting fossils in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
   </si>
   <si>
     <t>British comedy and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve">  British class politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing the piano in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>Directing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suspense and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making suspense movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barbra Streisand</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Wilbur Wright</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>Game of Thrones and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting with swords in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leading armies into battle in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
   </si>
   <si>
     <t>Prohibition and the Cthulu mythos</t>
@@ -626,466 +1322,22 @@
     <t xml:space="preserve"> Chicago and the Cthulu mythos</t>
   </si>
   <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Oratory and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rhetoric and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Huckleberry Finn</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American South and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>growing up poor in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Vladimir Lenin</t>
-  </si>
-  <si>
-    <t>the Russian revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting communism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for worker's rights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>France and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saddam Hussein</t>
-  </si>
-  <si>
-    <t>Islamic Terrorism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>suppressing minorities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Jong-Il</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asian politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>crushing dissent in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Opera and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing opera arias in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>Only Fools and Horses  and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Martin Luther</t>
-  </si>
-  <si>
-    <t>German history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lutheranism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>recruiting dissidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CSI: Miami and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Police Procedurals and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in TV shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>House of Cards and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting election strategies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> punishing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sylvester Stallone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Severus Snape</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Hong Kong and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Martial Arts and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Friedrich Nietzsche</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Wesley Crusher</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>complaining about everything in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding imperial storm-troopers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>Italian Fascism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fascism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ned Flanders</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christina Aguilera</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Noël Coward</t>
-  </si>
-  <si>
-    <t>British theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing parody songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Grisham</t>
-  </si>
-  <si>
-    <t>Legal fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Legal drama and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Courtroom dramas and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Neville Chamberlain</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Leia Organa</t>
-  </si>
-  <si>
-    <t>leading the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boudicca</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Russell Crowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> throwing temper tantrums in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>the Phllippines and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oliver Cromwell</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting with swords in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a media empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing animated films in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>World War I and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>the American Depression and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Chris Rock</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
+    <t>promoting feminism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about men in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>American culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Working Class and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>ranting about liberals in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Richard B. Riddick</t>
@@ -1100,250 +1352,49 @@
     <t>evading mercenaries in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>British legend and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>Fashion and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Horror fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing purple prose in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Calvin</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Margaret Mead</t>
-  </si>
-  <si>
-    <t>Anthropology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>betraying friends in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Russian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lucille Ball</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mrs. Doubtfire</t>
-  </si>
-  <si>
-    <t>Housekeeping and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Child Minding and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Family life and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Kenny G</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Light Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Saxophone music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing rabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Australia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drag and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cross-Dressing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jeff "Comic Book Guy" Albertson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>selling comic books in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spouting movie trivia in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>building houses for poor people in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Algonquin Round Table and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing for the New Yorker in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Niccolò Paganini</t>
-  </si>
-  <si>
-    <t>Violin music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing the violin in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Italian culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italian culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>James Cook</t>
-  </si>
-  <si>
-    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Biff Tannen</t>
-  </si>
-  <si>
-    <t>giving noogies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mangling idioms in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Serena Williams</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>delivering forehand slams in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>hunting raccoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending freedom in Cthulhu-worshipping societies</t>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> English soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony Blair</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the British Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Labour Party and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Outback and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating bugs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lee Marvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1470,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.5183862328507515E-6</v>
+        <v>3.342779409534786E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1433,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.885968531816821E-6</v>
+        <v>3.6746921104033166E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1447,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.289272382740209E-6</v>
+        <v>4.037271987259235E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1461,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.731475037074942E-6</v>
+        <v>4.433113727098434E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1475,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.216005733493587E-6</v>
+        <v>4.865007904073888E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.7465626678262675E-6</v>
+        <v>5.335953551790522E-6</v>
       </c>
     </row>
     <row r="8">
@@ -1500,10 +1551,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>6.327130823784486E-6</v>
+        <v>5.849171345122523E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1511,13 +1562,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>6.962000682413035E-6</v>
+        <v>6.408117403955193E-6</v>
       </c>
     </row>
     <row r="10">
@@ -1525,55 +1576,55 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>7.655787826001017E-6</v>
+        <v>7.016497729887215E-6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>8.41345344968297E-6</v>
+        <v>7.678283285357035E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>9.24032579111739E-6</v>
+        <v>8.397725722896946E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0142122485466633E-5</v>
+        <v>9.179373770256175E-6</v>
       </c>
     </row>
     <row r="14">
@@ -1587,7 +1638,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1124973849372966E-5</v>
+        <v>1.0028090274957627E-5</v>
       </c>
     </row>
     <row r="15">
@@ -1601,152 +1652,152 @@
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>1.2195447093723549E-5</v>
+        <v>1.0949069909439138E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3360571460751272E-5</v>
+        <v>1.1947857535316275E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>1.4627864276297822E-5</v>
+        <v>1.3030367222422205E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6005357903053745E-5</v>
+        <v>1.4202901915169445E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>1.7501627575046137E-5</v>
+        <v>1.5472173735411057E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>1.912582008778413E-5</v>
+        <v>1.6845324907365612E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0887683312107043E-5</v>
+        <v>1.8329949286285518E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>2.2797596493019114E-5</v>
+        <v>1.9934114468402628E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>2.4866601287633577E-5</v>
+        <v>2.1666384455288235E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>2.7106433488679462E-5</v>
+        <v>2.353584284108158E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>2.9529555372024012E-5</v>
+        <v>2.555211648613701E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1755,12 +1806,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>3.214918859818647E-5</v>
+        <v>2.77253996354051E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -1769,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>3.497934758895358E-5</v>
+        <v>3.0066478434453276E-5</v>
       </c>
     </row>
     <row r="28">
@@ -1783,7 +1834,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>3.803487329100125E-5</v>
+        <v>3.2586755790341637E-5</v>
       </c>
     </row>
     <row r="29">
@@ -1797,26 +1848,26 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>4.133146722875528E-5</v>
+        <v>3.5298276518605336E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>4.488572573884276E-5</v>
+        <v>3.82137527114658E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -1825,413 +1876,413 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>4.8715174268146744E-5</v>
+        <v>4.134658925602407E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>5.283830160698281E-5</v>
+        <v>4.4710909424610376E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>5.727459391809868E-5</v>
+        <v>4.832158045270916E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>6.204456841119423E-5</v>
+        <v>5.219423901299113E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6.716980650151971E-5</v>
+        <v>5.6345316486935905E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7.267298627987057E-5</v>
+        <v>6.079206392840158E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>7.857791410992223E-5</v>
+        <v>6.555257660618313E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>8.490955515770809E-5</v>
+        <v>7.064581800548142E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>9.169406264663508E-5</v>
+        <v>7.609164316075894E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>9.895880562059444E-5</v>
+        <v>8.191082118531629E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0673239498680217E-4</v>
+        <v>8.812505685559086E-5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1.150447075994516E-4</v>
+        <v>9.475701110132017E-5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D43" t="n">
-        <v>1.239269081353214E-4</v>
+        <v>1.0183032024546927E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>1.3341146850275433E-4</v>
+        <v>1.0936961383140563E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
-        <v>1.4353218451641477E-4</v>
+        <v>1.1740053086805669E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1.5432418956196113E-4</v>
+        <v>1.2594973431782246E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1.658239649672457E-4</v>
+        <v>1.3504492364612656E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1.7806934678975652E-4</v>
+        <v>1.447148452460576E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>1.9109952872493332E-4</v>
+        <v>1.5498930054671806E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>2.0495506083453548E-4</v>
+        <v>1.6589915160960395E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>2.1967784379208453E-4</v>
+        <v>1.7747632401335237E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>2.3531111833918414E-4</v>
+        <v>1.897538068243677E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>2.5189944964692547E-4</v>
+        <v>2.0276564944828046E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>2.694887062771288E-4</v>
+        <v>2.165469551558036E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2.8812603344051304E-4</v>
+        <v>2.3113387107562278E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>3.078598202542488E-4</v>
+        <v>2.465635744474063E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>3.2873966070619525E-4</v>
+        <v>2.628742549290182E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>3.5081630804258395E-4</v>
+        <v>2.801050927545442E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>3.7414162230535626E-4</v>
+        <v>2.982962325426917E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>3.98768510757758E-4</v>
+        <v>3.174887525599175E-4</v>
       </c>
     </row>
     <row r="61">
@@ -2242,10 +2293,10 @@
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D61" t="n">
-        <v>4.24750860951683E-4</v>
+        <v>3.3772462924844173E-4</v>
       </c>
     </row>
     <row r="62">
@@ -2256,113 +2307,113 @@
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
-        <v>4.521434662065815E-4</v>
+        <v>3.5904669683612615E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>4.8100194328869715E-4</v>
+        <v>3.8149860185322185E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>5.113826421019128E-4</v>
+        <v>4.051247523914501E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D65" t="n">
-        <v>5.433425472227936E-4</v>
+        <v>4.299702619510312E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D66" t="n">
-        <v>5.769391711422552E-4</v>
+        <v>4.560808877343125E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
         <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>6.122304391001955E-4</v>
+        <v>4.8350296325822776E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6.492745654354919E-4</v>
+        <v>5.122833251734902E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>6.881299214017093E-4</v>
+        <v>5.424692341946084E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
         <v>100</v>
@@ -2371,166 +2422,166 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>7.28854894439461E-4</v>
+        <v>5.741082900641778E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>7.715077389294778E-4</v>
+        <v>6.072483404933604E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>8.161464184949299E-4</v>
+        <v>6.419373840425152E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>8.628284399589872E-4</v>
+        <v>6.782234669285396E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
-        <v>9.116106791113004E-4</v>
+        <v>7.161545737686716E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>9.625491984805619E-4</v>
+        <v>7.557785122971408E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
         <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0010156990573583213</v>
+        <v>7.97142792115714E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0010711141143677286</v>
+        <v>8.402944975699524E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001128846822921973</v>
+        <v>8.852801548679262E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0011889480199658818</v>
+        <v>9.321455935924587E-4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0012514667084485114</v>
+        <v>9.809358027853994E-4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0013164498340262655</v>
+        <v>0.0010316947818157923</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
         <v>116</v>
@@ -2539,49 +2590,49 @@
         <v>11</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001383942056545573</v>
+        <v>0.0010844653862772703</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0014539855169138464</v>
+        <v>0.0011392891691904966</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
         <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0015266196000110165</v>
+        <v>0.0011962062178211136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0016018806943521695</v>
+        <v>0.0012552549864608374</v>
       </c>
     </row>
     <row r="86">
@@ -2592,10 +2643,10 @@
         <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001679801949259492</v>
+        <v>0.001316472125546083</v>
       </c>
     </row>
     <row r="87">
@@ -2606,421 +2657,421 @@
         <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0017604130303523167</v>
+        <v>0.0013798923075285172</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0018437398742088273</v>
+        <v>0.0014455480499453548</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
         <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0019298044431032627</v>
+        <v>0.00151346953616463</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>0.002018624480763488</v>
+        <v>0.001583684434321643</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002110213270127892</v>
+        <v>0.0016562177149871751</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
         <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0022045793941353822</v>
+        <v>0.0017310914681446382</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002301726500590684</v>
+        <v>0.0018083247200782748</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
         <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0024016530722028584</v>
+        <v>0.0018879332508077926</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
         <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002504352202902127</v>
+        <v>0.0019699294127243847</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002609811381571403</v>
+        <v>0.0020543219511164543</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
         <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0027180122843385446</v>
+        <v>0.002141115827288688</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
         <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0028289305765950012</v>
+        <v>0.0022303120450022917</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002942535725905915</v>
+        <v>0.0023219074809796014</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
         <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0030587908269739117</v>
+        <v>0.0024158947202367886</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
         <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0031776524398251516</v>
+        <v>0.0025122618970110366</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0032990704423652706</v>
+        <v>0.0026109925420721436</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
         <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D103" t="n">
-        <v>0.003422987898425156</v>
+        <v>0.0027120654371928232</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
         <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0035493409424232625</v>
+        <v>0.002815454477588075</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0036780586816993477</v>
+        <v>0.0029211285430879586</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
         <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0038090631175646816</v>
+        <v>0.003029051378854508</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" t="s">
         <v>150</v>
       </c>
-      <c r="B107" t="s">
-        <v>151</v>
-      </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D107" t="n">
-        <v>0.003942269086066208</v>
+        <v>0.0031391814863945267</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
         <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004077584219393082</v>
+        <v>0.0032514720256539564</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
         <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00421490892881532</v>
+        <v>0.003365870728928244</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" t="s">
         <v>154</v>
       </c>
-      <c r="B110" t="s">
-        <v>155</v>
-      </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004354136409975562</v>
+        <v>0.0034823198273162825</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B111" t="s">
         <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004495152671269431</v>
+        <v>0.0036007559904329134</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
         <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004637836585995925</v>
+        <v>0.003721110280039741</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" t="s">
         <v>158</v>
       </c>
-      <c r="B113" t="s">
-        <v>159</v>
-      </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004782059968857</v>
+        <v>0.003843308118244293</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
         <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004927687677304227</v>
+        <v>0.003967269270874929</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" t="s">
         <v>161</v>
       </c>
-      <c r="B115" t="s">
-        <v>162</v>
-      </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
-        <v>0.005074577738137798</v>
+        <v>0.004092907846588112</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>0.005222581499658652</v>
+        <v>0.004220132312232561</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B117" t="s">
         <v>164</v>
@@ -3029,77 +3080,77 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>0.005371543809573831</v>
+        <v>0.004348845524943801</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" t="s">
         <v>165</v>
       </c>
-      <c r="B118" t="s">
-        <v>166</v>
-      </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005521303218746221</v>
+        <v>0.004478944781382721</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005671692210766965</v>
+        <v>0.004610321884482349</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B120" t="s">
         <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005822537457214505</v>
+        <v>0.004742863228008709</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>167</v>
+      </c>
+      <c r="B121" t="s">
         <v>169</v>
       </c>
-      <c r="B121" t="s">
-        <v>170</v>
-      </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005973660098346545</v>
+        <v>0.004876449899176516</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006124876048853534</v>
+        <v>0.005010957799490345</v>
       </c>
     </row>
     <row r="123">
@@ -3107,13 +3158,13 @@
         <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.006275996328171385</v>
+        <v>0.005146257783925801</v>
       </c>
     </row>
     <row r="124">
@@ -3121,27 +3172,27 @@
         <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.006426827414750258</v>
+        <v>0.005282215818482039</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>0.006577171623527556</v>
+        <v>0.005418693156071297</v>
       </c>
     </row>
     <row r="126">
@@ -3149,13 +3200,13 @@
         <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006726827505750876</v>
+        <v>0.005555546530634559</v>
       </c>
     </row>
     <row r="127">
@@ -3163,27 +3214,27 @@
         <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006875590270181808</v>
+        <v>0.005692628369295294</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D128" t="n">
-        <v>0.007023252224560239</v>
+        <v>0.005829787022288313</v>
       </c>
     </row>
     <row r="129">
@@ -3191,545 +3242,545 @@
         <v>179</v>
       </c>
       <c r="B129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129" t="n">
-        <v>0.007169603236144129</v>
+        <v>0.005966867010319676</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B130" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D130" t="n">
-        <v>0.007314431209980599</v>
+        <v>0.006103709288937775</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" t="s">
         <v>182</v>
       </c>
-      <c r="B131" t="s">
-        <v>184</v>
-      </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D131" t="n">
-        <v>0.007457522583490861</v>
+        <v>0.0062401515294131515</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D132" t="n">
-        <v>0.007598662835826719</v>
+        <v>0.0063760284155558455</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B133" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007737637010378107</v>
+        <v>0.006511171955804196</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>183</v>
+      </c>
+      <c r="B134" t="s">
         <v>186</v>
       </c>
-      <c r="B134" t="s">
-        <v>188</v>
-      </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007874230248703928</v>
+        <v>0.006645411809867052</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B135" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>0.008008228334087708</v>
+        <v>0.006778575629101835</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>187</v>
+      </c>
+      <c r="B136" t="s">
         <v>189</v>
       </c>
-      <c r="B136" t="s">
-        <v>191</v>
-      </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>0.008139418242835844</v>
+        <v>0.006910489409758858</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B137" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>0.008267588701373063</v>
+        <v>0.007040977858137898</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D138" t="n">
-        <v>0.008392530747127008</v>
+        <v>0.007169864766648326</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>191</v>
+      </c>
+      <c r="B139" t="s">
         <v>193</v>
       </c>
-      <c r="B139" t="s">
-        <v>195</v>
-      </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D139" t="n">
-        <v>0.008514038291145748</v>
+        <v>0.0072969733996864905</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00863190868034952</v>
+        <v>0.007422126888202041</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008745943257291028</v>
+        <v>0.007545148631744325</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>195</v>
+      </c>
+      <c r="B142" t="s">
         <v>197</v>
       </c>
-      <c r="B142" t="s">
-        <v>199</v>
-      </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008855947915272194</v>
+        <v>0.0076658627067604235</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B143" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008961733646660947</v>
+        <v>0.007784094279835868</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" t="s">
         <v>200</v>
       </c>
-      <c r="B144" t="s">
-        <v>202</v>
-      </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0.009063117082249522</v>
+        <v>0.007899670024554356</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>0.009159921019506218</v>
+        <v>0.008012418540602778</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>0.009251974937600382</v>
+        <v>0.008122170773718712</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>203</v>
+      </c>
+      <c r="B147" t="s">
         <v>204</v>
       </c>
-      <c r="B147" t="s">
-        <v>206</v>
-      </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00933911549710481</v>
+        <v>0.008228760435057408</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B148" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00942118702233502</v>
+        <v>0.008332024418534645</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B149" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D149" t="n">
-        <v>0.009498041964331391</v>
+        <v>0.008431803214685785</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" t="s">
         <v>208</v>
       </c>
-      <c r="B150" t="s">
-        <v>210</v>
-      </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D150" t="n">
-        <v>0.009569541342557816</v>
+        <v>0.008527941319586924</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B151" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D151" t="n">
-        <v>0.009635555163471046</v>
+        <v>0.008620287637364998</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B152" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009695962814194173</v>
+        <v>0.008708695874859007</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>211</v>
+      </c>
+      <c r="B153" t="s">
         <v>212</v>
       </c>
-      <c r="B153" t="s">
-        <v>214</v>
-      </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D153" t="n">
-        <v>0.00975065342962661</v>
+        <v>0.008793024926982085</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009799526231429281</v>
+        <v>0.008873139251369594</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009842490837431134</v>
+        <v>0.008948909230928226</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>215</v>
+      </c>
+      <c r="B156" t="s">
         <v>216</v>
       </c>
-      <c r="B156" t="s">
-        <v>218</v>
-      </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009879467540129618</v>
+        <v>0.009020211522925162</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B157" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009910387553084016</v>
+        <v>0.009086929393303494</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B158" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009935193224134203</v>
+        <v>0.009148953034959356</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>219</v>
+      </c>
+      <c r="B159" t="s">
         <v>220</v>
       </c>
-      <c r="B159" t="s">
-        <v>222</v>
-      </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D159" t="n">
-        <v>0.00995383821452226</v>
+        <v>0.009206179868764833</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B160" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009966287643134389</v>
+        <v>0.009258514826181174</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B161" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009972518195238004</v>
+        <v>0.009305870612376213</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>223</v>
+      </c>
+      <c r="B162" t="s">
         <v>224</v>
       </c>
-      <c r="B162" t="s">
-        <v>226</v>
-      </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009972518195238181</v>
+        <v>0.009348167948822414</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B163" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009966287643134212</v>
+        <v>0.009385335794435422</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B164" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009953838214522445</v>
+        <v>0.00941731154438892</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>227</v>
+      </c>
+      <c r="B165" t="s">
         <v>228</v>
       </c>
-      <c r="B165" t="s">
-        <v>230</v>
-      </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009935193224134373</v>
+        <v>0.009444041205825232</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B166" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009910387553083662</v>
+        <v>0.00946547954977561</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B167" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009879467540129777</v>
+        <v>0.00948159023868594</v>
       </c>
     </row>
     <row r="168">
@@ -3737,1777 +3788,1777 @@
         <v>231</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009842490837430974</v>
+        <v>0.009492345929050168</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009799526231429462</v>
+        <v>0.009497728348742478</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>234</v>
+      </c>
+      <c r="B170" t="s">
         <v>235</v>
       </c>
-      <c r="B170" t="s">
-        <v>237</v>
-      </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009750653429626735</v>
+        <v>0.00949772834874231</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009695962814193868</v>
+        <v>0.009492345929050156</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B172" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009635555163471268</v>
+        <v>0.009481590238685958</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
+        <v>238</v>
+      </c>
+      <c r="B173" t="s">
         <v>239</v>
       </c>
-      <c r="B173" t="s">
-        <v>241</v>
-      </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009569541342557594</v>
+        <v>0.009465479549775606</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B174" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009498041964331502</v>
+        <v>0.009444041205825211</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009421187022335242</v>
+        <v>0.009417311544388761</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>242</v>
+      </c>
+      <c r="B176" t="s">
         <v>243</v>
       </c>
-      <c r="B176" t="s">
-        <v>245</v>
-      </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009339115497104478</v>
+        <v>0.009385335794435408</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009251974937600521</v>
+        <v>0.009348167948822414</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B178" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009159921019506079</v>
+        <v>0.009305870612376574</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>246</v>
+      </c>
+      <c r="B179" t="s">
         <v>247</v>
       </c>
-      <c r="B179" t="s">
-        <v>249</v>
-      </c>
       <c r="C179" t="s">
         <v>11</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009063117082249661</v>
+        <v>0.009258514826181174</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B180" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
       </c>
       <c r="D180" t="n">
-        <v>0.008961733646661113</v>
+        <v>0.009206179868764694</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B181" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D181" t="n">
-        <v>0.008855947915271889</v>
+        <v>0.009148953034959328</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>250</v>
+      </c>
+      <c r="B182" t="s">
         <v>251</v>
       </c>
-      <c r="B182" t="s">
-        <v>253</v>
-      </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008745943257291139</v>
+        <v>0.009086929393303508</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B183" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C183" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>0.00863190868034941</v>
+        <v>0.009020211522925148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B184" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008514038291145887</v>
+        <v>0.008948909230928143</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>253</v>
+      </c>
+      <c r="B185" t="s">
         <v>255</v>
       </c>
-      <c r="B185" t="s">
-        <v>257</v>
-      </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008392530747127147</v>
+        <v>0.008873139251369538</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008267588701372786</v>
+        <v>0.00879302492698203</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B187" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0081394182428359</v>
+        <v>0.008708695874859035</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>257</v>
+      </c>
+      <c r="B188" t="s">
         <v>259</v>
       </c>
-      <c r="B188" t="s">
-        <v>261</v>
-      </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008008228334087708</v>
+        <v>0.008620287637365331</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>0.007874230248703984</v>
+        <v>0.008527941319586924</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B190" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C190" t="s">
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.007737637010378329</v>
+        <v>0.008431803214685785</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>261</v>
+      </c>
+      <c r="B191" t="s">
         <v>263</v>
       </c>
-      <c r="B191" t="s">
-        <v>265</v>
-      </c>
       <c r="C191" t="s">
         <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.007598662835826442</v>
+        <v>0.008332024418534562</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C192" t="s">
         <v>11</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0074575225834909165</v>
+        <v>0.00822876043505738</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B193" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007314431209980765</v>
+        <v>0.008122170773718712</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>265</v>
+      </c>
+      <c r="B194" t="s">
         <v>267</v>
       </c>
-      <c r="B194" t="s">
-        <v>269</v>
-      </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007169603236144073</v>
+        <v>0.00801241854060275</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B195" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007023252224560406</v>
+        <v>0.007899670024554356</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B196" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>0.006875590270181475</v>
+        <v>0.007784094279835729</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
+        <v>269</v>
+      </c>
+      <c r="B197" t="s">
         <v>271</v>
       </c>
-      <c r="B197" t="s">
-        <v>273</v>
-      </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0067268275057512095</v>
+        <v>0.007665862706760396</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B198" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>0.006577171623527389</v>
+        <v>0.0075451486317443806</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B199" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006426827414750258</v>
+        <v>0.007422126888202263</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
+        <v>273</v>
+      </c>
+      <c r="B200" t="s">
         <v>275</v>
       </c>
-      <c r="B200" t="s">
-        <v>277</v>
-      </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006275996328171496</v>
+        <v>0.0072969733996864905</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B201" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D201" t="n">
-        <v>0.006124876048853256</v>
+        <v>0.007169864766648326</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B202" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0059736600983466</v>
+        <v>0.007040977858137842</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>277</v>
+      </c>
+      <c r="B203" t="s">
         <v>279</v>
       </c>
-      <c r="B203" t="s">
-        <v>281</v>
-      </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D203" t="n">
-        <v>0.005822537457214505</v>
+        <v>0.006910489409758802</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B204" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D204" t="n">
-        <v>0.005671692210767021</v>
+        <v>0.006778575629101891</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B205" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.005521303218746276</v>
+        <v>0.006645411809866997</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>281</v>
+      </c>
+      <c r="B206" t="s">
         <v>283</v>
       </c>
-      <c r="B206" t="s">
-        <v>285</v>
-      </c>
       <c r="C206" t="s">
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0053715438095736645</v>
+        <v>0.006511171955804085</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B207" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.005222581499658707</v>
+        <v>0.00637602841555579</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C208" t="s">
         <v>11</v>
       </c>
       <c r="D208" t="n">
-        <v>0.005074577738137853</v>
+        <v>0.0062401515294131515</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>285</v>
+      </c>
+      <c r="B209" t="s">
         <v>287</v>
       </c>
-      <c r="B209" t="s">
-        <v>289</v>
-      </c>
       <c r="C209" t="s">
         <v>11</v>
       </c>
       <c r="D209" t="n">
-        <v>0.004927687677304171</v>
+        <v>0.006103709288938053</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C210" t="s">
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>0.004782059968856944</v>
+        <v>0.005966867010319676</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.004637836585995925</v>
+        <v>0.005829787022288313</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>289</v>
+      </c>
+      <c r="B212" t="s">
         <v>291</v>
       </c>
-      <c r="B212" t="s">
-        <v>293</v>
-      </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.004495152671269598</v>
+        <v>0.005692628369295127</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B213" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.004354136409975562</v>
+        <v>0.005555546530634614</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B214" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.00421490892881532</v>
+        <v>0.005418693156071408</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
+        <v>295</v>
+      </c>
+      <c r="B215" t="s">
         <v>296</v>
       </c>
-      <c r="B215" t="s">
-        <v>298</v>
-      </c>
       <c r="C215" t="s">
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004077584219393082</v>
+        <v>0.005282215818481928</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C216" t="s">
         <v>11</v>
       </c>
       <c r="D216" t="n">
-        <v>0.003942269086066041</v>
+        <v>0.005146257783925801</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B217" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0038090631175647927</v>
+        <v>0.005010957799490345</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>299</v>
+      </c>
+      <c r="B218" t="s">
         <v>300</v>
       </c>
-      <c r="B218" t="s">
-        <v>302</v>
-      </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0036780586816992367</v>
+        <v>0.004876449899176405</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B219" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0035493409424231515</v>
+        <v>0.004742863228008765</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B220" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0034229878984253226</v>
+        <v>0.0046103218844825156</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>303</v>
+      </c>
+      <c r="B221" t="s">
         <v>304</v>
       </c>
-      <c r="B221" t="s">
-        <v>306</v>
-      </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>0.003299070442365215</v>
+        <v>0.004478944781382721</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B222" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>0.003177652439825318</v>
+        <v>0.004348845524943801</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B223" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0030587908269738007</v>
+        <v>0.004220132312232561</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B224" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D224" t="n">
-        <v>0.002942535725905915</v>
+        <v>0.004092907846588112</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B225" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0028289305765950012</v>
+        <v>0.003967269270874929</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>307</v>
+      </c>
+      <c r="B226" t="s">
         <v>310</v>
       </c>
-      <c r="B226" t="s">
-        <v>313</v>
-      </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D226" t="n">
-        <v>0.002718012284338489</v>
+        <v>0.0038433081182443485</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B227" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>0.002609811381571292</v>
+        <v>0.003721110280039408</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B228" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D228" t="n">
-        <v>0.00250435220290246</v>
+        <v>0.00360075599043308</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>311</v>
+      </c>
+      <c r="B229" t="s">
         <v>314</v>
       </c>
-      <c r="B229" t="s">
-        <v>317</v>
-      </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0024016530722027474</v>
+        <v>0.003482319827316227</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B230" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0023017265005906284</v>
+        <v>0.003365870728928133</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B231" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0022045793941353267</v>
+        <v>0.003251472025654234</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B232" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0021102132701279266</v>
+        <v>0.0031391814863945267</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B233" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D233" t="n">
-        <v>0.002018624480763495</v>
+        <v>0.003029051378854508</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B234" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0019298044431032835</v>
+        <v>0.002921128543088014</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0018437398742088135</v>
+        <v>0.002815454477587742</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>323</v>
+      </c>
+      <c r="B236" t="s">
         <v>324</v>
       </c>
-      <c r="B236" t="s">
-        <v>327</v>
-      </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0017604130303522682</v>
+        <v>0.0027120654371931563</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B237" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0016798019492595823</v>
+        <v>0.002610992542071866</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="B238" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0016018806943520966</v>
+        <v>0.0025122618970112587</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="B239" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>0.001526619600011006</v>
+        <v>0.002415894720236844</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="B240" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0014539855169138985</v>
+        <v>0.002321907480979324</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B241" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>0.001383942056545514</v>
+        <v>0.0022303120450024028</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B242" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0013164498340262829</v>
+        <v>0.002141115827288799</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
+        <v>330</v>
+      </c>
+      <c r="B243" t="s">
         <v>333</v>
       </c>
-      <c r="B243" t="s">
-        <v>336</v>
-      </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0012514667084485252</v>
+        <v>0.0020543219511164543</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B244" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0011889480199658506</v>
+        <v>0.001969929412724357</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B245" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>0.001128846822922011</v>
+        <v>0.001887933250807751</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
+        <v>334</v>
+      </c>
+      <c r="B246" t="s">
         <v>337</v>
       </c>
-      <c r="B246" t="s">
-        <v>340</v>
-      </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0010711141143676904</v>
+        <v>0.0018083247200782818</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B247" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0010156990573583317</v>
+        <v>0.001731091468144659</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B248" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>9.625491984805896E-4</v>
+        <v>0.0016562177149872861</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>338</v>
+      </c>
+      <c r="B249" t="s">
         <v>341</v>
       </c>
-      <c r="B249" t="s">
-        <v>344</v>
-      </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>9.116106791112622E-4</v>
+        <v>0.0015836844343215008</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B250" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D250" t="n">
-        <v>8.628284399590219E-4</v>
+        <v>0.001513469536164689</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B251" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D251" t="n">
-        <v>8.161464184948952E-4</v>
+        <v>0.0014455480499452993</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B252" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>7.715077389294934E-4</v>
+        <v>0.0013798923075285865</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B253" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D253" t="n">
-        <v>7.288548944394437E-4</v>
+        <v>0.001316472125546083</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
+        <v>346</v>
+      </c>
+      <c r="B254" t="s">
         <v>348</v>
       </c>
-      <c r="B254" t="s">
-        <v>351</v>
-      </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D254" t="n">
-        <v>6.88129921401711E-4</v>
+        <v>0.0012552549864608374</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B255" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D255" t="n">
-        <v>6.492745654355075E-4</v>
+        <v>0.0011962062178211136</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B256" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>6.122304391001799E-4</v>
+        <v>0.0011392891691904862</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
+        <v>349</v>
+      </c>
+      <c r="B257" t="s">
         <v>352</v>
       </c>
-      <c r="B257" t="s">
-        <v>355</v>
-      </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D257" t="n">
-        <v>5.769391711422725E-4</v>
+        <v>0.0010844653862772495</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>356</v>
+        <v>48</v>
       </c>
       <c r="B258" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D258" t="n">
-        <v>5.433425472227936E-4</v>
+        <v>0.0010316947818157923</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>358</v>
+        <v>48</v>
       </c>
       <c r="B259" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C259" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D259" t="n">
-        <v>5.113826421018954E-4</v>
+        <v>9.809358027853717E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>358</v>
+        <v>48</v>
       </c>
       <c r="B260" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C260" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D260" t="n">
-        <v>4.810019432887145E-4</v>
+        <v>9.321455935925264E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B261" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C261" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D261" t="n">
-        <v>4.5214346620656414E-4</v>
+        <v>8.852801548679123E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B262" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C262" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D262" t="n">
-        <v>4.247508609516873E-4</v>
+        <v>8.40294497569935E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B263" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C263" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D263" t="n">
-        <v>3.9876851075777275E-4</v>
+        <v>7.971427921157365E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B264" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C264" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D264" t="n">
-        <v>3.741416223053372E-4</v>
+        <v>7.557785122971408E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B265" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D265" t="n">
-        <v>3.5081630804259176E-4</v>
+        <v>7.161545737686716E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B266" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C266" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D266" t="n">
-        <v>3.2873966070618744E-4</v>
+        <v>6.782234669285396E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B267" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C267" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>3.078598202542549E-4</v>
+        <v>6.419373840425117E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B268" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C268" t="s">
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>2.881260334405165E-4</v>
+        <v>6.072483404933535E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B269" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>2.694887062771193E-4</v>
+        <v>5.741082900641691E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B270" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>2.518994496469385E-4</v>
+        <v>5.424692341945911E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B271" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>2.3531111833917113E-4</v>
+        <v>5.122833251734989E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B272" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>2.1967784379208584E-4</v>
+        <v>4.835029632582321E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B273" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C273" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>2.0495506083454199E-4</v>
+        <v>4.560808877343359E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>182</v>
+        <v>372</v>
       </c>
       <c r="B274" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>1.9109952872492552E-4</v>
+        <v>4.299702619510312E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="B275" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>1.7806934678976085E-4</v>
+        <v>4.051247523914501E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="B276" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>1.6582396496724137E-4</v>
+        <v>3.8149860185322185E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B277" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C277" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>1.5432418956196113E-4</v>
+        <v>3.590466968361166E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B278" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>1.4353218451641542E-4</v>
+        <v>3.3772462924844607E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B279" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>1.3341146850275368E-4</v>
+        <v>3.174887525599114E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B280" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C280" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>1.2392690813532465E-4</v>
+        <v>2.9829623254268474E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B281" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C281" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1.1504470759944835E-4</v>
+        <v>2.8010509275455675E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B282" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C282" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1.067323949868039E-4</v>
+        <v>2.628742549290134E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B283" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C283" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>9.895880562059336E-5</v>
+        <v>2.465635744474063E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B284" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>9.169406264663443E-5</v>
+        <v>2.3113387107563318E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B285" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>8.490955515770809E-5</v>
+        <v>2.165469551558036E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B286" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>7.857791410992223E-5</v>
+        <v>2.0276564944828046E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B287" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C287" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>7.26729862798723E-5</v>
+        <v>1.897538068243677E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B288" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C288" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D288" t="n">
-        <v>6.716980650152188E-5</v>
+        <v>1.7747632401334847E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B289" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C289" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D289" t="n">
-        <v>6.204456841119033E-5</v>
+        <v>1.6589915160960785E-4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B290" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D290" t="n">
-        <v>5.727459391810031E-5</v>
+        <v>1.5498930054671503E-4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B291" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D291" t="n">
-        <v>5.283830160698118E-5</v>
+        <v>1.4471484524605327E-4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
+        <v>399</v>
+      </c>
+      <c r="B292" t="s">
         <v>400</v>
       </c>
-      <c r="B292" t="s">
-        <v>403</v>
-      </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D292" t="n">
-        <v>4.8715174268146744E-5</v>
+        <v>1.3504492364613046E-4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B293" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C293" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>4.488572573884379E-5</v>
+        <v>1.259497343178229E-4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B294" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C294" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>4.133146722875425E-5</v>
+        <v>1.1740053086805452E-4</v>
       </c>
     </row>
     <row r="295">
@@ -5515,377 +5566,601 @@
         <v>404</v>
       </c>
       <c r="B295" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>3.80348732910019E-5</v>
+        <v>1.0936961383141083E-4</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B296" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>3.497934758895293E-5</v>
+        <v>1.0183032024546927E-4</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
       <c r="B297" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>3.2149188598186635E-5</v>
+        <v>9.475701110132017E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="B298" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D298" t="n">
-        <v>2.9529555372025096E-5</v>
+        <v>8.812505685558826E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="B299" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D299" t="n">
-        <v>2.7106433488678216E-5</v>
+        <v>8.191082118531629E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B300" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D300" t="n">
-        <v>2.4866601287633577E-5</v>
+        <v>7.609164316076155E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
+        <v>412</v>
+      </c>
+      <c r="B301" t="s">
         <v>413</v>
       </c>
-      <c r="B301" t="s">
-        <v>415</v>
-      </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D301" t="n">
-        <v>2.2797596493019114E-5</v>
+        <v>7.064581800547915E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B302" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C302" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D302" t="n">
-        <v>2.0887683312107043E-5</v>
+        <v>6.555257660618172E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B303" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D303" t="n">
-        <v>1.912582008778527E-5</v>
+        <v>6.079206392840396E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
+        <v>416</v>
+      </c>
+      <c r="B304" t="s">
         <v>417</v>
       </c>
-      <c r="B304" t="s">
-        <v>419</v>
-      </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D304" t="n">
-        <v>1.7501627575045E-5</v>
+        <v>5.6345316486935905E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B305" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D305" t="n">
-        <v>1.6005357903054043E-5</v>
+        <v>5.219423901298929E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B306" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D306" t="n">
-        <v>1.4627864276297523E-5</v>
+        <v>4.8321580452712304E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
+        <v>420</v>
+      </c>
+      <c r="B307" t="s">
         <v>421</v>
       </c>
-      <c r="B307" t="s">
-        <v>423</v>
-      </c>
       <c r="C307" t="s">
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>1.3360571460751543E-5</v>
+        <v>4.4710909424610376E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B308" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C308" t="s">
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>1.2195447093723671E-5</v>
+        <v>4.134658925602407E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B309" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C309" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>1.1124973849372573E-5</v>
+        <v>3.8213752711464496E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
+        <v>424</v>
+      </c>
+      <c r="B310" t="s">
         <v>425</v>
       </c>
-      <c r="B310" t="s">
-        <v>427</v>
-      </c>
       <c r="C310" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D310" t="n">
-        <v>1.0142122485466918E-5</v>
+        <v>3.529827651860577E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B311" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C311" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>9.240325791117106E-6</v>
+        <v>3.2586755790342504E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B312" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C312" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D312" t="n">
-        <v>8.41345344968316E-6</v>
+        <v>3.0066478434452463E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
+        <v>428</v>
+      </c>
+      <c r="B313" t="s">
         <v>429</v>
       </c>
-      <c r="B313" t="s">
-        <v>431</v>
-      </c>
       <c r="C313" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D313" t="n">
-        <v>7.655787826001126E-6</v>
+        <v>2.772539963540445E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B314" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D314" t="n">
-        <v>6.9620006824127364E-6</v>
+        <v>2.5552116486137876E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B315" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C315" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D315" t="n">
-        <v>6.327130823784696E-6</v>
+        <v>2.3535842841081688E-5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B316" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C316" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>5.746562667826057E-6</v>
+        <v>2.1666384455288723E-5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B317" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>5.216005733493587E-6</v>
+        <v>1.9934114468402628E-5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B318" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>4.731475037075064E-6</v>
+        <v>1.8329949286285518E-5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="B319" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C319" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D319" t="n">
-        <v>4.289272382740087E-6</v>
+        <v>1.6845324907365612E-5</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="B320" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D320" t="n">
-        <v>3.885968531816882E-6</v>
+        <v>1.5472173735410488E-5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
+        <v>438</v>
+      </c>
+      <c r="B321" t="s">
+        <v>439</v>
+      </c>
+      <c r="C321" t="s">
+        <v>11</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1.420290191516958E-5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>438</v>
+      </c>
+      <c r="B322" t="s">
+        <v>440</v>
+      </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1.3030367222422639E-5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>438</v>
+      </c>
+      <c r="B323" t="s">
         <v>441</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1.194785753531603E-5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>442</v>
+      </c>
+      <c r="B324" t="s">
         <v>443</v>
       </c>
-      <c r="C321" t="s">
-        <v>6</v>
-      </c>
-      <c r="D321" t="n">
-        <v>3.5183862328506905E-6</v>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1.094906990943884E-5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>442</v>
+      </c>
+      <c r="B325" t="s">
+        <v>444</v>
+      </c>
+      <c r="C325" t="s">
+        <v>11</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1.0028090274957519E-5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>442</v>
+      </c>
+      <c r="B326" t="s">
+        <v>445</v>
+      </c>
+      <c r="C326" t="s">
+        <v>11</v>
+      </c>
+      <c r="D326" t="n">
+        <v>9.179373770256609E-6</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>446</v>
+      </c>
+      <c r="B327" t="s">
+        <v>447</v>
+      </c>
+      <c r="C327" t="s">
+        <v>16</v>
+      </c>
+      <c r="D327" t="n">
+        <v>8.397725722897163E-6</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>446</v>
+      </c>
+      <c r="B328" t="s">
+        <v>448</v>
+      </c>
+      <c r="C328" t="s">
+        <v>16</v>
+      </c>
+      <c r="D328" t="n">
+        <v>7.678283285357035E-6</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>446</v>
+      </c>
+      <c r="B329" t="s">
+        <v>449</v>
+      </c>
+      <c r="C329" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" t="n">
+        <v>7.016497729887215E-6</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>450</v>
+      </c>
+      <c r="B330" t="s">
+        <v>451</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="n">
+        <v>6.408117403955031E-6</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>450</v>
+      </c>
+      <c r="B331" t="s">
+        <v>452</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="n">
+        <v>5.849171345122496E-6</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>450</v>
+      </c>
+      <c r="B332" t="s">
+        <v>453</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="n">
+        <v>5.335953551790495E-6</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>454</v>
+      </c>
+      <c r="B333" t="s">
+        <v>455</v>
+      </c>
+      <c r="C333" t="s">
+        <v>16</v>
+      </c>
+      <c r="D333" t="n">
+        <v>4.865007904073929E-6</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>454</v>
+      </c>
+      <c r="B334" t="s">
+        <v>456</v>
+      </c>
+      <c r="C334" t="s">
+        <v>16</v>
+      </c>
+      <c r="D334" t="n">
+        <v>4.43311372709861E-6</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>454</v>
+      </c>
+      <c r="B335" t="s">
+        <v>457</v>
+      </c>
+      <c r="C335" t="s">
+        <v>16</v>
+      </c>
+      <c r="D335" t="n">
+        <v>4.037271987259133E-6</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>458</v>
+      </c>
+      <c r="B336" t="s">
+        <v>459</v>
+      </c>
+      <c r="C336" t="s">
+        <v>16</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3.6746921104032556E-6</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>458</v>
+      </c>
+      <c r="B337" t="s">
+        <v>460</v>
+      </c>
+      <c r="C337" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" t="n">
+        <v>3.3427794095349485E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="453">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,283 +26,1282 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Marlene Dietrich</t>
+    <t>Rick Deckard</t>
+  </si>
+  <si>
+    <t>Blade Runner and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>retiring replicants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>Violin music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing the violin in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Law and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Derek Zoolander</t>
+  </si>
+  <si>
+    <t>Fashion and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Smiley</t>
+  </si>
+  <si>
+    <t>Mi6 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whitehall and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>rooting out spies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gianni Versace</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Oliver Cromwell</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting with swords in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>Formula One and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Car Racing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>driving fast cars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marlon Brando</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Karl Lagerfeld</t>
+  </si>
+  <si>
+    <t>designing clothes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Victor Frankenstein</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
   </si>
   <si>
     <t>Hollywood and the Cthulu mythos</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+    <t xml:space="preserve"> Scientology and the Cthulu mythos</t>
   </si>
   <si>
     <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Raiders of the Lost Ark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Archeology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking for hidden treasures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anne Boleyn</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Salman Rushdie</t>
-  </si>
-  <si>
-    <t>Modern literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hiding from extremists in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rocket Raccoon</t>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> English soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Banner</t>
   </si>
   <si>
     <t>Marvel Comics and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>guarding the galaxy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quasimodo</t>
-  </si>
-  <si>
-    <t>French history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre-Revolutionary France and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lizzy Bennet</t>
-  </si>
-  <si>
-    <t>Regency England and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British class politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Oscar Pistorius</t>
-  </si>
-  <si>
-    <t>Olympics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Racing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Running and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Asian politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jar Jar Binks</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pippi Longstocking</t>
+    <t>flying into a rage in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Brian Griffin</t>
+  </si>
+  <si>
+    <t>Family Guy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>the Motor industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Car industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>mass-producing cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Henry Jekyll</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>suppressing violent urges in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Israeli politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middle-Eastern politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>building giant walls in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Martin Luther King</t>
+  </si>
+  <si>
+    <t>Black liberation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting racial harmony in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Osama Bin Laden</t>
+  </si>
+  <si>
+    <t>Islamic Terrorism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Oprah Winfrey</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pythagoras</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>studying mathematics in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
   </si>
   <si>
     <t>Children's tales and the Dagon mythos</t>
   </si>
   <si>
-    <t>playing pranks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Turing</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crypography and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alternative Rock and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing grungy music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jim Morrison</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Zsa Zsa Gabor</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>divorcing husbands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Borat</t>
-  </si>
-  <si>
-    <t>Borat! and the Dagon mythos</t>
+    <t>eating carrots in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>Game of Thrones and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Diana Ross</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cher</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lee Marvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Chinese philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eastern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>teaching philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>Prohibition and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chicago and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Barney Rubble</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Lydia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>collecting treasures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Expressionist art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expressionist painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting dark pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jenna Jameson</t>
+  </si>
+  <si>
+    <t>Pornography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porn movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony DiNozzo</t>
+  </si>
+  <si>
+    <t>NCIS and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Chess and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>Twilight and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Vampire world and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>sucking blood in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Feminism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Woman's movement and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting feminism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesse Pinkman</t>
+  </si>
+  <si>
+    <t>Breaking Bad and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking chrystal meth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tending the garden in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Comedy and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Bodybuilding and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>working out in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bodybuilding in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Monica Lewinsky</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Clinton Era and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>conducting illicit affairs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>Capitalism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting capitalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>avoiding growing old in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>the Roman Empire and the Cthulu-Dagon mythos</t>
+    <t>Count Dracula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chasing virgins in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>The Picture of Dorian Gray and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>gadding about town in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> practicing good skin care in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harvey Weinstein</t>
+  </si>
+  <si>
+    <t>chasing after women in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing women in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Calvin</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about sex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Russell Brand</t>
+  </si>
+  <si>
+    <t>British comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>Printing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making violent movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jay Z</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>producing Hipbop records in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>eating exotic foods in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marcel Duchamp</t>
+  </si>
+  <si>
+    <t>Dadaism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making subversive art in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judas Iscariot</t>
+  </si>
+  <si>
+    <t>the New Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the 12 Apostles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jenna Maroney</t>
+  </si>
+  <si>
+    <t>30 Rock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wayne Gretzky</t>
+  </si>
+  <si>
+    <t>Ice Hockey and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing ice hockey in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scientology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting Scientology in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumping on couches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crooning love songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Agent Smith</t>
+  </si>
+  <si>
+    <t>The Matrix and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting the resistance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Real Estate and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>investing in real estate in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing real estate in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kurt Vonnegut</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dystopian fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing science fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rainier Luftwaffe Wolfcastle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making action movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stan Lee</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing comic books in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing superheroes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Roman politics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>terrorizing citizens in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tomás de Torquemada</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Inquisition and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>extracting confessions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Montgomery Burns</t>
+  </si>
+  <si>
+    <t>Nuclear Power and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>releasing the hounds in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> counting money in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making ice sculptures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>the Renaissance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renaissance art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florence and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> punishing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Rambo</t>
+  </si>
+  <si>
+    <t>Vietnam War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting guerilla wars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding authorities in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>the Confectionary business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Chocolate industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a business empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Space Operas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing animated films in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walt Whitman</t>
+  </si>
+  <si>
+    <t>American poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph Smith</t>
+  </si>
+  <si>
+    <t>Mormonism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>searching for the messiah in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recruiting dissidents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>the Circus and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Showmanship and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Opera and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing opera arias in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>George McFly</t>
+  </si>
+  <si>
+    <t>standing up to bullies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Gregor Mendel</t>
+  </si>
+  <si>
+    <t>Science and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genetics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>tending the garden in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Violet Baudelaire</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keith Richards</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Dancing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plastic Surgery and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>getting plastic surgery in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walter Mitty</t>
+  </si>
+  <si>
+    <t>Escapism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>dreaming the day away in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> escaping from reality in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>Italian Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Snake Plissken</t>
+  </si>
+  <si>
+    <t>Escape From New York and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going on commando missions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> organizing prison breaks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>British theatre and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Love songs and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Princess Fiona</t>
+  </si>
+  <si>
+    <t>Fairy Tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>waiting for a hero in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Greg House</t>
+  </si>
+  <si>
+    <t>Diagnostic medicine and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> treating diseases in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diagnosing diseases in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jim Carrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>gurning for the camera in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pulling faces in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Cabaret singing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing melancholy songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>making bad movie choices in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding paparazzi in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Cook</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hedda Hopper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading political gossip in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>The X-Files and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Niccolò Machiavelli</t>
+  </si>
+  <si>
+    <t>Florence and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Renaissance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>currying favour in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Roman politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>modeling clothes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling cosmetics in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>Easy Listening and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Saxophone music and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>Steven Spielberg</t>
@@ -317,1084 +1316,61 @@
     <t xml:space="preserve"> producing Hollywood movies in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Peanuts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing baseball in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Seth MacFarlane</t>
-  </si>
-  <si>
-    <t>Family Guy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making vulgar jokes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making vulgar cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg</t>
-  </si>
-  <si>
-    <t>Facebook and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Walter White</t>
-  </si>
-  <si>
-    <t>Chrystal Meth and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemistry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cooking and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>New York City and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>Cycling and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheating and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Erik "Magneto" Lehnsherr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>devising evil schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> building an army in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony Montana</t>
+  </si>
+  <si>
+    <t>the Miami crime world and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running an empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anthony Scaramucci</t>
   </si>
   <si>
     <t>American politics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>writing about manly pursuits in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Uriah Heap</t>
-  </si>
-  <si>
-    <t>David Copperfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>the Age of Discovery and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>opening new markets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pythagoras</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying mathematics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mickey Rourke</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plastic Surgery and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting rabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Singing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Sparrow</t>
-  </si>
-  <si>
-    <t>Pirates of the Carribean and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>collecting pirate booty in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> commanding a pirate ship in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas Aquinas</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>teaching philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Inspector Endeavour Morse</t>
-  </si>
-  <si>
-    <t>Oxford and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Colbert</t>
-  </si>
-  <si>
-    <t>Comedy Central and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dana Scully</t>
-  </si>
-  <si>
-    <t>The X-Files and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>explaining away the unexplained in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ludwig Van Beethoven</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>composing classical music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing the piano in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Ancient Greece and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing epic poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leon Trotsky</t>
-  </si>
-  <si>
-    <t>the Russian revolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>spreading revolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting communism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>H.A.L. 9000</t>
-  </si>
-  <si>
-    <t>2001: A Space Odyssey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Homicidal computers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>murdering astronauts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frida Kahlo</t>
-  </si>
-  <si>
-    <t>Mexican art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting colorful pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eleanor Roosevelt</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>World War I and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Modesty Blaise</t>
-  </si>
-  <si>
-    <t>Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pulling capers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>Soul music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Professor Charles Xavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>teaching young mutants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> teaching the next generation in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Samson</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Yogi Berra</t>
-  </si>
-  <si>
-    <t>Baseball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing baseball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mangling idioms in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bette Midler</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kate Moss</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Freddy Krueger</t>
-  </si>
-  <si>
-    <t>Nightmares and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dreams and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ringo Starr</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing drums in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about sex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Svengali</t>
-  </si>
-  <si>
-    <t>the Music industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>manipulating ingenues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>plagiarizing political speeches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating census takers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Scarlett O'Hara</t>
-  </si>
-  <si>
-    <t>Gone With The Wind and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The American Civil War and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>attending cotillion balls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Rwanda and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gorillas and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>Baywatch and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>monetizing physical assets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Real Estate and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>investing in real estate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing real estate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ray Kroc</t>
-  </si>
-  <si>
-    <t>McDonalds and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hamburger industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>eluding hunters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wisecracking in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eating carrots in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kurt Cobain</t>
-  </si>
-  <si>
-    <t>Grunge music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimmy Cagney</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sir Hugo Drax</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Cuban politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Stephen Hawking</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>American football and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mrs. Doubtfire</t>
-  </si>
-  <si>
-    <t>Housekeeping and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Child Minding and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Family life and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>the Americas and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Age of Discovery and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>searching for a new world in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dominique Strauss-Kahn</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>throwing sex parties in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>the New Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the 12 Apostles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keith Moon</t>
-  </si>
-  <si>
-    <t>playing drums in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raising cain in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> throwing TVs out of the windows in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving riddles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Travolta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dancing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scientology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>dancing to disco music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Merlin</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jay Gatsby</t>
-  </si>
-  <si>
-    <t>The Great Gatsby and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>throwing lavish parties in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crypography and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Artificial Intelligence and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>Modern painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting over photographs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimmy Carter</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>building houses for poor people in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sitting Bull</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> leading revolts in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musical movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> frying peanut-butter and banana sandwiches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Darcy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wooing potential brides in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making condescending remarks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simone de Beauvoir</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>speaking with funny accents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performing serious acting in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>betraying friends in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stabbing in the back in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> striving for world domination in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tupac Shakur</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing rap songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>brokering peace deals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Yosemite Sam</t>
-  </si>
-  <si>
-    <t>losing control in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buddy Holly</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>writing about history in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recording history in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Scipio Africanus</t>
-  </si>
-  <si>
-    <t>Roman politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting Carthaginians in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Evolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>collecting fossils in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Wilbur Wright</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> leading armies into battle in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>Prohibition and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chicago and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting feminism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>American culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Working Class and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>ranting about liberals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>The Chronicles of Riddick and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>evading mercenaries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> English soccer and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Blair</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the British Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Labour Party and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Outback and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating bugs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lee Marvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1446,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.342779409534786E-6</v>
+        <v>3.3957452387575494E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1484,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6746921104033166E-6</v>
+        <v>3.738225966562902E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1498,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.037271987259235E-6</v>
+        <v>4.112844773800436E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1512,7 +1488,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.433113727098434E-6</v>
+        <v>4.522362873411002E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1526,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.865007904073888E-6</v>
+        <v>4.9697531184344904E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1540,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.335953551790522E-6</v>
+        <v>5.45821378772266E-6</v>
       </c>
     </row>
     <row r="8">
@@ -1554,7 +1530,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>5.849171345122523E-6</v>
+        <v>5.991183049361466E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1568,7 +1544,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>6.408117403955193E-6</v>
+        <v>6.572354115717751E-6</v>
       </c>
     </row>
     <row r="10">
@@ -1582,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>7.016497729887215E-6</v>
+        <v>7.205691102406419E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1593,10 +1569,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>7.678283285357035E-6</v>
+        <v>7.895445601682728E-6</v>
       </c>
     </row>
     <row r="12">
@@ -1607,10 +1583,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>8.397725722896946E-6</v>
+        <v>8.646173978721239E-6</v>
       </c>
     </row>
     <row r="13">
@@ -1621,10 +1597,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>9.179373770256175E-6</v>
+        <v>9.462755396963363E-6</v>
       </c>
     </row>
     <row r="14">
@@ -1638,7 +1614,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0028090274957627E-5</v>
+        <v>1.0350410576195107E-5</v>
       </c>
     </row>
     <row r="15">
@@ -1652,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>1.0949069909439138E-5</v>
+        <v>1.1314721284230768E-5</v>
       </c>
     </row>
     <row r="16">
@@ -1666,7 +1642,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>1.1947857535316275E-5</v>
+        <v>1.236165056001581E-5</v>
       </c>
     </row>
     <row r="17">
@@ -1677,10 +1653,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3030367222422205E-5</v>
+        <v>1.3497563662637977E-5</v>
       </c>
     </row>
     <row r="18">
@@ -1691,10 +1667,10 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4202901915169445E-5</v>
+        <v>1.4729249737126054E-5</v>
       </c>
     </row>
     <row r="19">
@@ -1705,10 +1681,10 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1.5472173735411057E-5</v>
+        <v>1.6063944183975415E-5</v>
       </c>
     </row>
     <row r="20">
@@ -1719,10 +1695,10 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.6845324907365612E-5</v>
+        <v>1.7509351715174778E-5</v>
       </c>
     </row>
     <row r="21">
@@ -1733,10 +1709,10 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1.8329949286285518E-5</v>
+        <v>1.907367007495162E-5</v>
       </c>
     </row>
     <row r="22">
@@ -1747,10 +1723,10 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1.9934114468402628E-5</v>
+        <v>2.076561439868889E-5</v>
       </c>
     </row>
     <row r="23">
@@ -1761,10 +1737,10 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>2.1666384455288235E-5</v>
+        <v>2.2594442178288553E-5</v>
       </c>
     </row>
     <row r="24">
@@ -1775,10 +1751,10 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>2.353584284108158E-5</v>
+        <v>2.456997879687439E-5</v>
       </c>
     </row>
     <row r="25">
@@ -1789,10 +1765,10 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>2.555211648613701E-5</v>
+        <v>2.67026435899761E-5</v>
       </c>
     </row>
     <row r="26">
@@ -1806,7 +1782,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>2.77253996354051E-5</v>
+        <v>2.9003476384297563E-5</v>
       </c>
     </row>
     <row r="27">
@@ -1820,217 +1796,217 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>3.0066478434453276E-5</v>
+        <v>3.148416445886696E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>3.2586755790341637E-5</v>
+        <v>3.415706986673218E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n">
-        <v>3.5298276518605336E-5</v>
+        <v>3.703525704853137E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>3.82137527114658E-5</v>
+        <v>4.0132520662043334E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>4.134658925602407E-5</v>
+        <v>4.346341354457043E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>4.4710909424610376E-5</v>
+        <v>4.704327471726638E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>4.832158045270916E-5</v>
+        <v>5.088825733282011E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
-        <v>5.219423901299113E-5</v>
+        <v>5.501535645990299E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
-        <v>5.6345316486935905E-5</v>
+        <v>5.944243658965857E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
-        <v>6.079206392840158E-5</v>
+        <v>6.418825874128183E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>6.555257660618313E-5</v>
+        <v>6.927250703550841E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>7.064581800548142E-5</v>
+        <v>7.471581459636133E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>7.609164316075894E-5</v>
+        <v>8.053978863327286E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
         <v>59</v>
       </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D40" t="n">
-        <v>8.191082118531629E-5</v>
+        <v>8.676703454745882E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>8.812505685559086E-5</v>
+        <v>9.342117889808341E-5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D42" t="n">
-        <v>9.475701110132017E-5</v>
+        <v>1.0052689105588455E-4</v>
       </c>
     </row>
     <row r="43">
@@ -2041,10 +2017,10 @@
         <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0183032024546927E-4</v>
+        <v>1.0810990336409501E-4</v>
       </c>
     </row>
     <row r="44">
@@ -2055,10 +2031,10 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0936961383140563E-4</v>
+        <v>1.1619702961889735E-4</v>
       </c>
     </row>
     <row r="45">
@@ -2069,10 +2045,10 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.1740053086805669E-4</v>
+        <v>1.2481618167442922E-4</v>
       </c>
     </row>
     <row r="46">
@@ -2083,10 +2059,10 @@
         <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D46" t="n">
-        <v>1.2594973431782246E-4</v>
+        <v>1.3399638397071367E-4</v>
       </c>
     </row>
     <row r="47">
@@ -2097,10 +2073,10 @@
         <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>1.3504492364612656E-4</v>
+        <v>1.4376778577630117E-4</v>
       </c>
     </row>
     <row r="48">
@@ -2111,10 +2087,10 @@
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>1.447148452460576E-4</v>
+        <v>1.5416167093174169E-4</v>
       </c>
     </row>
     <row r="49">
@@ -2125,10 +2101,10 @@
         <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>1.5498930054671806E-4</v>
+        <v>1.6521046487479084E-4</v>
       </c>
     </row>
     <row r="50">
@@ -2139,10 +2115,10 @@
         <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>1.6589915160960395E-4</v>
+        <v>1.7694773872371826E-4</v>
       </c>
     </row>
     <row r="51">
@@ -2153,10 +2129,10 @@
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>1.7747632401335237E-4</v>
+        <v>1.8940821019113692E-4</v>
       </c>
     </row>
     <row r="52">
@@ -2170,7 +2146,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1.897538068243677E-4</v>
+        <v>2.0262774109814285E-4</v>
       </c>
     </row>
     <row r="53">
@@ -2184,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>2.0276564944828046E-4</v>
+        <v>2.1664333125622978E-4</v>
       </c>
     </row>
     <row r="54">
@@ -2198,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>2.165469551558036E-4</v>
+        <v>2.3149310848336003E-4</v>
       </c>
     </row>
     <row r="55">
@@ -2212,7 +2188,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2.3113387107562278E-4</v>
+        <v>2.472163145208692E-4</v>
       </c>
     </row>
     <row r="56">
@@ -2226,7 +2202,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>2.465635744474063E-4</v>
+        <v>2.6385328661855277E-4</v>
       </c>
     </row>
     <row r="57">
@@ -2240,7 +2216,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>2.628742549290182E-4</v>
+        <v>2.814454345577968E-4</v>
       </c>
     </row>
     <row r="58">
@@ -2251,10 +2227,10 @@
         <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>2.801050927545442E-4</v>
+        <v>3.00035212886407E-4</v>
       </c>
     </row>
     <row r="59">
@@ -2265,10 +2241,10 @@
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>2.982962325426917E-4</v>
+        <v>3.196660881431522E-4</v>
       </c>
     </row>
     <row r="60">
@@ -2279,10 +2255,10 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>3.174887525599175E-4</v>
+        <v>3.4038250085688827E-4</v>
       </c>
     </row>
     <row r="61">
@@ -2293,10 +2269,10 @@
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>3.3772462924844173E-4</v>
+        <v>3.6222982211253554E-4</v>
       </c>
     </row>
     <row r="62">
@@ -2307,10 +2283,10 @@
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>3.5904669683612615E-4</v>
+        <v>3.852543044856518E-4</v>
       </c>
     </row>
     <row r="63">
@@ -2321,10 +2297,10 @@
         <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D63" t="n">
-        <v>3.8149860185322185E-4</v>
+        <v>4.095030271581354E-4</v>
       </c>
     </row>
     <row r="64">
@@ -2335,29 +2311,29 @@
         <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D64" t="n">
-        <v>4.051247523914501E-4</v>
+        <v>4.3502383503996305E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
         <v>93</v>
       </c>
-      <c r="B65" t="s">
-        <v>94</v>
-      </c>
       <c r="C65" t="s">
         <v>16</v>
       </c>
       <c r="D65" t="n">
-        <v>4.299702619510312E-4</v>
+        <v>4.6186527173599536E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
         <v>95</v>
@@ -2366,12 +2342,12 @@
         <v>16</v>
       </c>
       <c r="D66" t="n">
-        <v>4.560808877343125E-4</v>
+        <v>4.900765062127825E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
         <v>96</v>
@@ -2380,68 +2356,68 @@
         <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>4.8350296325822776E-4</v>
+        <v>5.197072530374151E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
         <v>97</v>
       </c>
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D68" t="n">
-        <v>5.122833251734902E-4</v>
+        <v>5.508076860804012E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>5.424692341946084E-4</v>
+        <v>5.834283455935941E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>5.741082900641778E-4</v>
+        <v>6.176200385996453E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
         <v>101</v>
       </c>
-      <c r="B71" t="s">
-        <v>102</v>
-      </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>6.072483404933604E-4</v>
+        <v>6.534337325506696E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
         <v>103</v>
@@ -2450,12 +2426,12 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>6.419373840425152E-4</v>
+        <v>6.909204422415709E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
         <v>104</v>
@@ -2464,26 +2440,26 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>6.782234669285396E-4</v>
+        <v>7.301311099906765E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
         <v>105</v>
       </c>
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>7.161545737686716E-4</v>
+        <v>7.711164791283694E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
@@ -2492,12 +2468,12 @@
         <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>7.557785122971408E-4</v>
+        <v>8.139269608663218E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
         <v>108</v>
@@ -2506,26 +2482,26 @@
         <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>7.97142792115714E-4</v>
+        <v>8.586124946509746E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
         <v>109</v>
       </c>
-      <c r="B77" t="s">
-        <v>110</v>
-      </c>
       <c r="C77" t="s">
         <v>16</v>
       </c>
       <c r="D77" t="n">
-        <v>8.402944975699524E-4</v>
+        <v>9.052224021380128E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>111</v>
@@ -2534,12 +2510,12 @@
         <v>16</v>
       </c>
       <c r="D78" t="n">
-        <v>8.852801548679262E-4</v>
+        <v>9.538052349598539E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
@@ -2548,49 +2524,49 @@
         <v>16</v>
       </c>
       <c r="D79" t="n">
-        <v>9.321455935924587E-4</v>
+        <v>0.0010044086164924734</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
         <v>113</v>
       </c>
-      <c r="B80" t="s">
-        <v>114</v>
-      </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D80" t="n">
-        <v>9.809358027853994E-4</v>
+        <v>0.0010570790778659696</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
         <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0010316947818157923</v>
+        <v>0.0011118618884990127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
         <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0010844653862772703</v>
+        <v>0.0011688008814757476</v>
       </c>
     </row>
     <row r="83">
@@ -2604,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0011392891691904966</v>
+        <v>0.0012279382741225003</v>
       </c>
     </row>
     <row r="84">
@@ -2618,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0011962062178211136</v>
+        <v>0.0012893144841813649</v>
       </c>
     </row>
     <row r="85">
@@ -2632,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0012552549864608374</v>
+        <v>0.0013529679420126832</v>
       </c>
     </row>
     <row r="86">
@@ -2646,7 +2622,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001316472125546083</v>
+        <v>0.0014189348993026984</v>
       </c>
     </row>
     <row r="87">
@@ -2660,7 +2636,7 @@
         <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0013798923075285172</v>
+        <v>0.0014872492347866757</v>
       </c>
     </row>
     <row r="88">
@@ -2671,10 +2647,10 @@
         <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0014455480499453548</v>
+        <v>0.0015579422575378726</v>
       </c>
     </row>
     <row r="89">
@@ -2685,556 +2661,556 @@
         <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00151346953616463</v>
+        <v>0.0016310425084091577</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
         <v>127</v>
       </c>
-      <c r="B90" t="s">
-        <v>128</v>
-      </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>0.001583684434321643</v>
+        <v>0.0017065755602494875</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
         <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0016562177149871751</v>
+        <v>0.0017845638175573234</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
         <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0017310914681446382</v>
+        <v>0.0018650263162559716</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" t="s">
         <v>131</v>
       </c>
-      <c r="B93" t="s">
-        <v>132</v>
-      </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0018083247200782748</v>
+        <v>0.0019479785243192993</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0018879332508077926</v>
+        <v>0.002033432143999085</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0019699294127243847</v>
+        <v>0.0021213949164340176</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" t="s">
         <v>135</v>
       </c>
-      <c r="B96" t="s">
-        <v>136</v>
-      </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0020543219511164543</v>
+        <v>0.0022118704294456504</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002141115827288688</v>
+        <v>0.002304857929349813</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0022303120450022917</v>
+        <v>0.002400352137630124</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" t="s">
         <v>139</v>
       </c>
-      <c r="B99" t="s">
-        <v>140</v>
-      </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0023219074809796014</v>
+        <v>0.0024983430733353518</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0024158947202367886</v>
+        <v>0.0025988158820782203</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0025122618970110366</v>
+        <v>0.002701750672518488</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
         <v>143</v>
       </c>
-      <c r="B102" t="s">
-        <v>144</v>
-      </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0026109925420721436</v>
+        <v>0.0028071223612227136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0027120654371928232</v>
+        <v>0.002914900526786335</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
-        <v>0.002815454477588075</v>
+        <v>0.0030250492741141777</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" t="s">
         <v>147</v>
       </c>
-      <c r="B105" t="s">
-        <v>148</v>
-      </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0029211285430879586</v>
+        <v>0.003137527109733196</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.003029051378854508</v>
+        <v>0.0032522868290020823</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0031391814863945267</v>
+        <v>0.003369275416089723</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" t="s">
         <v>151</v>
       </c>
-      <c r="B108" t="s">
-        <v>152</v>
-      </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0032514720256539564</v>
+        <v>0.00348843395752535</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D109" t="n">
-        <v>0.003365870728928244</v>
+        <v>0.00360969757014562</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0034823198273162825</v>
+        <v>0.003732995344208734</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
         <v>155</v>
       </c>
-      <c r="B111" t="s">
-        <v>156</v>
-      </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0036007559904329134</v>
+        <v>0.0038582503024093273</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003721110280039741</v>
+        <v>0.003985379375498144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
-        <v>0.003843308118244293</v>
+        <v>0.004114293395157065</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" t="s">
         <v>159</v>
       </c>
-      <c r="B114" t="s">
-        <v>160</v>
-      </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
-        <v>0.003967269270874929</v>
+        <v>0.004244897104735967</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004092907846588112</v>
+        <v>0.00437708918840185</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004220132312232561</v>
+        <v>0.004510762319186179</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" t="s">
         <v>163</v>
       </c>
-      <c r="B117" t="s">
-        <v>164</v>
-      </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>0.004348845524943801</v>
+        <v>0.00464580322637087</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.004478944781382721</v>
+        <v>0.0047820927825605875</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>0.004610321884482349</v>
+        <v>0.004919506110745431</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>166</v>
+      </c>
+      <c r="B120" t="s">
         <v>167</v>
       </c>
-      <c r="B120" t="s">
-        <v>168</v>
-      </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>0.004742863228008709</v>
+        <v>0.0050579127115655265</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
-        <v>0.004876449899176516</v>
+        <v>0.005197176610915788</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005010957799490345</v>
+        <v>0.00533715652796013</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>170</v>
+      </c>
+      <c r="B123" t="s">
         <v>171</v>
       </c>
-      <c r="B123" t="s">
-        <v>172</v>
-      </c>
       <c r="C123" t="s">
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005146257783925801</v>
+        <v>0.00547770606351855</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.005282215818482039</v>
+        <v>0.005618673908734051</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005418693156071297</v>
+        <v>0.005759904073809552</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" t="s">
         <v>175</v>
       </c>
-      <c r="B126" t="s">
-        <v>176</v>
-      </c>
       <c r="C126" t="s">
         <v>16</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005555546530634559</v>
+        <v>0.005901236136548027</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
       </c>
       <c r="D127" t="n">
-        <v>0.005692628369295294</v>
+        <v>0.0060425055103062175</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B128" t="s">
         <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>0.005829787022288313</v>
+        <v>0.0061835437309159524</v>
       </c>
     </row>
     <row r="129">
@@ -3245,10 +3221,10 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>0.005966867010319676</v>
+        <v>0.006324178762006083</v>
       </c>
     </row>
     <row r="130">
@@ -3259,10 +3235,10 @@
         <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006103709288937775</v>
+        <v>0.006464235318098588</v>
       </c>
     </row>
     <row r="131">
@@ -3273,10 +3249,10 @@
         <v>182</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0062401515294131515</v>
+        <v>0.006603535204732891</v>
       </c>
     </row>
     <row r="132">
@@ -3290,7 +3266,7 @@
         <v>16</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0063760284155558455</v>
+        <v>0.006741897674814035</v>
       </c>
     </row>
     <row r="133">
@@ -3304,7 +3280,7 @@
         <v>16</v>
       </c>
       <c r="D133" t="n">
-        <v>0.006511171955804196</v>
+        <v>0.006879139800275491</v>
       </c>
     </row>
     <row r="134">
@@ -3318,7 +3294,7 @@
         <v>16</v>
       </c>
       <c r="D134" t="n">
-        <v>0.006645411809867052</v>
+        <v>0.007015076858069846</v>
       </c>
     </row>
     <row r="135">
@@ -3332,7 +3308,7 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>0.006778575629101835</v>
+        <v>0.007149522729426594</v>
       </c>
     </row>
     <row r="136">
@@ -3346,7 +3322,7 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>0.006910489409758858</v>
+        <v>0.007282290311229178</v>
       </c>
     </row>
     <row r="137">
@@ -3360,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>0.007040977858137898</v>
+        <v>0.007413191938299091</v>
       </c>
     </row>
     <row r="138">
@@ -3371,10 +3347,10 @@
         <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007169864766648326</v>
+        <v>0.007542039815301438</v>
       </c>
     </row>
     <row r="139">
@@ -3385,10 +3361,10 @@
         <v>193</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0072969733996864905</v>
+        <v>0.007668646456923001</v>
       </c>
     </row>
     <row r="140">
@@ -3399,10 +3375,10 @@
         <v>194</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>0.007422126888202041</v>
+        <v>0.007792825134919523</v>
       </c>
     </row>
     <row r="141">
@@ -3413,10 +3389,10 @@
         <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.007545148631744325</v>
+        <v>0.00791439033056518</v>
       </c>
     </row>
     <row r="142">
@@ -3427,10 +3403,10 @@
         <v>197</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0076658627067604235</v>
+        <v>0.0080331581910075</v>
       </c>
     </row>
     <row r="143">
@@ -3441,10 +3417,10 @@
         <v>198</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>0.007784094279835868</v>
+        <v>0.008148946987967615</v>
       </c>
     </row>
     <row r="144">
@@ -3458,287 +3434,287 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0.007899670024554356</v>
+        <v>0.008261577577213214</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B145" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008012418540602778</v>
+        <v>0.008370873857188044</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008122170773718712</v>
+        <v>0.008476663225173015</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
         <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008228760435057408</v>
+        <v>0.008578777029330548</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B148" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008332024418534645</v>
+        <v>0.00867705101498878</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>0.008431803214685785</v>
+        <v>0.008771325763516913</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B150" t="s">
         <v>208</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>0.008527941319586924</v>
+        <v>0.008861447122158472</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C151" t="s">
         <v>16</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008620287637364998</v>
+        <v>0.008947266623200778</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B152" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
       </c>
       <c r="D152" t="n">
-        <v>0.008708695874859007</v>
+        <v>0.009028641890895805</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B153" t="s">
         <v>212</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D153" t="n">
-        <v>0.008793024926982085</v>
+        <v>0.009105437034565095</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
       </c>
       <c r="D154" t="n">
-        <v>0.008873139251369594</v>
+        <v>0.009177523026377254</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
       </c>
       <c r="D155" t="n">
-        <v>0.008948909230928226</v>
+        <v>0.009244778062332482</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009020211522925162</v>
+        <v>0.009307087905029321</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009086929393303494</v>
+        <v>0.009364346206881063</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009148953034959356</v>
+        <v>0.00941645481248568</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009206179868764833</v>
+        <v>0.009463324038960608</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B160" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C160" t="s">
         <v>11</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009258514826181174</v>
+        <v>0.009504872933110052</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009305870612376213</v>
+        <v>0.009541029504402505</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009348167948822414</v>
+        <v>0.009571730932812363</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009385335794435422</v>
+        <v>0.009596923750690198</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
         <v>16</v>
       </c>
       <c r="D164" t="n">
-        <v>0.00941731154438892</v>
+        <v>0.009616563997925105</v>
       </c>
     </row>
     <row r="165">
@@ -3746,13 +3722,13 @@
         <v>227</v>
       </c>
       <c r="B165" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009444041205825232</v>
+        <v>0.009630617349763542</v>
       </c>
     </row>
     <row r="166">
@@ -3760,27 +3736,27 @@
         <v>227</v>
       </c>
       <c r="B166" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D166" t="n">
-        <v>0.00946547954977561</v>
+        <v>0.009639059216773117</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D167" t="n">
-        <v>0.00948159023868594</v>
+        <v>0.009641874816533693</v>
       </c>
     </row>
     <row r="168">
@@ -3788,13 +3764,13 @@
         <v>231</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009492345929050168</v>
+        <v>0.009639059216772938</v>
       </c>
     </row>
     <row r="169">
@@ -3802,251 +3778,251 @@
         <v>231</v>
       </c>
       <c r="B169" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009497728348742478</v>
+        <v>0.009630617349763542</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D170" t="n">
-        <v>0.00949772834874231</v>
+        <v>0.009616563997924925</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B171" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009492345929050156</v>
+        <v>0.009596923750690545</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009481590238685958</v>
+        <v>0.009571730932812196</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009465479549775606</v>
+        <v>0.009541029504402505</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009444041205825211</v>
+        <v>0.009504872933110052</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009417311544388761</v>
+        <v>0.009463324038960469</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009385335794435408</v>
+        <v>0.009416454812485986</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B177" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009348167948822414</v>
+        <v>0.009364346206880897</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009305870612376574</v>
+        <v>0.009307087905029321</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B179" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009258514826181174</v>
+        <v>0.009244778062332273</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B180" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009206179868764694</v>
+        <v>0.00917752302637763</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B181" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009148953034959328</v>
+        <v>0.009105437034564928</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B182" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C182" t="s">
         <v>11</v>
       </c>
       <c r="D182" t="n">
-        <v>0.009086929393303508</v>
+        <v>0.009028641890895805</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B183" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C183" t="s">
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>0.009020211522925148</v>
+        <v>0.008947266623200778</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B184" t="s">
         <v>254</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008948909230928143</v>
+        <v>0.008861447122158306</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B185" t="s">
         <v>255</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008873139251369538</v>
+        <v>0.008771325763517246</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B186" t="s">
         <v>256</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D186" t="n">
-        <v>0.00879302492698203</v>
+        <v>0.008677051014988613</v>
       </c>
     </row>
     <row r="187">
@@ -4057,10 +4033,10 @@
         <v>258</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008708695874859035</v>
+        <v>0.008578777029330548</v>
       </c>
     </row>
     <row r="188">
@@ -4071,197 +4047,197 @@
         <v>259</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008620287637365331</v>
+        <v>0.008476663225172903</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B189" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008527941319586924</v>
+        <v>0.008370873857188293</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B190" t="s">
         <v>262</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008431803214685785</v>
+        <v>0.008261577577213075</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D191" t="n">
-        <v>0.008332024418534562</v>
+        <v>0.008148946987967615</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D192" t="n">
-        <v>0.00822876043505738</v>
+        <v>0.008033158191007306</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B193" t="s">
         <v>266</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D193" t="n">
-        <v>0.008122170773718712</v>
+        <v>0.007914390330565513</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00801241854060275</v>
+        <v>0.0077928251349194955</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B195" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007899670024554356</v>
+        <v>0.00766864645692289</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B196" t="s">
         <v>270</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007784094279835729</v>
+        <v>0.007542039815301438</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B197" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007665862706760396</v>
+        <v>0.007413191938298924</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B198" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0075451486317443806</v>
+        <v>0.007282290311229511</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B199" t="s">
         <v>274</v>
       </c>
       <c r="C199" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>0.007422126888202263</v>
+        <v>0.007149522729426427</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
         <v>16</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0072969733996864905</v>
+        <v>0.007015076858069846</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C201" t="s">
         <v>16</v>
       </c>
       <c r="D201" t="n">
-        <v>0.007169864766648326</v>
+        <v>0.00687913980027538</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B202" t="s">
         <v>278</v>
@@ -4270,82 +4246,82 @@
         <v>16</v>
       </c>
       <c r="D202" t="n">
-        <v>0.007040977858137842</v>
+        <v>0.006741897674814257</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B203" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D203" t="n">
-        <v>0.006910489409758802</v>
+        <v>0.00660353520473278</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B204" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006778575629101891</v>
+        <v>0.006464235318098588</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B205" t="s">
         <v>282</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006645411809866997</v>
+        <v>0.006324178762006083</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B206" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>0.006511171955804085</v>
+        <v>0.006183543730915786</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B207" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D207" t="n">
-        <v>0.00637602841555579</v>
+        <v>0.006042505510306495</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B208" t="s">
         <v>286</v>
@@ -4354,40 +4330,40 @@
         <v>11</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0062401515294131515</v>
+        <v>0.005901236136547916</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B209" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C209" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>0.006103709288938053</v>
+        <v>0.005759904073809552</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B210" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>0.005966867010319676</v>
+        <v>0.005618673908733995</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B211" t="s">
         <v>290</v>
@@ -4396,26 +4372,26 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.005829787022288313</v>
+        <v>0.005477706063518772</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B212" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.005692628369295127</v>
+        <v>0.005337156527959963</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B213" t="s">
         <v>293</v>
@@ -4424,12 +4400,12 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.005555546530634614</v>
+        <v>0.005197176610915788</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B214" t="s">
         <v>294</v>
@@ -4438,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.005418693156071408</v>
+        <v>0.0050579127115654154</v>
       </c>
     </row>
     <row r="215">
@@ -4452,7 +4428,7 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>0.005282215818481928</v>
+        <v>0.004919506110745375</v>
       </c>
     </row>
     <row r="216">
@@ -4466,7 +4442,7 @@
         <v>11</v>
       </c>
       <c r="D216" t="n">
-        <v>0.005146257783925801</v>
+        <v>0.004782092782560865</v>
       </c>
     </row>
     <row r="217">
@@ -4480,7 +4456,7 @@
         <v>11</v>
       </c>
       <c r="D217" t="n">
-        <v>0.005010957799490345</v>
+        <v>0.004645803226370759</v>
       </c>
     </row>
     <row r="218">
@@ -4494,7 +4470,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>0.004876449899176405</v>
+        <v>0.004510762319186179</v>
       </c>
     </row>
     <row r="219">
@@ -4508,7 +4484,7 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004742863228008765</v>
+        <v>0.004377089188401739</v>
       </c>
     </row>
     <row r="220">
@@ -4522,7 +4498,7 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0046103218844825156</v>
+        <v>0.004244897104736134</v>
       </c>
     </row>
     <row r="221">
@@ -4536,7 +4512,7 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>0.004478944781382721</v>
+        <v>0.004114293395157009</v>
       </c>
     </row>
     <row r="222">
@@ -4550,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>0.004348845524943801</v>
+        <v>0.003985379375498144</v>
       </c>
     </row>
     <row r="223">
@@ -4564,7 +4540,7 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.004220132312232561</v>
+        <v>0.003858250302409383</v>
       </c>
     </row>
     <row r="224">
@@ -4575,10 +4551,10 @@
         <v>308</v>
       </c>
       <c r="C224" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.004092907846588112</v>
+        <v>0.0037329953442086228</v>
       </c>
     </row>
     <row r="225">
@@ -4589,10 +4565,10 @@
         <v>309</v>
       </c>
       <c r="C225" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>0.003967269270874929</v>
+        <v>0.0036096975701456757</v>
       </c>
     </row>
     <row r="226">
@@ -4603,10 +4579,10 @@
         <v>310</v>
       </c>
       <c r="C226" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0038433081182443485</v>
+        <v>0.00348843395752535</v>
       </c>
     </row>
     <row r="227">
@@ -4617,10 +4593,10 @@
         <v>312</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.003721110280039408</v>
+        <v>0.003369275416089723</v>
       </c>
     </row>
     <row r="228">
@@ -4631,85 +4607,85 @@
         <v>313</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>0.00360075599043308</v>
+        <v>0.0032522868290020823</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="B229" t="s">
         <v>314</v>
       </c>
       <c r="C229" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D229" t="n">
-        <v>0.003482319827316227</v>
+        <v>0.0031375271097330293</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" t="s">
         <v>315</v>
       </c>
-      <c r="B230" t="s">
-        <v>316</v>
-      </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D230" t="n">
-        <v>0.003365870728928133</v>
+        <v>0.003025049274114344</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>315</v>
+        <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D231" t="n">
-        <v>0.003251472025654234</v>
+        <v>0.002914900526786335</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B232" t="s">
         <v>318</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0031391814863945267</v>
+        <v>0.002807122361222769</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>317</v>
+      </c>
+      <c r="B233" t="s">
         <v>319</v>
       </c>
-      <c r="B233" t="s">
-        <v>320</v>
-      </c>
       <c r="C233" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>0.003029051378854508</v>
+        <v>0.0027017506725184326</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B234" t="s">
         <v>321</v>
@@ -4718,12 +4694,12 @@
         <v>16</v>
       </c>
       <c r="D234" t="n">
-        <v>0.002921128543088014</v>
+        <v>0.0025988158820782203</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B235" t="s">
         <v>322</v>
@@ -4732,26 +4708,26 @@
         <v>16</v>
       </c>
       <c r="D235" t="n">
-        <v>0.002815454477587742</v>
+        <v>0.0024983430733353518</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>320</v>
+      </c>
+      <c r="B236" t="s">
         <v>323</v>
       </c>
-      <c r="B236" t="s">
-        <v>324</v>
-      </c>
       <c r="C236" t="s">
         <v>16</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0027120654371931563</v>
+        <v>0.002400352137630124</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B237" t="s">
         <v>325</v>
@@ -4760,12 +4736,12 @@
         <v>16</v>
       </c>
       <c r="D237" t="n">
-        <v>0.002610992542071866</v>
+        <v>0.0023048579293497573</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B238" t="s">
         <v>326</v>
@@ -4774,119 +4750,119 @@
         <v>16</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0025122618970112587</v>
+        <v>0.0022118704294456504</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
+        <v>324</v>
+      </c>
+      <c r="B239" t="s">
         <v>327</v>
       </c>
-      <c r="B239" t="s">
-        <v>328</v>
-      </c>
       <c r="C239" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D239" t="n">
-        <v>0.002415894720236844</v>
+        <v>0.002121394916434073</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B240" t="s">
         <v>329</v>
       </c>
       <c r="C240" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D240" t="n">
-        <v>0.002321907480979324</v>
+        <v>0.002033432143999085</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
+        <v>328</v>
+      </c>
+      <c r="B241" t="s">
         <v>330</v>
       </c>
-      <c r="B241" t="s">
-        <v>331</v>
-      </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0022303120450024028</v>
+        <v>0.0019479785243192854</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B242" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D242" t="n">
-        <v>0.002141115827288799</v>
+        <v>0.0018650263162560132</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B243" t="s">
         <v>333</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0020543219511164543</v>
+        <v>0.0017845638175572956</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
+        <v>332</v>
+      </c>
+      <c r="B244" t="s">
         <v>334</v>
       </c>
-      <c r="B244" t="s">
-        <v>335</v>
-      </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D244" t="n">
-        <v>0.001969929412724357</v>
+        <v>0.0017065755602494875</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B245" t="s">
         <v>336</v>
       </c>
       <c r="C245" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>0.001887933250807751</v>
+        <v>0.0016310425084090814</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B246" t="s">
         <v>337</v>
       </c>
       <c r="C246" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0018083247200782818</v>
+        <v>0.001557942257538008</v>
       </c>
     </row>
     <row r="247">
@@ -4897,10 +4873,10 @@
         <v>339</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D247" t="n">
-        <v>0.001731091468144659</v>
+        <v>0.001487249234786648</v>
       </c>
     </row>
     <row r="248">
@@ -4911,10 +4887,10 @@
         <v>340</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0016562177149872861</v>
+        <v>0.0014189348993026672</v>
       </c>
     </row>
     <row r="249">
@@ -4925,10 +4901,10 @@
         <v>341</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0015836844343215008</v>
+        <v>0.0013529679420126832</v>
       </c>
     </row>
     <row r="250">
@@ -4942,7 +4918,7 @@
         <v>11</v>
       </c>
       <c r="D250" t="n">
-        <v>0.001513469536164689</v>
+        <v>0.0012893144841813371</v>
       </c>
     </row>
     <row r="251">
@@ -4956,7 +4932,7 @@
         <v>11</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0014455480499452993</v>
+        <v>0.001227938274122528</v>
       </c>
     </row>
     <row r="252">
@@ -4970,7 +4946,7 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0013798923075285865</v>
+        <v>0.0011688008814757476</v>
       </c>
     </row>
     <row r="253">
@@ -4981,10 +4957,10 @@
         <v>347</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>0.001316472125546083</v>
+        <v>0.0011118618884990127</v>
       </c>
     </row>
     <row r="254">
@@ -4995,10 +4971,10 @@
         <v>348</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0012552549864608374</v>
+        <v>0.0010570790778659696</v>
       </c>
     </row>
     <row r="255">
@@ -5012,7 +4988,7 @@
         <v>11</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0011962062178211136</v>
+        <v>0.0010044086164924977</v>
       </c>
     </row>
     <row r="256">
@@ -5026,7 +5002,7 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>0.0011392891691904862</v>
+        <v>9.538052349598296E-4</v>
       </c>
     </row>
     <row r="257">
@@ -5040,390 +5016,390 @@
         <v>11</v>
       </c>
       <c r="D257" t="n">
-        <v>0.0010844653862772495</v>
+        <v>9.052224021380128E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>48</v>
+        <v>353</v>
       </c>
       <c r="B258" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D258" t="n">
-        <v>0.0010316947818157923</v>
+        <v>8.586124946509746E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>48</v>
+        <v>353</v>
       </c>
       <c r="B259" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C259" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>9.809358027853717E-4</v>
+        <v>8.139269608662958E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>48</v>
+        <v>353</v>
       </c>
       <c r="B260" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C260" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D260" t="n">
-        <v>9.321455935925264E-4</v>
+        <v>7.711164791283955E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B261" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C261" t="s">
         <v>16</v>
       </c>
       <c r="D261" t="n">
-        <v>8.852801548679123E-4</v>
+        <v>7.301311099906765E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B262" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C262" t="s">
         <v>16</v>
       </c>
       <c r="D262" t="n">
-        <v>8.40294497569935E-4</v>
+        <v>6.909204422415709E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B263" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C263" t="s">
         <v>16</v>
       </c>
       <c r="D263" t="n">
-        <v>7.971427921157365E-4</v>
+        <v>6.534337325506696E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B264" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C264" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>7.557785122971408E-4</v>
+        <v>6.17620038599654E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B265" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C265" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>7.161545737686716E-4</v>
+        <v>5.834283455935854E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B266" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C266" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>6.782234669285396E-4</v>
+        <v>5.508076860804012E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B267" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C267" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D267" t="n">
-        <v>6.419373840425117E-4</v>
+        <v>5.197072530374151E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B268" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D268" t="n">
-        <v>6.072483404933535E-4</v>
+        <v>4.900765062127799E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B269" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D269" t="n">
-        <v>5.741082900641691E-4</v>
+        <v>4.6186527173599796E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B270" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>5.424692341945911E-4</v>
+        <v>4.3502383503996305E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B271" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>5.122833251734989E-4</v>
+        <v>4.095030271581354E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B272" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>4.835029632582321E-4</v>
+        <v>3.8525430448564484E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B273" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C273" t="s">
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>4.560808877343359E-4</v>
+        <v>3.622298221125425E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B274" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C274" t="s">
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>4.299702619510312E-4</v>
+        <v>3.4038250085688827E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B275" t="s">
         <v>376</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>4.051247523914501E-4</v>
+        <v>3.196660881431522E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B276" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D276" t="n">
-        <v>3.8149860185322185E-4</v>
+        <v>3.00035212886407E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B277" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>3.590466968361166E-4</v>
+        <v>2.8144543455780376E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B278" t="s">
         <v>380</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>3.3772462924844607E-4</v>
+        <v>2.6385328661854583E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B279" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D279" t="n">
-        <v>3.174887525599114E-4</v>
+        <v>2.472163145208692E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B280" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D280" t="n">
-        <v>2.9829623254268474E-4</v>
+        <v>2.3149310848336003E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B281" t="s">
         <v>384</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D281" t="n">
-        <v>2.8010509275455675E-4</v>
+        <v>2.16643331256225E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B282" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>2.628742549290134E-4</v>
+        <v>2.0262774109814762E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B283" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>2.465635744474063E-4</v>
+        <v>1.8940821019113692E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B284" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>2.3113387107563318E-4</v>
+        <v>1.7694773872371826E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B285" t="s">
         <v>390</v>
@@ -5432,12 +5408,12 @@
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>2.165469551558036E-4</v>
+        <v>1.6521046487479084E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B286" t="s">
         <v>391</v>
@@ -5446,26 +5422,26 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>2.0276564944828046E-4</v>
+        <v>1.541616709317469E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B287" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D287" t="n">
-        <v>1.897538068243677E-4</v>
+        <v>1.4376778577629597E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B288" t="s">
         <v>394</v>
@@ -5474,12 +5450,12 @@
         <v>16</v>
       </c>
       <c r="D288" t="n">
-        <v>1.7747632401334847E-4</v>
+        <v>1.3399638397071367E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B289" t="s">
         <v>395</v>
@@ -5488,26 +5464,26 @@
         <v>16</v>
       </c>
       <c r="D289" t="n">
-        <v>1.6589915160960785E-4</v>
+        <v>1.2481618167442922E-4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B290" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C290" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>1.5498930054671503E-4</v>
+        <v>1.1619702961889432E-4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B291" t="s">
         <v>398</v>
@@ -5516,7 +5492,7 @@
         <v>11</v>
       </c>
       <c r="D291" t="n">
-        <v>1.4471484524605327E-4</v>
+        <v>1.0810990336409805E-4</v>
       </c>
     </row>
     <row r="292">
@@ -5530,133 +5506,133 @@
         <v>16</v>
       </c>
       <c r="D292" t="n">
-        <v>1.3504492364613046E-4</v>
+        <v>1.0052689105588455E-4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
+        <v>399</v>
+      </c>
+      <c r="B293" t="s">
         <v>401</v>
       </c>
-      <c r="B293" t="s">
-        <v>402</v>
-      </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D293" t="n">
-        <v>1.259497343178229E-4</v>
+        <v>9.342117889808341E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B294" t="s">
         <v>403</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D294" t="n">
-        <v>1.1740053086805452E-4</v>
+        <v>8.676703454745687E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
+        <v>402</v>
+      </c>
+      <c r="B295" t="s">
         <v>404</v>
       </c>
-      <c r="B295" t="s">
-        <v>405</v>
-      </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D295" t="n">
-        <v>1.0936961383141083E-4</v>
+        <v>8.05397886332759E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B296" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>1.0183032024546927E-4</v>
+        <v>7.471581459636025E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B297" t="s">
         <v>407</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D297" t="n">
-        <v>9.475701110132017E-5</v>
+        <v>6.927250703550841E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
+        <v>406</v>
+      </c>
+      <c r="B298" t="s">
         <v>408</v>
       </c>
-      <c r="B298" t="s">
-        <v>409</v>
-      </c>
       <c r="C298" t="s">
         <v>16</v>
       </c>
       <c r="D298" t="n">
-        <v>8.812505685558826E-5</v>
+        <v>6.418825874128183E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="B299" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C299" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>8.191082118531629E-5</v>
+        <v>5.944243658965857E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="B300" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C300" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>7.609164316076155E-5</v>
+        <v>5.501535645990299E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>412</v>
+        <v>195</v>
       </c>
       <c r="B301" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C301" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>7.064581800547915E-5</v>
+        <v>5.088825733282011E-5</v>
       </c>
     </row>
     <row r="302">
@@ -5664,13 +5640,13 @@
         <v>412</v>
       </c>
       <c r="B302" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C302" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>6.555257660618172E-5</v>
+        <v>4.704327471726638E-5</v>
       </c>
     </row>
     <row r="303">
@@ -5678,27 +5654,27 @@
         <v>412</v>
       </c>
       <c r="B303" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C303" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>6.079206392840396E-5</v>
+        <v>4.346341354457043E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B304" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C304" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>5.6345316486935905E-5</v>
+        <v>4.013252066204409E-5</v>
       </c>
     </row>
     <row r="305">
@@ -5706,13 +5682,13 @@
         <v>416</v>
       </c>
       <c r="B305" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C305" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>5.219423901298929E-5</v>
+        <v>3.7035257048530614E-5</v>
       </c>
     </row>
     <row r="306">
@@ -5720,447 +5696,377 @@
         <v>416</v>
       </c>
       <c r="B306" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C306" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D306" t="n">
-        <v>4.8321580452712304E-5</v>
+        <v>3.415706986673218E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B307" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D307" t="n">
-        <v>4.4710909424610376E-5</v>
+        <v>3.14841644588662E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
+        <v>279</v>
+      </c>
+      <c r="B308" t="s">
         <v>420</v>
       </c>
-      <c r="B308" t="s">
-        <v>422</v>
-      </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D308" t="n">
-        <v>4.134658925602407E-5</v>
+        <v>2.9003476384299026E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="B309" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D309" t="n">
-        <v>3.8213752711464496E-5</v>
+        <v>2.6702643589975397E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>424</v>
+        <v>279</v>
       </c>
       <c r="B310" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C310" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D310" t="n">
-        <v>3.529827651860577E-5</v>
+        <v>2.456997879687439E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
+        <v>423</v>
+      </c>
+      <c r="B311" t="s">
         <v>424</v>
       </c>
-      <c r="B311" t="s">
-        <v>426</v>
-      </c>
       <c r="C311" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D311" t="n">
-        <v>3.2586755790342504E-5</v>
+        <v>2.2594442178288553E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B312" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C312" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D312" t="n">
-        <v>3.0066478434452463E-5</v>
+        <v>2.076561439868889E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B313" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C313" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D313" t="n">
-        <v>2.772539963540445E-5</v>
+        <v>1.907367007495208E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
+        <v>426</v>
+      </c>
+      <c r="B314" t="s">
         <v>428</v>
       </c>
-      <c r="B314" t="s">
-        <v>430</v>
-      </c>
       <c r="C314" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D314" t="n">
-        <v>2.5552116486137876E-5</v>
+        <v>1.7509351715174317E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B315" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C315" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D315" t="n">
-        <v>2.3535842841081688E-5</v>
+        <v>1.6063944183975415E-5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B316" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D316" t="n">
-        <v>2.1666384455288723E-5</v>
+        <v>1.4729249737125403E-5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
+        <v>430</v>
+      </c>
+      <c r="B317" t="s">
         <v>432</v>
       </c>
-      <c r="B317" t="s">
-        <v>434</v>
-      </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D317" t="n">
-        <v>1.9934114468402628E-5</v>
+        <v>1.3497563662638953E-5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B318" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D318" t="n">
-        <v>1.8329949286285518E-5</v>
+        <v>1.2361650560015485E-5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="B319" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C319" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>1.6845324907365612E-5</v>
+        <v>1.1314721284230768E-5</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="B320" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C320" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>1.5472173735410488E-5</v>
+        <v>1.0350410576195107E-5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
+        <v>437</v>
+      </c>
+      <c r="B321" t="s">
         <v>438</v>
       </c>
-      <c r="B321" t="s">
-        <v>439</v>
-      </c>
       <c r="C321" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D321" t="n">
-        <v>1.420290191516958E-5</v>
+        <v>9.462755396963147E-6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B322" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C322" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D322" t="n">
-        <v>1.3030367222422639E-5</v>
+        <v>8.646173978721456E-6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B323" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C323" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D323" t="n">
-        <v>1.194785753531603E-5</v>
+        <v>7.895445601682728E-6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
+        <v>441</v>
+      </c>
+      <c r="B324" t="s">
         <v>442</v>
       </c>
-      <c r="B324" t="s">
-        <v>443</v>
-      </c>
       <c r="C324" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>1.094906990943884E-5</v>
+        <v>7.205691102406419E-6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B325" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C325" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>1.0028090274957519E-5</v>
+        <v>6.572354115717751E-6</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B326" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C326" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D326" t="n">
-        <v>9.179373770256609E-6</v>
+        <v>5.991183049361588E-6</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
+        <v>445</v>
+      </c>
+      <c r="B327" t="s">
         <v>446</v>
       </c>
-      <c r="B327" t="s">
-        <v>447</v>
-      </c>
       <c r="C327" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>8.397725722897163E-6</v>
+        <v>5.458213787722538E-6</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B328" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C328" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>7.678283285357035E-6</v>
+        <v>4.9697531184344904E-6</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B329" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C329" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>7.016497729887215E-6</v>
+        <v>4.522362873410846E-6</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
+        <v>449</v>
+      </c>
+      <c r="B330" t="s">
         <v>450</v>
       </c>
-      <c r="B330" t="s">
-        <v>451</v>
-      </c>
       <c r="C330" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D330" t="n">
-        <v>6.408117403955031E-6</v>
+        <v>4.11284477380068E-6</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B331" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C331" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D331" t="n">
-        <v>5.849171345122496E-6</v>
+        <v>3.738225966562814E-6</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B332" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C332" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D332" t="n">
-        <v>5.335953551790495E-6</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>454</v>
-      </c>
-      <c r="B333" t="s">
-        <v>455</v>
-      </c>
-      <c r="C333" t="s">
-        <v>16</v>
-      </c>
-      <c r="D333" t="n">
-        <v>4.865007904073929E-6</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s">
-        <v>454</v>
-      </c>
-      <c r="B334" t="s">
-        <v>456</v>
-      </c>
-      <c r="C334" t="s">
-        <v>16</v>
-      </c>
-      <c r="D334" t="n">
-        <v>4.43311372709861E-6</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s">
-        <v>454</v>
-      </c>
-      <c r="B335" t="s">
-        <v>457</v>
-      </c>
-      <c r="C335" t="s">
-        <v>16</v>
-      </c>
-      <c r="D335" t="n">
-        <v>4.037271987259133E-6</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s">
-        <v>458</v>
-      </c>
-      <c r="B336" t="s">
-        <v>459</v>
-      </c>
-      <c r="C336" t="s">
-        <v>16</v>
-      </c>
-      <c r="D336" t="n">
-        <v>3.6746921104032556E-6</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="s">
-        <v>458</v>
-      </c>
-      <c r="B337" t="s">
-        <v>460</v>
-      </c>
-      <c r="C337" t="s">
-        <v>16</v>
-      </c>
-      <c r="D337" t="n">
-        <v>3.3427794095349485E-6</v>
+        <v>3.3957452387575494E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="458">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,1351 +26,1366 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Rick Deckard</t>
+    <t>Clarice Starling</t>
+  </si>
+  <si>
+    <t>Silence of the Lambs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>hunting serial killers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Krusty the Clown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>introducing cartoons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeremy Paxman</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>interviewing politicians in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wayne Gretzky</t>
+  </si>
+  <si>
+    <t>Ice Hockey and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>playing ice hockey in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding taxes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>the Mongols and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mongolia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jim Carrey</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>gurning for the camera in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arts and Crafts and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>British legend and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Osama Bin Laden</t>
+  </si>
+  <si>
+    <t>Islamic Terrorism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>the American War of Independence and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>leading revolutions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for liberty in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sheldon Cooper</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scientology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Annie Oakley</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting circus attractions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling tickets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Poetry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sprung Rhyme and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern poetry in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Doc Emmett Brown</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Inspector Jacques Clouseau</t>
+  </si>
+  <si>
+    <t>the Gendarmerie and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Golf and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
+  </si>
+  <si>
+    <t>French history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre-Revolutionary France and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Karl Marx</t>
+  </si>
+  <si>
+    <t>Das Capital and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting communism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christiane Amanpour</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>reporting the news in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Yogi Berra</t>
+  </si>
+  <si>
+    <t>Baseball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing baseball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mangling idioms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>practicing the Occult in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigella Lawson</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barbra Streisand</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marcel Duchamp</t>
+  </si>
+  <si>
+    <t>Dadaism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making subversive art in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Chess and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt "Daredevil" Murdock</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rainier Luftwaffe Wolfcastle</t>
+  </si>
+  <si>
+    <t>making action movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>Romantic novels and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romantic literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing romantic fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>chasing interns in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tony Montana</t>
+  </si>
+  <si>
+    <t>the Miami crime world and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running an empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keith Moon</t>
+  </si>
+  <si>
+    <t>playing drums in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raising cain in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> throwing TVs out of the windows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>Capitalism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting capitalism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Saga Norén</t>
+  </si>
+  <si>
+    <t>Scandinavian crime fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>fighting for civil rights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buffy Summers</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting demons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hunting monsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>American architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>collecting bounties on runaways in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tracking down fugitives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Roy Batty</t>
   </si>
   <si>
     <t>Blade Runner and the Dagon mythos</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
   </si>
   <si>
-    <t>retiring replicants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation and the Cthulu-Dagon mythos</t>
+    <t>looking for immortality in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Cycling and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling furiously in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning cycling races in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Nickelodeon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Humanism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting humanism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> producing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Maximus Decimus Meridius</t>
+  </si>
+  <si>
+    <t>Gladiator and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roman epics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>commanding Roman legions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>speaking with funny accents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Love songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Beach Boys and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>waxing a surfboard in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Severus Snape</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>Formula One and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Car Racing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>driving fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billie Holiday</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing jazz songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Neville Chamberlain</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Neil Armstrong</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Rembrandt</t>
+  </si>
+  <si>
+    <t>Painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting colorful pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> painting self-portraits in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>eluding imperial storm-troopers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> carrying secret plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Dadaism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making subversive art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Spy spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bond spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spy movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lt. George Colthurst St Barleigh</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Amy Schumer</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making vulgar jokes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Erik "Magneto" Lehnsherr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>devising evil schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> building an army in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Savonarola</t>
+  </si>
+  <si>
+    <t>Florence and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Renaissance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rupert Murdoch</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Niccolò Paganini</t>
-  </si>
-  <si>
-    <t>Violin music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing the violin in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Law and the Cthulu-Dagon mythos</t>
+    <t>Scott Evil</t>
+  </si>
+  <si>
+    <t>Bond spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>squabbling on television in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Microsoft and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Anthony Scaramucci</t>
+  </si>
+  <si>
+    <t>making political gaffes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mel Gibson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Krabs</t>
+  </si>
+  <si>
+    <t>running a fast-food business in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling fast food in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pinching pennies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Julius No</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Asian politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for democracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Ancient Egypt and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>seducing emperors in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>Prohibition and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chicago and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Arthur Dent</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>lying badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>Cycling and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheating and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>cooking for friends in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Brown</t>
+  </si>
+  <si>
+    <t>Soul music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Modesty Blaise</t>
+  </si>
+  <si>
+    <t>Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pulling capers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Flash Gordon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terrorizing Earth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t>selling comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spouting movie trivia in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> being condescending to customers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Madeleine Albright</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Russell Brand</t>
+  </si>
+  <si>
+    <t>British comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Family life and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing pranks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making prank calls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>the Law and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Matt Drudge</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>chasing criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>Fashion and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimmy Cagney</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Smiley</t>
-  </si>
-  <si>
-    <t>Mi6 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Whitehall and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>rooting out spies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gianni Versace</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Oliver Cromwell</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting with swords in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>Formula One and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Car Racing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>driving fast cars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marlon Brando</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+    <t>Beyoncé</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing jazz songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>the Crimean War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian medicine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>treating the sick in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making mediocre movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling comic books in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Scarlett O'Hara</t>
+  </si>
+  <si>
+    <t>Gone With The Wind and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The American Civil War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>attending cotillion balls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabethan theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing sonnets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ali G</t>
+  </si>
+  <si>
+    <t>Ali G Indahouse and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interviewing politicians in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>the Renaissance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renaissance art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florence and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Wile E. Coyote</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>testing new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Saddam Hussein</t>
+  </si>
+  <si>
+    <t>Islamic Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>suppressing minorities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Love songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing melancholy songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Morty Smith</t>
+  </si>
+  <si>
+    <t>Rick and Morty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>standing up to bullies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>doing slapstick comedy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Monica Lewinsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Clinton Era and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>conducting illicit affairs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> causing political scandals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Madame Bovary and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Middle Class and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>planning adultery in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jesse Jackson</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> American politics and the Cthulu mythos</t>
   </si>
   <si>
-    <t>Karl Lagerfeld</t>
-  </si>
-  <si>
-    <t>designing clothes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Victor Frankenstein</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Tom Cruise</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scientology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> English soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Banner</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flying into a rage in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Brian Griffin</t>
-  </si>
-  <si>
-    <t>Family Guy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberal values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>the Motor industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Car industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>mass-producing cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>suppressing violent urges in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Israeli politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Middle-Eastern politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>building giant walls in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
-    <t>Black liberation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting racial harmony in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Osama Bin Laden</t>
-  </si>
-  <si>
-    <t>Islamic Terrorism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting terrorist outrages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oprah Winfrey</t>
-  </si>
-  <si>
-    <t>Chat Shows and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pythagoras</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>studying mathematics in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating carrots in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Diana Ross</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lee Marvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Chinese philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eastern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>teaching philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Prohibition and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chicago and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Barney Rubble</t>
-  </si>
-  <si>
-    <t>Bedrock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Lydia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>collecting treasures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Expressionist art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Expressionist painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting dark pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jenna Jameson</t>
-  </si>
-  <si>
-    <t>Pornography and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Porn movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony DiNozzo</t>
-  </si>
-  <si>
-    <t>NCIS and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Chess and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Scarlett Johansson</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edward Cullen</t>
-  </si>
-  <si>
-    <t>Twilight and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Vampire world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>sucking blood in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Feminism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Woman's movement and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting feminism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jesse Pinkman</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking chrystal meth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Samwise Gamgee</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tending the garden in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Count Dracula</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chasing virgins in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>The Picture of Dorian Gray and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>gadding about town in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> practicing good skin care in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harvey Weinstein</t>
-  </si>
-  <si>
-    <t>chasing after women in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing women in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Calvin</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about sex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Russell Brand</t>
-  </si>
-  <si>
-    <t>British comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Johannes Gutenberg</t>
-  </si>
-  <si>
-    <t>Printing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making violent movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jay Z</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>producing Hipbop records in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>eating exotic foods in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marcel Duchamp</t>
-  </si>
-  <si>
-    <t>Dadaism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making subversive art in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>the New Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the 12 Apostles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jenna Maroney</t>
-  </si>
-  <si>
-    <t>30 Rock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wayne Gretzky</t>
-  </si>
-  <si>
-    <t>Ice Hockey and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing ice hockey in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scientology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting Scientology in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jumping on couches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> crooning love songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting the resistance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Real Estate and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>investing in real estate in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing real estate in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kurt Vonnegut</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dystopian fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing science fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rainier Luftwaffe Wolfcastle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stan Lee</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing comic books in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing superheroes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Roman politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tomás de Torquemada</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Inquisition and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>extracting confessions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Montgomery Burns</t>
-  </si>
-  <si>
-    <t>Nuclear Power and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>releasing the hounds in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> counting money in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making ice sculptures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonardo Da Vinci</t>
-  </si>
-  <si>
-    <t>the Renaissance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Renaissance art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Florence and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dirty Harry Callahan</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> punishing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Rambo</t>
-  </si>
-  <si>
-    <t>Vietnam War and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting guerilla wars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding authorities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Willy Wonka</t>
-  </si>
-  <si>
-    <t>the Confectionary business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Chocolate industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a business empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Space Operas and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>surviving in the 25th century in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a media empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing animated films in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Whitman</t>
-  </si>
-  <si>
-    <t>American poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph Smith</t>
-  </si>
-  <si>
-    <t>Mormonism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>searching for the messiah in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recruiting dissidents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>P. T. Barnum</t>
-  </si>
-  <si>
-    <t>the Circus and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Showmanship and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Opera and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing opera arias in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George McFly</t>
-  </si>
-  <si>
-    <t>standing up to bullies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Gregor Mendel</t>
-  </si>
-  <si>
-    <t>Science and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Genetics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>tending the garden in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Violet Baudelaire</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keith Richards</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Dancing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mickey Rourke</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plastic Surgery and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>getting plastic surgery in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walter Mitty</t>
-  </si>
-  <si>
-    <t>Escapism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>dreaming the day away in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> escaping from reality in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>Italian Fascism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fascism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Snake Plissken</t>
-  </si>
-  <si>
-    <t>Escape From New York and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going on commando missions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> organizing prison breaks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>British theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elton John</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love songs and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Princess Fiona</t>
-  </si>
-  <si>
-    <t>Fairy Tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>waiting for a hero in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Greg House</t>
-  </si>
-  <si>
-    <t>Diagnostic medicine and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> treating diseases in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diagnosing diseases in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jim Carrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>gurning for the camera in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pulling faces in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Cabaret singing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing melancholy songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>making bad movie choices in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding paparazzi in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Cook</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading political gossip in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>The X-Files and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Niccolò Machiavelli</t>
-  </si>
-  <si>
-    <t>Florence and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Renaissance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>currying favour in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Roman politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyra Banks</t>
-  </si>
-  <si>
-    <t>modeling clothes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling cosmetics in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kenny G</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Light Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Saxophone music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> producing Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>Cycling and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cheating and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Erik "Magneto" Lehnsherr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>devising evil schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> building an army in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Montana</t>
-  </si>
-  <si>
-    <t>the Miami crime world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running an empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anthony Scaramucci</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>suing large corporations in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3957452387575494E-6</v>
+        <v>3.3743589229961744E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1460,497 +1475,497 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.738225966562902E-6</v>
+        <v>3.7125527270481055E-6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.112844773800436E-6</v>
+        <v>4.082285200065847E-6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.522362873411002E-6</v>
+        <v>4.4862493866677E-6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.9697531184344904E-6</v>
+        <v>4.927343494381446E-6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>5.45821378772266E-6</v>
+        <v>5.408684178281493E-6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>5.991183049361466E-6</v>
+        <v>5.933620475068215E-6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>6.572354115717751E-6</v>
+        <v>6.505748399868546E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>7.205691102406419E-6</v>
+        <v>7.12892621753884E-6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>7.895445601682728E-6</v>
+        <v>7.807290398542901E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>8.646173978721239E-6</v>
+        <v>8.545272267548019E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>9.462755396963363E-6</v>
+        <v>9.347615350756058E-6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0350410576195107E-5</v>
+        <v>1.0219393425579704E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1314721284230768E-5</v>
+        <v>1.116602927367743E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>1.236165056001581E-5</v>
+        <v>1.219331413545869E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3497563662637977E-5</v>
+        <v>1.3307427861056507E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4729249737126054E-5</v>
+        <v>1.4514959749331932E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>1.6063944183975415E-5</v>
+        <v>1.5822930062827262E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>1.7509351715174778E-5</v>
+        <v>1.723881220258775E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>1.907367007495162E-5</v>
+        <v>1.8770555522552884E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>2.076561439868889E-5</v>
+        <v>2.0426608758674177E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2594442178288553E-5</v>
+        <v>2.2215944043096046E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>2.456997879687439E-5</v>
+        <v>2.414808146863315E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>2.67026435899761E-5</v>
+        <v>2.623311416335972E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>2.9003476384297563E-5</v>
+        <v>2.848173382949458E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>3.148416445886696E-5</v>
+        <v>3.090525669474062E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>3.415706986673218E-5</v>
+        <v>3.351564981808944E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>3.703525704853137E-5</v>
+        <v>3.6325557685562635E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0132520662043334E-5</v>
+        <v>3.934832902465304E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>4.346341354457043E-5</v>
+        <v>4.259804375930209E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>4.704327471726638E-5</v>
+        <v>4.6089540020013216E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>5.088825733282011E-5</v>
+        <v>4.983844111640747E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
-        <v>5.501535645990299E-5</v>
+        <v>5.386118237198903E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>5.944243658965857E-5</v>
+        <v>5.817503771317757E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>6.418825874128183E-5</v>
+        <v>6.279814589692939E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>6.927250703550841E-5</v>
+        <v>6.774953625343812E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>7.471581459636133E-5</v>
+        <v>7.30491538124574E-5</v>
       </c>
     </row>
     <row r="39">
@@ -1961,10 +1976,10 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>8.053978863327286E-5</v>
+        <v>7.871788367387654E-5</v>
       </c>
     </row>
     <row r="40">
@@ -1975,10 +1990,10 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>8.676703454745882E-5</v>
+        <v>8.477757447544775E-5</v>
       </c>
     </row>
     <row r="41">
@@ -1989,10 +2004,10 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>9.342117889808341E-5</v>
+        <v>9.125106080265142E-5</v>
       </c>
     </row>
     <row r="42">
@@ -2003,169 +2018,169 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0052689105588455E-4</v>
+        <v>9.816218437812643E-5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0810990336409501E-4</v>
+        <v>1.0553581386060578E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1619702961889735E-4</v>
+        <v>1.1339786307619439E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D45" t="n">
-        <v>1.2481618167442922E-4</v>
+        <v>1.2177530749773275E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
         <v>67</v>
       </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3399638397071367E-4</v>
+        <v>1.3069619878160253E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4376778577630117E-4</v>
+        <v>1.401896771652286E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>1.5416167093174169E-4</v>
+        <v>1.5028598152254055E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6521046487479084E-4</v>
+        <v>1.6101645687026118E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7694773872371826E-4</v>
+        <v>1.7241355911248478E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1.8940821019113692E-4</v>
+        <v>1.8451085680814758E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>2.0262774109814285E-4</v>
+        <v>1.9734302974229326E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>2.1664333125622978E-4</v>
+        <v>2.1094586408019513E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
@@ -2174,413 +2189,413 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>2.3149310848336003E-4</v>
+        <v>2.253562438819046E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2.472163145208692E-4</v>
+        <v>2.4061213875475624E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>2.6385328661855277E-4</v>
+        <v>2.5675258742148153E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
-        <v>2.814454345577968E-4</v>
+        <v>2.7381767698443074E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>3.00035212886407E-4</v>
+        <v>2.9184851766795444E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>3.196660881431522E-4</v>
+        <v>3.1088721282678065E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>3.4038250085688827E-4</v>
+        <v>3.3097682401269073E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" t="s">
         <v>87</v>
       </c>
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>3.6222982211253554E-4</v>
+        <v>3.5216133089876426E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>3.852543044856518E-4</v>
+        <v>3.744855858695481E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>4.095030271581354E-4</v>
+        <v>3.979952630943865E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>4.3502383503996305E-4</v>
+        <v>4.2273680191250423E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" t="n">
-        <v>4.6186527173599536E-4</v>
+        <v>4.487573443721629E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" t="n">
-        <v>4.900765062127825E-4</v>
+        <v>4.761046667789105E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>5.197072530374151E-4</v>
+        <v>5.048271051256411E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" t="n">
-        <v>5.508076860804012E-4</v>
+        <v>5.349734742931891E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>5.834283455935941E-4</v>
+        <v>5.66592980930725E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>6.176200385996453E-4</v>
+        <v>5.997351299445296E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>6.534337325506696E-4</v>
+        <v>6.344496245472772E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
         <v>102</v>
       </c>
-      <c r="B72" t="s">
-        <v>103</v>
-      </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>6.909204422415709E-4</v>
+        <v>6.707862598429263E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>7.301311099906765E-4</v>
+        <v>7.087948099489694E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>7.711164791283694E-4</v>
+        <v>7.485249086823346E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
         <v>106</v>
       </c>
-      <c r="B75" t="s">
-        <v>107</v>
-      </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>8.139269608663218E-4</v>
+        <v>7.90025923866889E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" t="n">
-        <v>8.586124946509746E-4</v>
+        <v>8.333468253468607E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D77" t="n">
-        <v>9.052224021380128E-4</v>
+        <v>8.785360468241948E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>9.538052349598539E-4</v>
+        <v>9.256413416671647E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0010044086164924734</v>
+        <v>9.747096328744237E-4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0010570790778659696</v>
+        <v>0.001025786857409134</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
         <v>114</v>
       </c>
-      <c r="B81" t="s">
-        <v>115</v>
-      </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0011118618884990127</v>
+        <v>0.0010789178051540914</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0011688008814757476</v>
+        <v>0.001134145952777596</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0012279382741225003</v>
+        <v>0.001191513292829502</v>
       </c>
     </row>
     <row r="84">
@@ -2588,13 +2603,13 @@
         <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0012893144841813649</v>
+        <v>0.0012510601584291361</v>
       </c>
     </row>
     <row r="85">
@@ -2602,153 +2617,153 @@
         <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0013529679420126832</v>
+        <v>0.00131282504394278</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
         <v>121</v>
       </c>
-      <c r="B86" t="s">
-        <v>122</v>
-      </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0014189348993026984</v>
+        <v>0.0013768444220804699</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0014872492347866757</v>
+        <v>0.0014431525578856505</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s">
         <v>124</v>
       </c>
-      <c r="B88" t="s">
-        <v>125</v>
-      </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0015579422575378726</v>
+        <v>0.001511781320121388</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0016310425084091577</v>
+        <v>0.0015827599905950465</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0017065755602494875</v>
+        <v>0.001656115072000041</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" t="s">
         <v>128</v>
       </c>
-      <c r="B91" t="s">
-        <v>129</v>
-      </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0017845638175573234</v>
+        <v>0.0017318700948799198</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0018650263162559716</v>
+        <v>0.0018100454243631173</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0019479785243192993</v>
+        <v>0.0018906580673377013</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002033432143999085</v>
+        <v>0.0019737214807701436</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0021213949164340176</v>
+        <v>0.002059245381897709</v>
       </c>
     </row>
     <row r="96">
@@ -2759,10 +2774,10 @@
         <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0022118704294456504</v>
+        <v>0.0021472355610495167</v>
       </c>
     </row>
     <row r="97">
@@ -2773,10 +2788,10 @@
         <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002304857929349813</v>
+        <v>0.0022376936978732997</v>
       </c>
     </row>
     <row r="98">
@@ -2787,10 +2802,10 @@
         <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002400352137630124</v>
+        <v>0.0023306171817663035</v>
       </c>
     </row>
     <row r="99">
@@ -2801,10 +2816,10 @@
         <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0024983430733353518</v>
+        <v>0.0024259989373195956</v>
       </c>
     </row>
     <row r="100">
@@ -2815,10 +2830,10 @@
         <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0025988158820782203</v>
+        <v>0.002523827255614175</v>
       </c>
     </row>
     <row r="101">
@@ -2829,10 +2844,10 @@
         <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002701750672518488</v>
+        <v>0.00262408563219213</v>
       </c>
     </row>
     <row r="102">
@@ -2843,10 +2858,10 @@
         <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0028071223612227136</v>
+        <v>0.0027267526125648867</v>
       </c>
     </row>
     <row r="103">
@@ -2857,10 +2872,10 @@
         <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>0.002914900526786335</v>
+        <v>0.0028318016460945894</v>
       </c>
     </row>
     <row r="104">
@@ -2871,10 +2886,10 @@
         <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0030250492741141777</v>
+        <v>0.0029392009491049365</v>
       </c>
     </row>
     <row r="105">
@@ -2888,7 +2903,7 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.003137527109733196</v>
+        <v>0.003048913378057738</v>
       </c>
     </row>
     <row r="106">
@@ -2902,7 +2917,7 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0032522868290020823</v>
+        <v>0.0031608963136407486</v>
       </c>
     </row>
     <row r="107">
@@ -2916,7 +2931,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.003369275416089723</v>
+        <v>0.0032751015565796737</v>
       </c>
     </row>
     <row r="108">
@@ -2927,10 +2942,10 @@
         <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D108" t="n">
-        <v>0.00348843395752535</v>
+        <v>0.0033914752359793243</v>
       </c>
     </row>
     <row r="109">
@@ -2941,10 +2956,10 @@
         <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00360969757014562</v>
+        <v>0.0035099577309898877</v>
       </c>
     </row>
     <row r="110">
@@ -2955,10 +2970,10 @@
         <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D110" t="n">
-        <v>0.003732995344208734</v>
+        <v>0.0036304836065332857</v>
       </c>
     </row>
     <row r="111">
@@ -2969,10 +2984,10 @@
         <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0038582503024093273</v>
+        <v>0.003752981563838742</v>
       </c>
     </row>
     <row r="112">
@@ -2983,220 +2998,220 @@
         <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003985379375498144</v>
+        <v>0.003877374406461964</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004114293395157065</v>
+        <v>0.004003579022445469</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
         <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004244897104735967</v>
+        <v>0.004131506383231898</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
         <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D115" t="n">
-        <v>0.00437708918840185</v>
+        <v>0.004261061559877766</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004510762319186179</v>
+        <v>0.004392143757085576</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00464580322637087</v>
+        <v>0.004524646365494656</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0047820927825605875</v>
+        <v>0.004658457032626351</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>0.004919506110745431</v>
+        <v>0.0047934577528025435</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0050579127115655265</v>
+        <v>0.004929524976296895</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005197176610915788</v>
+        <v>0.005066529737903391</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D122" t="n">
-        <v>0.00533715652796013</v>
+        <v>0.005204337805034209</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D123" t="n">
-        <v>0.00547770606351855</v>
+        <v>0.005342809845377827</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>0.005618673908734051</v>
+        <v>0.005481801614079018</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005759904073809552</v>
+        <v>0.005621164160309222</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005901236136548027</v>
+        <v>0.005760744053020961</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0060425055103062175</v>
+        <v>0.005900383625593197</v>
       </c>
     </row>
     <row r="128">
@@ -3204,18 +3219,18 @@
         <v>177</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0061835437309159524</v>
+        <v>0.006039921238993495</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
         <v>180</v>
@@ -3224,82 +3239,82 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006324178762006083</v>
+        <v>0.006179191562989461</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006464235318098588</v>
+        <v>0.006318025874867073</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006603535204732891</v>
+        <v>0.006456252375017901</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
         <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D132" t="n">
-        <v>0.006741897674814035</v>
+        <v>0.006593696518688352</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.006879139800275491</v>
+        <v>0.006730181363081622</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007015076858069846</v>
+        <v>0.006865527928946291</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
         <v>188</v>
@@ -3308,77 +3323,77 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>0.007149522729426594</v>
+        <v>0.0069995555756833805</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007282290311229178</v>
+        <v>0.007132082388949079</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D137" t="n">
-        <v>0.007413191938299091</v>
+        <v>0.007262925579644919</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
         <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007542039815301438</v>
+        <v>0.007391901893126218</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007668646456923001</v>
+        <v>0.0075188280273894015</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B140" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>0.007792825134919523</v>
+        <v>0.0076435210589451685</v>
       </c>
     </row>
     <row r="141">
@@ -3386,13 +3401,13 @@
         <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00791439033056518</v>
+        <v>0.007765798875027374</v>
       </c>
     </row>
     <row r="142">
@@ -3400,27 +3415,27 @@
         <v>195</v>
       </c>
       <c r="B142" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0080331581910075</v>
+        <v>0.007885480610734547</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008148946987967615</v>
+        <v>0.008002387089666357</v>
       </c>
     </row>
     <row r="144">
@@ -3428,172 +3443,172 @@
         <v>199</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008261577577213214</v>
+        <v>0.008116341266566157</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
         <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008370873857188044</v>
+        <v>0.008227168670465107</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008476663225173015</v>
+        <v>0.00833469784678309</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008578777029330548</v>
+        <v>0.008438760796837697</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00867705101498878</v>
+        <v>0.008539193413188123</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D149" t="n">
-        <v>0.008771325763516913</v>
+        <v>0.008635835909247297</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D150" t="n">
-        <v>0.008861447122158472</v>
+        <v>0.008728533241594671</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008947266623200778</v>
+        <v>0.008817135523428082</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009028641890895805</v>
+        <v>0.008901498427624749</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009105437034565095</v>
+        <v>0.008981483577885974</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009177523026377254</v>
+        <v>0.009056958926494385</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009244778062332482</v>
+        <v>0.009127799117235616</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B156" t="s">
         <v>217</v>
@@ -3602,427 +3617,427 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009307087905029321</v>
+        <v>0.009193885832092505</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009364346206881063</v>
+        <v>0.00925510812037135</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00941645481248568</v>
+        <v>0.00931136270897541</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B159" t="s">
         <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009463324038960608</v>
+        <v>0.009362554292617564</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B160" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009504872933110052</v>
+        <v>0.009408595802823674</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009541029504402505</v>
+        <v>0.009449408654673697</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B162" t="s">
         <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009571730932812363</v>
+        <v>0.009484922970290292</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009596923750690198</v>
+        <v>0.009515077778195262</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B164" t="s">
         <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009616563997925105</v>
+        <v>0.00953982118773291</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B165" t="s">
         <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009630617349763542</v>
+        <v>0.009559110537861758</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009639059216773117</v>
+        <v>0.009572912519721056</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B167" t="s">
         <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009641874816533693</v>
+        <v>0.009581203272473691</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B168" t="s">
         <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009639059216772938</v>
+        <v>0.009583968452044553</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009630617349763542</v>
+        <v>0.009581203272473512</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B170" t="s">
         <v>236</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009616563997924925</v>
+        <v>0.009572912519721234</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B171" t="s">
         <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009596923750690545</v>
+        <v>0.009559110537861938</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009571730932812196</v>
+        <v>0.009539821187732576</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B173" t="s">
         <v>240</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009541029504402505</v>
+        <v>0.009515077778195415</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B174" t="s">
         <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009504872933110052</v>
+        <v>0.009484922970290126</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009463324038960469</v>
+        <v>0.009449408654673863</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B176" t="s">
         <v>244</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009416454812485986</v>
+        <v>0.009408595802823883</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B177" t="s">
         <v>245</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009364346206880897</v>
+        <v>0.009362554292617162</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009307087905029321</v>
+        <v>0.009311362708975604</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B179" t="s">
         <v>248</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009244778062332273</v>
+        <v>0.009255108120371211</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B180" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D180" t="n">
-        <v>0.00917752302637763</v>
+        <v>0.009193885832092644</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009105437034564928</v>
+        <v>0.009127799117235616</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B182" t="s">
         <v>252</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D182" t="n">
-        <v>0.009028641890895805</v>
+        <v>0.009056958926494219</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B183" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008947266623200778</v>
+        <v>0.00898148357788614</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B184" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008861447122158306</v>
+        <v>0.008901498427624888</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B185" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008771325763517246</v>
+        <v>0.008817135523427944</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="B186" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008677051014988613</v>
+        <v>0.008728533241594671</v>
       </c>
     </row>
     <row r="187">
@@ -4030,13 +4045,13 @@
         <v>257</v>
       </c>
       <c r="B187" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008578777029330548</v>
+        <v>0.008635835909247241</v>
       </c>
     </row>
     <row r="188">
@@ -4044,144 +4059,144 @@
         <v>257</v>
       </c>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008476663225172903</v>
+        <v>0.008539193413188179</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B189" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008370873857188293</v>
+        <v>0.008438760796837919</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008261577577213075</v>
+        <v>0.008334697846782868</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B191" t="s">
         <v>264</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D191" t="n">
-        <v>0.008148946987967615</v>
+        <v>0.008227168670465107</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="B192" t="s">
         <v>265</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D192" t="n">
-        <v>0.008033158191007306</v>
+        <v>0.008116341266566018</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="B193" t="s">
         <v>266</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007914390330565513</v>
+        <v>0.008002387089666496</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>113</v>
+      </c>
+      <c r="B194" t="s">
         <v>267</v>
       </c>
-      <c r="B194" t="s">
-        <v>268</v>
-      </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0077928251349194955</v>
+        <v>0.007885480610734769</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B195" t="s">
         <v>269</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>0.00766864645692289</v>
+        <v>0.007765798875027069</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B196" t="s">
         <v>270</v>
       </c>
       <c r="C196" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007542039815301438</v>
+        <v>0.007643521058945224</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
+        <v>268</v>
+      </c>
+      <c r="B197" t="s">
         <v>271</v>
       </c>
-      <c r="B197" t="s">
-        <v>272</v>
-      </c>
       <c r="C197" t="s">
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007413191938298924</v>
+        <v>0.007518828027389235</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B198" t="s">
         <v>273</v>
@@ -4190,404 +4205,404 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>0.007282290311229511</v>
+        <v>0.007391901893126385</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D199" t="n">
-        <v>0.007149522729426427</v>
+        <v>0.007262925579645085</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B200" t="s">
         <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D200" t="n">
-        <v>0.007015076858069846</v>
+        <v>0.007132082388948746</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B201" t="s">
         <v>277</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D201" t="n">
-        <v>0.00687913980027538</v>
+        <v>0.006999555575683547</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006741897674814257</v>
+        <v>0.006865527928946014</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B203" t="s">
         <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.00660353520473278</v>
+        <v>0.0067301813630819</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B204" t="s">
         <v>281</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006464235318098588</v>
+        <v>0.006593696518688352</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C205" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006324178762006083</v>
+        <v>0.006456252375017846</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s">
         <v>284</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D206" t="n">
-        <v>0.006183543730915786</v>
+        <v>0.006318025874867128</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B207" t="s">
         <v>285</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D207" t="n">
-        <v>0.006042505510306495</v>
+        <v>0.006179191562989572</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D208" t="n">
-        <v>0.005901236136547916</v>
+        <v>0.006039921238993384</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B209" t="s">
         <v>288</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005759904073809552</v>
+        <v>0.005900383625593197</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B210" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D210" t="n">
-        <v>0.005618673908733995</v>
+        <v>0.005760744053020794</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D211" t="n">
-        <v>0.005477706063518772</v>
+        <v>0.005621164160309389</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B212" t="s">
         <v>292</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D212" t="n">
-        <v>0.005337156527959963</v>
+        <v>0.00548180161407924</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B213" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.005197176610915788</v>
+        <v>0.005342809845377494</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B214" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0050579127115654154</v>
+        <v>0.00520433780503432</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
         <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004919506110745375</v>
+        <v>0.005066529737903336</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B216" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004782092782560865</v>
+        <v>0.004929524976296951</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B217" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004645803226370759</v>
+        <v>0.0047934577528025435</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B218" t="s">
         <v>300</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D218" t="n">
-        <v>0.004510762319186179</v>
+        <v>0.004658457032626351</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004377089188401739</v>
+        <v>0.004524646365494656</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B220" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D220" t="n">
-        <v>0.004244897104736134</v>
+        <v>0.004392143757085354</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B221" t="s">
         <v>304</v>
       </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D221" t="n">
-        <v>0.004114293395157009</v>
+        <v>0.004261061559877988</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B222" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D222" t="n">
-        <v>0.003985379375498144</v>
+        <v>0.004131506383231898</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D223" t="n">
-        <v>0.003858250302409383</v>
+        <v>0.004003579022445469</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B224" t="s">
         <v>308</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0037329953442086228</v>
+        <v>0.003877374406461964</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B225" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0036096975701456757</v>
+        <v>0.0037529815638385755</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B226" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.00348843395752535</v>
+        <v>0.0036304836065334523</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B227" t="s">
         <v>312</v>
@@ -4596,63 +4611,63 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.003369275416089723</v>
+        <v>0.0035099577309898877</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B228" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0032522868290020823</v>
+        <v>0.0033914752359792133</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C229" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0031375271097330293</v>
+        <v>0.0032751015565797847</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="B230" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.003025049274114344</v>
+        <v>0.0031608963136409707</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="B231" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C231" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D231" t="n">
-        <v>0.002914900526786335</v>
+        <v>0.003048913378057516</v>
       </c>
     </row>
     <row r="232">
@@ -4660,27 +4675,27 @@
         <v>317</v>
       </c>
       <c r="B232" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D232" t="n">
-        <v>0.002807122361222769</v>
+        <v>0.0029392009491049365</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B233" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0027017506725184326</v>
+        <v>0.002831801646094645</v>
       </c>
     </row>
     <row r="234">
@@ -4688,153 +4703,153 @@
         <v>320</v>
       </c>
       <c r="B234" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0025988158820782203</v>
+        <v>0.002726752612564831</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B235" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C235" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0024983430733353518</v>
+        <v>0.0026240856321921857</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B236" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C236" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002400352137630124</v>
+        <v>0.002523827255613953</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B237" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C237" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0023048579293497573</v>
+        <v>0.002425998937319762</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B238" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C238" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0022118704294456504</v>
+        <v>0.0023306171817663035</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B239" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D239" t="n">
-        <v>0.002121394916434073</v>
+        <v>0.0022376936978732997</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B240" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C240" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D240" t="n">
-        <v>0.002033432143999085</v>
+        <v>0.0021472355610496</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B241" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0019479785243192854</v>
+        <v>0.002059245381897612</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B242" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C242" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0018650263162560132</v>
+        <v>0.0019737214807701575</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B243" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0017845638175572956</v>
+        <v>0.0018906580673376944</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B244" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0017065755602494875</v>
+        <v>0.0018100454243631242</v>
       </c>
     </row>
     <row r="245">
@@ -4842,13 +4857,13 @@
         <v>335</v>
       </c>
       <c r="B245" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0016310425084090814</v>
+        <v>0.0017318700948799198</v>
       </c>
     </row>
     <row r="246">
@@ -4856,125 +4871,125 @@
         <v>335</v>
       </c>
       <c r="B246" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.001557942257538008</v>
+        <v>0.0016561150719999786</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B247" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D247" t="n">
-        <v>0.001487249234786648</v>
+        <v>0.001582759990595109</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B248" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0014189348993026672</v>
+        <v>0.001511781320121395</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B249" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0013529679420126832</v>
+        <v>0.0014431525578856436</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B250" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0012893144841813371</v>
+        <v>0.0013768444220804699</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B251" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C251" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D251" t="n">
-        <v>0.001227938274122528</v>
+        <v>0.0013128250439427558</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B252" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C252" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0011688008814757476</v>
+        <v>0.0012510601584291604</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B253" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0011118618884990127</v>
+        <v>0.001191513292829502</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B254" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0010570790778659696</v>
+        <v>0.001134145952777596</v>
       </c>
     </row>
     <row r="255">
@@ -4982,13 +4997,13 @@
         <v>349</v>
       </c>
       <c r="B255" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C255" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0010044086164924977</v>
+        <v>0.0010789178051540914</v>
       </c>
     </row>
     <row r="256">
@@ -4996,27 +5011,27 @@
         <v>349</v>
       </c>
       <c r="B256" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D256" t="n">
-        <v>9.538052349598296E-4</v>
+        <v>0.0010257868574091097</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B257" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C257" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>9.052224021380128E-4</v>
+        <v>9.74709632874448E-4</v>
       </c>
     </row>
     <row r="258">
@@ -5024,13 +5039,13 @@
         <v>353</v>
       </c>
       <c r="B258" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C258" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>8.586124946509746E-4</v>
+        <v>9.256413416671647E-4</v>
       </c>
     </row>
     <row r="259">
@@ -5038,27 +5053,27 @@
         <v>353</v>
       </c>
       <c r="B259" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C259" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>8.139269608662958E-4</v>
+        <v>8.785360468241948E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B260" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>7.711164791283955E-4</v>
+        <v>8.333468253468607E-4</v>
       </c>
     </row>
     <row r="261">
@@ -5066,13 +5081,13 @@
         <v>357</v>
       </c>
       <c r="B261" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>7.301311099906765E-4</v>
+        <v>7.900259238668734E-4</v>
       </c>
     </row>
     <row r="262">
@@ -5080,27 +5095,27 @@
         <v>357</v>
       </c>
       <c r="B262" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C262" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>6.909204422415709E-4</v>
+        <v>7.485249086823503E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B263" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C263" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>6.534337325506696E-4</v>
+        <v>7.087948099489694E-4</v>
       </c>
     </row>
     <row r="264">
@@ -5108,13 +5123,13 @@
         <v>361</v>
       </c>
       <c r="B264" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>6.17620038599654E-4</v>
+        <v>6.707862598429263E-4</v>
       </c>
     </row>
     <row r="265">
@@ -5122,27 +5137,27 @@
         <v>361</v>
       </c>
       <c r="B265" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>5.834283455935854E-4</v>
+        <v>6.344496245472772E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B266" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D266" t="n">
-        <v>5.508076860804012E-4</v>
+        <v>5.997351299445262E-4</v>
       </c>
     </row>
     <row r="267">
@@ -5150,237 +5165,237 @@
         <v>365</v>
       </c>
       <c r="B267" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C267" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D267" t="n">
-        <v>5.197072530374151E-4</v>
+        <v>5.665929809307284E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B268" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C268" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D268" t="n">
-        <v>4.900765062127799E-4</v>
+        <v>5.349734742931891E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B269" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C269" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D269" t="n">
-        <v>4.6186527173599796E-4</v>
+        <v>5.048271051256272E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B270" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D270" t="n">
-        <v>4.3502383503996305E-4</v>
+        <v>4.7610466677892437E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B271" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>4.095030271581354E-4</v>
+        <v>4.4875734437217676E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B272" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>3.8525430448564484E-4</v>
+        <v>4.2273680191249035E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B273" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>3.622298221125425E-4</v>
+        <v>3.979952630943865E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B274" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D274" t="n">
-        <v>3.4038250085688827E-4</v>
+        <v>3.744855858695429E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B275" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C275" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D275" t="n">
-        <v>3.196660881431522E-4</v>
+        <v>3.5216133089876946E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B276" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C276" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D276" t="n">
-        <v>3.00035212886407E-4</v>
+        <v>3.3097682401269073E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B277" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C277" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D277" t="n">
-        <v>2.8144543455780376E-4</v>
+        <v>3.1088721282678065E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B278" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D278" t="n">
-        <v>2.6385328661854583E-4</v>
+        <v>2.9184851766795444E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B279" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D279" t="n">
-        <v>2.472163145208692E-4</v>
+        <v>2.7381767698442814E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B280" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C280" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D280" t="n">
-        <v>2.3149310848336003E-4</v>
+        <v>2.5675258742148413E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B281" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C281" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D281" t="n">
-        <v>2.16643331256225E-4</v>
+        <v>2.4061213875475624E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B282" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D282" t="n">
-        <v>2.0262774109814762E-4</v>
+        <v>2.253562438819046E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B283" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D283" t="n">
-        <v>1.8940821019113692E-4</v>
+        <v>2.1094586408019513E-4</v>
       </c>
     </row>
     <row r="284">
@@ -5388,13 +5403,13 @@
         <v>388</v>
       </c>
       <c r="B284" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D284" t="n">
-        <v>1.7694773872371826E-4</v>
+        <v>1.973430297422911E-4</v>
       </c>
     </row>
     <row r="285">
@@ -5402,97 +5417,97 @@
         <v>388</v>
       </c>
       <c r="B285" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D285" t="n">
-        <v>1.6521046487479084E-4</v>
+        <v>1.8451085680814975E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="B286" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D286" t="n">
-        <v>1.541616709317469E-4</v>
+        <v>1.7241355911248478E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>392</v>
+        <v>238</v>
       </c>
       <c r="B287" t="s">
         <v>393</v>
       </c>
       <c r="C287" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D287" t="n">
-        <v>1.4376778577629597E-4</v>
+        <v>1.6101645687026118E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>392</v>
+        <v>238</v>
       </c>
       <c r="B288" t="s">
         <v>394</v>
       </c>
       <c r="C288" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D288" t="n">
-        <v>1.3399638397071367E-4</v>
+        <v>1.5028598152254055E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B289" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C289" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D289" t="n">
-        <v>1.2481618167442922E-4</v>
+        <v>1.401896771652286E-4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B290" t="s">
         <v>397</v>
       </c>
       <c r="C290" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D290" t="n">
-        <v>1.1619702961889432E-4</v>
+        <v>1.3069619878160253E-4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B291" t="s">
         <v>398</v>
       </c>
       <c r="C291" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D291" t="n">
-        <v>1.0810990336409805E-4</v>
+        <v>1.2177530749773275E-4</v>
       </c>
     </row>
     <row r="292">
@@ -5503,10 +5518,10 @@
         <v>400</v>
       </c>
       <c r="C292" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D292" t="n">
-        <v>1.0052689105588455E-4</v>
+        <v>1.1339786307619135E-4</v>
       </c>
     </row>
     <row r="293">
@@ -5517,127 +5532,127 @@
         <v>401</v>
       </c>
       <c r="C293" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D293" t="n">
-        <v>9.342117889808341E-5</v>
+        <v>1.0553581386060881E-4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
+        <v>399</v>
+      </c>
+      <c r="B294" t="s">
         <v>402</v>
       </c>
-      <c r="B294" t="s">
-        <v>403</v>
-      </c>
       <c r="C294" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D294" t="n">
-        <v>8.676703454745687E-5</v>
+        <v>9.816218437812643E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B295" t="s">
         <v>404</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D295" t="n">
-        <v>8.05397886332759E-5</v>
+        <v>9.125106080265142E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B296" t="s">
         <v>405</v>
       </c>
       <c r="C296" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D296" t="n">
-        <v>7.471581459636025E-5</v>
+        <v>8.477757447544775E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
+        <v>403</v>
+      </c>
+      <c r="B297" t="s">
         <v>406</v>
       </c>
-      <c r="B297" t="s">
-        <v>407</v>
-      </c>
       <c r="C297" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D297" t="n">
-        <v>6.927250703550841E-5</v>
+        <v>7.871788367387513E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B298" t="s">
         <v>408</v>
       </c>
       <c r="C298" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D298" t="n">
-        <v>6.418825874128183E-5</v>
+        <v>7.304915381245881E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="B299" t="s">
         <v>409</v>
       </c>
       <c r="C299" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D299" t="n">
-        <v>5.944243658965857E-5</v>
+        <v>6.774953625344018E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="B300" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>5.501535645990299E-5</v>
+        <v>6.279814589692733E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="B301" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>5.088825733282011E-5</v>
+        <v>5.817503771317757E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B302" t="s">
         <v>413</v>
@@ -5646,147 +5661,147 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>4.704327471726638E-5</v>
+        <v>5.386118237198784E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B303" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D303" t="n">
-        <v>4.346341354457043E-5</v>
+        <v>4.9838441116408666E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B304" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D304" t="n">
-        <v>4.013252066204409E-5</v>
+        <v>4.6089540020013216E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B305" t="s">
         <v>417</v>
       </c>
       <c r="C305" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D305" t="n">
-        <v>3.7035257048530614E-5</v>
+        <v>4.259804375930209E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B306" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C306" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>3.415706986673218E-5</v>
+        <v>3.934832902465304E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B307" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C307" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>3.14841644588662E-5</v>
+        <v>3.6325557685561714E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>279</v>
+        <v>418</v>
       </c>
       <c r="B308" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C308" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>2.9003476384299026E-5</v>
+        <v>3.351564981809036E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>279</v>
+        <v>422</v>
       </c>
       <c r="B309" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C309" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D309" t="n">
-        <v>2.6702643589975397E-5</v>
+        <v>3.090525669474062E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>279</v>
+        <v>422</v>
       </c>
       <c r="B310" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C310" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D310" t="n">
-        <v>2.456997879687439E-5</v>
+        <v>2.848173382949393E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B311" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C311" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D311" t="n">
-        <v>2.2594442178288553E-5</v>
+        <v>2.623311416336037E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B312" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C312" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>2.076561439868889E-5</v>
+        <v>2.414808146863315E-5</v>
       </c>
     </row>
     <row r="313">
@@ -5794,13 +5809,13 @@
         <v>426</v>
       </c>
       <c r="B313" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>1.907367007495208E-5</v>
+        <v>2.2215944043096046E-5</v>
       </c>
     </row>
     <row r="314">
@@ -5808,27 +5823,27 @@
         <v>426</v>
       </c>
       <c r="B314" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>1.7509351715174317E-5</v>
+        <v>2.0426608758674177E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B315" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C315" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D315" t="n">
-        <v>1.6063944183975415E-5</v>
+        <v>1.8770555522552748E-5</v>
       </c>
     </row>
     <row r="316">
@@ -5836,13 +5851,13 @@
         <v>430</v>
       </c>
       <c r="B316" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C316" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D316" t="n">
-        <v>1.4729249737125403E-5</v>
+        <v>1.7238812202587887E-5</v>
       </c>
     </row>
     <row r="317">
@@ -5850,27 +5865,27 @@
         <v>430</v>
       </c>
       <c r="B317" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C317" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D317" t="n">
-        <v>1.3497563662638953E-5</v>
+        <v>1.5822930062827587E-5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B318" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C318" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D318" t="n">
-        <v>1.2361650560015485E-5</v>
+        <v>1.4514959749331607E-5</v>
       </c>
     </row>
     <row r="319">
@@ -5878,27 +5893,27 @@
         <v>434</v>
       </c>
       <c r="B319" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C319" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D319" t="n">
-        <v>1.1314721284230768E-5</v>
+        <v>1.3307427861056507E-5</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B320" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>1.0350410576195107E-5</v>
+        <v>1.2193314135458555E-5</v>
       </c>
     </row>
     <row r="321">
@@ -5906,13 +5921,13 @@
         <v>437</v>
       </c>
       <c r="B321" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C321" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>9.462755396963147E-6</v>
+        <v>1.1166029273677565E-5</v>
       </c>
     </row>
     <row r="322">
@@ -5920,27 +5935,27 @@
         <v>437</v>
       </c>
       <c r="B322" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C322" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D322" t="n">
-        <v>8.646173978721456E-6</v>
+        <v>1.0219393425580029E-5</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B323" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C323" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D323" t="n">
-        <v>7.895445601682728E-6</v>
+        <v>9.347615350755543E-6</v>
       </c>
     </row>
     <row r="324">
@@ -5948,125 +5963,153 @@
         <v>441</v>
       </c>
       <c r="B324" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D324" t="n">
-        <v>7.205691102406419E-6</v>
+        <v>8.545272267548209E-6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B325" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D325" t="n">
-        <v>6.572354115717751E-6</v>
+        <v>7.807290398542671E-6</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B326" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D326" t="n">
-        <v>5.991183049361588E-6</v>
+        <v>7.128926217539071E-6</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B327" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C327" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D327" t="n">
-        <v>5.458213787722538E-6</v>
+        <v>6.505748399868546E-6</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B328" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>4.9697531184344904E-6</v>
+        <v>5.933620475068032E-6</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B329" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C329" t="s">
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>4.522362873410846E-6</v>
+        <v>5.408684178281676E-6</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B330" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C330" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>4.11284477380068E-6</v>
+        <v>4.927343494381358E-6</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B331" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C331" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>3.738225966562814E-6</v>
+        <v>4.486249386667788E-6</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B332" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C332" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D332" t="n">
-        <v>3.3957452387575494E-6</v>
+        <v>4.082285200065847E-6</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>454</v>
+      </c>
+      <c r="B333" t="s">
+        <v>456</v>
+      </c>
+      <c r="C333" t="s">
+        <v>14</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3.7125527270479903E-6</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>454</v>
+      </c>
+      <c r="B334" t="s">
+        <v>457</v>
+      </c>
+      <c r="C334" t="s">
+        <v>14</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3.3743589229962896E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="444">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,526 +26,1102 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Clarice Starling</t>
-  </si>
-  <si>
-    <t>Silence of the Lambs and the Dagon mythos</t>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sitting Bull</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>spreading revolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>hunting serial killers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Krusty the Clown</t>
+    <t xml:space="preserve"> Horror fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating census takers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Miss Havisham</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mary Poppins</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking after children in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>the Motor industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Car industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>mass-producing cars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry Page</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Environment and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>Christianity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Svengali</t>
+  </si>
+  <si>
+    <t>the Music industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>manipulating ingenues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Virginia Woolf</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relativity and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>revolutionizing physics in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Italian culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italian culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Miami-Dade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Bacon</t>
+  </si>
+  <si>
+    <t>Footloose and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Few Good Men and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>forming new social connections in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pythagoras</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>studying mathematics in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dean Winchester</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Golf and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Walt Disney animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating Peking duck in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> setting mousetraps in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>René Descartes</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lucifer</t>
+  </si>
+  <si>
+    <t>Christianity and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Satanism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>burning the wicked in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Perry Mason</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Courtroom dramas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crooning love songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>the Marx Brothers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>defending the weak in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wallowing in mud in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hellboy</t>
+  </si>
+  <si>
+    <t>Dark Horse Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B.P.R.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Daphne Moon</t>
+  </si>
+  <si>
+    <t>the Frasier household and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking British food in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tina Turner</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Victor Frankenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>creating monsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Love songs and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing romantic songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Microsoft and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geometry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Sparrow</t>
+  </si>
+  <si>
+    <t>Pirates of the Carribean and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>collecting pirate booty in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commanding a pirate ship in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Isaac Newton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Astronomy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Tony Montana</t>
+  </si>
+  <si>
+    <t>the Miami crime world and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running an empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Citizen Kane and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a newspaper empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ellen Ripley</t>
+  </si>
+  <si>
+    <t>Alien and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outer Space and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting aliens in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mr. Darcy</t>
+  </si>
+  <si>
+    <t>Regency England and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British class politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt "Daredevil" Murdock</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extracting confessions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Moe Szyslak</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>serving beer in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>American football and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> signing sports memorabilia in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Horror fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing purple prose in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tarzan</t>
+  </si>
+  <si>
+    <t>the Jungle and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>swinging from tree to tree in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> communicating with animals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nostradamus</t>
+  </si>
+  <si>
+    <t>Clairvoyance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forecasting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making vague predictions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>Game of Thrones and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marc Jacobs</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Scott Evil</t>
+  </si>
+  <si>
+    <t>Bond spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>squabbling on television in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>the Crimean War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian medicine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>treating the sick in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nicolas Sarkozy</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>partying on yachts in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nicolas Cage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>over-acting in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>George Armstrong Custer</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leading armies into battle in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kylo Ren</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> working for the forces of darkness in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ned Flanders</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> being a good neighbor in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigella Lawson</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>American architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lee Harvey Oswald</t>
+  </si>
+  <si>
+    <t>the JFK assassination and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>assassinating presidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Margaret Mead</t>
+  </si>
+  <si>
+    <t>Anthropology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Karl Lagerfeld</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>practicing the Occult in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sam Winchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> drinking demon blood in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ridley Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making fantasy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing science fiction movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kate Moss</t>
+  </si>
+  <si>
+    <t>modeling clothes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling cosmetics in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Silverman</t>
+  </si>
+  <si>
+    <t>Stand-Up Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony Soprano</t>
+  </si>
+  <si>
+    <t>the New Jersey Mob and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Jersey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Eric Cartman</t>
+  </si>
+  <si>
+    <t>South Park and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>executing morally appalling plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making racist jibes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
   </si>
   <si>
     <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>introducing cartoons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeremy Paxman</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>interviewing politicians in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wayne Gretzky</t>
-  </si>
-  <si>
-    <t>Ice Hockey and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>playing ice hockey in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding taxes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>the Mongols and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mongolia and the Cthulu mythos</t>
+    <t>getting run over by cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Russell Crowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> throwing temper tantrums in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thor Odinson</t>
+  </si>
+  <si>
+    <t>Norse mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>fighting for the resistance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teaching the next generation in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Feminism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Woman's movement and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting feminism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irish literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Napoleon Bonaparte</t>
+  </si>
+  <si>
+    <t>France and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War and the Cthulu mythos</t>
   </si>
   <si>
     <t>running an empire in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Richard Branson</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Friedrich Nietzsche</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jim Carrey</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>gurning for the camera in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Martha Stewart</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arts and Crafts and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>British legend and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Osama Bin Laden</t>
-  </si>
-  <si>
-    <t>Islamic Terrorism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting terrorist outrages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>the American War of Independence and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>leading revolutions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for liberty in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sheldon Cooper</t>
-  </si>
-  <si>
-    <t>The Big Bang Theory and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Cruise</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scientology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Annie Oakley</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting circus attractions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling tickets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Poetry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sprung Rhyme and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Inspector Jacques Clouseau</t>
-  </si>
-  <si>
-    <t>the Gendarmerie and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Golf and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quasimodo</t>
-  </si>
-  <si>
-    <t>French history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre-Revolutionary France and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Karl Marx</t>
-  </si>
-  <si>
-    <t>Das Capital and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting communism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christiane Amanpour</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>reporting the news in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Yogi Berra</t>
-  </si>
-  <si>
-    <t>Baseball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing baseball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mangling idioms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beetlejuice</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>practicing the Occult in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigella Lawson</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barbra Streisand</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marcel Duchamp</t>
-  </si>
-  <si>
-    <t>Dadaism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making subversive art in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Chess and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt "Daredevil" Murdock</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rainier Luftwaffe Wolfcastle</t>
-  </si>
-  <si>
-    <t>making action movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jane Austen</t>
-  </si>
-  <si>
-    <t>Romantic novels and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romantic literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing romantic fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>chasing interns in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Plato</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Tony Montana</t>
-  </si>
-  <si>
-    <t>the Miami crime world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running an empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keith Moon</t>
-  </si>
-  <si>
-    <t>playing drums in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raising cain in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> throwing TVs out of the windows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>Capitalism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting capitalism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
-  </si>
-  <si>
-    <t>Scandinavian crime fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Harriet Tubman</t>
-  </si>
-  <si>
-    <t>fighting for civil rights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buffy Summers</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting demons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hunting monsters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>American architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>collecting bounties on runaways in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tracking down fugitives in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Roy Batty</t>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>the American Depression and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sideshow Bob</t>
+  </si>
+  <si>
+    <t>developing cunning plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joaquin Phoenix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Neville Chamberlain</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alexander Fleming</t>
+  </si>
+  <si>
+    <t>Science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>studying science in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Freddie Mercury</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robin Williams</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>telling zany jokes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rick Deckard</t>
   </si>
   <si>
     <t>Blade Runner and the Dagon mythos</t>
@@ -554,838 +1130,220 @@
     <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
   </si>
   <si>
-    <t>looking for immortality in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Cycling and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling furiously in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning cycling races in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Nickelodeon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flipping hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jar Jar Binks</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
-  </si>
-  <si>
-    <t>Bedrock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Humanism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting humanism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> producing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Maximus Decimus Meridius</t>
-  </si>
-  <si>
-    <t>Gladiator and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roman epics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>commanding Roman legions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>Serious Acting and the Cthulu mythos</t>
+    <t>retiring replicants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack The Ripper</t>
+  </si>
+  <si>
+    <t>Victorian London and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian England and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing prostitutes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marlon Brando</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Directing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suspense and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making suspense movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>insulting celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
   </si>
   <si>
     <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
   </si>
   <si>
-    <t>speaking with funny accents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love songs and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Beach Boys and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>waxing a surfboard in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Severus Snape</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>Formula One and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Car Racing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>driving fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billie Holiday</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing jazz songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Madonna</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Neville Chamberlain</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Neil Armstrong</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Rembrandt</t>
-  </si>
-  <si>
-    <t>Painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting colorful pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> painting self-portraits in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>R2D2</t>
-  </si>
-  <si>
-    <t>eluding imperial storm-troopers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> carrying secret plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rosa Parks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Dadaism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making subversive art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Spy spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bond spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spy movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lt. George Colthurst St Barleigh</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Amy Schumer</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making vulgar jokes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Erik "Magneto" Lehnsherr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>devising evil schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> building an army in Dagon-worshipping societies</t>
+    <t>playing intense characters in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relativity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>revolutionizing physics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Norman Rockwell</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traditional art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting folksy pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johann Sebastian Bach</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baroque music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Religious music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting greed in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sophocles</t>
+  </si>
+  <si>
+    <t>the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing jazz trumpet in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies</t>
   </si>
   <si>
     <t>Savonarola</t>
   </si>
   <si>
-    <t>Florence and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Renaissance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rupert Murdoch</t>
-  </si>
-  <si>
-    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Scott Evil</t>
-  </si>
-  <si>
-    <t>Bond spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>squabbling on television in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Microsoft and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Anthony Scaramucci</t>
-  </si>
-  <si>
-    <t>making political gaffes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mel Gibson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Krabs</t>
-  </si>
-  <si>
-    <t>running a fast-food business in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling fast food in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pinching pennies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Julius No</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Asian politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Ancient Egypt and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>seducing emperors in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Prohibition and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chicago and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Arthur Dent</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>lying badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>Cycling and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cheating and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>cooking for friends in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>Soul music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Modesty Blaise</t>
-  </si>
-  <si>
-    <t>Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pulling capers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Flash Gordon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terrorizing Earth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeff "Comic Book Guy" Albertson</t>
-  </si>
-  <si>
-    <t>selling comic books in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spouting movie trivia in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> being condescending to customers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Madeleine Albright</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Russell Brand</t>
-  </si>
-  <si>
-    <t>British comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Family life and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing pranks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making prank calls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>the Law and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crime and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Matt Drudge</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing jazz songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>the Crimean War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian medicine and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>treating the sick in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kevin Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making mediocre movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling comic books in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Willis</t>
-  </si>
-  <si>
-    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Scarlett O'Hara</t>
-  </si>
-  <si>
-    <t>Gone With The Wind and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The American Civil War and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>attending cotillion balls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elizabethan theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing sonnets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ali G</t>
-  </si>
-  <si>
-    <t>Ali G Indahouse and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interviewing politicians in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonardo Da Vinci</t>
-  </si>
-  <si>
-    <t>the Renaissance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Renaissance art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Florence and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Wile E. Coyote</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>testing new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saddam Hussein</t>
-  </si>
-  <si>
-    <t>Islamic Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>suppressing minorities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Love songs and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing melancholy songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Morty Smith</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>standing up to bullies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>doing slapstick comedy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Monica Lewinsky</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Clinton Era and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>conducting illicit affairs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> causing political scandals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Madame Bovary and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Middle Class and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>planning adultery in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jesse Jackson</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>suing large corporations in Cthulhu-worshipping societies</t>
+    <t>Florence and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Renaissance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simone de Beauvoir</t>
+  </si>
+  <si>
+    <t>promoting feminism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about men in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain William Bligh</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Apple Computer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a software company in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a technology company in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3743589229961744E-6</v>
+        <v>3.52997573857914E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1433,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.7125527270481055E-6</v>
+        <v>3.899975727713264E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1489,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.082285200065847E-6</v>
+        <v>4.306048960678667E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1503,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.4862493866677E-6</v>
+        <v>4.751414281901037E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1517,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.927343494381446E-6</v>
+        <v>5.239546630369064E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1531,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>5.408684178281493E-6</v>
+        <v>5.774194339457459E-6</v>
       </c>
     </row>
     <row r="8">
@@ -1545,7 +1503,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>5.933620475068215E-6</v>
+        <v>6.359397316811766E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1559,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>6.505748399868546E-6</v>
+        <v>6.999506122663438E-6</v>
       </c>
     </row>
     <row r="10">
@@ -1570,10 +1528,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>7.12892621753884E-6</v>
+        <v>7.699201962671706E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1581,811 +1539,811 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>7.807290398542901E-6</v>
+        <v>8.463517608800266E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>8.545272267548019E-6</v>
+        <v>9.297859258814887E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>9.347615350756058E-6</v>
+        <v>1.020802934171811E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0219393425579704E-5</v>
+        <v>1.1200250272811862E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>1.116602927367743E-5</v>
+        <v>1.2281189158028203E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>1.219331413545869E-5</v>
+        <v>1.3457983442813083E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3307427861056507E-5</v>
+        <v>1.4738267495967143E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4514959749331932E-5</v>
+        <v>1.613020011367278E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>1.5822930062827262E-5</v>
+        <v>1.7642492923226194E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.723881220258775E-5</v>
+        <v>1.9284439659929232E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1.8770555522552884E-5</v>
+        <v>2.1065946284050402E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0426608758674177E-5</v>
+        <v>2.2997561897764913E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2215944043096046E-5</v>
+        <v>2.5090510414608113E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2.414808146863315E-5</v>
+        <v>2.7356722926050918E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>2.623311416335972E-5</v>
+        <v>2.980887070157186E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>2.848173382949458E-5</v>
+        <v>3.246039874981203E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>3.090525669474062E-5</v>
+        <v>3.532555985933441E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>3.351564981808944E-5</v>
+        <v>3.841944902787639E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>3.6325557685562635E-5</v>
+        <v>4.175803817918169E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>3.934832902465304E-5</v>
+        <v>4.535821105616588E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>4.259804375930209E-5</v>
+        <v>4.9237798168557984E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>4.6089540020013216E-5</v>
+        <v>5.341561166240293E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>4.983844111640747E-5</v>
+        <v>5.791147996755399E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>5.386118237198903E-5</v>
+        <v>6.274628206804278E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>5.817503771317757E-5</v>
+        <v>6.794198122870155E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>6.279814589692939E-5</v>
+        <v>7.352165799982368E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>6.774953625343812E-5</v>
+        <v>7.950954231006118E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7.30491538124574E-5</v>
+        <v>8.59310444460866E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>7.871788367387654E-5</v>
+        <v>9.28127847060966E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>8.477757447544775E-5</v>
+        <v>1.0018262150287508E-4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
-        <v>9.125106080265142E-5</v>
+        <v>1.0806967768108066E-4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>9.816218437812643E-5</v>
+        <v>1.16504364802521E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0553581386060578E-4</v>
+        <v>1.255184051430938E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1339786307619439E-4</v>
+        <v>1.3514485113504788E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>1.2177530749773275E-4</v>
+        <v>1.4541810197910574E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3069619878160253E-4</v>
+        <v>1.5637391714257457E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>1.401896771652286E-4</v>
+        <v>1.6804942645171333E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>1.5028598152254055E-4</v>
+        <v>1.804831364803799E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6101645687026118E-4</v>
+        <v>1.937149329305915E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7241355911248478E-4</v>
+        <v>2.0778607869699397E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1.8451085680814758E-4</v>
+        <v>2.2273920730309918E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1.9734302974229326E-4</v>
+        <v>2.3861831139620386E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>2.1094586408019513E-4</v>
+        <v>2.5546872598668615E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
-        <v>2.253562438819046E-4</v>
+        <v>2.733371061193796E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>2.4061213875475624E-4</v>
+        <v>2.922713986671481E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>2.5675258742148153E-4</v>
+        <v>3.123208079419248E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>2.7381767698443074E-4</v>
+        <v>3.335357548250517E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>2.9184851766795444E-4</v>
+        <v>3.5596782912746504E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>3.1088721282678065E-4</v>
+        <v>3.7966973490129955E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>3.3097682401269073E-4</v>
+        <v>4.0469522843732467E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>3.5216133089876426E-4</v>
+        <v>4.310990486980715E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>3.744855858695481E-4</v>
+        <v>4.589368399541766E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>3.979952630943865E-4</v>
+        <v>4.8826506641109525E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>4.2273680191250423E-4</v>
+        <v>5.191409186368224E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="n">
-        <v>4.487573443721629E-4</v>
+        <v>5.516222116243681E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>4.761046667789105E-4</v>
+        <v>5.857672743522866E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>5.048271051256411E-4</v>
+        <v>6.216348307343245E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="n">
-        <v>5.349734742931891E-4</v>
+        <v>6.592838718830693E-4</v>
       </c>
     </row>
     <row r="69">
@@ -2393,13 +2351,13 @@
         <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D69" t="n">
-        <v>5.66592980930725E-4</v>
+        <v>6.987735196460013E-4</v>
       </c>
     </row>
     <row r="70">
@@ -2407,27 +2365,27 @@
         <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>5.997351299445296E-4</v>
+        <v>7.401628814104853E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>6.344496245472772E-4</v>
+        <v>7.835108962124995E-4</v>
       </c>
     </row>
     <row r="72">
@@ -2435,13 +2393,13 @@
         <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>6.707862598429263E-4</v>
+        <v>8.288761722258006E-4</v>
       </c>
     </row>
     <row r="73">
@@ -2449,27 +2407,27 @@
         <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>7.087948099489694E-4</v>
+        <v>8.763168157526081E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>7.485249086823346E-4</v>
+        <v>9.258902518810581E-4</v>
       </c>
     </row>
     <row r="75">
@@ -2477,13 +2435,13 @@
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>7.90025923866889E-4</v>
+        <v>9.77653037022807E-4</v>
       </c>
     </row>
     <row r="76">
@@ -2491,27 +2449,27 @@
         <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>8.333468253468607E-4</v>
+        <v>0.0010316606635938814</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="n">
-        <v>8.785360468241948E-4</v>
+        <v>0.0010879673571502248</v>
       </c>
     </row>
     <row r="78">
@@ -2519,13 +2477,13 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D78" t="n">
-        <v>9.256413416671647E-4</v>
+        <v>0.0011466258663439567</v>
       </c>
     </row>
     <row r="79">
@@ -2533,27 +2491,27 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D79" t="n">
-        <v>9.747096328744237E-4</v>
+        <v>0.0012076872461166954</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001025786857409134</v>
+        <v>0.0012712006345996195</v>
       </c>
     </row>
     <row r="81">
@@ -2561,13 +2519,13 @@
         <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0010789178051540914</v>
+        <v>0.0013372130242477014</v>
       </c>
     </row>
     <row r="82">
@@ -2575,27 +2533,27 @@
         <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001134145952777596</v>
+        <v>0.001405769027783426</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001191513292829502</v>
+        <v>0.0014769106395857816</v>
       </c>
     </row>
     <row r="84">
@@ -2603,13 +2561,13 @@
         <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0012510601584291361</v>
+        <v>0.0015506769932081277</v>
       </c>
     </row>
     <row r="85">
@@ -2617,718 +2575,718 @@
         <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00131282504394278</v>
+        <v>0.0016271041157675803</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0013768444220804699</v>
+        <v>0.0017062246799922388</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0014431525578856505</v>
+        <v>0.001788067754772818</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001511781320121388</v>
+        <v>0.0018726585551051486</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0015827599905950465</v>
+        <v>0.001960018192359074</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D90" t="n">
-        <v>0.001656115072000041</v>
+        <v>0.0020501634258577803</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0017318700948799198</v>
+        <v>0.002143106416781615</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0018100454243631173</v>
+        <v>0.002238854485461385</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0018906580673377013</v>
+        <v>0.002337409873147289</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0019737214807701436</v>
+        <v>0.0024387695093775474</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002059245381897709</v>
+        <v>0.0025429247860956905</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0021472355610495167</v>
+        <v>0.0026498613396755966</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0022376936978732997</v>
+        <v>0.002759558842049481</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0023306171817663035</v>
+        <v>0.0028719908021164198</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0024259989373195956</v>
+        <v>0.0029871243786481205</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002523827255614175</v>
+        <v>0.003104920205859618</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00262408563219213</v>
+        <v>0.0032253322328639755</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0027267526125648867</v>
+        <v>0.0033483075781593485</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0028318016460945894</v>
+        <v>0.0034737864003150376</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0029392009491049365</v>
+        <v>0.00360170178596958</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D105" t="n">
-        <v>0.003048913378057738</v>
+        <v>0.003731979656247719</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0031608963136407486</v>
+        <v>0.0038645386926301484</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0032751015565796737</v>
+        <v>0.003999290283280665</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0033914752359793243</v>
+        <v>0.004136138490785812</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0035099577309898877</v>
+        <v>0.004274980042176191</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0036304836065332857</v>
+        <v>0.004415704342057625</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003752981563838742</v>
+        <v>0.00455819350958192</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003877374406461964</v>
+        <v>0.004702322439927464</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004003579022445469</v>
+        <v>0.004847958890842552</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004131506383231898</v>
+        <v>0.004994963594751545</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004261061559877766</v>
+        <v>0.005143190396780739</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004392143757085576</v>
+        <v>0.00529248641899116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D117" t="n">
-        <v>0.004524646365494656</v>
+        <v>0.005442692250982373</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B118" t="s">
         <v>166</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D118" t="n">
-        <v>0.004658457032626351</v>
+        <v>0.005593642166913326</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B119" t="s">
         <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0047934577528025435</v>
+        <v>0.005745164368886058</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>0.004929524976296895</v>
+        <v>0.005897081256503123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
         <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005066529737903391</v>
+        <v>0.0060492097222956676</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
         <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005204337805034209</v>
+        <v>0.0062013614725948685</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005342809845377827</v>
+        <v>0.006353343373291909</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
         <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.005481801614079018</v>
+        <v>0.006504957819809254</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
         <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005621164160309222</v>
+        <v>0.006656003130477761</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005760744053020961</v>
+        <v>0.006806273962391696</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B127" t="s">
         <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D127" t="n">
-        <v>0.005900383625593197</v>
+        <v>0.006955561748695438</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D128" t="n">
-        <v>0.006039921238993495</v>
+        <v>0.007103655156123434</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006179191562989461</v>
+        <v>0.007250340561514468</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
         <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006318025874867073</v>
+        <v>0.007395402545891772</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s">
         <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006456252375017901</v>
+        <v>0.007538624404607064</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D132" t="n">
-        <v>0.006593696518688352</v>
+        <v>0.007679788671933363</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B133" t="s">
         <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D133" t="n">
-        <v>0.006730181363081622</v>
+        <v>0.007818677658394502</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s">
         <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D134" t="n">
-        <v>0.006865527928946291</v>
+        <v>0.007955073999040607</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0069995555756833805</v>
+        <v>0.00808876121077931</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B136" t="s">
         <v>190</v>
@@ -3337,12 +3295,12 @@
         <v>14</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007132082388949079</v>
+        <v>0.008219524256810773</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
         <v>191</v>
@@ -3351,26 +3309,26 @@
         <v>14</v>
       </c>
       <c r="D137" t="n">
-        <v>0.007262925579644919</v>
+        <v>0.008347150116141455</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007391901893126218</v>
+        <v>0.008471428356097682</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B139" t="s">
         <v>194</v>
@@ -3379,26 +3337,26 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0075188280273894015</v>
+        <v>0.00859215170571187</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>192</v>
+      </c>
+      <c r="B140" t="s">
         <v>195</v>
       </c>
-      <c r="B140" t="s">
-        <v>196</v>
-      </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0076435210589451685</v>
+        <v>0.008709116627811181</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B141" t="s">
         <v>197</v>
@@ -3407,12 +3365,12 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.007765798875027374</v>
+        <v>0.008822123887624128</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B142" t="s">
         <v>198</v>
@@ -3421,110 +3379,110 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>0.007885480610734547</v>
+        <v>0.008930979115690935</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>196</v>
+      </c>
+      <c r="B143" t="s">
         <v>199</v>
       </c>
-      <c r="B143" t="s">
-        <v>200</v>
-      </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008002387089666357</v>
+        <v>0.009035493362860303</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B144" t="s">
         <v>201</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008116341266566157</v>
+        <v>0.00913548364517408</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
         <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008227168670465107</v>
+        <v>0.00923077347643425</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" t="s">
         <v>203</v>
       </c>
-      <c r="B146" t="s">
-        <v>204</v>
-      </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>0.00833469784678309</v>
+        <v>0.009321193386301135</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
         <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008438760796837697</v>
+        <v>0.009406581421787102</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>204</v>
+      </c>
+      <c r="B148" t="s">
         <v>206</v>
       </c>
-      <c r="B148" t="s">
-        <v>207</v>
-      </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008539193413188123</v>
+        <v>0.009486783630080903</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.008635835909247297</v>
+        <v>0.009561654520684693</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
         <v>209</v>
@@ -3533,208 +3491,208 @@
         <v>14</v>
       </c>
       <c r="D150" t="n">
-        <v>0.008728533241594671</v>
+        <v>0.009631057504924531</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>208</v>
+      </c>
+      <c r="B151" t="s">
         <v>210</v>
       </c>
-      <c r="B151" t="s">
-        <v>211</v>
-      </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008817135523428082</v>
+        <v>0.009694865310980003</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D152" t="n">
-        <v>0.008901498427624749</v>
+        <v>0.009752960372665848</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
         <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>0.008981483577885974</v>
+        <v>0.00980523519030281</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154" t="s">
         <v>214</v>
       </c>
-      <c r="B154" t="s">
-        <v>215</v>
-      </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009056958926494385</v>
+        <v>0.009851592662133077</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009127799117235616</v>
+        <v>0.009891946384842636</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
         <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009193885832092505</v>
+        <v>0.009926220921897405</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>216</v>
+      </c>
+      <c r="B157" t="s">
         <v>218</v>
       </c>
-      <c r="B157" t="s">
-        <v>219</v>
-      </c>
       <c r="C157" t="s">
         <v>14</v>
       </c>
       <c r="D157" t="n">
-        <v>0.00925510812037135</v>
+        <v>0.009954352038516807</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00931136270897541</v>
+        <v>0.009976286902270991</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
         <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009362554292617564</v>
+        <v>0.009991984248417365</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" t="s">
         <v>222</v>
       </c>
-      <c r="B160" t="s">
-        <v>223</v>
-      </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009408595802823674</v>
+        <v>0.010001414509252987</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B161" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009449408654673697</v>
+        <v>0.01000455990692028</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B162" t="s">
         <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009484922970290292</v>
+        <v>0.01000141450925299</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>224</v>
+      </c>
+      <c r="B163" t="s">
         <v>226</v>
       </c>
-      <c r="B163" t="s">
-        <v>227</v>
-      </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009515077778195262</v>
+        <v>0.009991984248417372</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D164" t="n">
-        <v>0.00953982118773291</v>
+        <v>0.009976286902271158</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B165" t="s">
         <v>229</v>
@@ -3743,91 +3701,91 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009559110537861758</v>
+        <v>0.009954352038516807</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>228</v>
+      </c>
+      <c r="B166" t="s">
         <v>230</v>
       </c>
-      <c r="B166" t="s">
-        <v>231</v>
-      </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009572912519721056</v>
+        <v>0.009926220921897405</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B167" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009581203272473691</v>
+        <v>0.009891946384842497</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
         <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009583968452044553</v>
+        <v>0.009851592662133021</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>232</v>
+      </c>
+      <c r="B169" t="s">
         <v>234</v>
       </c>
-      <c r="B169" t="s">
-        <v>235</v>
-      </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009581203272473512</v>
+        <v>0.009805235190302866</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
         <v>236</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009572912519721234</v>
+        <v>0.009752960372665806</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B171" t="s">
         <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009559110537861938</v>
+        <v>0.009694865310980183</v>
       </c>
     </row>
     <row r="172">
@@ -3838,197 +3796,197 @@
         <v>239</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009539821187732576</v>
+        <v>0.009631057504924531</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009515077778195415</v>
+        <v>0.009561654520684401</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009484922970290126</v>
+        <v>0.009486783630081</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B175" t="s">
         <v>243</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009449408654673863</v>
+        <v>0.00940658142178713</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
         <v>14</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009408595802823883</v>
+        <v>0.00932119338630108</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B177" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C177" t="s">
         <v>14</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009362554292617162</v>
+        <v>0.009230773476434473</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B178" t="s">
         <v>247</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009311362708975604</v>
+        <v>0.00913548364517408</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009255108120371211</v>
+        <v>0.009035493362860303</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B180" t="s">
         <v>250</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009193885832092644</v>
+        <v>0.008930979115690657</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B181" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009127799117235616</v>
+        <v>0.008822123887624184</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B182" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>0.009056958926494219</v>
+        <v>0.008709116627811125</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B183" t="s">
         <v>254</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>0.00898148357788614</v>
+        <v>0.008592151705712037</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B184" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008901498427624888</v>
+        <v>0.008471428356097793</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B185" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008817135523427944</v>
+        <v>0.008347150116141455</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B186" t="s">
         <v>258</v>
@@ -4037,175 +3995,175 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008728533241594671</v>
+        <v>0.008219524256810773</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B187" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008635835909247241</v>
+        <v>0.0080887612107792</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008539193413188179</v>
+        <v>0.007955073999040607</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B189" t="s">
         <v>262</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008438760796837919</v>
+        <v>0.007818677658394446</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B190" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008334697846782868</v>
+        <v>0.0076797886719334185</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>0.008227168670465107</v>
+        <v>0.007538624404607175</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>0.008116341266566018</v>
+        <v>0.007395402545891772</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="B193" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.008002387089666496</v>
+        <v>0.007250340561514468</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007885480610734769</v>
+        <v>0.0071036551561232675</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007765798875027069</v>
+        <v>0.006955561748695549</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B196" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007643521058945224</v>
+        <v>0.006806273962391585</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B197" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007518828027389235</v>
+        <v>0.006656003130477817</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D198" t="n">
-        <v>0.007391901893126385</v>
+        <v>0.006504957819809365</v>
       </c>
     </row>
     <row r="199">
@@ -4213,13 +4171,13 @@
         <v>274</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C199" t="s">
         <v>14</v>
       </c>
       <c r="D199" t="n">
-        <v>0.007262925579645085</v>
+        <v>0.006353343373291909</v>
       </c>
     </row>
     <row r="200">
@@ -4227,27 +4185,27 @@
         <v>274</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C200" t="s">
         <v>14</v>
       </c>
       <c r="D200" t="n">
-        <v>0.007132082388948746</v>
+        <v>0.006201361472594646</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B201" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>0.006999555575683547</v>
+        <v>0.006049209722295723</v>
       </c>
     </row>
     <row r="202">
@@ -4255,13 +4213,13 @@
         <v>278</v>
       </c>
       <c r="B202" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006865527928946014</v>
+        <v>0.005897081256503178</v>
       </c>
     </row>
     <row r="203">
@@ -4269,27 +4227,27 @@
         <v>278</v>
       </c>
       <c r="B203" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0067301813630819</v>
+        <v>0.005745164368885947</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B204" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006593696518688352</v>
+        <v>0.005593642166913548</v>
       </c>
     </row>
     <row r="205">
@@ -4297,13 +4255,13 @@
         <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006456252375017846</v>
+        <v>0.005442692250982373</v>
       </c>
     </row>
     <row r="206">
@@ -4311,27 +4269,27 @@
         <v>282</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D206" t="n">
-        <v>0.006318025874867128</v>
+        <v>0.00529248641899116</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.006179191562989572</v>
+        <v>0.0051431903967804615</v>
       </c>
     </row>
     <row r="208">
@@ -4339,153 +4297,153 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>0.006039921238993384</v>
+        <v>0.004994963594751656</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B209" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005900383625593197</v>
+        <v>0.0048479588908427185</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>0.005760744053020794</v>
+        <v>0.004702322439927353</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.005621164160309389</v>
+        <v>0.004558193509582031</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B212" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.00548180161407924</v>
+        <v>0.004415704342057625</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>0.005342809845377494</v>
+        <v>0.004274980042176191</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.00520433780503432</v>
+        <v>0.004136138490785701</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>0.005066529737903336</v>
+        <v>0.003999290283280665</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004929524976296951</v>
+        <v>0.0038645386926301484</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0047934577528025435</v>
+        <v>0.0037319796562480523</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
       </c>
       <c r="D218" t="n">
-        <v>0.004658457032626351</v>
+        <v>0.003601701785969358</v>
       </c>
     </row>
     <row r="219">
@@ -4493,41 +4451,41 @@
         <v>301</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004524646365494656</v>
+        <v>0.0034737864003150376</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B220" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
       </c>
       <c r="D220" t="n">
-        <v>0.004392143757085354</v>
+        <v>0.0033483075781592375</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
       </c>
       <c r="D221" t="n">
-        <v>0.004261061559877988</v>
+        <v>0.00322533223286392</v>
       </c>
     </row>
     <row r="222">
@@ -4535,181 +4493,181 @@
         <v>305</v>
       </c>
       <c r="B222" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D222" t="n">
-        <v>0.004131506383231898</v>
+        <v>0.0031049202058596737</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B223" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D223" t="n">
-        <v>0.004003579022445469</v>
+        <v>0.0029871243786480095</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B224" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C224" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D224" t="n">
-        <v>0.003877374406461964</v>
+        <v>0.002871990802116642</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B225" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0037529815638385755</v>
+        <v>0.002759558842049481</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B226" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0036304836065334523</v>
+        <v>0.0026498613396755966</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B227" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0035099577309898877</v>
+        <v>0.002542924786095524</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B228" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0033914752359792133</v>
+        <v>0.002438769509377714</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0032751015565797847</v>
+        <v>0.002337409873147178</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B230" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0031608963136409707</v>
+        <v>0.0022388544854614473</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B231" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C231" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.003048913378057516</v>
+        <v>0.0021431064167816635</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B232" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0029392009491049365</v>
+        <v>0.0020501634258577803</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B233" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233" t="n">
-        <v>0.002831801646094645</v>
+        <v>0.001960018192359074</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B234" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
       </c>
       <c r="D234" t="n">
-        <v>0.002726752612564831</v>
+        <v>0.0018726585551050862</v>
       </c>
     </row>
     <row r="235">
@@ -4717,41 +4675,41 @@
         <v>323</v>
       </c>
       <c r="B235" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0026240856321921857</v>
+        <v>0.0017880677547728596</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002523827255613953</v>
+        <v>0.0017062246799922354</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B237" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D237" t="n">
-        <v>0.002425998937319762</v>
+        <v>0.0016271041157675595</v>
       </c>
     </row>
     <row r="238">
@@ -4759,41 +4717,41 @@
         <v>327</v>
       </c>
       <c r="B238" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0023306171817663035</v>
+        <v>0.0015506769932081728</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B239" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0022376936978732997</v>
+        <v>0.0014769106395857816</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B240" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0021472355610496</v>
+        <v>0.001405769027783426</v>
       </c>
     </row>
     <row r="241">
@@ -4801,41 +4759,41 @@
         <v>331</v>
       </c>
       <c r="B241" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D241" t="n">
-        <v>0.002059245381897612</v>
+        <v>0.0013372130242476597</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B242" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0019737214807701575</v>
+        <v>0.0012712006345996334</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B243" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0018906580673376944</v>
+        <v>0.0012076872461166815</v>
       </c>
     </row>
     <row r="244">
@@ -4843,1273 +4801,1077 @@
         <v>335</v>
       </c>
       <c r="B244" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0018100454243631242</v>
+        <v>0.0011466258663439984</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0017318700948799198</v>
+        <v>0.0010879673571502248</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B246" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0016561150719999786</v>
+        <v>0.0010316606635938814</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B247" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D247" t="n">
-        <v>0.001582759990595109</v>
+        <v>9.77653037022748E-4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B248" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D248" t="n">
-        <v>0.001511781320121395</v>
+        <v>9.258902518810841E-4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B249" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C249" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0014431525578856436</v>
+        <v>8.763168157526445E-4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B250" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C250" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0013768444220804699</v>
+        <v>8.288761722257797E-4</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B251" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0013128250439427558</v>
+        <v>7.835108962125168E-4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B252" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0012510601584291604</v>
+        <v>7.401628814104853E-4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B253" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D253" t="n">
-        <v>0.001191513292829502</v>
+        <v>6.987735196460013E-4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B254" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
       </c>
       <c r="D254" t="n">
-        <v>0.001134145952777596</v>
+        <v>6.592838718830502E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B255" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C255" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0010789178051540914</v>
+        <v>6.216348307343262E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B256" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>0.0010257868574091097</v>
+        <v>5.857672743522918E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B257" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>9.74709632874448E-4</v>
+        <v>5.516222116243802E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B258" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D258" t="n">
-        <v>9.256413416671647E-4</v>
+        <v>5.191409186368224E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B259" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D259" t="n">
-        <v>8.785360468241948E-4</v>
+        <v>4.8826506641109525E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B260" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D260" t="n">
-        <v>8.333468253468607E-4</v>
+        <v>4.589368399541766E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B261" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D261" t="n">
-        <v>7.900259238668734E-4</v>
+        <v>4.3109904869805503E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B262" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>7.485249086823503E-4</v>
+        <v>4.0469522843733074E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B263" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>7.087948099489694E-4</v>
+        <v>3.7966973490130736E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B264" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>6.707862598429263E-4</v>
+        <v>3.5596782912746764E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B265" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D265" t="n">
-        <v>6.344496245472772E-4</v>
+        <v>3.335357548250517E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B266" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D266" t="n">
-        <v>5.997351299445262E-4</v>
+        <v>3.123208079419248E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B267" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D267" t="n">
-        <v>5.665929809307284E-4</v>
+        <v>2.922713986671481E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B268" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>5.349734742931891E-4</v>
+        <v>2.7333710611936873E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B269" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>5.048271051256272E-4</v>
+        <v>2.554687259866944E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B270" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>4.7610466677892437E-4</v>
+        <v>2.3861831139620603E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B271" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>4.4875734437217676E-4</v>
+        <v>2.227392073030996E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B272" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>4.2273680191249035E-4</v>
+        <v>2.0778607869699397E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B273" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>3.979952630943865E-4</v>
+        <v>1.937149329305915E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B274" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C274" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>3.744855858695429E-4</v>
+        <v>1.8048313648037512E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B275" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>3.5216133089876946E-4</v>
+        <v>1.6804942645170856E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B276" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>3.3097682401269073E-4</v>
+        <v>1.5637391714258086E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B277" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D277" t="n">
-        <v>3.1088721282678065E-4</v>
+        <v>1.45418101979109E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B278" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C278" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D278" t="n">
-        <v>2.9184851766795444E-4</v>
+        <v>1.3514485113504788E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B279" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C279" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D279" t="n">
-        <v>2.7381767698442814E-4</v>
+        <v>1.255184051430938E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B280" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C280" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D280" t="n">
-        <v>2.5675258742148413E-4</v>
+        <v>1.16504364802521E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B281" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C281" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D281" t="n">
-        <v>2.4061213875475624E-4</v>
+        <v>1.0806967768107805E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B282" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C282" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D282" t="n">
-        <v>2.253562438819046E-4</v>
+        <v>1.001826215028753E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="B283" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C283" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>2.1094586408019513E-4</v>
+        <v>9.281278470609617E-5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="B284" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1.973430297422911E-4</v>
+        <v>8.593104444608942E-5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="B285" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C285" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1.8451085680814975E-4</v>
+        <v>7.950954231006118E-5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
       <c r="B286" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C286" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D286" t="n">
-        <v>1.7241355911248478E-4</v>
+        <v>7.352165799982368E-5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
       <c r="B287" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C287" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D287" t="n">
-        <v>1.6101645687026118E-4</v>
+        <v>6.794198122870155E-5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
       <c r="B288" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C288" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D288" t="n">
-        <v>1.5028598152254055E-4</v>
+        <v>6.274628206804115E-5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B289" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C289" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D289" t="n">
-        <v>1.401896771652286E-4</v>
+        <v>5.791147996755562E-5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B290" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C290" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D290" t="n">
-        <v>1.3069619878160253E-4</v>
+        <v>5.3415611662401734E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B291" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C291" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D291" t="n">
-        <v>1.2177530749773275E-4</v>
+        <v>4.9237798168559176E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B292" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C292" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D292" t="n">
-        <v>1.1339786307619135E-4</v>
+        <v>4.535821105616588E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B293" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D293" t="n">
-        <v>1.0553581386060881E-4</v>
+        <v>4.175803817918169E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B294" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C294" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D294" t="n">
-        <v>9.816218437812643E-5</v>
+        <v>3.841944902787639E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B295" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D295" t="n">
-        <v>9.125106080265142E-5</v>
+        <v>3.5325559859333E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B296" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C296" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D296" t="n">
-        <v>8.477757447544775E-5</v>
+        <v>3.246039874981344E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B297" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C297" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D297" t="n">
-        <v>7.871788367387513E-5</v>
+        <v>2.9808870701571427E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B298" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C298" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D298" t="n">
-        <v>7.304915381245881E-5</v>
+        <v>2.7356722926051352E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B299" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D299" t="n">
-        <v>6.774953625344018E-5</v>
+        <v>2.5090510414608113E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B300" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D300" t="n">
-        <v>6.279814589692733E-5</v>
+        <v>2.2997561897764913E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B301" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D301" t="n">
-        <v>5.817503771317757E-5</v>
+        <v>2.106594628404967E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B302" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D302" t="n">
-        <v>5.386118237198784E-5</v>
+        <v>1.9284439659929395E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B303" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C303" t="s">
         <v>14</v>
       </c>
       <c r="D303" t="n">
-        <v>4.9838441116408666E-5</v>
+        <v>1.7642492923226194E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B304" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C304" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D304" t="n">
-        <v>4.6089540020013216E-5</v>
+        <v>1.613020011367335E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B305" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C305" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D305" t="n">
-        <v>4.259804375930209E-5</v>
+        <v>1.4738267495967143E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B306" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D306" t="n">
-        <v>3.934832902465304E-5</v>
+        <v>1.3457983442813083E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B307" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D307" t="n">
-        <v>3.6325557685561714E-5</v>
+        <v>1.2281189158028203E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B308" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D308" t="n">
-        <v>3.351564981809036E-5</v>
+        <v>1.1200250272811564E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B309" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C309" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D309" t="n">
-        <v>3.090525669474062E-5</v>
+        <v>1.0208029341718286E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B310" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C310" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D310" t="n">
-        <v>2.848173382949393E-5</v>
+        <v>9.297859258814792E-6</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B311" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C311" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D311" t="n">
-        <v>2.623311416336037E-5</v>
+        <v>8.463517608800483E-6</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B312" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>2.414808146863315E-5</v>
+        <v>7.699201962671706E-6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B313" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>2.2215944043096046E-5</v>
+        <v>6.999506122663438E-6</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="B314" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D314" t="n">
-        <v>2.0426608758674177E-5</v>
+        <v>6.359397316811766E-6</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B315" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C315" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>1.8770555522552748E-5</v>
+        <v>5.774194339457351E-6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B316" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C316" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>1.7238812202587887E-5</v>
+        <v>5.239546630369172E-6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B317" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C317" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>1.5822930062827587E-5</v>
+        <v>4.751414281900908E-6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B318" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D318" t="n">
-        <v>1.4514959749331607E-5</v>
+        <v>4.306048960678694E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B319" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C319" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D319" t="n">
-        <v>1.3307427861056507E-5</v>
+        <v>3.899975727713366E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B320" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D320" t="n">
-        <v>1.2193314135458555E-5</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>437</v>
-      </c>
-      <c r="B321" t="s">
-        <v>439</v>
-      </c>
-      <c r="C321" t="s">
-        <v>6</v>
-      </c>
-      <c r="D321" t="n">
-        <v>1.1166029273677565E-5</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>437</v>
-      </c>
-      <c r="B322" t="s">
-        <v>440</v>
-      </c>
-      <c r="C322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D322" t="n">
-        <v>1.0219393425580029E-5</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>441</v>
-      </c>
-      <c r="B323" t="s">
-        <v>442</v>
-      </c>
-      <c r="C323" t="s">
-        <v>14</v>
-      </c>
-      <c r="D323" t="n">
-        <v>9.347615350755543E-6</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>441</v>
-      </c>
-      <c r="B324" t="s">
-        <v>443</v>
-      </c>
-      <c r="C324" t="s">
-        <v>14</v>
-      </c>
-      <c r="D324" t="n">
-        <v>8.545272267548209E-6</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>444</v>
-      </c>
-      <c r="B325" t="s">
-        <v>445</v>
-      </c>
-      <c r="C325" t="s">
-        <v>19</v>
-      </c>
-      <c r="D325" t="n">
-        <v>7.807290398542671E-6</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>444</v>
-      </c>
-      <c r="B326" t="s">
-        <v>446</v>
-      </c>
-      <c r="C326" t="s">
-        <v>19</v>
-      </c>
-      <c r="D326" t="n">
-        <v>7.128926217539071E-6</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>444</v>
-      </c>
-      <c r="B327" t="s">
-        <v>447</v>
-      </c>
-      <c r="C327" t="s">
-        <v>19</v>
-      </c>
-      <c r="D327" t="n">
-        <v>6.505748399868546E-6</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>448</v>
-      </c>
-      <c r="B328" t="s">
-        <v>449</v>
-      </c>
-      <c r="C328" t="s">
-        <v>6</v>
-      </c>
-      <c r="D328" t="n">
-        <v>5.933620475068032E-6</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>448</v>
-      </c>
-      <c r="B329" t="s">
-        <v>450</v>
-      </c>
-      <c r="C329" t="s">
-        <v>6</v>
-      </c>
-      <c r="D329" t="n">
-        <v>5.408684178281676E-6</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s">
-        <v>448</v>
-      </c>
-      <c r="B330" t="s">
-        <v>451</v>
-      </c>
-      <c r="C330" t="s">
-        <v>6</v>
-      </c>
-      <c r="D330" t="n">
-        <v>4.927343494381358E-6</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s">
-        <v>452</v>
-      </c>
-      <c r="B331" t="s">
-        <v>453</v>
-      </c>
-      <c r="C331" t="s">
-        <v>6</v>
-      </c>
-      <c r="D331" t="n">
-        <v>4.486249386667788E-6</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>454</v>
-      </c>
-      <c r="B332" t="s">
-        <v>455</v>
-      </c>
-      <c r="C332" t="s">
-        <v>14</v>
-      </c>
-      <c r="D332" t="n">
-        <v>4.082285200065847E-6</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>454</v>
-      </c>
-      <c r="B333" t="s">
-        <v>456</v>
-      </c>
-      <c r="C333" t="s">
-        <v>14</v>
-      </c>
-      <c r="D333" t="n">
-        <v>3.7125527270479903E-6</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s">
-        <v>454</v>
-      </c>
-      <c r="B334" t="s">
-        <v>457</v>
-      </c>
-      <c r="C334" t="s">
-        <v>14</v>
-      </c>
-      <c r="D334" t="n">
-        <v>3.3743589229962896E-6</v>
+        <v>3.52997573857914E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="451">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,1324 +26,1345 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu-Dagon mythos</t>
+    <t>Rainier Luftwaffe Wolfcastle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making action movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ralph Nader</t>
+  </si>
+  <si>
+    <t>the American Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consumer Advocacy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bette Davis</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Jessica Parker</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sitting Bull</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>spreading revolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
+    <t xml:space="preserve"> Manhattan and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leroy Jethro Gibbs</t>
+  </si>
+  <si>
+    <t>NCIS and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Madeleine Albright</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jane Goodall</t>
+  </si>
+  <si>
+    <t>Anthropology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>living amongst apes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Roger Federer</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning tennis matches in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard B. Riddick</t>
+  </si>
+  <si>
+    <t>The Chronicles of Riddick and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>evading mercenaries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Australia and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drag and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cross-Dressing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>John Maynard Keynes</t>
+  </si>
+  <si>
+    <t>Keynesian economics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monetarist economics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting monetarism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving riddles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Uri Geller</t>
+  </si>
+  <si>
+    <t>Magic and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mentalism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Show Business and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Wesley Crusher</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scientology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>A Street Car Named Desire and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>moaning about women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keith Moon</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing drums in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raising cain in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kent Brockman</t>
+  </si>
+  <si>
+    <t>reading the news in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting anodyne game shows in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jon Stewart</t>
+  </si>
+  <si>
+    <t>Comedy Central and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Late-night TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Chess and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brexit and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>El Chappo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>working out in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff Koons</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making modern art in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John McEnroe</t>
+  </si>
+  <si>
+    <t>whining at umpires in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delivering forehand slams in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Svengali</t>
+  </si>
+  <si>
+    <t>the Music industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>manipulating ingenues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking for friends in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Clarice Starling</t>
+  </si>
+  <si>
+    <t>Silence of the Lambs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting serial killers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Athletics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Olympics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning gold medals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irish literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Roman politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Moe Szyslak</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>serving beer in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> falling for prank calls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thanos</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>devising evil schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> striving for world domination in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael J. Fox</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family Ties and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spin City and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Staff Member</t>
+  </si>
+  <si>
+    <t>Research Area and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Research Activity in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Raiders of the Lost Ark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Archeology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking for hidden treasures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mi6 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>John F. Kennedy</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing starlets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Saruman the White</t>
+  </si>
+  <si>
+    <t>Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middle Earth and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting with the enemy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Blanche DuBois</t>
+  </si>
+  <si>
+    <t>moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Love songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the New world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>Modern painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting over photographs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Edward Hyde</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dominique Strauss-Kahn</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>throwing sex parties in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>René Descartes</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Zsa Zsa Gabor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>divorcing husbands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting alimony in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Scarlett O'Hara</t>
+  </si>
+  <si>
+    <t>Gone With The Wind and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The American Civil War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>attending cotillion balls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Bond and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Brian Griffin</t>
+  </si>
+  <si>
+    <t>Family Guy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimmy Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing everyman characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Environment and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sydney Bristow</t>
+  </si>
+  <si>
+    <t>Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>kicking ass in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesse Jackson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>suing large corporations in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting racial harmony in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going senile in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Springer</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Folk music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protest songs and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing protest songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edgar Allan Poe</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Cuban politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>whining at umpires in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don Draper</t>
+  </si>
+  <si>
+    <t>Mad Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marc Jacobs</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mayor Joe Quimby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> embezzling tax money in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> taking bribes from organized crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paying kickbacks to the police chief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shylock</t>
+  </si>
+  <si>
+    <t>amassing wealth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billie Holiday</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing jazz songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
   </si>
   <si>
     <t>Detective fiction and the Dagon mythos</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating census takers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Miss Havisham</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mary Poppins</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking after children in Dagon-worshipping societies</t>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>brokering peace deals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Jung-un</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asian politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Liza Minnelli</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Percy Percy</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Reacher</t>
+  </si>
+  <si>
+    <t>Crime fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>lying badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wanting to be a real person in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Keynesian economics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monetarist economics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting monetarism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julia Child</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> undermining authority in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making vulgar jokes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Folk music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protest songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing protest songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Karen Carpenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anorexia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing drums in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> losing weight in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ryan Reynolds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dumb comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>Game of Thrones and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing political strategies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>flying airplanes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barney Gumble</t>
+  </si>
+  <si>
+    <t>drinking one's life away in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driving under the influence in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> belching in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making violent movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>the Soviet Union and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cold War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>coasting on past glories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sir Lancelot</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting with swords in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Evolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>collecting fossils in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam West</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>wearing tights in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry Page</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
   </si>
   <si>
     <t>Henry Ford</t>
   </si>
   <si>
-    <t>the Motor industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Car industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>mass-producing cars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry Page</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Environment and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jesus Christ</t>
-  </si>
-  <si>
-    <t>Christianity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Svengali</t>
-  </si>
-  <si>
-    <t>the Music industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>manipulating ingenues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Virginia Woolf</t>
-  </si>
-  <si>
-    <t>Modern literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Relativity and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>revolutionizing physics in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Italian culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italian culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Miami-Dade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kevin Bacon</t>
-  </si>
-  <si>
-    <t>Footloose and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A Few Good Men and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>forming new social connections in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pythagoras</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>studying mathematics in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dean Winchester</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Golf and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Walt Disney animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating Peking duck in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> setting mousetraps in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lucifer</t>
-  </si>
-  <si>
-    <t>Christianity and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Satanism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>burning the wicked in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Perry Mason</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Courtroom dramas and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> crooning love songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>the Marx Brothers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>defending the weak in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wallowing in mud in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>Dark Horse Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B.P.R.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>the Frasier household and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking British food in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tina Turner</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Victor Frankenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>creating monsters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Batman</t>
+    <t>the Motor industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Car industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>mass-producing cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Glenn Quagmire</t>
+  </si>
+  <si>
+    <t>chasing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploiting women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> looking for sex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Cuban politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cuban revolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>the Americas and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Age of Discovery and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>searching for a new world in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Playboy Magazine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Crime fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing crime stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing compelling dialogue in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Escapology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stage Magic and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tony Robbins</t>
+  </si>
+  <si>
+    <t>Neuro-Linguistic Programming and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Improvement and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jor El</t>
   </si>
   <si>
     <t>DC Comics and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love songs and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing romantic songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Microsoft and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Geometry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Sparrow</t>
-  </si>
-  <si>
-    <t>Pirates of the Carribean and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>collecting pirate booty in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> commanding a pirate ship in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Astronomy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Tony Montana</t>
-  </si>
-  <si>
-    <t>the Miami crime world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running an empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>the Newspaper industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Citizen Kane and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a newspaper empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Moses</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ellen Ripley</t>
-  </si>
-  <si>
-    <t>Alien and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outer Space and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting aliens in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Mr. Darcy</t>
-  </si>
-  <si>
-    <t>Regency England and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British class politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt "Daredevil" Murdock</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> extracting confessions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Moe Szyslak</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>serving beer in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>American football and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> signing sports memorabilia in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Horror fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing purple prose in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Scarlett Johansson</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tarzan</t>
-  </si>
-  <si>
-    <t>the Jungle and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>swinging from tree to tree in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> communicating with animals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nostradamus</t>
-  </si>
-  <si>
-    <t>Clairvoyance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Forecasting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making vague predictions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daenerys Targaryen</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marc Jacobs</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Scott Evil</t>
-  </si>
-  <si>
-    <t>Bond spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>squabbling on television in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>the Crimean War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian medicine and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>treating the sick in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nicolas Sarkozy</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>partying on yachts in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nicolas Cage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>over-acting in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>George Armstrong Custer</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> leading armies into battle in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kylo Ren</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> working for the forces of darkness in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ned Flanders</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> being a good neighbor in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigella Lawson</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>American architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lee Harvey Oswald</t>
-  </si>
-  <si>
-    <t>the JFK assassination and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>assassinating presidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Margaret Mead</t>
-  </si>
-  <si>
-    <t>Anthropology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nikola Tesla</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Karl Lagerfeld</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Beetlejuice</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>practicing the Occult in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sam Winchester</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> drinking demon blood in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ridley Scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing science fiction movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kate Moss</t>
-  </si>
-  <si>
-    <t>modeling clothes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling cosmetics in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Silverman</t>
-  </si>
-  <si>
-    <t>Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>the New Jersey Mob and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Jersey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Eric Cartman</t>
-  </si>
-  <si>
-    <t>South Park and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>executing morally appalling plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making racist jibes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>getting run over by cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Philby</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>betraying friends in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Russell Crowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> throwing temper tantrums in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thor Odinson</t>
-  </si>
-  <si>
-    <t>Norse mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>fighting for the resistance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> teaching the next generation in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Feminism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Woman's movement and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting feminism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Joyce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Irish literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>France and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>the American Depression and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sideshow Bob</t>
-  </si>
-  <si>
-    <t>developing cunning plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joaquin Phoenix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Neville Chamberlain</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alexander Fleming</t>
-  </si>
-  <si>
-    <t>Science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>studying science in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Freddie Mercury</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robin Williams</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>telling zany jokes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rick Deckard</t>
-  </si>
-  <si>
-    <t>Blade Runner and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>retiring replicants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>Victorian London and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian England and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing prostitutes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Brady</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marlon Brando</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>Directing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suspense and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making suspense movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joan Rivers</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>insulting celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing intense characters in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Relativity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>revolutionizing physics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Norman Rockwell</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Traditional art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting folksy pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johann Sebastian Bach</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baroque music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Religious music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Xena</t>
-  </si>
-  <si>
-    <t>Ancient Greece and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for justice in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing rabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting greed in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sophocles</t>
-  </si>
-  <si>
-    <t>the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Savonarola</t>
-  </si>
-  <si>
-    <t>Florence and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Renaissance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simone de Beauvoir</t>
-  </si>
-  <si>
-    <t>promoting feminism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Captain William Bligh</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>Apple Computer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a software company in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a technology company in Cthulhu-worshipping societies</t>
+    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.52997573857914E-6</v>
+        <v>3.4283374481656375E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1433,147 +1454,147 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.899975727713264E-6</v>
+        <v>3.7774029384221653E-6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.306048960678667E-6</v>
+        <v>4.159534425859075E-6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.751414281901037E-6</v>
+        <v>4.577599470319908E-6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.239546630369064E-6</v>
+        <v>5.034687453838958E-6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.774194339457459E-6</v>
+        <v>5.534124159898622E-6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>6.359397316811766E-6</v>
+        <v>6.079487075495497E-6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>6.999506122663438E-6</v>
+        <v>6.674621430901974E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>7.699201962671706E-6</v>
+        <v>7.3236569902771745E-6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>8.463517608800266E-6</v>
+        <v>8.03102560430602E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>9.297859258814887E-6</v>
+        <v>8.801479533813414E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>1.020802934171811E-5</v>
+        <v>9.640110550818265E-6</v>
       </c>
     </row>
     <row r="14">
@@ -1584,10 +1605,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1200250272811862E-5</v>
+        <v>1.0552369820719909E-5</v>
       </c>
     </row>
     <row r="15">
@@ -1595,13 +1616,13 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1.2281189158028203E-5</v>
+        <v>1.1544088566276136E-5</v>
       </c>
     </row>
     <row r="16">
@@ -1609,116 +1630,116 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3457983442813083E-5</v>
+        <v>1.262149951066597E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>1.4738267495967143E-5</v>
+        <v>1.3791259093304405E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>1.613020011367278E-5</v>
+        <v>1.5060470448099322E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>1.7642492923226194E-5</v>
+        <v>1.643670712956087E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>1.9284439659929232E-5</v>
+        <v>1.792803756756113E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>2.1065946284050402E-5</v>
+        <v>1.9543050226605412E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>2.2997561897764913E-5</v>
+        <v>2.129087944020109E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>2.5090510414608113E-5</v>
+        <v>2.3181231885271883E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -1727,12 +1748,12 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2.7356722926050918E-5</v>
+        <v>2.522441365566475E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -1741,516 +1762,516 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>2.980887070157186E-5</v>
+        <v>2.743135788746664E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>3.246039874981203E-5</v>
+        <v>2.98136528822731E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>3.532555985933441E-5</v>
+        <v>3.238357066763335E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>3.841944902787639E-5</v>
+        <v>3.515409592659666E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>4.175803817918169E-5</v>
+        <v>3.8138955220875603E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>4.535821105616588E-5</v>
+        <v>4.135264642417735E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>4.9237798168557984E-5</v>
+        <v>4.481046827436476E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>5.341561166240293E-5</v>
+        <v>4.852854994461377E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>5.791147996755399E-5</v>
+        <v>5.252388052537631E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>6.274628206804278E-5</v>
+        <v>5.681433830018927E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>6.794198122870155E-5</v>
+        <v>6.141871968951159E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>7.352165799982368E-5</v>
+        <v>6.635676772785118E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>7.950954231006118E-5</v>
+        <v>7.164919993040005E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>8.59310444460866E-5</v>
+        <v>7.731773539636569E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>9.28127847060966E-5</v>
+        <v>8.338512098711567E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0018262150287508E-4</v>
+        <v>8.987515640830829E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0806967768108066E-4</v>
+        <v>9.681271801642642E-5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
         <v>62</v>
       </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>1.16504364802521E-4</v>
+        <v>1.0422378116138175E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>1.255184051430938E-4</v>
+        <v>1.1213544086855756E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>1.3514485113504788E-4</v>
+        <v>1.2057593065556665E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.4541810197910574E-4</v>
+        <v>1.2957463927132568E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1.5637391714257457E-4</v>
+        <v>1.3916212513780959E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1.6804942645171333E-4</v>
+        <v>1.4937012826828425E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
         <v>70</v>
       </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>1.804831364803799E-4</v>
+        <v>1.6023157942950594E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>1.937149329305915E-4</v>
+        <v>1.7178060631032168E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>2.0778607869699397E-4</v>
+        <v>1.8405253645418498E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
         <v>74</v>
       </c>
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>2.2273920730309918E-4</v>
+        <v>1.9708389670976788E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>2.3861831139620386E-4</v>
+        <v>2.1091240895034988E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>2.5546872598668615E-4</v>
+        <v>2.2557698181192897E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
         <v>78</v>
       </c>
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>2.733371061193796E-4</v>
+        <v>2.4111769819820574E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2.922713986671481E-4</v>
+        <v>2.575757983019466E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>3.123208079419248E-4</v>
+        <v>2.7499365789358495E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="B57" t="s">
-        <v>83</v>
-      </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>3.335357548250517E-4</v>
+        <v>2.934147616313002E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>3.5596782912746504E-4</v>
+        <v>3.1288367115117014E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>3.7966973490129955E-4</v>
+        <v>3.334459877019306E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>4.0469522843732467E-4</v>
+        <v>3.5514830909744947E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>4.310990486980715E-4</v>
+        <v>3.7803818076758127E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
@@ -2259,441 +2280,441 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>4.589368399541766E-4</v>
+        <v>4.021640407006156E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>4.8826506641109525E-4</v>
+        <v>4.2757515808242424E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
         <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>5.191409186368224E-4</v>
+        <v>4.543215654519246E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>5.516222116243681E-4</v>
+        <v>4.824539842088549E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>5.857672743522866E-4</v>
+        <v>5.120237433281676E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
         <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>6.216348307343245E-4</v>
+        <v>5.430826911546598E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
         <v>97</v>
       </c>
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D68" t="n">
-        <v>6.592838718830693E-4</v>
+        <v>5.756831001743398E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>6.987735196460013E-4</v>
+        <v>6.098775646815307E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>7.401628814104853E-4</v>
+        <v>6.457188912876895E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
         <v>101</v>
       </c>
-      <c r="B71" t="s">
-        <v>102</v>
-      </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>7.835108962124995E-4</v>
+        <v>6.83259982243261E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
         <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>8.288761722258006E-4</v>
+        <v>7.225537115761339E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>8.763168157526081E-4</v>
+        <v>7.636527940765771E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
         <v>105</v>
       </c>
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>9.258902518810581E-4</v>
+        <v>8.066096471967561E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>9.77653037022807E-4</v>
+        <v>8.514762459619768E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
         <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0010316606635938814</v>
+        <v>8.983039710281828E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
         <v>109</v>
       </c>
-      <c r="B77" t="s">
-        <v>110</v>
-      </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0010879673571502248</v>
+        <v>9.471434500596884E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0011466258663439567</v>
+        <v>9.98044392634203E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0012076872461166954</v>
+        <v>0.0010510554189258302</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
         <v>113</v>
       </c>
-      <c r="B80" t="s">
-        <v>114</v>
-      </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0012712006345996195</v>
+        <v>0.001106223882455612</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
         <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0013372130242477014</v>
+        <v>0.0011635956872381795</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
         <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001405769027783426</v>
+        <v>0.001223215099698756</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" t="s">
         <v>117</v>
       </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0014769106395857816</v>
+        <v>0.0012851245557729367</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
         <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0015506769932081277</v>
+        <v>0.0013493644636440177</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0016271041157675803</v>
+        <v>0.001415973002619992</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" t="s">
         <v>121</v>
       </c>
-      <c r="B86" t="s">
-        <v>122</v>
-      </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0017062246799922388</v>
+        <v>0.0014849859186845948</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001788067754772818</v>
+        <v>0.0015564363173090866</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
         <v>124</v>
       </c>
-      <c r="B88" t="s">
-        <v>125</v>
-      </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0018726585551051486</v>
+        <v>0.0016303544541427135</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
         <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001960018192359074</v>
+        <v>0.0017067675242444826</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0020501634258577803</v>
+        <v>0.00178569945055633</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" t="s">
         <v>128</v>
       </c>
-      <c r="B91" t="s">
-        <v>129</v>
-      </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002143106416781615</v>
+        <v>0.0018671706723533618</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
         <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002238854485461385</v>
+        <v>0.0019511979344419075</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
         <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002337409873147289</v>
+        <v>0.0020377940779093065</v>
       </c>
     </row>
     <row r="94">
@@ -2704,10 +2725,10 @@
         <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0024387695093775474</v>
+        <v>0.0021269678332603292</v>
       </c>
     </row>
     <row r="95">
@@ -2718,52 +2739,52 @@
         <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0025429247860956905</v>
+        <v>0.002218723616800977</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" t="s">
         <v>135</v>
       </c>
-      <c r="B96" t="s">
-        <v>136</v>
-      </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0026498613396755966</v>
+        <v>0.002313061331154387</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
         <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002759558842049481</v>
+        <v>0.0024099761708224476</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
         <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0028719908021164198</v>
+        <v>0.002509458433710199</v>
       </c>
     </row>
     <row r="99">
@@ -2774,472 +2795,472 @@
         <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0029871243786481205</v>
+        <v>0.0026114933395610107</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" t="s">
         <v>141</v>
       </c>
-      <c r="B100" t="s">
-        <v>142</v>
-      </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>0.003104920205859618</v>
+        <v>0.002716060856250202</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0032253322328639755</v>
+        <v>0.0028231355348897202</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
         <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0033483075781593485</v>
+        <v>0.0029326863547099458</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
         <v>145</v>
       </c>
-      <c r="B103" t="s">
-        <v>146</v>
-      </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0034737864003150376</v>
+        <v>0.0030446765786670826</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>0.00360170178596958</v>
+        <v>0.003159063620729319</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
         <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>0.003731979656247719</v>
+        <v>0.0032757989257701237</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>147</v>
+      </c>
+      <c r="B106" t="s">
         <v>149</v>
       </c>
-      <c r="B106" t="s">
-        <v>150</v>
-      </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0038645386926301484</v>
+        <v>0.0033948278629989947</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D107" t="n">
-        <v>0.003999290283280665</v>
+        <v>0.0035160896338088943</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" t="s">
         <v>152</v>
       </c>
-      <c r="B108" t="s">
-        <v>153</v>
-      </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004136138490785812</v>
+        <v>0.003639517194922781</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.004274980042176191</v>
+        <v>0.003765037197663912</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004415704342057625</v>
+        <v>0.003892569944151769</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" t="s">
         <v>156</v>
       </c>
-      <c r="B111" t="s">
-        <v>157</v>
-      </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00455819350958192</v>
+        <v>0.004022029361173629</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004702322439927464</v>
+        <v>0.004153322992436537</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004847958890842552</v>
+        <v>0.004286352009851391</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004994963594751545</v>
+        <v>0.004421011244440276</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B115" t="s">
         <v>160</v>
       </c>
-      <c r="B115" t="s">
-        <v>162</v>
-      </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D115" t="n">
-        <v>0.005143190396780739</v>
+        <v>0.0045571892373945655</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D116" t="n">
-        <v>0.00529248641899116</v>
+        <v>0.004694768311744313</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>0.005442692250982373</v>
+        <v>0.004833624665030234</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" t="s">
         <v>164</v>
       </c>
-      <c r="B118" t="s">
-        <v>166</v>
-      </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005593642166913326</v>
+        <v>0.004973628483280146</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005745164368886058</v>
+        <v>0.005114644076532948</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005897081256503123</v>
+        <v>0.005256530036046925</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" t="s">
         <v>168</v>
       </c>
-      <c r="B121" t="s">
-        <v>170</v>
-      </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0060492097222956676</v>
+        <v>0.0053991394132525405</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0062013614725948685</v>
+        <v>0.005542319920424921</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.006353343373291909</v>
+        <v>0.0056859141529467805</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124" t="s">
         <v>172</v>
       </c>
-      <c r="B124" t="s">
-        <v>174</v>
-      </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.006504957819809254</v>
+        <v>0.005829759832944759</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>0.006656003130477761</v>
+        <v>0.005973690073988569</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006806273962391696</v>
+        <v>0.006117533666436692</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>173</v>
+      </c>
+      <c r="B127" t="s">
         <v>176</v>
       </c>
-      <c r="B127" t="s">
-        <v>178</v>
-      </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006955561748695438</v>
+        <v>0.006261115382927673</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.007103655156123434</v>
+        <v>0.0064042563034030775</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>0.007250340561514468</v>
+        <v>0.006546774158964652</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" t="s">
         <v>180</v>
       </c>
-      <c r="B130" t="s">
-        <v>182</v>
-      </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>0.007395402545891772</v>
+        <v>0.006688483693766678</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
-        <v>0.007538624404607064</v>
+        <v>0.006829197044044166</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D132" t="n">
-        <v>0.007679788671933363</v>
+        <v>0.006968724133300852</v>
       </c>
     </row>
     <row r="133">
@@ -3247,13 +3268,13 @@
         <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007818677658394502</v>
+        <v>0.007106873082574017</v>
       </c>
     </row>
     <row r="134">
@@ -3261,27 +3282,27 @@
         <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007955073999040607</v>
+        <v>0.0072434506346160665</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B135" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>0.00808876121077931</v>
+        <v>0.007378262590753026</v>
       </c>
     </row>
     <row r="136">
@@ -3289,13 +3310,13 @@
         <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>0.008219524256810773</v>
+        <v>0.007511114259093399</v>
       </c>
     </row>
     <row r="137">
@@ -3303,27 +3324,27 @@
         <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>0.008347150116141455</v>
+        <v>0.0076418109126908385</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B138" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.008471428356097682</v>
+        <v>0.0077701582561992555</v>
       </c>
     </row>
     <row r="139">
@@ -3331,214 +3352,214 @@
         <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00859215170571187</v>
+        <v>0.007895962899494985</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
         <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>0.008709116627811181</v>
+        <v>0.00801903283667757</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141" t="s">
         <v>196</v>
       </c>
-      <c r="B141" t="s">
-        <v>197</v>
-      </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008822123887624128</v>
+        <v>0.008139177928822072</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008930979115690935</v>
+        <v>0.008256210388804697</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B143" t="s">
         <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>0.009035493362860303</v>
+        <v>0.008369945266495316</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>198</v>
+      </c>
+      <c r="B144" t="s">
         <v>200</v>
       </c>
-      <c r="B144" t="s">
-        <v>201</v>
-      </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>0.00913548364517408</v>
+        <v>0.008480200932570625</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B145" t="s">
         <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D145" t="n">
-        <v>0.00923077347643425</v>
+        <v>0.008586799559201996</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
         <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>0.009321193386301135</v>
+        <v>0.008689567595837</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147" t="s">
         <v>204</v>
       </c>
-      <c r="B147" t="s">
-        <v>205</v>
-      </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D147" t="n">
-        <v>0.009406581421787102</v>
+        <v>0.008788336238308964</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B148" t="s">
         <v>206</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D148" t="n">
-        <v>0.009486783630080903</v>
+        <v>0.00888294188950553</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B149" t="s">
         <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
-        <v>0.009561654520684693</v>
+        <v>0.008973226609840401</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>205</v>
+      </c>
+      <c r="B150" t="s">
         <v>208</v>
       </c>
-      <c r="B150" t="s">
-        <v>209</v>
-      </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>0.009631057504924531</v>
+        <v>0.009059038555798787</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
         <v>210</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D151" t="n">
-        <v>0.009694865310980003</v>
+        <v>0.00914023240485437</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B152" t="s">
         <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009752960372665848</v>
+        <v>0.009216669765096025</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>209</v>
+      </c>
+      <c r="B153" t="s">
         <v>212</v>
       </c>
-      <c r="B153" t="s">
-        <v>213</v>
-      </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D153" t="n">
-        <v>0.00980523519030281</v>
+        <v>0.009288219567951228</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B154" t="s">
         <v>214</v>
@@ -3547,12 +3568,12 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009851592662133077</v>
+        <v>0.009354758442445502</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B155" t="s">
         <v>215</v>
@@ -3561,180 +3582,180 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009891946384842636</v>
+        <v>0.009416171069505805</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>213</v>
+      </c>
+      <c r="B156" t="s">
         <v>216</v>
       </c>
-      <c r="B156" t="s">
-        <v>217</v>
-      </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009926220921897405</v>
+        <v>0.009472350514881808</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B157" t="s">
         <v>218</v>
       </c>
       <c r="C157" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009954352038516807</v>
+        <v>0.00952319853934118</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B158" t="s">
         <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009976286902270991</v>
+        <v>0.009568625884881152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>217</v>
+      </c>
+      <c r="B159" t="s">
         <v>220</v>
       </c>
-      <c r="B159" t="s">
-        <v>221</v>
-      </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009991984248417365</v>
+        <v>0.009608552535786623</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B160" t="s">
         <v>222</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D160" t="n">
-        <v>0.010001414509252987</v>
+        <v>0.009642907953467977</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B161" t="s">
         <v>223</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D161" t="n">
-        <v>0.01000455990692028</v>
+        <v>0.009671631284113837</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>221</v>
+      </c>
+      <c r="B162" t="s">
         <v>224</v>
       </c>
-      <c r="B162" t="s">
-        <v>225</v>
-      </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D162" t="n">
-        <v>0.01000141450925299</v>
+        <v>0.009694671538303494</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B163" t="s">
         <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009991984248417372</v>
+        <v>0.009711987741834145</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
         <v>227</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009976286902271158</v>
+        <v>0.009723549057143462</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>225</v>
+      </c>
+      <c r="B165" t="s">
         <v>228</v>
       </c>
-      <c r="B165" t="s">
-        <v>229</v>
-      </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009954352038516807</v>
+        <v>0.009729334874819442</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B166" t="s">
         <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009926220921897405</v>
+        <v>0.009729334874819442</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009891946384842497</v>
+        <v>0.009723549057143462</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B168" t="s">
         <v>233</v>
@@ -3743,12 +3764,12 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009851592662133021</v>
+        <v>0.009711987741834145</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B169" t="s">
         <v>234</v>
@@ -3757,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009805235190302866</v>
+        <v>0.009694671538303494</v>
       </c>
     </row>
     <row r="170">
@@ -3768,10 +3789,10 @@
         <v>236</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009752960372665806</v>
+        <v>0.00967163128411401</v>
       </c>
     </row>
     <row r="171">
@@ -3782,136 +3803,136 @@
         <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009694865310980183</v>
+        <v>0.009642907953467957</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>235</v>
+      </c>
+      <c r="B172" t="s">
         <v>238</v>
       </c>
-      <c r="B172" t="s">
-        <v>239</v>
-      </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009631057504924531</v>
+        <v>0.009608552535786664</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
+        <v>239</v>
+      </c>
+      <c r="B173" t="s">
         <v>240</v>
       </c>
-      <c r="B173" t="s">
-        <v>241</v>
-      </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009561654520684401</v>
+        <v>0.009568625884881152</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B174" t="s">
         <v>242</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009486783630081</v>
+        <v>0.00952319853934118</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B175" t="s">
         <v>243</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>0.00940658142178713</v>
+        <v>0.00947235051488178</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>241</v>
+      </c>
+      <c r="B176" t="s">
         <v>244</v>
       </c>
-      <c r="B176" t="s">
-        <v>245</v>
-      </c>
       <c r="C176" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>0.00932119338630108</v>
+        <v>0.009416171069505819</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B177" t="s">
         <v>246</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009230773476434473</v>
+        <v>0.009354758442445488</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D178" t="n">
-        <v>0.00913548364517408</v>
+        <v>0.009288219567951228</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B179" t="s">
         <v>249</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009035493362860303</v>
+        <v>0.009216669765096025</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B180" t="s">
         <v>250</v>
       </c>
       <c r="C180" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D180" t="n">
-        <v>0.008930979115690657</v>
+        <v>0.009140232404854343</v>
       </c>
     </row>
     <row r="181">
@@ -3925,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>0.008822123887624184</v>
+        <v>0.009059038555798787</v>
       </c>
     </row>
     <row r="182">
@@ -3939,26 +3960,26 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008709116627811125</v>
+        <v>0.008973226609840429</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B183" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008592151705712037</v>
+        <v>0.008882941889505447</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B184" t="s">
         <v>256</v>
@@ -3967,12 +3988,12 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008471428356097793</v>
+        <v>0.008788336238308964</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B185" t="s">
         <v>257</v>
@@ -3981,68 +4002,68 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008347150116141455</v>
+        <v>0.008689567595837111</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008219524256810773</v>
+        <v>0.008586799559202024</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B187" t="s">
         <v>260</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0080887612107792</v>
+        <v>0.008480200932570625</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B188" t="s">
         <v>261</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D188" t="n">
-        <v>0.007955073999040607</v>
+        <v>0.008369945266495232</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>0.007818677658394446</v>
+        <v>0.008256210388804697</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B190" t="s">
         <v>264</v>
@@ -4051,250 +4072,250 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0076797886719334185</v>
+        <v>0.008139177928822156</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.007538624404607175</v>
+        <v>0.00801903283667757</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
-        <v>0.007395402545891772</v>
+        <v>0.007895962899495124</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B193" t="s">
         <v>268</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007250340561514468</v>
+        <v>0.0077701582561992</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B194" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0071036551561232675</v>
+        <v>0.007641810912690561</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B195" t="s">
         <v>271</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D195" t="n">
-        <v>0.006955561748695549</v>
+        <v>0.007511114259093399</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B196" t="s">
         <v>272</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>0.006806273962391585</v>
+        <v>0.007378262590753026</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B197" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D197" t="n">
-        <v>0.006656003130477817</v>
+        <v>0.0072434506346160665</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
         <v>275</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>0.006504957819809365</v>
+        <v>0.007106873082574017</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B199" t="s">
         <v>276</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006353343373291909</v>
+        <v>0.006968724133300852</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B200" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006201361472594646</v>
+        <v>0.006829197044044166</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B201" t="s">
         <v>279</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D201" t="n">
-        <v>0.006049209722295723</v>
+        <v>0.006688483693766678</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>0.005897081256503178</v>
+        <v>0.006546774158964652</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B203" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D203" t="n">
-        <v>0.005745164368885947</v>
+        <v>0.0064042563034030775</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B204" t="s">
         <v>283</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>0.005593642166913548</v>
+        <v>0.006261115382927673</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="B205" t="s">
         <v>284</v>
       </c>
       <c r="C205" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D205" t="n">
-        <v>0.005442692250982373</v>
+        <v>0.006117533666436692</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="B206" t="s">
         <v>285</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D206" t="n">
-        <v>0.00529248641899116</v>
+        <v>0.005973690073988569</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>118</v>
+      </c>
+      <c r="B207" t="s">
         <v>286</v>
       </c>
-      <c r="B207" t="s">
-        <v>287</v>
-      </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0051431903967804615</v>
+        <v>0.005829759832944759</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B208" t="s">
         <v>288</v>
@@ -4303,35 +4324,35 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>0.004994963594751656</v>
+        <v>0.0056859141529467805</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>287</v>
+      </c>
+      <c r="B209" t="s">
         <v>289</v>
       </c>
-      <c r="B209" t="s">
-        <v>290</v>
-      </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0048479588908427185</v>
+        <v>0.005542319920424921</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B210" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>0.004702322439927353</v>
+        <v>0.0053991394132525405</v>
       </c>
     </row>
     <row r="211">
@@ -4339,13 +4360,13 @@
         <v>291</v>
       </c>
       <c r="B211" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D211" t="n">
-        <v>0.004558193509582031</v>
+        <v>0.005256530036046925</v>
       </c>
     </row>
     <row r="212">
@@ -4353,27 +4374,27 @@
         <v>291</v>
       </c>
       <c r="B212" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D212" t="n">
-        <v>0.004415704342057625</v>
+        <v>0.00511464407653317</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B213" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C213" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D213" t="n">
-        <v>0.004274980042176191</v>
+        <v>0.00497362848328009</v>
       </c>
     </row>
     <row r="214">
@@ -4381,363 +4402,363 @@
         <v>295</v>
       </c>
       <c r="B214" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.004136138490785701</v>
+        <v>0.004833624665030178</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B215" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>0.003999290283280665</v>
+        <v>0.004694768311744313</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
+        <v>295</v>
+      </c>
+      <c r="B216" t="s">
         <v>298</v>
       </c>
-      <c r="B216" t="s">
-        <v>300</v>
-      </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0038645386926301484</v>
+        <v>0.00455718923739451</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B217" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0037319796562480523</v>
+        <v>0.004421011244440276</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>299</v>
+      </c>
+      <c r="B218" t="s">
         <v>301</v>
       </c>
-      <c r="B218" t="s">
-        <v>303</v>
-      </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>0.003601701785969358</v>
+        <v>0.004286352009851335</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B219" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0034737864003150376</v>
+        <v>0.004153322992436481</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B220" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0033483075781592375</v>
+        <v>0.004022029361173685</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>302</v>
+      </c>
+      <c r="B221" t="s">
         <v>305</v>
       </c>
-      <c r="B221" t="s">
-        <v>307</v>
-      </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D221" t="n">
-        <v>0.00322533223286392</v>
+        <v>0.0038925699441519357</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0031049202058596737</v>
+        <v>0.0037650371976637453</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B223" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0029871243786480095</v>
+        <v>0.0036395171949228367</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
+        <v>306</v>
+      </c>
+      <c r="B224" t="s">
         <v>309</v>
       </c>
-      <c r="B224" t="s">
-        <v>311</v>
-      </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.002871990802116642</v>
+        <v>0.0035160896338087833</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B225" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C225" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D225" t="n">
-        <v>0.002759558842049481</v>
+        <v>0.0033948278629991058</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>310</v>
+      </c>
+      <c r="B226" t="s">
         <v>312</v>
       </c>
-      <c r="B226" t="s">
-        <v>314</v>
-      </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0026498613396755966</v>
+        <v>0.003275798925770068</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B227" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>0.002542924786095524</v>
+        <v>0.0031590636207293743</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B228" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D228" t="n">
-        <v>0.002438769509377714</v>
+        <v>0.0030446765786670826</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>314</v>
+      </c>
+      <c r="B229" t="s">
         <v>316</v>
       </c>
-      <c r="B229" t="s">
-        <v>318</v>
-      </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D229" t="n">
-        <v>0.002337409873147178</v>
+        <v>0.0029326863547099458</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B230" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0022388544854614473</v>
+        <v>0.0028231355348896092</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B231" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0021431064167816635</v>
+        <v>0.0027160608562503685</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>317</v>
+      </c>
+      <c r="B232" t="s">
         <v>320</v>
       </c>
-      <c r="B232" t="s">
-        <v>322</v>
-      </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0020501634258577803</v>
+        <v>0.0026114933395611217</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B233" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>0.001960018192359074</v>
+        <v>0.002509458433709977</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>321</v>
+      </c>
+      <c r="B234" t="s">
         <v>323</v>
       </c>
-      <c r="B234" t="s">
-        <v>325</v>
-      </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0018726585551050862</v>
+        <v>0.0024099761708225587</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B235" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C235" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0017880677547728596</v>
+        <v>0.002313061331154276</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B236" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0017062246799922354</v>
+        <v>0.002218723616800977</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
+        <v>324</v>
+      </c>
+      <c r="B237" t="s">
         <v>327</v>
       </c>
-      <c r="B237" t="s">
-        <v>329</v>
-      </c>
       <c r="C237" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0016271041157675595</v>
+        <v>0.0021269678332603292</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B238" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0015506769932081728</v>
+        <v>0.0020377940779093065</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B239" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C239" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0014769106395857816</v>
+        <v>0.0019511979344419075</v>
       </c>
     </row>
     <row r="240">
@@ -4745,1133 +4766,1259 @@
         <v>331</v>
       </c>
       <c r="B240" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D240" t="n">
-        <v>0.001405769027783426</v>
+        <v>0.0018671706723533618</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B241" t="s">
         <v>334</v>
       </c>
       <c r="C241" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0013372130242476597</v>
+        <v>0.00178569945055633</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
+        <v>333</v>
+      </c>
+      <c r="B242" t="s">
         <v>335</v>
       </c>
-      <c r="B242" t="s">
-        <v>336</v>
-      </c>
       <c r="C242" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0012712006345996334</v>
+        <v>0.0017067675242444826</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B243" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0012076872461166815</v>
+        <v>0.0016303544541427135</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B244" t="s">
         <v>338</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0011466258663439984</v>
+        <v>0.0015564363173090866</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
+        <v>337</v>
+      </c>
+      <c r="B245" t="s">
         <v>339</v>
       </c>
-      <c r="B245" t="s">
-        <v>340</v>
-      </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0010879673571502248</v>
+        <v>0.0014849859186845948</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B246" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0010316606635938814</v>
+        <v>0.001415973002619992</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B247" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>9.77653037022748E-4</v>
+        <v>0.0013493644636440177</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>341</v>
+      </c>
+      <c r="B248" t="s">
         <v>343</v>
       </c>
-      <c r="B248" t="s">
-        <v>345</v>
-      </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>9.258902518810841E-4</v>
+        <v>0.0012851245557729367</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B249" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>8.763168157526445E-4</v>
+        <v>0.001223215099698756</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B250" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D250" t="n">
-        <v>8.288761722257797E-4</v>
+        <v>0.0011635956872381795</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
+        <v>345</v>
+      </c>
+      <c r="B251" t="s">
         <v>347</v>
       </c>
-      <c r="B251" t="s">
-        <v>349</v>
-      </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D251" t="n">
-        <v>7.835108962125168E-4</v>
+        <v>0.001106223882455612</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B252" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>7.401628814104853E-4</v>
+        <v>0.0010510554189258302</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>351</v>
+        <v>53</v>
       </c>
       <c r="B253" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C253" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D253" t="n">
-        <v>6.987735196460013E-4</v>
+        <v>9.98044392634203E-4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>351</v>
+        <v>53</v>
       </c>
       <c r="B254" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C254" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D254" t="n">
-        <v>6.592838718830502E-4</v>
+        <v>9.471434500596884E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>354</v>
+        <v>53</v>
       </c>
       <c r="B255" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D255" t="n">
-        <v>6.216348307343262E-4</v>
+        <v>8.983039710281828E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B256" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>5.857672743522918E-4</v>
+        <v>8.514762459619768E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B257" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D257" t="n">
-        <v>5.516222116243802E-4</v>
+        <v>8.066096471967561E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B258" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C258" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D258" t="n">
-        <v>5.191409186368224E-4</v>
+        <v>7.636527940765771E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B259" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>4.8826506641109525E-4</v>
+        <v>7.225537115761339E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B260" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>4.589368399541766E-4</v>
+        <v>6.832599822432627E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B261" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>4.3109904869805503E-4</v>
+        <v>6.457188912877086E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="B262" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D262" t="n">
-        <v>4.0469522843733074E-4</v>
+        <v>6.09877564681522E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="B263" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D263" t="n">
-        <v>3.7966973490130736E-4</v>
+        <v>5.75683100174345E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="B264" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D264" t="n">
-        <v>3.5596782912746764E-4</v>
+        <v>5.43082691154646E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B265" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C265" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D265" t="n">
-        <v>3.335357548250517E-4</v>
+        <v>5.120237433281641E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B266" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C266" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D266" t="n">
-        <v>3.123208079419248E-4</v>
+        <v>4.824539842088653E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B267" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D267" t="n">
-        <v>2.922713986671481E-4</v>
+        <v>4.543215654519185E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B268" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D268" t="n">
-        <v>2.7333710611936873E-4</v>
+        <v>4.275751580824312E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B269" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D269" t="n">
-        <v>2.554687259866944E-4</v>
+        <v>4.021640407006061E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B270" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D270" t="n">
-        <v>2.3861831139620603E-4</v>
+        <v>3.7803818076759255E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B271" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C271" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D271" t="n">
-        <v>2.227392073030996E-4</v>
+        <v>3.5514830909745294E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B272" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D272" t="n">
-        <v>2.0778607869699397E-4</v>
+        <v>3.334459877019219E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B273" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C273" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D273" t="n">
-        <v>1.937149329305915E-4</v>
+        <v>3.128836711511684E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B274" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D274" t="n">
-        <v>1.8048313648037512E-4</v>
+        <v>2.934147616313089E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B275" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>1.6804942645170856E-4</v>
+        <v>2.749936578935776E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B276" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>1.5637391714258086E-4</v>
+        <v>2.5757579830194485E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B277" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C277" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>1.45418101979109E-4</v>
+        <v>2.4111769819820618E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B278" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C278" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D278" t="n">
-        <v>1.3514485113504788E-4</v>
+        <v>2.2557698181192723E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B279" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D279" t="n">
-        <v>1.255184051430938E-4</v>
+        <v>2.1091240895034554E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B280" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C280" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D280" t="n">
-        <v>1.16504364802521E-4</v>
+        <v>1.9708389670976788E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B281" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C281" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1.0806967768107805E-4</v>
+        <v>1.8405253645418498E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B282" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C282" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1.001826215028753E-4</v>
+        <v>1.7178060631032168E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>50</v>
+        <v>385</v>
       </c>
       <c r="B283" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>9.281278470609617E-5</v>
+        <v>1.6023157942950594E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>50</v>
+        <v>389</v>
       </c>
       <c r="B284" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>8.593104444608942E-5</v>
+        <v>1.4937012826828425E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>50</v>
+        <v>389</v>
       </c>
       <c r="B285" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>7.950954231006118E-5</v>
+        <v>1.3916212513780959E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B286" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C286" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D286" t="n">
-        <v>7.352165799982368E-5</v>
+        <v>1.2957463927132568E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B287" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C287" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D287" t="n">
-        <v>6.794198122870155E-5</v>
+        <v>1.2057593065556665E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B288" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C288" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D288" t="n">
-        <v>6.274628206804115E-5</v>
+        <v>1.1213544086855756E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B289" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D289" t="n">
-        <v>5.791147996755562E-5</v>
+        <v>1.0422378116138175E-4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B290" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C290" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>5.3415611662401734E-5</v>
+        <v>9.681271801642642E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B291" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C291" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>4.9237798168559176E-5</v>
+        <v>8.987515640830829E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B292" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C292" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D292" t="n">
-        <v>4.535821105616588E-5</v>
+        <v>8.338512098711567E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B293" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C293" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D293" t="n">
-        <v>4.175803817918169E-5</v>
+        <v>7.731773539636569E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B294" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C294" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D294" t="n">
-        <v>3.841944902787639E-5</v>
+        <v>7.164919993040005E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B295" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D295" t="n">
-        <v>3.5325559859333E-5</v>
+        <v>6.635676772785118E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B296" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C296" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>3.246039874981344E-5</v>
+        <v>6.141871968951159E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B297" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D297" t="n">
-        <v>2.9808870701571427E-5</v>
+        <v>5.681433830018927E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B298" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C298" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>2.7356722926051352E-5</v>
+        <v>5.252388052537631E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B299" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C299" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D299" t="n">
-        <v>2.5090510414608113E-5</v>
+        <v>4.852854994461377E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B300" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C300" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D300" t="n">
-        <v>2.2997561897764913E-5</v>
+        <v>4.481046827436606E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B301" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C301" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D301" t="n">
-        <v>2.106594628404967E-5</v>
+        <v>4.135264642417789E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B302" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C302" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D302" t="n">
-        <v>1.9284439659929395E-5</v>
+        <v>3.813895522087376E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B303" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C303" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>1.7642492923226194E-5</v>
+        <v>3.515409592659747E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B304" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C304" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>1.613020011367335E-5</v>
+        <v>3.238357066763324E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B305" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C305" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D305" t="n">
-        <v>1.4738267495967143E-5</v>
+        <v>2.9813652882273263E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B306" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C306" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D306" t="n">
-        <v>1.3457983442813083E-5</v>
+        <v>2.7431357887465772E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B307" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C307" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D307" t="n">
-        <v>1.2281189158028203E-5</v>
+        <v>2.522441365566475E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B308" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C308" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D308" t="n">
-        <v>1.1200250272811564E-5</v>
+        <v>2.3181231885272642E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B309" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C309" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D309" t="n">
-        <v>1.0208029341718286E-5</v>
+        <v>2.1290879440200792E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B310" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C310" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D310" t="n">
-        <v>9.297859258814792E-6</v>
+        <v>1.954305022660525E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B311" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C311" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>8.463517608800483E-6</v>
+        <v>1.7928037567560833E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B312" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D312" t="n">
-        <v>7.699201962671706E-6</v>
+        <v>1.643670712956106E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B313" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C313" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D313" t="n">
-        <v>6.999506122663438E-6</v>
+        <v>1.5060470448099457E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="B314" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C314" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D314" t="n">
-        <v>6.359397316811766E-6</v>
+        <v>1.3791259093304405E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B315" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D315" t="n">
-        <v>5.774194339457351E-6</v>
+        <v>1.2621499510665645E-5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B316" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D316" t="n">
-        <v>5.239546630369172E-6</v>
+        <v>1.1544088566276325E-5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B317" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D317" t="n">
-        <v>4.751414281900908E-6</v>
+        <v>1.0552369820720126E-5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B318" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C318" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D318" t="n">
-        <v>4.306048960678694E-6</v>
+        <v>9.640110550817967E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B319" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C319" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D319" t="n">
-        <v>3.899975727713366E-6</v>
+        <v>8.80147953381359E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>435</v>
+      </c>
+      <c r="B320" t="s">
+        <v>438</v>
+      </c>
+      <c r="C320" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" t="n">
+        <v>8.031025604305953E-6</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>439</v>
+      </c>
+      <c r="B321" t="s">
         <v>440</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C321" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" t="n">
+        <v>7.323656990276958E-6</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>439</v>
+      </c>
+      <c r="B322" t="s">
+        <v>441</v>
+      </c>
+      <c r="C322" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322" t="n">
+        <v>6.674621430901974E-6</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>439</v>
+      </c>
+      <c r="B323" t="s">
+        <v>442</v>
+      </c>
+      <c r="C323" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" t="n">
+        <v>6.079487075495497E-6</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
         <v>443</v>
       </c>
-      <c r="C320" t="s">
-        <v>25</v>
-      </c>
-      <c r="D320" t="n">
-        <v>3.52997573857914E-6</v>
+      <c r="B324" t="s">
+        <v>444</v>
+      </c>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324" t="n">
+        <v>5.534124159898622E-6</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>443</v>
+      </c>
+      <c r="B325" t="s">
+        <v>445</v>
+      </c>
+      <c r="C325" t="s">
+        <v>11</v>
+      </c>
+      <c r="D325" t="n">
+        <v>5.034687453838958E-6</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>443</v>
+      </c>
+      <c r="B326" t="s">
+        <v>446</v>
+      </c>
+      <c r="C326" t="s">
+        <v>11</v>
+      </c>
+      <c r="D326" t="n">
+        <v>4.577599470319908E-6</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>447</v>
+      </c>
+      <c r="B327" t="s">
+        <v>448</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="n">
+        <v>4.159534425859075E-6</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>447</v>
+      </c>
+      <c r="B328" t="s">
+        <v>449</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>3.7774029384221653E-6</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>447</v>
+      </c>
+      <c r="B329" t="s">
+        <v>450</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3.4283374481656375E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="451">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,1345 +26,1345 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Rainier Luftwaffe Wolfcastle</t>
+    <t>Barney Gumble</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>drinking one's life away in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ali G</t>
+  </si>
+  <si>
+    <t>Ali G Indahouse and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>Olympics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Running and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Family life and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>watching TV in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ringo Starr</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Catherine The Great</t>
+  </si>
+  <si>
+    <t>Russian politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russian history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Italian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italian poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Piers Morgan</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lenny Bruce</t>
+  </si>
+  <si>
+    <t>Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commenting on social issues in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkein</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making fantasy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James T. Kirk</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>James Brown</t>
+  </si>
+  <si>
+    <t>Soul music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sean Penn</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Bradley Manning</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Norman Bates</t>
+  </si>
+  <si>
+    <t>Psycho and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hitchcock movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Walt Disney animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting movie violence in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in animated movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mother Teresa</t>
+  </si>
+  <si>
+    <t>Calcutta and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christianity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Professor Hans Zarkov</t>
+  </si>
+  <si>
+    <t>Flash Gordon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>building rocket ships in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>Violin music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Classical music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing the violin in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Oedipus Rex</t>
+  </si>
+  <si>
+    <t>the Ancient world and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving riddles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>directing action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> entertaining teenagers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Winston Churchill</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>James Comey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Law and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a bureaucracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hacking into computers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting openness in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> decrying secrecy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Violet Baudelaire</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Dean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> racing fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Microsoft and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jon Stewart</t>
+  </si>
+  <si>
+    <t>Comedy Central and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Late-night TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Michael Corleone</t>
+  </si>
+  <si>
+    <t>The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tending the garden in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lionel Hutz</t>
   </si>
   <si>
     <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ralph Nader</t>
-  </si>
-  <si>
-    <t>the American Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumer Advocacy and the Cthulu mythos</t>
+    <t>losing court cases in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> repairing shoes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nelson Mandela</t>
+  </si>
+  <si>
+    <t>South Africa and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apartheid and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tricking criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Cross-Dressing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Morgana Le Fay</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Cuban politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Bette Davis</t>
   </si>
   <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Jessica Parker</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leroy Jethro Gibbs</t>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>stealing jewels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Martial Arts and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kung Fu and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jean-Paul Sartre</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>the Roman Empire and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing citizens in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>mooching from neighbors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing crazy schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walt Longmire</t>
+  </si>
+  <si>
+    <t>Crime fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detective fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Greg House</t>
+  </si>
+  <si>
+    <t>Diagnostic medicine and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> treating diseases in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diagnosing diseases in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johnny Carson</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Late-night TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing jazz songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing torch songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Spock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vulcan and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Derek Zoolander</t>
+  </si>
+  <si>
+    <t>Fashion and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Magic and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Street Magic and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing street magic in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tupac Shakur</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing rap songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>Musicals and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Musical Theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making insipid musicals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Oscar Pistorius</t>
+  </si>
+  <si>
+    <t>Olympics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Running and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>running a new-age website in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raising new-age children in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adrian Monk</t>
+  </si>
+  <si>
+    <t>obsessively washing hands in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>the Confectionary business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Chocolate industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a business empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Golf and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nurse Ratched</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing employees in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Leia Organa</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>leading the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keyser Söze</t>
+  </si>
+  <si>
+    <t>The Usual Suspects and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Partridge</t>
+  </si>
+  <si>
+    <t>Regional Radio and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hosting radio shows in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph Goebbels</t>
+  </si>
+  <si>
+    <t>the Nazi Party and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Socialism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Third Reich and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Theatre and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wayne Gretzky</t>
+  </si>
+  <si>
+    <t>Ice Hockey and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing ice hockey in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Sparrow</t>
+  </si>
+  <si>
+    <t>Pirates of the Carribean and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>collecting pirate booty in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commanding a pirate ship in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Love songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geometry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Polonius</t>
+  </si>
+  <si>
+    <t>Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>Tomb Raider and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking for hidden treasures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>unearthing ancient tombs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Poetry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sprung Rhyme and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern poetry in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>Prohibition and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chicago and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Judas Iscariot</t>
+  </si>
+  <si>
+    <t>the New Testament and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the 12 Apostles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Pepé Le Pew</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Napoleon Bonaparte</t>
+  </si>
+  <si>
+    <t>France and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Saddam Hussein</t>
+  </si>
+  <si>
+    <t>Islamic Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>suppressing minorities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Helen of Troy</t>
+  </si>
+  <si>
+    <t>worrying about adultery in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preparing for war in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Naomi Campbell</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Nick Fury</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing jazz trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
+  </si>
+  <si>
+    <t>getting run over by cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> posing riddles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>American architecture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern architecture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>designing modern buildings in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ed Wood</t>
+  </si>
+  <si>
+    <t>Bad Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making bad movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Loki Laufeyson</t>
+  </si>
+  <si>
+    <t>Norse mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting against family members in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lou Reed</t>
+  </si>
+  <si>
+    <t>The Velvet Revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>avoiding growing old in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>the Toy Industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting hair products in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nelson Muntz</t>
+  </si>
+  <si>
+    <t>bullying schoolkids in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stealing lunch money in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Karl Rove</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mr. Krabs</t>
+  </si>
+  <si>
+    <t>Nickelodeon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a fast-food business in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing serious acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning Oscars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jor El</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sylvia Plath</t>
+  </si>
+  <si>
+    <t>Modern poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suicide and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jay Leno</t>
+  </si>
+  <si>
+    <t>Late-night TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chat Shows and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NBC and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tony DiNozzo</t>
   </si>
   <si>
     <t>NCIS and the Dagon mythos</t>
   </si>
   <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Madeleine Albright</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jane Goodall</t>
-  </si>
-  <si>
-    <t>Anthropology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>living amongst apes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Roger Federer</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning tennis matches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>The Chronicles of Riddick and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>evading mercenaries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Australia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drag and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cross-Dressing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>John Maynard Keynes</t>
-  </si>
-  <si>
-    <t>Keynesian economics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monetarist economics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting monetarism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving riddles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Uri Geller</t>
-  </si>
-  <si>
-    <t>Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mentalism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Show Business and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Wesley Crusher</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Cruise</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scientology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>A Street Car Named Desire and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>moaning about women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keith Moon</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing drums in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raising cain in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t>reading the news in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting anodyne game shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jon Stewart</t>
-  </si>
-  <si>
-    <t>Comedy Central and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Late-night TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Chess and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigel Farage</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brexit and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>El Chappo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>working out in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeff Koons</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making modern art in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John McEnroe</t>
-  </si>
-  <si>
-    <t>whining at umpires in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> delivering forehand slams in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Svengali</t>
-  </si>
-  <si>
-    <t>the Music industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>manipulating ingenues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Luke Skywalker</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking for friends in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Clarice Starling</t>
-  </si>
-  <si>
-    <t>Silence of the Lambs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting serial killers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Athletics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Olympics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning gold medals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Joyce</t>
-  </si>
-  <si>
-    <t>Modern literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Irish literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Roman politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Moe Szyslak</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>serving beer in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> falling for prank calls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thanos</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>devising evil schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> striving for world domination in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael J. Fox</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Family Ties and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spin City and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Staff Member</t>
-  </si>
-  <si>
-    <t>Research Area and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Research Activity in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Raiders of the Lost Ark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Archeology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking for hidden treasures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Bond</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mi6 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>John F. Kennedy</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing starlets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rosa Parks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Saruman the White</t>
-  </si>
-  <si>
-    <t>Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Middle Earth and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting with the enemy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Blanche DuBois</t>
-  </si>
-  <si>
-    <t>moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elton John</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love songs and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the New world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>Modern painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting over photographs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Edward Hyde</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dominique Strauss-Kahn</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>throwing sex parties in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Zsa Zsa Gabor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>divorcing husbands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting alimony in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Scarlett O'Hara</t>
-  </si>
-  <si>
-    <t>Gone With The Wind and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The American Civil War and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>attending cotillion balls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> James Bond and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boy George</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Brian Griffin</t>
-  </si>
-  <si>
-    <t>Family Guy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberal values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimmy Stewart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing everyman characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Environment and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sydney Bristow</t>
-  </si>
-  <si>
-    <t>Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>kicking ass in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jesse Jackson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>suing large corporations in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting racial harmony in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going senile in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Springer</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Queen Victoria</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Folk music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Protest songs and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing protest songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edgar Allan Poe</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Cuban politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>whining at umpires in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>Mad Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marc Jacobs</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mayor Joe Quimby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> embezzling tax money in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> taking bribes from organized crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> paying kickbacks to the police chief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Shylock</t>
-  </si>
-  <si>
-    <t>amassing wealth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billie Holiday</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing jazz songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dirty Harry Callahan</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>brokering peace deals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Jung-un</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asian politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Liza Minnelli</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Percy Percy</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Reacher</t>
-  </si>
-  <si>
-    <t>Crime fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jimmy Cagney</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Samson</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>lying badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wanting to be a real person in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyra Banks</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Keynesian economics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monetarist economics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting monetarism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julia Child</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Deadpool</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> undermining authority in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making vulgar jokes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Folk music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Protest songs and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing protest songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Karen Carpenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anorexia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing drums in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> losing weight in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ryan Reynolds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dumb comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing political strategies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Amelia Earhart</t>
-  </si>
-  <si>
-    <t>Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>flying airplanes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barney Gumble</t>
-  </si>
-  <si>
-    <t>drinking one's life away in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> driving under the influence in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> belching in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making violent movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>coasting on past glories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sir Lancelot</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Evolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>collecting fossils in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adam West</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>wearing tights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry Page</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>the Motor industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Car industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>mass-producing cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Glenn Quagmire</t>
-  </si>
-  <si>
-    <t>chasing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploiting women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> looking for sex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Cuban politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cuban revolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuba and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>the Americas and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Age of Discovery and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>searching for a new world in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Playboy Magazine and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bette Midler</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Crime fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing crime stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing compelling dialogue in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Escapology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stage Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Tony Robbins</t>
-  </si>
-  <si>
-    <t>Neuro-Linguistic Programming and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Improvement and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jor El</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>the Mongols and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mongolia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Spy spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bond spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spy movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Charlie Harper</t>
+  </si>
+  <si>
+    <t>American comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Two And A Half Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Peanuts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing baseball in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> worrying about life in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Prohibition and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chicago and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>the Renaissance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renaissance art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florence and the Cthulu mythos</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.4283374481656375E-6</v>
+        <v>3.4615608146364626E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1454,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.7774029384221653E-6</v>
+        <v>3.817402704218463E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1468,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.159534425859075E-6</v>
+        <v>4.20727456187679E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1479,10 +1479,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.577599470319908E-6</v>
+        <v>4.634155462039594E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1490,13 +1490,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5.034687453838958E-6</v>
+        <v>5.101257076749385E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1504,55 +1504,55 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.534124159898622E-6</v>
+        <v>5.612039102257151E-6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>6.079487075495497E-6</v>
+        <v>6.170225456973149E-6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>6.674621430901974E-6</v>
+        <v>6.779821266729818E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>7.3236569902771745E-6</v>
+        <v>7.445130651425206E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1566,7 +1566,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>8.03102560430602E-6</v>
+        <v>8.170775324941725E-6</v>
       </c>
     </row>
     <row r="12">
@@ -1580,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>8.801479533813414E-6</v>
+        <v>8.961714017816536E-6</v>
       </c>
     </row>
     <row r="13">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>9.640110550818265E-6</v>
+        <v>9.823262729393502E-6</v>
       </c>
     </row>
     <row r="14">
@@ -1605,10 +1605,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0552369820719909E-5</v>
+        <v>1.0761115813190405E-5</v>
       </c>
     </row>
     <row r="15">
@@ -1619,10 +1619,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1544088566276136E-5</v>
+        <v>1.1781367895843212E-5</v>
       </c>
     </row>
     <row r="16">
@@ -1633,10 +1633,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>1.262149951066597E-5</v>
+        <v>1.2890536626352695E-5</v>
       </c>
     </row>
     <row r="17">
@@ -1647,10 +1647,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3791259093304405E-5</v>
+        <v>1.4095586248346736E-5</v>
       </c>
     </row>
     <row r="18">
@@ -1661,155 +1661,155 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5060470448099322E-5</v>
+        <v>1.5403951983728218E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1.643670712956087E-5</v>
+        <v>1.682356521137942E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>1.792803756756113E-5</v>
+        <v>1.8362879419548344E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>1.9543050226605412E-5</v>
+        <v>2.003089690510987E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>2.129087944020109E-5</v>
+        <v>2.1837196187108715E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>2.3181231885271883E-5</v>
+        <v>2.3791960095851023E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>2.522441365566475E-5</v>
+        <v>2.590600449226335E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>2.743135788746664E-5</v>
+        <v>2.8190807565371982E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>2.98136528822731E-5</v>
+        <v>3.0658539648509015E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>3.238357066763335E-5</v>
+        <v>3.3322093487251595E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>3.515409592659666E-5</v>
+        <v>3.619511488419069E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
@@ -1818,26 +1818,26 @@
         <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>3.8138955220875603E-5</v>
+        <v>3.9292033637374206E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>4.135264642417735E-5</v>
+        <v>4.262809468069179E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -1846,12 +1846,12 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>4.481046827436476E-5</v>
+        <v>4.621938932571296E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -1860,68 +1860,68 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>4.852854994461377E-5</v>
+        <v>5.008288649533928E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>5.252388052537631E-5</v>
+        <v>5.423646383035763E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>5.681433830018927E-5</v>
+        <v>5.869893854047422E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>6.141871968951159E-5</v>
+        <v>6.349009786186133E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>6.635676772785118E-5</v>
+        <v>6.863072897325445E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
@@ -1930,12 +1930,12 @@
         <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>7.164919993040005E-5</v>
+        <v>7.414264821313803E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -1944,110 +1944,110 @@
         <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>7.731773539636569E-5</v>
+        <v>8.004872943048996E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>8.338512098711567E-5</v>
+        <v>8.63729312918257E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>8.987515640830829E-5</v>
+        <v>9.314032335766488E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>9.681271801642642E-5</v>
+        <v>1.0037711073193319E-4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0422378116138175E-4</v>
+        <v>1.081106570785743E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1.1213544086855756E-4</v>
+        <v>1.1636950579053409E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1.2057593065556665E-4</v>
+        <v>1.251833990880023E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.2957463927132568E-4</v>
+        <v>1.345832948140024E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
@@ -2056,12 +2056,12 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3916212513780959E-4</v>
+        <v>1.4460138068857968E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
@@ -2070,26 +2070,26 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4937012826828425E-4</v>
+        <v>1.552710857751381E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1.6023157942950594E-4</v>
+        <v>1.6662708890660205E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -2098,12 +2098,12 @@
         <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>1.7178060631032168E-4</v>
+        <v>1.7870532381336016E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
@@ -2112,49 +2112,49 @@
         <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>1.8405253645418498E-4</v>
+        <v>1.9154298069050174E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9708389670976788E-4</v>
+        <v>2.051785039379095E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>2.1091240895034988E-4</v>
+        <v>2.196515858046309E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>2.2557698181192897E-4</v>
+        <v>2.350031556671386E-4</v>
       </c>
     </row>
     <row r="54">
@@ -2165,10 +2165,10 @@
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>2.4111769819820574E-4</v>
+        <v>2.512753646710564E-4</v>
       </c>
     </row>
     <row r="55">
@@ -2179,505 +2179,505 @@
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>2.575757983019466E-4</v>
+        <v>2.685115654673595E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
         <v>80</v>
       </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>2.7499365789358495E-4</v>
+        <v>2.867562867761319E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>2.934147616313002E-4</v>
+        <v>3.0605520251579706E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>3.1288367115117014E-4</v>
+        <v>3.264550952407448E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
         <v>84</v>
       </c>
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>3.334459877019306E-4</v>
+        <v>3.4800381363824656E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>3.5514830909744947E-4</v>
+        <v>3.7075022384453274E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>3.7803818076758127E-4</v>
+        <v>3.947441543507447E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
         <v>88</v>
       </c>
-      <c r="B62" t="s">
-        <v>89</v>
-      </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>4.021640407006156E-4</v>
+        <v>4.2003633428263753E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>4.2757515808242424E-4</v>
+        <v>4.466783248521138E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
         <v>91</v>
       </c>
-      <c r="B64" t="s">
-        <v>92</v>
-      </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>4.543215654519246E-4</v>
+        <v>4.747224437967601E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>4.824539842088549E-4</v>
+        <v>5.042216826400808E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>5.120237433281676E-4</v>
+        <v>5.352296166285953E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
         <v>95</v>
       </c>
-      <c r="B67" t="s">
-        <v>96</v>
-      </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>5.430826911546598E-4</v>
+        <v>5.678003072226868E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>5.756831001743398E-4</v>
+        <v>6.019881970437992E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>6.098775646815307E-4</v>
+        <v>6.378479972081845E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
         <v>99</v>
       </c>
-      <c r="B70" t="s">
-        <v>100</v>
-      </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>6.457188912876895E-4</v>
+        <v>6.754345670046159E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>6.83259982243261E-4</v>
+        <v>7.148027859064602E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
         <v>102</v>
       </c>
-      <c r="B72" t="s">
-        <v>103</v>
-      </c>
       <c r="C72" t="s">
         <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>7.225537115761339E-4</v>
+        <v>7.560074179392348E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>7.636527940765771E-4</v>
+        <v>7.991029684615656E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>8.066096471967561E-4</v>
+        <v>8.441435334519323E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
         <v>106</v>
       </c>
-      <c r="B75" t="s">
-        <v>107</v>
-      </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>8.514762459619768E-4</v>
+        <v>8.911826414325901E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>8.983039710281828E-4</v>
+        <v>9.402730882022356E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>9.471434500596884E-4</v>
+        <v>9.914667645886145E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
       <c r="C78" t="s">
         <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>9.98044392634203E-4</v>
+        <v>0.0010448144774759527</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0010510554189258302</v>
+        <v>0.0011003657644037615</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001106223882455612</v>
+        <v>0.0011581687020802353</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
         <v>114</v>
       </c>
-      <c r="B81" t="s">
-        <v>115</v>
-      </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0011635956872381795</v>
+        <v>0.0012182697091960397</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
         <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001223215099698756</v>
+        <v>0.0012807133439713715</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
         <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0012851245557729367</v>
+        <v>0.0013455420969136385</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" t="s">
         <v>118</v>
       </c>
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0013493644636440177</v>
+        <v>0.001412796179310366</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001415973002619992</v>
+        <v>0.0014825133080271884</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
         <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0014849859186845948</v>
+        <v>0.00155472848722258</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
         <v>122</v>
       </c>
-      <c r="B87" t="s">
-        <v>123</v>
-      </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0015564363173090866</v>
+        <v>0.0016294737876420967</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
         <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0016303544541427135</v>
+        <v>0.0017067781241910489</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
         <v>125</v>
       </c>
-      <c r="B89" t="s">
-        <v>126</v>
-      </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0017067675242444826</v>
+        <v>0.001786667032529561</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00178569945055633</v>
+        <v>0.0018691624454764064</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
         <v>128</v>
@@ -2686,119 +2686,119 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0018671706723533618</v>
+        <v>0.00195428247004098</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" t="s">
         <v>129</v>
       </c>
-      <c r="B92" t="s">
-        <v>130</v>
-      </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0019511979344419075</v>
+        <v>0.0020420411659433507</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0020377940779093065</v>
+        <v>0.0021324483265143385</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" t="s">
         <v>132</v>
       </c>
-      <c r="B94" t="s">
-        <v>133</v>
-      </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0021269678332603292</v>
+        <v>0.002225509262896115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002218723616800977</v>
+        <v>0.0023212245924947306</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002313061331154387</v>
+        <v>0.0024195900326592357</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" t="s">
         <v>136</v>
       </c>
-      <c r="B97" t="s">
-        <v>137</v>
-      </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0024099761708224476</v>
+        <v>0.0025205962005753757</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002509458433710199</v>
+        <v>0.002624228420393615</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0026114933395610107</v>
+        <v>0.002730466538602261</v>
       </c>
     </row>
     <row r="100">
@@ -2806,13 +2806,13 @@
         <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
         <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002716060856250202</v>
+        <v>0.0028392847486818362</v>
       </c>
     </row>
     <row r="101">
@@ -2820,223 +2820,223 @@
         <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
         <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0028231355348897202</v>
+        <v>0.00295065142607126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
         <v>143</v>
       </c>
-      <c r="B102" t="s">
-        <v>144</v>
-      </c>
       <c r="C102" t="s">
         <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0029326863547099458</v>
+        <v>0.003064528974470182</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0030446765786670826</v>
+        <v>0.003180873684508201</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>0.003159063620729319</v>
+        <v>0.003299635605772455</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" t="s">
         <v>147</v>
       </c>
-      <c r="B105" t="s">
-        <v>148</v>
-      </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0032757989257701237</v>
+        <v>0.003420758433204718</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0033948278629989947</v>
+        <v>0.0035441794088185707</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0035160896338088943</v>
+        <v>0.003669829239668465</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" t="s">
         <v>151</v>
       </c>
-      <c r="B108" t="s">
-        <v>152</v>
-      </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.003639517194922781</v>
+        <v>0.003797632032993159</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.003765037197663912</v>
+        <v>0.003927505249363361</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.003892569944151769</v>
+        <v>0.004059359674668417</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
         <v>155</v>
       </c>
-      <c r="B111" t="s">
-        <v>156</v>
-      </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004022029361173629</v>
+        <v>0.004193099411690104</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004153322992436537</v>
+        <v>0.004328621891963369</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004286352009851391</v>
+        <v>0.00446581790856887</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
         <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004421011244440276</v>
+        <v>0.0046045716704199435</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="B115" t="s">
         <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0045571892373945655</v>
+        <v>0.004744760878536036</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
         <v>161</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004694768311744313</v>
+        <v>0.0048862568247259874</v>
       </c>
     </row>
     <row r="117">
@@ -3047,220 +3047,220 @@
         <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D117" t="n">
-        <v>0.004833624665030234</v>
+        <v>0.005028924513002797</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.004973628483280146</v>
+        <v>0.005172622803984839</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005114644076532948</v>
+        <v>0.005317204582426516</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B120" t="s">
         <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005256530036046925</v>
+        <v>0.005462516947943197</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
         <v>20</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0053991394132525405</v>
+        <v>0.005608401428884635</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
         <v>20</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005542319920424921</v>
+        <v>0.005754694219222312</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B123" t="s">
         <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0056859141529467805</v>
+        <v>0.00590122643820179</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>0.005829759832944759</v>
+        <v>0.006047824412411307</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005973690073988569</v>
+        <v>0.006194309979821011</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006117533666436692</v>
+        <v>0.006340500815223915</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006261115382927673</v>
+        <v>0.006486210776418921</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0064042563034030775</v>
+        <v>0.006631250270362876</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006546774158964652</v>
+        <v>0.006775426638420123</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006688483693766678</v>
+        <v>0.0069185445597271245</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
         <v>20</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006829197044044166</v>
+        <v>0.007060406471602221</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>0.006968724133300852</v>
+        <v>0.007200813005820539</v>
       </c>
     </row>
     <row r="133">
@@ -3268,13 +3268,13 @@
         <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007106873082574017</v>
+        <v>0.007339563439492824</v>
       </c>
     </row>
     <row r="134">
@@ -3282,27 +3282,27 @@
         <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0072434506346160665</v>
+        <v>0.007476456159189848</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
-        <v>0.007378262590753026</v>
+        <v>0.0076112891368709246</v>
       </c>
     </row>
     <row r="136">
@@ -3310,13 +3310,13 @@
         <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007511114259093399</v>
+        <v>0.007743860416108139</v>
       </c>
     </row>
     <row r="137">
@@ -3324,27 +3324,27 @@
         <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0076418109126908385</v>
+        <v>0.007873968606997739</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0077701582561992555</v>
+        <v>0.008001413388121825</v>
       </c>
     </row>
     <row r="139">
@@ -3352,433 +3352,433 @@
         <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007895962899494985</v>
+        <v>0.008125996013826547</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B140" t="s">
         <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00801903283667757</v>
+        <v>0.008247519825057392</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
         <v>20</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008139177928822072</v>
+        <v>0.008365790761936581</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B142" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
         <v>20</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008256210388804697</v>
+        <v>0.008480617876228974</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B143" t="s">
         <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008369945266495316</v>
+        <v>0.008591813841827112</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008480200932570625</v>
+        <v>0.008699195461347342</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
         <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008586799559201996</v>
+        <v>0.008802584166946181</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B146" t="s">
         <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008689567595837</v>
+        <v>0.008901806513434168</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008788336238308964</v>
+        <v>0.00899669466179942</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
         <v>206</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00888294188950553</v>
+        <v>0.00908708685125531</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B149" t="s">
         <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D149" t="n">
-        <v>0.008973226609840401</v>
+        <v>0.00917282785795745</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>0.009059038555798787</v>
+        <v>0.009253769438576864</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B151" t="s">
         <v>210</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>0.00914023240485437</v>
+        <v>0.00932977075695332</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B152" t="s">
         <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009216669765096025</v>
+        <v>0.009400698792112874</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009288219567951228</v>
+        <v>0.009466428726000758</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B154" t="s">
         <v>214</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009354758442445502</v>
+        <v>0.009526844309339574</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B155" t="s">
         <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009416171069505805</v>
+        <v>0.009581838204123491</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009472350514881808</v>
+        <v>0.009631312301327077</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B157" t="s">
         <v>218</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D157" t="n">
-        <v>0.00952319853934118</v>
+        <v>0.009675178012518021</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
         <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009568625884881152</v>
+        <v>0.009713356534160215</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009608552535786623</v>
+        <v>0.0097457790834993</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B160" t="s">
         <v>222</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009642907953467977</v>
+        <v>0.009772387105050136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B161" t="s">
         <v>223</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009671631284113837</v>
+        <v>0.009793132446810581</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009694671538303494</v>
+        <v>0.00980797750546438</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B163" t="s">
         <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009711987741834145</v>
+        <v>0.00981689533995939</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B164" t="s">
         <v>227</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009723549057143462</v>
+        <v>0.009819869752977611</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B165" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009729334874819442</v>
+        <v>0.009816895339959398</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B166" t="s">
         <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009729334874819442</v>
+        <v>0.00980797750546455</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>228</v>
+      </c>
+      <c r="B167" t="s">
         <v>231</v>
       </c>
-      <c r="B167" t="s">
-        <v>232</v>
-      </c>
       <c r="C167" t="s">
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009723549057143462</v>
+        <v>0.009793132446810581</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
         <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009711987741834145</v>
+        <v>0.009772387105050136</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B169" t="s">
         <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009694671538303494</v>
+        <v>0.0097457790834993</v>
       </c>
     </row>
     <row r="170">
@@ -3789,10 +3789,10 @@
         <v>236</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>0.00967163128411401</v>
+        <v>0.009713356534160215</v>
       </c>
     </row>
     <row r="171">
@@ -3803,10 +3803,10 @@
         <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009642907953467957</v>
+        <v>0.009675178012518215</v>
       </c>
     </row>
     <row r="172">
@@ -3817,10 +3817,10 @@
         <v>238</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009608552535786664</v>
+        <v>0.009631312301327064</v>
       </c>
     </row>
     <row r="173">
@@ -3834,77 +3834,77 @@
         <v>20</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009568625884881152</v>
+        <v>0.009581838204123436</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>239</v>
+      </c>
+      <c r="B174" t="s">
         <v>241</v>
       </c>
-      <c r="B174" t="s">
-        <v>242</v>
-      </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D174" t="n">
-        <v>0.00952319853934118</v>
+        <v>0.009526844309339297</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D175" t="n">
-        <v>0.00947235051488178</v>
+        <v>0.00946642872600073</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B176" t="s">
         <v>244</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009416171069505819</v>
+        <v>0.009400698792113055</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>243</v>
+      </c>
+      <c r="B177" t="s">
         <v>245</v>
       </c>
-      <c r="B177" t="s">
-        <v>246</v>
-      </c>
       <c r="C177" t="s">
         <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009354758442445488</v>
+        <v>0.00932977075695332</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B178" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C178" t="s">
         <v>20</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009288219567951228</v>
+        <v>0.009253769438576864</v>
       </c>
     </row>
     <row r="179">
@@ -3912,13 +3912,13 @@
         <v>247</v>
       </c>
       <c r="B179" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s">
         <v>20</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009216669765096025</v>
+        <v>0.00917282785795745</v>
       </c>
     </row>
     <row r="180">
@@ -3926,27 +3926,27 @@
         <v>247</v>
       </c>
       <c r="B180" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C180" t="s">
         <v>20</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009140232404854343</v>
+        <v>0.00908708685125531</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B181" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009059038555798787</v>
+        <v>0.008996694661799504</v>
       </c>
     </row>
     <row r="182">
@@ -3954,223 +3954,223 @@
         <v>251</v>
       </c>
       <c r="B182" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008973226609840429</v>
+        <v>0.008901806513434224</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B183" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008882941889505447</v>
+        <v>0.008802584166946126</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>251</v>
+      </c>
+      <c r="B184" t="s">
         <v>254</v>
       </c>
-      <c r="B184" t="s">
-        <v>256</v>
-      </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008788336238308964</v>
+        <v>0.00869919546134712</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B185" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008689567595837111</v>
+        <v>0.008591813841827112</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B186" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C186" t="s">
         <v>20</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008586799559202024</v>
+        <v>0.008480617876229113</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>255</v>
+      </c>
+      <c r="B187" t="s">
         <v>258</v>
       </c>
-      <c r="B187" t="s">
-        <v>260</v>
-      </c>
       <c r="C187" t="s">
         <v>20</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008480200932570625</v>
+        <v>0.008365790761936581</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B188" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s">
         <v>20</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008369945266495232</v>
+        <v>0.008247519825057392</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B189" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008256210388804697</v>
+        <v>0.008125996013826547</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>259</v>
+      </c>
+      <c r="B190" t="s">
         <v>262</v>
       </c>
-      <c r="B190" t="s">
-        <v>264</v>
-      </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008139177928822156</v>
+        <v>0.008001413388121825</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D191" t="n">
-        <v>0.00801903283667757</v>
+        <v>0.00787396860699785</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>263</v>
+      </c>
+      <c r="B192" t="s">
         <v>265</v>
       </c>
-      <c r="B192" t="s">
-        <v>267</v>
-      </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D192" t="n">
-        <v>0.007895962899495124</v>
+        <v>0.007743860416108139</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B193" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0077701582561992</v>
+        <v>0.007611289136870758</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B194" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007641810912690561</v>
+        <v>0.007476456159189793</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
+        <v>267</v>
+      </c>
+      <c r="B195" t="s">
         <v>269</v>
       </c>
-      <c r="B195" t="s">
-        <v>271</v>
-      </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007511114259093399</v>
+        <v>0.00733956343949288</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B196" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007378262590753026</v>
+        <v>0.007200813005820594</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B197" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0072434506346160665</v>
+        <v>0.007060406471602221</v>
       </c>
     </row>
     <row r="198">
@@ -4178,13 +4178,13 @@
         <v>273</v>
       </c>
       <c r="B198" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>0.007106873082574017</v>
+        <v>0.0069185445597271245</v>
       </c>
     </row>
     <row r="199">
@@ -4192,27 +4192,27 @@
         <v>273</v>
       </c>
       <c r="B199" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006968724133300852</v>
+        <v>0.006775426638420123</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B200" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006829197044044166</v>
+        <v>0.006631250270362876</v>
       </c>
     </row>
     <row r="201">
@@ -4220,116 +4220,116 @@
         <v>277</v>
       </c>
       <c r="B201" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C201" t="s">
         <v>20</v>
       </c>
       <c r="D201" t="n">
-        <v>0.006688483693766678</v>
+        <v>0.006486210776419088</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B202" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006546774158964652</v>
+        <v>0.0063405008152238596</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>277</v>
+      </c>
+      <c r="B203" t="s">
         <v>280</v>
       </c>
-      <c r="B203" t="s">
-        <v>282</v>
-      </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0064042563034030775</v>
+        <v>0.0061943099798208445</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006261115382927673</v>
+        <v>0.006047824412411196</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="B205" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006117533666436692</v>
+        <v>0.00590122643820179</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
         <v>285</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.005973690073988569</v>
+        <v>0.005754694219222478</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="B207" t="s">
         <v>286</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.005829759832944759</v>
+        <v>0.005608401428884635</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
+        <v>284</v>
+      </c>
+      <c r="B208" t="s">
         <v>287</v>
       </c>
-      <c r="B208" t="s">
-        <v>288</v>
-      </c>
       <c r="C208" t="s">
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0056859141529467805</v>
+        <v>0.005462516947943197</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B209" t="s">
         <v>289</v>
@@ -4338,12 +4338,12 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005542319920424921</v>
+        <v>0.005317204582426516</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B210" t="s">
         <v>290</v>
@@ -4352,49 +4352,49 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0053991394132525405</v>
+        <v>0.005172622803984839</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
+        <v>288</v>
+      </c>
+      <c r="B211" t="s">
         <v>291</v>
       </c>
-      <c r="B211" t="s">
-        <v>292</v>
-      </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.005256530036046925</v>
+        <v>0.005028924513002797</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B212" t="s">
         <v>293</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.00511464407653317</v>
+        <v>0.0048862568247259874</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B213" t="s">
         <v>294</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.00497362848328009</v>
+        <v>0.004744760878536092</v>
       </c>
     </row>
     <row r="214">
@@ -4405,10 +4405,10 @@
         <v>296</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D214" t="n">
-        <v>0.004833624665030178</v>
+        <v>0.0046045716704199435</v>
       </c>
     </row>
     <row r="215">
@@ -4419,10 +4419,10 @@
         <v>297</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004694768311744313</v>
+        <v>0.004465817908568814</v>
       </c>
     </row>
     <row r="216">
@@ -4433,10 +4433,10 @@
         <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D216" t="n">
-        <v>0.00455718923739451</v>
+        <v>0.004328621891963369</v>
       </c>
     </row>
     <row r="217">
@@ -4447,10 +4447,10 @@
         <v>300</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004421011244440276</v>
+        <v>0.004193099411690104</v>
       </c>
     </row>
     <row r="218">
@@ -4461,52 +4461,52 @@
         <v>301</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D218" t="n">
-        <v>0.004286352009851335</v>
+        <v>0.004059359674668417</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
+        <v>299</v>
+      </c>
+      <c r="B219" t="s">
         <v>302</v>
       </c>
-      <c r="B219" t="s">
-        <v>303</v>
-      </c>
       <c r="C219" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004153322992436481</v>
+        <v>0.003927505249363361</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B220" t="s">
         <v>304</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D220" t="n">
-        <v>0.004022029361173685</v>
+        <v>0.003797632032993159</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B221" t="s">
         <v>305</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0038925699441519357</v>
+        <v>0.003669829239668465</v>
       </c>
     </row>
     <row r="222">
@@ -4520,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0037650371976637453</v>
+        <v>0.0035441794088185152</v>
       </c>
     </row>
     <row r="223">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0036395171949228367</v>
+        <v>0.0034207584332046626</v>
       </c>
     </row>
     <row r="224">
@@ -4548,7 +4548,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0035160896338087833</v>
+        <v>0.003299635605772455</v>
       </c>
     </row>
     <row r="225">
@@ -4559,10 +4559,10 @@
         <v>311</v>
       </c>
       <c r="C225" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0033948278629991058</v>
+        <v>0.003180873684508312</v>
       </c>
     </row>
     <row r="226">
@@ -4573,10 +4573,10 @@
         <v>312</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.003275798925770068</v>
+        <v>0.003064528974470182</v>
       </c>
     </row>
     <row r="227">
@@ -4587,10 +4587,10 @@
         <v>313</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0031590636207293743</v>
+        <v>0.00295065142607126</v>
       </c>
     </row>
     <row r="228">
@@ -4604,7 +4604,7 @@
         <v>20</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0030446765786670826</v>
+        <v>0.0028392847486818362</v>
       </c>
     </row>
     <row r="229">
@@ -4618,110 +4618,110 @@
         <v>20</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0029326863547099458</v>
+        <v>0.002730466538602261</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>314</v>
+      </c>
+      <c r="B230" t="s">
         <v>317</v>
       </c>
-      <c r="B230" t="s">
-        <v>318</v>
-      </c>
       <c r="C230" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0028231355348896092</v>
+        <v>0.002624228420393615</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B231" t="s">
         <v>319</v>
       </c>
       <c r="C231" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0027160608562503685</v>
+        <v>0.0025205962005754867</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B232" t="s">
         <v>320</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0026114933395611217</v>
+        <v>0.002419590032659069</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>318</v>
+      </c>
+      <c r="B233" t="s">
         <v>321</v>
       </c>
-      <c r="B233" t="s">
-        <v>322</v>
-      </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>0.002509458433709977</v>
+        <v>0.0023212245924948416</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B234" t="s">
         <v>323</v>
       </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0024099761708225587</v>
+        <v>0.0022255092628960665</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>322</v>
+      </c>
+      <c r="B235" t="s">
         <v>324</v>
       </c>
-      <c r="B235" t="s">
-        <v>325</v>
-      </c>
       <c r="C235" t="s">
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>0.002313061331154276</v>
+        <v>0.0021324483265143315</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B236" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002218723616800977</v>
+        <v>0.0020420411659433507</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B237" t="s">
         <v>327</v>
@@ -4730,348 +4730,348 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0021269678332603292</v>
+        <v>0.00195428247004098</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>326</v>
+      </c>
+      <c r="B238" t="s">
         <v>328</v>
       </c>
-      <c r="B238" t="s">
-        <v>329</v>
-      </c>
       <c r="C238" t="s">
         <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0020377940779093065</v>
+        <v>0.0018691624454764064</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B239" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0019511979344419075</v>
+        <v>0.001786667032529561</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>330</v>
+      </c>
+      <c r="B240" t="s">
         <v>331</v>
       </c>
-      <c r="B240" t="s">
-        <v>332</v>
-      </c>
       <c r="C240" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0018671706723533618</v>
+        <v>0.001706778124191087</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B241" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D241" t="n">
-        <v>0.00178569945055633</v>
+        <v>0.0016294737876420967</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
+        <v>330</v>
+      </c>
+      <c r="B242" t="s">
         <v>333</v>
       </c>
-      <c r="B242" t="s">
-        <v>335</v>
-      </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0017067675242444826</v>
+        <v>0.0015547284872225453</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B243" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0016303544541427135</v>
+        <v>0.001482513308027112</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B244" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0015564363173090866</v>
+        <v>0.0014127961793104424</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
+        <v>334</v>
+      </c>
+      <c r="B245" t="s">
         <v>337</v>
       </c>
-      <c r="B245" t="s">
-        <v>339</v>
-      </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0014849859186845948</v>
+        <v>0.001345542096913635</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B246" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D246" t="n">
-        <v>0.001415973002619992</v>
+        <v>0.0012807133439713715</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B247" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0013493644636440177</v>
+        <v>0.0012182697091960397</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>338</v>
+      </c>
+      <c r="B248" t="s">
         <v>341</v>
       </c>
-      <c r="B248" t="s">
-        <v>343</v>
-      </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0012851245557729367</v>
+        <v>0.0011581687020802353</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B249" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>0.001223215099698756</v>
+        <v>0.0011003657644037615</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B250" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0011635956872381795</v>
+        <v>0.0010448144774759527</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
+        <v>342</v>
+      </c>
+      <c r="B251" t="s">
         <v>345</v>
       </c>
-      <c r="B251" t="s">
-        <v>347</v>
-      </c>
       <c r="C251" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>0.001106223882455612</v>
+        <v>9.914667645886284E-4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B252" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C252" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0010510554189258302</v>
+        <v>9.4027308820222E-4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="B253" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D253" t="n">
-        <v>9.98044392634203E-4</v>
+        <v>8.911826414325676E-4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="B254" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D254" t="n">
-        <v>9.471434500596884E-4</v>
+        <v>8.441435334519565E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>53</v>
+        <v>350</v>
       </c>
       <c r="B255" t="s">
         <v>351</v>
       </c>
       <c r="C255" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D255" t="n">
-        <v>8.983039710281828E-4</v>
+        <v>7.991029684615656E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
+        <v>350</v>
+      </c>
+      <c r="B256" t="s">
         <v>352</v>
       </c>
-      <c r="B256" t="s">
-        <v>353</v>
-      </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D256" t="n">
-        <v>8.514762459619768E-4</v>
+        <v>7.560074179392348E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B257" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C257" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D257" t="n">
-        <v>8.066096471967561E-4</v>
+        <v>7.148027859064602E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B258" t="s">
         <v>355</v>
       </c>
       <c r="C258" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>7.636527940765771E-4</v>
+        <v>6.754345670046159E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
+        <v>354</v>
+      </c>
+      <c r="B259" t="s">
         <v>356</v>
       </c>
-      <c r="B259" t="s">
-        <v>357</v>
-      </c>
       <c r="C259" t="s">
         <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>7.225537115761339E-4</v>
+        <v>6.378479972081845E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B260" t="s">
         <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D260" t="n">
-        <v>6.832599822432627E-4</v>
+        <v>6.019881970437992E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B261" t="s">
         <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D261" t="n">
-        <v>6.457188912877086E-4</v>
+        <v>5.678003072227041E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="B262" t="s">
         <v>360</v>
@@ -5080,945 +5080,903 @@
         <v>20</v>
       </c>
       <c r="D262" t="n">
-        <v>6.09877564681522E-4</v>
+        <v>5.352296166285641E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="B263" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>5.75683100174345E-4</v>
+        <v>5.042216826400938E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="B264" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>5.43082691154646E-4</v>
+        <v>4.7472244379676096E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B265" t="s">
         <v>364</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>5.120237433281641E-4</v>
+        <v>4.466783248521138E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B266" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C266" t="s">
         <v>20</v>
       </c>
       <c r="D266" t="n">
-        <v>4.824539842088653E-4</v>
+        <v>4.2003633428263753E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B267" t="s">
         <v>367</v>
       </c>
       <c r="C267" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D267" t="n">
-        <v>4.543215654519185E-4</v>
+        <v>3.947441543507447E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B268" t="s">
         <v>368</v>
       </c>
       <c r="C268" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D268" t="n">
-        <v>4.275751580824312E-4</v>
+        <v>3.7075022384453274E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B269" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C269" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>4.021640407006061E-4</v>
+        <v>3.4800381363824656E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B270" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>3.7803818076759255E-4</v>
+        <v>3.264550952407448E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B271" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>3.5514830909745294E-4</v>
+        <v>3.0605520251580226E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B272" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D272" t="n">
-        <v>3.334459877019219E-4</v>
+        <v>2.8675628677612324E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B273" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C273" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D273" t="n">
-        <v>3.128836711511684E-4</v>
+        <v>2.685115654673582E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B274" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C274" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D274" t="n">
-        <v>2.934147616313089E-4</v>
+        <v>2.5127536467106117E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B275" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D275" t="n">
-        <v>2.749936578935776E-4</v>
+        <v>2.350031556671386E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B276" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D276" t="n">
-        <v>2.5757579830194485E-4</v>
+        <v>2.196515858046309E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B277" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D277" t="n">
-        <v>2.4111769819820618E-4</v>
+        <v>2.051785039379095E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B278" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>2.2557698181192723E-4</v>
+        <v>1.9154298069050174E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B279" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>2.1091240895034554E-4</v>
+        <v>1.7870532381336016E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B280" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C280" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>1.9708389670976788E-4</v>
+        <v>1.6662708890660205E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B281" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D281" t="n">
-        <v>1.8405253645418498E-4</v>
+        <v>1.552710857751409E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B282" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D282" t="n">
-        <v>1.7178060631032168E-4</v>
+        <v>1.446013806885721E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B283" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D283" t="n">
-        <v>1.6023157942950594E-4</v>
+        <v>1.3458329481400716E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B284" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D284" t="n">
-        <v>1.4937012826828425E-4</v>
+        <v>1.251833990880023E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B285" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C285" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1.3916212513780959E-4</v>
+        <v>1.1636950579053409E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B286" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C286" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>1.2957463927132568E-4</v>
+        <v>1.081106570785743E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B287" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>1.2057593065556665E-4</v>
+        <v>1.0037711073193319E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B288" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C288" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>1.1213544086855756E-4</v>
+        <v>9.314032335766488E-5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B289" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>1.0422378116138175E-4</v>
+        <v>8.63729312918257E-5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B290" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>9.681271801642642E-5</v>
+        <v>8.004872943049072E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B291" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D291" t="n">
-        <v>8.987515640830829E-5</v>
+        <v>7.414264821313911E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B292" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C292" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D292" t="n">
-        <v>8.338512098711567E-5</v>
+        <v>6.863072897325088E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B293" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C293" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D293" t="n">
-        <v>7.731773539636569E-5</v>
+        <v>6.349009786186198E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B294" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C294" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>7.164919993040005E-5</v>
+        <v>5.86989385404753E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B295" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>6.635676772785118E-5</v>
+        <v>5.423646383035763E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B296" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C296" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>6.141871968951159E-5</v>
+        <v>5.008288649533928E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B297" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C297" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D297" t="n">
-        <v>5.681433830018927E-5</v>
+        <v>4.621938932571296E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B298" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C298" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D298" t="n">
-        <v>5.252388052537631E-5</v>
+        <v>4.262809468069179E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B299" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C299" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D299" t="n">
-        <v>4.852854994461377E-5</v>
+        <v>3.9292033637374206E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B300" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>4.481046827436606E-5</v>
+        <v>3.619511488419188E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B301" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>4.135264642417789E-5</v>
+        <v>3.33220934872504E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B302" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C302" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>3.813895522087376E-5</v>
+        <v>3.0658539648508256E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B303" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>3.515409592659747E-5</v>
+        <v>2.819080756537274E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B304" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D304" t="n">
-        <v>3.238357066763324E-5</v>
+        <v>2.590600449226335E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B305" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D305" t="n">
-        <v>2.9813652882273263E-5</v>
+        <v>2.3791960095851023E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B306" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C306" t="s">
         <v>20</v>
       </c>
       <c r="D306" t="n">
-        <v>2.7431357887465772E-5</v>
+        <v>2.1837196187108715E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B307" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C307" t="s">
         <v>20</v>
       </c>
       <c r="D307" t="n">
-        <v>2.522441365566475E-5</v>
+        <v>2.003089690510987E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B308" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C308" t="s">
         <v>20</v>
       </c>
       <c r="D308" t="n">
-        <v>2.3181231885272642E-5</v>
+        <v>1.8362879419548344E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B309" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C309" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>2.1290879440200792E-5</v>
+        <v>1.682356521137942E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B310" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C310" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D310" t="n">
-        <v>1.954305022660525E-5</v>
+        <v>1.5403951983728218E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B311" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C311" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D311" t="n">
-        <v>1.7928037567560833E-5</v>
+        <v>1.4095586248347115E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B312" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C312" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>1.643670712956106E-5</v>
+        <v>1.2890536626352316E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B313" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C313" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>1.5060470448099457E-5</v>
+        <v>1.1781367895842996E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B314" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C314" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>1.3791259093304405E-5</v>
+        <v>1.0761115813190622E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B315" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C315" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>1.2621499510665645E-5</v>
+        <v>9.823262729393502E-6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B316" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C316" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>1.1544088566276325E-5</v>
+        <v>8.961714017816536E-6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B317" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C317" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>1.0552369820720126E-5</v>
+        <v>8.170775324941725E-6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B318" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C318" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>9.640110550817967E-6</v>
+        <v>7.445130651425206E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B319" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C319" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>8.80147953381359E-6</v>
+        <v>6.779821266730075E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B320" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C320" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>8.031025604305953E-6</v>
+        <v>6.170225456973041E-6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="B321" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C321" t="s">
         <v>20</v>
       </c>
       <c r="D321" t="n">
-        <v>7.323656990276958E-6</v>
+        <v>5.6120391022571105E-6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="B322" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C322" t="s">
         <v>20</v>
       </c>
       <c r="D322" t="n">
-        <v>6.674621430901974E-6</v>
+        <v>5.101257076749188E-6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="B323" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C323" t="s">
         <v>20</v>
       </c>
       <c r="D323" t="n">
-        <v>6.079487075495497E-6</v>
+        <v>4.634155462039546E-6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B324" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C324" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D324" t="n">
-        <v>5.534124159898622E-6</v>
+        <v>4.2072745618769255E-6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B325" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C325" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D325" t="n">
-        <v>5.034687453838958E-6</v>
+        <v>3.817402704218463E-6</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B326" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C326" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D326" t="n">
-        <v>4.577599470319908E-6</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>447</v>
-      </c>
-      <c r="B327" t="s">
-        <v>448</v>
-      </c>
-      <c r="C327" t="s">
-        <v>6</v>
-      </c>
-      <c r="D327" t="n">
-        <v>4.159534425859075E-6</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>447</v>
-      </c>
-      <c r="B328" t="s">
-        <v>449</v>
-      </c>
-      <c r="C328" t="s">
-        <v>6</v>
-      </c>
-      <c r="D328" t="n">
-        <v>3.7774029384221653E-6</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>447</v>
-      </c>
-      <c r="B329" t="s">
-        <v>450</v>
-      </c>
-      <c r="C329" t="s">
-        <v>6</v>
-      </c>
-      <c r="D329" t="n">
-        <v>3.4283374481656375E-6</v>
+        <v>3.4615608146364626E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="448">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,571 +26,1258 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Barney Gumble</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
+    <t>Michael O'Leary</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>selling cheap airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a budget airline in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don Draper</t>
+  </si>
+  <si>
+    <t>Mad Men and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
+    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Adrian Monk</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>obsessively washing hands in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jamie Oliver</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Algonquin Round Table and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing for the New Yorker in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Kardashian</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flaunting buttocks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Annie Oakley</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling tickets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Optimus Prime</t>
+  </si>
+  <si>
+    <t>Transformers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autobots and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting decepticons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Oprah Winfrey</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>Romantic novels and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romantic literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing romantic fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Fiona</t>
+  </si>
+  <si>
+    <t>Fairy Tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>waiting for a hero in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Amy Schumer</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making vulgar jokes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ellen Ripley</t>
+  </si>
+  <si>
+    <t>Alien and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outer Space and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting aliens in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>avoiding growing old in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brexit and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robin Williams</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>Christianity and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
+  </si>
+  <si>
+    <t>hiding from the public in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding the public gaze in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>performing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing the banjo in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sammy Davis Jr.</t>
+  </si>
+  <si>
+    <t>Easy Listening and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rat Pack and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>G. Gordon Liddy</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>McDonalds and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mi6 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lee Marvin</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ricky Martin</t>
+  </si>
+  <si>
+    <t>Latin music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>enjoying salsa dancing in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tony Robbins</t>
+  </si>
+  <si>
+    <t>Neuro-Linguistic Programming and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Improvement and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Eric Cartman</t>
+  </si>
+  <si>
+    <t>South Park and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>executing morally appalling plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making racist jibes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Roy Batty</t>
+  </si>
+  <si>
+    <t>Blade Runner and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking for immortality in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sappho</t>
+  </si>
+  <si>
+    <t>Romantic poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Helen of Troy</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>worrying about adultery in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preparing for war in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Kent Brockman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Springfield and the Dagon mythos</t>
   </si>
   <si>
-    <t>drinking one's life away in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ali G</t>
-  </si>
-  <si>
-    <t>Ali G Indahouse and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Usain Bolt</t>
-  </si>
-  <si>
-    <t>Olympics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Racing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Running and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Family life and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
+    <t>reading the news in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>Formula One and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Car Racing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>driving fast cars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alfred Nobel</t>
+  </si>
+  <si>
+    <t>Chemistry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting pacifism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>the Beat generation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing beat fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>Hustler Magazine and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buddy Holly</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ed Wood</t>
+  </si>
+  <si>
+    <t>Bad Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making bad movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Rumsfeld</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting new wars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Vincent Van Gogh</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Post-Impressionism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting colorful pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lou Reed</t>
+  </si>
+  <si>
+    <t>The Velvet Revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Randolph Hearst</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> publishing newspapers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Springer</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nicolas Sarkozy</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>partying on yachts in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Ancient Egypt and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>seducing emperors in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Twain</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing folksy fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hustler Magazine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sinead O'Connor</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Oratory and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rhetoric and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dean Winchester</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Liz Lemon</t>
+  </si>
+  <si>
+    <t>30 Rock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing comedy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Asian politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for democracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>Game of Thrones and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jerry Seinfeld</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>watching TV in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ringo Starr</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Catherine The Great</t>
-  </si>
-  <si>
-    <t>Russian politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Russian history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Italian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italian poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Piers Morgan</t>
-  </si>
-  <si>
-    <t>Chat Shows and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lenny Bruce</t>
-  </si>
-  <si>
-    <t>Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> commenting on social issues in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>J.R.R. Tolkein</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James T. Kirk</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>Soul music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sean Penn</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+    <t>doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Love songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing romantic songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>flying airplanes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Woodward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>reporting the news in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Miss Havisham</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>Tomb Raider and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking for hidden treasures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>unearthing ancient tombs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sheldon Cooper</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt Groening</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing comedy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Environment and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pushing anti-trust legislation  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>working out in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> punishing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stabbing in the back in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Victor Meldrew</t>
+  </si>
+  <si>
+    <t>Modern Britain and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>complaining about everything in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Woody Allen</t>
+  </si>
+  <si>
+    <t>New York City and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Norman Bates</t>
+  </si>
+  <si>
+    <t>Psycho and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hitchcock movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lars von Trier</t>
+  </si>
+  <si>
+    <t>Dogme and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making new wave movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Willie Nelson</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hedda Gabler</t>
+  </si>
+  <si>
+    <t>Modern literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frowning at errant husbands in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a kingdom in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Brian Griffin</t>
+  </si>
+  <si>
+    <t>Family Guy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>reporting the news in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Karl Lagerfeld</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>24 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing terrorists in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Twin Peaks and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>directing weird movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>KFC and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fried Chicken and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Southern Food and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a bureaucracy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Saddam Hussein</t>
+  </si>
+  <si>
+    <t>Islamic Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>suppressing minorities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attacking neighbors in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Wayne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westerns and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in cowboy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running for the senate in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Melania Trump</t>
+  </si>
+  <si>
+    <t>posing for photographs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Doonesbury and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Political Cartoons and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>drawing political cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ross Geller</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying paleontology in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Niles Crane</t>
+  </si>
+  <si>
+    <t>Psychiatry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psychoanalysis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>nurturing sibling rivalry in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Philip Marlowe</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Roman politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Monica Lewinsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Clinton Era and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>conducting illicit affairs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> causing political scandals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>Cycling and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheating and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony Blair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the British Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Labour Party and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Katharine Hepburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Flash Gordon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the Earth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Silvio Berlusconi</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
   </si>
   <si>
     <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>Bradley Manning</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Norman Bates</t>
-  </si>
-  <si>
-    <t>Psycho and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hitchcock movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Walt Disney animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting movie violence in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in animated movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mother Teresa</t>
-  </si>
-  <si>
-    <t>Calcutta and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> India and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Christianity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Professor Hans Zarkov</t>
-  </si>
-  <si>
-    <t>Flash Gordon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>building rocket ships in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Niccolò Paganini</t>
-  </si>
-  <si>
-    <t>Violin music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing the violin in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oedipus Rex</t>
-  </si>
-  <si>
-    <t>the Ancient world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving riddles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>directing action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> entertaining teenagers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Winston Churchill</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>James Comey</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Law and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a bureaucracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hacking into computers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting openness in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> decrying secrecy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Violet Baudelaire</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Dean</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> racing fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Xena</t>
-  </si>
-  <si>
-    <t>Ancient Greece and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for justice in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Microsoft and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jon Stewart</t>
-  </si>
-  <si>
-    <t>Comedy Central and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Late-night TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Michael Corleone</t>
-  </si>
-  <si>
-    <t>The Godfather and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Friedrich Nietzsche</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Samwise Gamgee</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tending the garden in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lionel Hutz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>losing court cases in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> repairing shoes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nelson Mandela</t>
-  </si>
-  <si>
-    <t>South Africa and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apartheid and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tricking criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Cross-Dressing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Morgana Le Fay</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jimmy Cagney</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Cuban politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bette Davis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>stealing jewels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Martial Arts and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kung Fu and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jean-Paul Sartre</t>
+    <t xml:space="preserve"> Plastic Surgery and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>getting plastic surgery in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Space Operas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Green Lantern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guarding the galaxy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groundskeeper Willie MacDougal</t>
+  </si>
+  <si>
+    <t>cleaning floors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> burying dead hamsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simone de Beauvoir</t>
   </si>
   <si>
     <t>Continental philosophy and the Cthulu mythos</t>
@@ -602,769 +1289,73 @@
     <t xml:space="preserve"> French philosophy and the Cthulu mythos</t>
   </si>
   <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>the Roman Empire and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing citizens in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>mooching from neighbors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing crazy schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Longmire</t>
-  </si>
-  <si>
-    <t>Crime fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Detective fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Greg House</t>
-  </si>
-  <si>
-    <t>Diagnostic medicine and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> treating diseases in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diagnosing diseases in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johnny Carson</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Late-night TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ronald Reagan</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Amy Winehouse</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing jazz songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vulcan and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johnny Cash</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>Fashion and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Street Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing street magic in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tupac Shakur</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing rap songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>Musicals and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musical Theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making insipid musicals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oscar Pistorius</t>
-  </si>
-  <si>
-    <t>Olympics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Racing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Running and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>running a new-age website in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raising new-age children in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adrian Monk</t>
-  </si>
-  <si>
-    <t>obsessively washing hands in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Willy Wonka</t>
-  </si>
-  <si>
-    <t>the Confectionary business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Chocolate industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a business empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Golf and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nurse Ratched</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing employees in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Leia Organa</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>leading the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keyser Söze</t>
-  </si>
-  <si>
-    <t>The Usual Suspects and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Partridge</t>
-  </si>
-  <si>
-    <t>Regional Radio and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hosting radio shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph Goebbels</t>
-  </si>
-  <si>
-    <t>the Nazi Party and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Socialism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Third Reich and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wayne Gretzky</t>
-  </si>
-  <si>
-    <t>Ice Hockey and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing ice hockey in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Sparrow</t>
-  </si>
-  <si>
-    <t>Pirates of the Carribean and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>collecting pirate booty in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> commanding a pirate ship in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elton John</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love songs and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Geometry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Polonius</t>
-  </si>
-  <si>
-    <t>Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lara Croft</t>
-  </si>
-  <si>
-    <t>Tomb Raider and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking for hidden treasures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>unearthing ancient tombs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Poetry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sprung Rhyme and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>Prohibition and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chicago and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>the New Testament and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the 12 Apostles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Pepé Le Pew</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>France and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saddam Hussein</t>
-  </si>
-  <si>
-    <t>Islamic Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>suppressing minorities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Helen of Troy</t>
-  </si>
-  <si>
-    <t>worrying about adultery in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preparing for war in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Naomi Campbell</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Nick Fury</t>
-  </si>
-  <si>
-    <t>S.H.I.E.L.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a clandestine spy organization in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
-  </si>
-  <si>
-    <t>getting run over by cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jar Jar Binks</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> posing riddles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>American architecture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern architecture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>designing modern buildings in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ed Wood</t>
-  </si>
-  <si>
-    <t>Bad Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making bad movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Loki Laufeyson</t>
-  </si>
-  <si>
-    <t>Norse mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting against family members in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lou Reed</t>
-  </si>
-  <si>
-    <t>The Velvet Revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>avoiding growing old in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barbie</t>
-  </si>
-  <si>
-    <t>the Toy Industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting hair products in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nelson Muntz</t>
-  </si>
-  <si>
-    <t>bullying schoolkids in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stealing lunch money in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Mr. Krabs</t>
-  </si>
-  <si>
-    <t>Nickelodeon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a fast-food business in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing serious acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning Oscars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jor El</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Spider-Man</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sylvia Plath</t>
-  </si>
-  <si>
-    <t>Modern poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suicide and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jay Leno</t>
-  </si>
-  <si>
-    <t>Late-night TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chat Shows and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NBC and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Tony DiNozzo</t>
-  </si>
-  <si>
-    <t>NCIS and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>the Mongols and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mongolia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Spy spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bond spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spy movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Charlie Harper</t>
-  </si>
-  <si>
-    <t>American comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Two And A Half Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Peanuts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing baseball in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> worrying about life in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Prohibition and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chicago and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Leonardo Da Vinci</t>
-  </si>
-  <si>
-    <t>the Renaissance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Renaissance art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Florence and the Cthulu mythos</t>
+    <t>Michael J. Fox</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family Ties and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spin City and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>British legend and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Frida Kahlo</t>
+  </si>
+  <si>
+    <t>Mexican art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting colorful pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the British Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Labour Party and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Feminism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Woman's movement and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting feminism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
         <v>4.634155462039594E-6</v>
@@ -1490,10 +1481,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>5.101257076749385E-6</v>
@@ -1504,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>5.612039102257151E-6</v>
@@ -1515,13 +1506,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>6.170225456973149E-6</v>
@@ -1529,13 +1520,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
         <v>6.779821266729818E-6</v>
@@ -1543,13 +1534,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
         <v>7.445130651425206E-6</v>
@@ -1557,13 +1548,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>8.170775324941725E-6</v>
@@ -1571,13 +1562,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>8.961714017816536E-6</v>
@@ -1585,13 +1576,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
         <v>9.823262729393502E-6</v>
@@ -1605,7 +1596,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
         <v>1.0761115813190405E-5</v>
@@ -1619,7 +1610,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
         <v>1.1781367895843212E-5</v>
@@ -1633,7 +1624,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
         <v>1.2890536626352695E-5</v>
@@ -1647,7 +1638,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>1.4095586248346736E-5</v>
@@ -1661,7 +1652,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>1.5403951983728218E-5</v>
@@ -1675,7 +1666,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>1.682356521137942E-5</v>
@@ -1689,7 +1680,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>1.8362879419548344E-5</v>
@@ -1703,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
         <v>2.003089690510987E-5</v>
@@ -1717,7 +1708,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
         <v>2.1837196187108715E-5</v>
@@ -1731,7 +1722,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>2.3791960095851023E-5</v>
@@ -1745,7 +1736,7 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>2.590600449226335E-5</v>
@@ -1759,7 +1750,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
         <v>2.8190807565371982E-5</v>
@@ -1773,7 +1764,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
         <v>3.0658539648509015E-5</v>
@@ -1787,7 +1778,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" t="n">
         <v>3.3322093487251595E-5</v>
@@ -1801,7 +1792,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
         <v>3.619511488419069E-5</v>
@@ -1815,7 +1806,7 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
         <v>3.9292033637374206E-5</v>
@@ -1829,7 +1820,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
         <v>4.262809468069179E-5</v>
@@ -1837,13 +1828,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
         <v>4.621938932571296E-5</v>
@@ -1851,13 +1842,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
         <v>5.008288649533928E-5</v>
@@ -1865,13 +1856,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
         <v>5.423646383035763E-5</v>
@@ -1879,13 +1870,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
         <v>5.869893854047422E-5</v>
@@ -1893,13 +1884,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
         <v>6.349009786186133E-5</v>
@@ -1907,13 +1898,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
         <v>6.863072897325445E-5</v>
@@ -1921,13 +1912,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
         <v>7.414264821313803E-5</v>
@@ -1935,13 +1926,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
         <v>8.004872943048996E-5</v>
@@ -1949,13 +1940,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
         <v>8.63729312918257E-5</v>
@@ -1969,7 +1960,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
         <v>9.314032335766488E-5</v>
@@ -1983,7 +1974,7 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
         <v>1.0037711073193319E-4</v>
@@ -1997,7 +1988,7 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
         <v>1.081106570785743E-4</v>
@@ -2011,7 +2002,7 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
         <v>1.1636950579053409E-4</v>
@@ -2025,7 +2016,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
         <v>1.251833990880023E-4</v>
@@ -2039,7 +2030,7 @@
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
         <v>1.345832948140024E-4</v>
@@ -2053,7 +2044,7 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
         <v>1.4460138068857968E-4</v>
@@ -2067,7 +2058,7 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
         <v>1.552710857751381E-4</v>
@@ -2081,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
         <v>1.6662708890660205E-4</v>
@@ -2095,7 +2086,7 @@
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
         <v>1.7870532381336016E-4</v>
@@ -2109,7 +2100,7 @@
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
         <v>1.9154298069050174E-4</v>
@@ -2117,13 +2108,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
         <v>2.051785039379095E-4</v>
@@ -2131,13 +2122,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
         <v>2.196515858046309E-4</v>
@@ -2145,13 +2136,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
         <v>2.350031556671386E-4</v>
@@ -2165,7 +2156,7 @@
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
         <v>2.512753646710564E-4</v>
@@ -2179,7 +2170,7 @@
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
         <v>2.685115654673595E-4</v>
@@ -2193,7 +2184,7 @@
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
         <v>2.867562867761319E-4</v>
@@ -2207,7 +2198,7 @@
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
         <v>3.0605520251579706E-4</v>
@@ -2221,7 +2212,7 @@
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
         <v>3.264550952407448E-4</v>
@@ -2235,7 +2226,7 @@
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
         <v>3.4800381363824656E-4</v>
@@ -2249,7 +2240,7 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
         <v>3.7075022384453274E-4</v>
@@ -2263,7 +2254,7 @@
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
         <v>3.947441543507447E-4</v>
@@ -2277,7 +2268,7 @@
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
         <v>4.2003633428263753E-4</v>
@@ -2291,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D63" t="n">
         <v>4.466783248521138E-4</v>
@@ -2305,7 +2296,7 @@
         <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D64" t="n">
         <v>4.747224437967601E-4</v>
@@ -2319,7 +2310,7 @@
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D65" t="n">
         <v>5.042216826400808E-4</v>
@@ -2333,7 +2324,7 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
         <v>5.352296166285953E-4</v>
@@ -2347,7 +2338,7 @@
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
         <v>5.678003072226868E-4</v>
@@ -2361,7 +2352,7 @@
         <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
         <v>6.019881970437992E-4</v>
@@ -2375,7 +2366,7 @@
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69" t="n">
         <v>6.378479972081845E-4</v>
@@ -2389,7 +2380,7 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" t="n">
         <v>6.754345670046159E-4</v>
@@ -2403,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" t="n">
         <v>7.148027859064602E-4</v>
@@ -2417,7 +2408,7 @@
         <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
         <v>7.560074179392348E-4</v>
@@ -2431,7 +2422,7 @@
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
         <v>7.991029684615656E-4</v>
@@ -2445,7 +2436,7 @@
         <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
         <v>8.441435334519323E-4</v>
@@ -2501,7 +2492,7 @@
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
         <v>0.0010448144774759527</v>
@@ -2515,7 +2506,7 @@
         <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
         <v>0.0011003657644037615</v>
@@ -2529,7 +2520,7 @@
         <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
         <v>0.0011581687020802353</v>
@@ -2543,7 +2534,7 @@
         <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
         <v>0.0012182697091960397</v>
@@ -2551,13 +2542,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
         <v>115</v>
       </c>
-      <c r="B82" t="s">
-        <v>116</v>
-      </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D82" t="n">
         <v>0.0012807133439713715</v>
@@ -2565,13 +2556,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
         <v>0.0013455420969136385</v>
@@ -2579,7 +2570,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
         <v>118</v>
@@ -2593,10 +2584,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
         <v>119</v>
-      </c>
-      <c r="B85" t="s">
-        <v>120</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -2607,10 +2598,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2621,13 +2612,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
         <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
         <v>0.0016294737876420967</v>
@@ -2635,13 +2626,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
         <v>123</v>
       </c>
-      <c r="B88" t="s">
-        <v>124</v>
-      </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
         <v>0.0017067781241910489</v>
@@ -2649,13 +2640,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
         <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
         <v>0.001786667032529561</v>
@@ -2663,13 +2654,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
         <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D90" t="n">
         <v>0.0018691624454764064</v>
@@ -2677,13 +2668,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
         <v>127</v>
       </c>
-      <c r="B91" t="s">
-        <v>128</v>
-      </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D91" t="n">
         <v>0.00195428247004098</v>
@@ -2691,13 +2682,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
         <v>0.0020420411659433507</v>
@@ -2705,13 +2696,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
         <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D93" t="n">
         <v>0.0021324483265143385</v>
@@ -2719,13 +2710,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" t="s">
         <v>131</v>
       </c>
-      <c r="B94" t="s">
-        <v>132</v>
-      </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D94" t="n">
         <v>0.002225509262896115</v>
@@ -2733,13 +2724,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
         <v>0.0023212245924947306</v>
@@ -2747,13 +2738,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
         <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
         <v>0.0024195900326592357</v>
@@ -2761,13 +2752,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" t="s">
         <v>135</v>
       </c>
-      <c r="B97" t="s">
-        <v>136</v>
-      </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D97" t="n">
         <v>0.0025205962005753757</v>
@@ -2775,7 +2766,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
         <v>137</v>
@@ -2789,7 +2780,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
         <v>138</v>
@@ -2803,13 +2794,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" t="s">
         <v>139</v>
       </c>
-      <c r="B100" t="s">
-        <v>140</v>
-      </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
         <v>0.0028392847486818362</v>
@@ -2817,13 +2808,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
         <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D101" t="n">
         <v>0.00295065142607126</v>
@@ -2831,13 +2822,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" t="s">
         <v>142</v>
       </c>
-      <c r="B102" t="s">
-        <v>143</v>
-      </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
         <v>0.003064528974470182</v>
@@ -2845,13 +2836,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
         <v>0.003180873684508201</v>
@@ -2859,13 +2850,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
         <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
         <v>0.003299635605772455</v>
@@ -2873,13 +2864,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" t="s">
         <v>146</v>
       </c>
-      <c r="B105" t="s">
-        <v>147</v>
-      </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D105" t="n">
         <v>0.003420758433204718</v>
@@ -2887,13 +2878,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
         <v>0.0035441794088185707</v>
@@ -2901,7 +2892,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
         <v>149</v>
@@ -2915,10 +2906,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" t="s">
         <v>150</v>
-      </c>
-      <c r="B108" t="s">
-        <v>151</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -2929,13 +2920,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
         <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D109" t="n">
         <v>0.003927505249363361</v>
@@ -2943,13 +2934,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
         <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
         <v>0.004059359674668417</v>
@@ -2957,13 +2948,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" t="s">
         <v>154</v>
       </c>
-      <c r="B111" t="s">
-        <v>155</v>
-      </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
         <v>0.004193099411690104</v>
@@ -2971,13 +2962,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
         <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D112" t="n">
         <v>0.004328621891963369</v>
@@ -2985,13 +2976,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
         <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D113" t="n">
         <v>0.00446581790856887</v>
@@ -2999,13 +2990,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" t="s">
         <v>158</v>
       </c>
-      <c r="B114" t="s">
-        <v>159</v>
-      </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
         <v>0.0046045716704199435</v>
@@ -3013,13 +3004,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
         <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
         <v>0.004744760878536036</v>
@@ -3027,13 +3018,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
         <v>161</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
         <v>0.0048862568247259874</v>
@@ -3041,13 +3032,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" t="s">
         <v>162</v>
       </c>
-      <c r="B117" t="s">
-        <v>163</v>
-      </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
         <v>0.005028924513002797</v>
@@ -3055,13 +3046,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" t="s">
         <v>164</v>
       </c>
-      <c r="B118" t="s">
-        <v>165</v>
-      </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D118" t="n">
         <v>0.005172622803984839</v>
@@ -3069,13 +3060,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D119" t="n">
         <v>0.005317204582426516</v>
@@ -3083,13 +3074,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D120" t="n">
         <v>0.005462516947943197</v>
@@ -3097,13 +3088,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>167</v>
+      </c>
+      <c r="B121" t="s">
         <v>168</v>
       </c>
-      <c r="B121" t="s">
-        <v>169</v>
-      </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D121" t="n">
         <v>0.005608401428884635</v>
@@ -3111,13 +3102,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D122" t="n">
         <v>0.005754694219222312</v>
@@ -3125,13 +3116,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
         <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D123" t="n">
         <v>0.00590122643820179</v>
@@ -3139,13 +3130,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124" t="s">
         <v>172</v>
       </c>
-      <c r="B124" t="s">
-        <v>173</v>
-      </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
         <v>0.006047824412411307</v>
@@ -3153,13 +3144,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
         <v>0.006194309979821011</v>
@@ -3170,10 +3161,10 @@
         <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126" t="n">
         <v>0.006340500815223915</v>
@@ -3184,10 +3175,10 @@
         <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D127" t="n">
         <v>0.006486210776418921</v>
@@ -3195,13 +3186,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D128" t="n">
         <v>0.006631250270362876</v>
@@ -3212,10 +3203,10 @@
         <v>178</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
         <v>0.006775426638420123</v>
@@ -3223,13 +3214,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
         <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
         <v>0.0069185445597271245</v>
@@ -3237,13 +3228,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" t="s">
         <v>182</v>
       </c>
-      <c r="B131" t="s">
-        <v>183</v>
-      </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
         <v>0.007060406471602221</v>
@@ -3251,10 +3242,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -3268,10 +3259,10 @@
         <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D133" t="n">
         <v>0.007339563439492824</v>
@@ -3282,10 +3273,10 @@
         <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D134" t="n">
         <v>0.007476456159189848</v>
@@ -3293,13 +3284,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B135" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D135" t="n">
         <v>0.0076112891368709246</v>
@@ -3310,10 +3301,10 @@
         <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D136" t="n">
         <v>0.007743860416108139</v>
@@ -3324,10 +3315,10 @@
         <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D137" t="n">
         <v>0.007873968606997739</v>
@@ -3335,13 +3326,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B138" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D138" t="n">
         <v>0.008001413388121825</v>
@@ -3352,10 +3343,10 @@
         <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D139" t="n">
         <v>0.008125996013826547</v>
@@ -3366,10 +3357,10 @@
         <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D140" t="n">
         <v>0.008247519825057392</v>
@@ -3377,13 +3368,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D141" t="n">
         <v>0.008365790761936581</v>
@@ -3394,10 +3385,10 @@
         <v>196</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
         <v>0.008480617876228974</v>
@@ -3408,10 +3399,10 @@
         <v>196</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
         <v>0.008591813841827112</v>
@@ -3419,13 +3410,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B144" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D144" t="n">
         <v>0.008699195461347342</v>
@@ -3436,10 +3427,10 @@
         <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D145" t="n">
         <v>0.008802584166946181</v>
@@ -3450,10 +3441,10 @@
         <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D146" t="n">
         <v>0.008901806513434168</v>
@@ -3461,13 +3452,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D147" t="n">
         <v>0.00899669466179942</v>
@@ -3478,10 +3469,10 @@
         <v>204</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D148" t="n">
         <v>0.00908708685125531</v>
@@ -3489,13 +3480,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
         <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
         <v>0.00917282785795745</v>
@@ -3503,10 +3494,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>206</v>
+      </c>
+      <c r="B150" t="s">
         <v>208</v>
-      </c>
-      <c r="B150" t="s">
-        <v>209</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
@@ -3517,7 +3508,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
         <v>210</v>
@@ -3531,7 +3522,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B152" t="s">
         <v>211</v>
@@ -3551,7 +3542,7 @@
         <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D153" t="n">
         <v>0.009466428726000758</v>
@@ -3565,7 +3556,7 @@
         <v>214</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D154" t="n">
         <v>0.009526844309339574</v>
@@ -3573,13 +3564,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="B155" t="s">
         <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
         <v>0.009581838204123491</v>
@@ -3587,13 +3578,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156" t="s">
         <v>216</v>
       </c>
-      <c r="B156" t="s">
-        <v>217</v>
-      </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
         <v>0.009631312301327077</v>
@@ -3601,13 +3592,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
         <v>0.009675178012518021</v>
@@ -3615,13 +3606,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
         <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D158" t="n">
         <v>0.009713356534160215</v>
@@ -3629,13 +3620,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>218</v>
+      </c>
+      <c r="B159" t="s">
         <v>220</v>
       </c>
-      <c r="B159" t="s">
-        <v>221</v>
-      </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D159" t="n">
         <v>0.0097457790834993</v>
@@ -3643,13 +3634,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B160" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160" t="n">
         <v>0.009772387105050136</v>
@@ -3657,13 +3648,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B161" t="s">
         <v>223</v>
       </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
         <v>0.009793132446810581</v>
@@ -3671,13 +3662,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" t="s">
         <v>224</v>
       </c>
-      <c r="B162" t="s">
-        <v>225</v>
-      </c>
       <c r="C162" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
         <v>0.00980797750546438</v>
@@ -3685,13 +3676,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D163" t="n">
         <v>0.00981689533995939</v>
@@ -3699,13 +3690,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="B164" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
         <v>0.009819869752977611</v>
@@ -3713,10 +3704,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="B165" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -3727,10 +3718,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>47</v>
+      </c>
+      <c r="B166" t="s">
         <v>228</v>
-      </c>
-      <c r="B166" t="s">
-        <v>230</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -3741,10 +3732,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
@@ -3755,13 +3746,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B168" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
         <v>0.009772387105050136</v>
@@ -3769,13 +3760,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>229</v>
+      </c>
+      <c r="B169" t="s">
         <v>232</v>
       </c>
-      <c r="B169" t="s">
-        <v>234</v>
-      </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D169" t="n">
         <v>0.0097457790834993</v>
@@ -3783,13 +3774,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D170" t="n">
         <v>0.009713356534160215</v>
@@ -3797,13 +3788,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>233</v>
+      </c>
+      <c r="B171" t="s">
         <v>235</v>
       </c>
-      <c r="B171" t="s">
-        <v>237</v>
-      </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D171" t="n">
         <v>0.009675178012518215</v>
@@ -3811,13 +3802,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D172" t="n">
         <v>0.009631312301327064</v>
@@ -3825,13 +3816,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D173" t="n">
         <v>0.009581838204123436</v>
@@ -3839,13 +3830,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>237</v>
+      </c>
+      <c r="B174" t="s">
         <v>239</v>
       </c>
-      <c r="B174" t="s">
-        <v>241</v>
-      </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D174" t="n">
         <v>0.009526844309339297</v>
@@ -3853,13 +3844,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D175" t="n">
         <v>0.00946642872600073</v>
@@ -3867,13 +3858,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D176" t="n">
         <v>0.009400698792113055</v>
@@ -3881,13 +3872,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>241</v>
+      </c>
+      <c r="B177" t="s">
         <v>243</v>
       </c>
-      <c r="B177" t="s">
-        <v>245</v>
-      </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D177" t="n">
         <v>0.00932977075695332</v>
@@ -3895,13 +3886,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D178" t="n">
         <v>0.009253769438576864</v>
@@ -3909,13 +3900,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D179" t="n">
         <v>0.00917282785795745</v>
@@ -3923,13 +3914,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>244</v>
+      </c>
+      <c r="B180" t="s">
         <v>247</v>
       </c>
-      <c r="B180" t="s">
-        <v>249</v>
-      </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D180" t="n">
         <v>0.00908708685125531</v>
@@ -3937,13 +3928,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D181" t="n">
         <v>0.008996694661799504</v>
@@ -3951,13 +3942,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B182" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D182" t="n">
         <v>0.008901806513434224</v>
@@ -3965,13 +3956,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" t="s">
         <v>251</v>
       </c>
-      <c r="B183" t="s">
-        <v>253</v>
-      </c>
       <c r="C183" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D183" t="n">
         <v>0.008802584166946126</v>
@@ -3979,13 +3970,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C184" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D184" t="n">
         <v>0.00869919546134712</v>
@@ -3993,13 +3984,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>254</v>
+      </c>
+      <c r="B185" t="s">
         <v>255</v>
       </c>
-      <c r="B185" t="s">
-        <v>256</v>
-      </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D185" t="n">
         <v>0.008591813841827112</v>
@@ -4007,13 +3998,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B186" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D186" t="n">
         <v>0.008480617876229113</v>
@@ -4021,13 +4012,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B187" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
         <v>0.008365790761936581</v>
@@ -4035,13 +4026,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>258</v>
+      </c>
+      <c r="B188" t="s">
         <v>259</v>
       </c>
-      <c r="B188" t="s">
-        <v>260</v>
-      </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
         <v>0.008247519825057392</v>
@@ -4049,13 +4040,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D189" t="n">
         <v>0.008125996013826547</v>
@@ -4063,13 +4054,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B190" t="s">
         <v>262</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D190" t="n">
         <v>0.008001413388121825</v>
@@ -4077,13 +4068,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>261</v>
+      </c>
+      <c r="B191" t="s">
         <v>263</v>
       </c>
-      <c r="B191" t="s">
-        <v>264</v>
-      </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D191" t="n">
         <v>0.00787396860699785</v>
@@ -4091,13 +4082,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D192" t="n">
         <v>0.007743860416108139</v>
@@ -4105,13 +4096,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B193" t="s">
         <v>266</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D193" t="n">
         <v>0.007611289136870758</v>
@@ -4119,13 +4110,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>265</v>
+      </c>
+      <c r="B194" t="s">
         <v>267</v>
       </c>
-      <c r="B194" t="s">
-        <v>268</v>
-      </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D194" t="n">
         <v>0.007476456159189793</v>
@@ -4133,13 +4124,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D195" t="n">
         <v>0.00733956343949288</v>
@@ -4147,10 +4138,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>269</v>
+      </c>
+      <c r="B196" t="s">
         <v>270</v>
-      </c>
-      <c r="B196" t="s">
-        <v>271</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -4161,13 +4152,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B197" t="s">
         <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D197" t="n">
         <v>0.007060406471602221</v>
@@ -4181,7 +4172,7 @@
         <v>274</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D198" t="n">
         <v>0.0069185445597271245</v>
@@ -4195,7 +4186,7 @@
         <v>275</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D199" t="n">
         <v>0.006775426638420123</v>
@@ -4209,7 +4200,7 @@
         <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D200" t="n">
         <v>0.006631250270362876</v>
@@ -4223,7 +4214,7 @@
         <v>278</v>
       </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D201" t="n">
         <v>0.006486210776419088</v>
@@ -4237,7 +4228,7 @@
         <v>279</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D202" t="n">
         <v>0.0063405008152238596</v>
@@ -4251,7 +4242,7 @@
         <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D203" t="n">
         <v>0.0061943099798208445</v>
@@ -4287,10 +4278,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>281</v>
+      </c>
+      <c r="B206" t="s">
         <v>284</v>
-      </c>
-      <c r="B206" t="s">
-        <v>285</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -4301,13 +4292,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B207" t="s">
         <v>286</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D207" t="n">
         <v>0.005608401428884635</v>
@@ -4315,13 +4306,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
         <v>287</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D208" t="n">
         <v>0.005462516947943197</v>
@@ -4329,13 +4320,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>285</v>
+      </c>
+      <c r="B209" t="s">
         <v>288</v>
       </c>
-      <c r="B209" t="s">
-        <v>289</v>
-      </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D209" t="n">
         <v>0.005317204582426516</v>
@@ -4343,13 +4334,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B210" t="s">
         <v>290</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D210" t="n">
         <v>0.005172622803984839</v>
@@ -4357,13 +4348,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
         <v>291</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D211" t="n">
         <v>0.005028924513002797</v>
@@ -4371,13 +4362,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>289</v>
+      </c>
+      <c r="B212" t="s">
         <v>292</v>
       </c>
-      <c r="B212" t="s">
-        <v>293</v>
-      </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D212" t="n">
         <v>0.0048862568247259874</v>
@@ -4385,13 +4376,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B213" t="s">
         <v>294</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D213" t="n">
         <v>0.004744760878536092</v>
@@ -4399,13 +4390,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
+        <v>293</v>
+      </c>
+      <c r="B214" t="s">
         <v>295</v>
       </c>
-      <c r="B214" t="s">
-        <v>296</v>
-      </c>
       <c r="C214" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D214" t="n">
         <v>0.0046045716704199435</v>
@@ -4413,13 +4404,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D215" t="n">
         <v>0.004465817908568814</v>
@@ -4427,13 +4418,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B216" t="s">
         <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D216" t="n">
         <v>0.004328621891963369</v>
@@ -4441,13 +4432,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
+        <v>297</v>
+      </c>
+      <c r="B217" t="s">
         <v>299</v>
       </c>
-      <c r="B217" t="s">
-        <v>300</v>
-      </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D217" t="n">
         <v>0.004193099411690104</v>
@@ -4455,13 +4446,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B218" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D218" t="n">
         <v>0.004059359674668417</v>
@@ -4469,13 +4460,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B219" t="s">
         <v>302</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D219" t="n">
         <v>0.003927505249363361</v>
@@ -4483,13 +4474,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
+        <v>301</v>
+      </c>
+      <c r="B220" t="s">
         <v>303</v>
       </c>
-      <c r="B220" t="s">
-        <v>304</v>
-      </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D220" t="n">
         <v>0.003797632032993159</v>
@@ -4497,13 +4488,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B221" t="s">
         <v>305</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
         <v>0.003669829239668465</v>
@@ -4511,10 +4502,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
+        <v>304</v>
+      </c>
+      <c r="B222" t="s">
         <v>306</v>
-      </c>
-      <c r="B222" t="s">
-        <v>307</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -4525,10 +4516,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B223" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -4539,13 +4530,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B224" t="s">
         <v>309</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D224" t="n">
         <v>0.003299635605772455</v>
@@ -4553,13 +4544,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
+        <v>308</v>
+      </c>
+      <c r="B225" t="s">
         <v>310</v>
       </c>
-      <c r="B225" t="s">
-        <v>311</v>
-      </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D225" t="n">
         <v>0.003180873684508312</v>
@@ -4567,13 +4558,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B226" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D226" t="n">
         <v>0.003064528974470182</v>
@@ -4581,13 +4572,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B227" t="s">
         <v>313</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D227" t="n">
         <v>0.00295065142607126</v>
@@ -4595,13 +4586,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
+        <v>312</v>
+      </c>
+      <c r="B228" t="s">
         <v>314</v>
       </c>
-      <c r="B228" t="s">
-        <v>315</v>
-      </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D228" t="n">
         <v>0.0028392847486818362</v>
@@ -4609,13 +4600,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B229" t="s">
         <v>316</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D229" t="n">
         <v>0.002730466538602261</v>
@@ -4623,13 +4614,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B230" t="s">
         <v>317</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D230" t="n">
         <v>0.002624228420393615</v>
@@ -4643,7 +4634,7 @@
         <v>319</v>
       </c>
       <c r="C231" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D231" t="n">
         <v>0.0025205962005754867</v>
@@ -4657,7 +4648,7 @@
         <v>320</v>
       </c>
       <c r="C232" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D232" t="n">
         <v>0.002419590032659069</v>
@@ -4665,13 +4656,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B233" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C233" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D233" t="n">
         <v>0.0023212245924948416</v>
@@ -4679,13 +4670,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B234" t="s">
         <v>323</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D234" t="n">
         <v>0.0022255092628960665</v>
@@ -4693,13 +4684,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B235" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D235" t="n">
         <v>0.0021324483265143315</v>
@@ -4707,13 +4698,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D236" t="n">
         <v>0.0020420411659433507</v>
@@ -4721,13 +4712,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B237" t="s">
         <v>327</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D237" t="n">
         <v>0.00195428247004098</v>
@@ -4735,13 +4726,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="B238" t="s">
         <v>328</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D238" t="n">
         <v>0.0018691624454764064</v>
@@ -4749,13 +4740,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="B239" t="s">
         <v>329</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D239" t="n">
         <v>0.001786667032529561</v>
@@ -4763,13 +4754,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>265</v>
+      </c>
+      <c r="B240" t="s">
         <v>330</v>
       </c>
-      <c r="B240" t="s">
-        <v>331</v>
-      </c>
       <c r="C240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D240" t="n">
         <v>0.001706778124191087</v>
@@ -4777,13 +4768,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B241" t="s">
         <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D241" t="n">
         <v>0.0016294737876420967</v>
@@ -4791,13 +4782,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B242" t="s">
         <v>333</v>
       </c>
       <c r="C242" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
         <v>0.0015547284872225453</v>
@@ -4805,13 +4796,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
+        <v>331</v>
+      </c>
+      <c r="B243" t="s">
         <v>334</v>
       </c>
-      <c r="B243" t="s">
-        <v>335</v>
-      </c>
       <c r="C243" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D243" t="n">
         <v>0.001482513308027112</v>
@@ -4819,13 +4810,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B244" t="s">
         <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D244" t="n">
         <v>0.0014127961793104424</v>
@@ -4833,13 +4824,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B245" t="s">
         <v>337</v>
       </c>
       <c r="C245" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D245" t="n">
         <v>0.001345542096913635</v>
@@ -4847,13 +4838,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
+        <v>335</v>
+      </c>
+      <c r="B246" t="s">
         <v>338</v>
       </c>
-      <c r="B246" t="s">
-        <v>339</v>
-      </c>
       <c r="C246" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D246" t="n">
         <v>0.0012807133439713715</v>
@@ -4861,13 +4852,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B247" t="s">
         <v>340</v>
       </c>
       <c r="C247" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D247" t="n">
         <v>0.0012182697091960397</v>
@@ -4875,13 +4866,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B248" t="s">
         <v>341</v>
       </c>
       <c r="C248" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D248" t="n">
         <v>0.0011581687020802353</v>
@@ -4889,13 +4880,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>339</v>
+      </c>
+      <c r="B249" t="s">
         <v>342</v>
       </c>
-      <c r="B249" t="s">
-        <v>343</v>
-      </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D249" t="n">
         <v>0.0011003657644037615</v>
@@ -4903,13 +4894,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B250" t="s">
         <v>344</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D250" t="n">
         <v>0.0010448144774759527</v>
@@ -4917,13 +4908,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B251" t="s">
         <v>345</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D251" t="n">
         <v>9.914667645886284E-4</v>
@@ -4931,13 +4922,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
+        <v>343</v>
+      </c>
+      <c r="B252" t="s">
         <v>346</v>
       </c>
-      <c r="B252" t="s">
-        <v>347</v>
-      </c>
       <c r="C252" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D252" t="n">
         <v>9.4027308820222E-4</v>
@@ -4945,13 +4936,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B253" t="s">
         <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D253" t="n">
         <v>8.911826414325676E-4</v>
@@ -4959,13 +4950,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B254" t="s">
         <v>349</v>
       </c>
       <c r="C254" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D254" t="n">
         <v>8.441435334519565E-4</v>
@@ -4973,13 +4964,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
+        <v>347</v>
+      </c>
+      <c r="B255" t="s">
         <v>350</v>
       </c>
-      <c r="B255" t="s">
-        <v>351</v>
-      </c>
       <c r="C255" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D255" t="n">
         <v>7.991029684615656E-4</v>
@@ -4987,13 +4978,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B256" t="s">
         <v>352</v>
       </c>
       <c r="C256" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D256" t="n">
         <v>7.560074179392348E-4</v>
@@ -5001,13 +4992,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B257" t="s">
         <v>353</v>
       </c>
       <c r="C257" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D257" t="n">
         <v>7.148027859064602E-4</v>
@@ -5015,13 +5006,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
+        <v>351</v>
+      </c>
+      <c r="B258" t="s">
         <v>354</v>
       </c>
-      <c r="B258" t="s">
-        <v>355</v>
-      </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D258" t="n">
         <v>6.754345670046159E-4</v>
@@ -5029,13 +5020,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B259" t="s">
         <v>356</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D259" t="n">
         <v>6.378479972081845E-4</v>
@@ -5043,13 +5034,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
+        <v>355</v>
+      </c>
+      <c r="B260" t="s">
         <v>357</v>
       </c>
-      <c r="B260" t="s">
-        <v>358</v>
-      </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D260" t="n">
         <v>6.019881970437992E-4</v>
@@ -5057,13 +5048,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B261" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D261" t="n">
         <v>5.678003072227041E-4</v>
@@ -5071,13 +5062,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B262" t="s">
         <v>360</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D262" t="n">
         <v>5.352296166285641E-4</v>
@@ -5085,13 +5076,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
+        <v>359</v>
+      </c>
+      <c r="B263" t="s">
         <v>361</v>
       </c>
-      <c r="B263" t="s">
-        <v>362</v>
-      </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D263" t="n">
         <v>5.042216826400938E-4</v>
@@ -5099,13 +5090,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B264" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D264" t="n">
         <v>4.7472244379676096E-4</v>
@@ -5113,13 +5104,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B265" t="s">
         <v>364</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D265" t="n">
         <v>4.466783248521138E-4</v>
@@ -5133,7 +5124,7 @@
         <v>366</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D266" t="n">
         <v>4.2003633428263753E-4</v>
@@ -5147,7 +5138,7 @@
         <v>367</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D267" t="n">
         <v>3.947441543507447E-4</v>
@@ -5161,7 +5152,7 @@
         <v>368</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D268" t="n">
         <v>3.7075022384453274E-4</v>
@@ -5175,7 +5166,7 @@
         <v>370</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D269" t="n">
         <v>3.4800381363824656E-4</v>
@@ -5183,13 +5174,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
+        <v>369</v>
+      </c>
+      <c r="B270" t="s">
         <v>371</v>
       </c>
-      <c r="B270" t="s">
-        <v>372</v>
-      </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D270" t="n">
         <v>3.264550952407448E-4</v>
@@ -5197,13 +5188,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B271" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C271" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D271" t="n">
         <v>3.0605520251580226E-4</v>
@@ -5211,13 +5202,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B272" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C272" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D272" t="n">
         <v>2.8675628677612324E-4</v>
@@ -5225,13 +5216,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
+        <v>373</v>
+      </c>
+      <c r="B273" t="s">
         <v>375</v>
       </c>
-      <c r="B273" t="s">
-        <v>377</v>
-      </c>
       <c r="C273" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D273" t="n">
         <v>2.685115654673582E-4</v>
@@ -5239,13 +5230,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B274" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C274" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D274" t="n">
         <v>2.5127536467106117E-4</v>
@@ -5253,13 +5244,13 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B275" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C275" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D275" t="n">
         <v>2.350031556671386E-4</v>
@@ -5270,10 +5261,10 @@
         <v>379</v>
       </c>
       <c r="B276" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D276" t="n">
         <v>2.196515858046309E-4</v>
@@ -5284,10 +5275,10 @@
         <v>379</v>
       </c>
       <c r="B277" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D277" t="n">
         <v>2.051785039379095E-4</v>
@@ -5295,10 +5286,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
+        <v>382</v>
+      </c>
+      <c r="B278" t="s">
         <v>383</v>
-      </c>
-      <c r="B278" t="s">
-        <v>384</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -5309,10 +5300,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B279" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
@@ -5323,10 +5314,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B280" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
@@ -5337,13 +5328,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
+        <v>386</v>
+      </c>
+      <c r="B281" t="s">
         <v>387</v>
       </c>
-      <c r="B281" t="s">
-        <v>388</v>
-      </c>
       <c r="C281" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D281" t="n">
         <v>1.552710857751409E-4</v>
@@ -5351,13 +5342,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B282" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C282" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D282" t="n">
         <v>1.446013806885721E-4</v>
@@ -5365,13 +5356,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B283" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C283" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D283" t="n">
         <v>1.3458329481400716E-4</v>
@@ -5379,13 +5370,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
+        <v>390</v>
+      </c>
+      <c r="B284" t="s">
         <v>391</v>
       </c>
-      <c r="B284" t="s">
-        <v>392</v>
-      </c>
       <c r="C284" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D284" t="n">
         <v>1.251833990880023E-4</v>
@@ -5393,10 +5384,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B285" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
@@ -5407,10 +5398,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
+        <v>390</v>
+      </c>
+      <c r="B286" t="s">
         <v>393</v>
-      </c>
-      <c r="B286" t="s">
-        <v>395</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
@@ -5421,10 +5412,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B287" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
@@ -5438,10 +5429,10 @@
         <v>396</v>
       </c>
       <c r="B288" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D288" t="n">
         <v>9.314032335766488E-5</v>
@@ -5449,13 +5440,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B289" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D289" t="n">
         <v>8.63729312918257E-5</v>
@@ -5463,13 +5454,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
+        <v>396</v>
+      </c>
+      <c r="B290" t="s">
         <v>399</v>
       </c>
-      <c r="B290" t="s">
-        <v>401</v>
-      </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D290" t="n">
         <v>8.004872943049072E-5</v>
@@ -5477,13 +5468,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B291" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C291" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D291" t="n">
         <v>7.414264821313911E-5</v>
@@ -5491,13 +5482,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
+        <v>400</v>
+      </c>
+      <c r="B292" t="s">
         <v>402</v>
       </c>
-      <c r="B292" t="s">
-        <v>404</v>
-      </c>
       <c r="C292" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D292" t="n">
         <v>6.863072897325088E-5</v>
@@ -5505,13 +5496,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B293" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C293" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D293" t="n">
         <v>6.349009786186198E-5</v>
@@ -5519,10 +5510,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B294" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
@@ -5533,10 +5524,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
+        <v>404</v>
+      </c>
+      <c r="B295" t="s">
         <v>406</v>
-      </c>
-      <c r="B295" t="s">
-        <v>408</v>
       </c>
       <c r="C295" t="s">
         <v>6</v>
@@ -5547,10 +5538,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B296" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
@@ -5561,13 +5552,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B297" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D297" t="n">
         <v>4.621938932571296E-5</v>
@@ -5575,13 +5566,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
+        <v>408</v>
+      </c>
+      <c r="B298" t="s">
         <v>410</v>
       </c>
-      <c r="B298" t="s">
-        <v>412</v>
-      </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D298" t="n">
         <v>4.262809468069179E-5</v>
@@ -5589,13 +5580,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B299" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D299" t="n">
         <v>3.9292033637374206E-5</v>
@@ -5603,13 +5594,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B300" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D300" t="n">
         <v>3.619511488419188E-5</v>
@@ -5617,13 +5608,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
+        <v>412</v>
+      </c>
+      <c r="B301" t="s">
         <v>414</v>
       </c>
-      <c r="B301" t="s">
-        <v>416</v>
-      </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D301" t="n">
         <v>3.33220934872504E-5</v>
@@ -5631,13 +5622,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B302" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D302" t="n">
         <v>3.0658539648508256E-5</v>
@@ -5645,13 +5636,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B303" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D303" t="n">
         <v>2.819080756537274E-5</v>
@@ -5659,13 +5650,13 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B304" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C304" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D304" t="n">
         <v>2.590600449226335E-5</v>
@@ -5673,13 +5664,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
+        <v>418</v>
+      </c>
+      <c r="B305" t="s">
         <v>420</v>
       </c>
-      <c r="B305" t="s">
-        <v>422</v>
-      </c>
       <c r="C305" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D305" t="n">
         <v>2.3791960095851023E-5</v>
@@ -5687,13 +5678,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B306" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C306" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D306" t="n">
         <v>2.1837196187108715E-5</v>
@@ -5701,13 +5692,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
+        <v>421</v>
+      </c>
+      <c r="B307" t="s">
         <v>423</v>
       </c>
-      <c r="B307" t="s">
-        <v>425</v>
-      </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D307" t="n">
         <v>2.003089690510987E-5</v>
@@ -5715,13 +5706,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B308" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C308" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D308" t="n">
         <v>1.8362879419548344E-5</v>
@@ -5729,13 +5720,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B309" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D309" t="n">
         <v>1.682356521137942E-5</v>
@@ -5743,13 +5734,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B310" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C310" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D310" t="n">
         <v>1.5403951983728218E-5</v>
@@ -5757,13 +5748,13 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B311" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C311" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D311" t="n">
         <v>1.4095586248347115E-5</v>
@@ -5771,10 +5762,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B312" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
@@ -5785,10 +5776,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B313" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
@@ -5799,10 +5790,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
+        <v>429</v>
+      </c>
+      <c r="B314" t="s">
         <v>432</v>
-      </c>
-      <c r="B314" t="s">
-        <v>435</v>
       </c>
       <c r="C314" t="s">
         <v>6</v>
@@ -5813,13 +5804,13 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B315" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D315" t="n">
         <v>9.823262729393502E-6</v>
@@ -5827,13 +5818,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B316" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D316" t="n">
         <v>8.961714017816536E-6</v>
@@ -5841,13 +5832,13 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
+        <v>433</v>
+      </c>
+      <c r="B317" t="s">
         <v>436</v>
       </c>
-      <c r="B317" t="s">
-        <v>439</v>
-      </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D317" t="n">
         <v>8.170775324941725E-6</v>
@@ -5855,10 +5846,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B318" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
@@ -5869,10 +5860,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B319" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C319" t="s">
         <v>6</v>
@@ -5883,10 +5874,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>437</v>
+      </c>
+      <c r="B320" t="s">
         <v>440</v>
-      </c>
-      <c r="B320" t="s">
-        <v>443</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
@@ -5897,13 +5888,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="B321" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C321" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D321" t="n">
         <v>5.6120391022571105E-6</v>
@@ -5911,13 +5902,13 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="B322" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C322" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D322" t="n">
         <v>5.101257076749188E-6</v>
@@ -5925,13 +5916,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="B323" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C323" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D323" t="n">
         <v>4.634155462039546E-6</v>
@@ -5939,13 +5930,13 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B324" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C324" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D324" t="n">
         <v>4.2072745618769255E-6</v>
@@ -5953,13 +5944,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B325" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C325" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D325" t="n">
         <v>3.817402704218463E-6</v>
@@ -5967,13 +5958,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
+        <v>444</v>
+      </c>
+      <c r="B326" t="s">
         <v>447</v>
       </c>
-      <c r="B326" t="s">
-        <v>450</v>
-      </c>
       <c r="C326" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D326" t="n">
         <v>3.4615608146364626E-6</v>
